--- a/Other data/Coal phase out announcements.xlsx
+++ b/Other data/Coal phase out announcements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive - London School of Economics\Documents\LSE\GY489_Dissertation\LETS GO\Dissertation-Code-Data\Other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8220D336-348F-4453-991F-5879A4EB769A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFAD611-C0CA-4113-B4BC-6EFDB2C6AF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,29 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$T$23</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t>Country</t>
   </si>
@@ -229,6 +239,72 @@
   </si>
   <si>
     <t>coalition talks</t>
+  </si>
+  <si>
+    <t>other relevant dates?</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>2025 to 2040; announcement</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>announcement; not formal; many have to close bc of EU regulations anyway; same day as Germany EUA cancllations</t>
+  </si>
+  <si>
+    <t>proposal for commission</t>
+  </si>
+  <si>
+    <t>climate plan</t>
+  </si>
+  <si>
+    <t>joins PPCA</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>doc sent to EU; already mentioned a couple of weeks ago</t>
+  </si>
+  <si>
+    <t>adopted</t>
+  </si>
+  <si>
+    <t>2 years earlier, date uncertain</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>announced to business leaders; date unclear</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>one region joined the PPCA</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>commission backs it</t>
+  </si>
+  <si>
+    <t>new gov supports it</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
   </si>
 </sst>
 </file>
@@ -252,7 +328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +347,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -284,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -300,6 +382,8 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,13 +664,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T14"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -663,7 +748,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="9">
         <v>42326</v>
       </c>
       <c r="C2" s="2">
@@ -720,7 +805,7 @@
       <c r="F3" s="2">
         <v>5.8</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="9">
         <v>42689</v>
       </c>
       <c r="H3" s="2">
@@ -774,7 +859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -824,7 +909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
@@ -870,7 +955,7 @@
       <c r="F7" s="2">
         <v>6.3</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="9">
         <v>43018</v>
       </c>
       <c r="H7" s="2">
@@ -889,7 +974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
@@ -909,7 +994,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>45</v>
       </c>
@@ -929,7 +1014,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>48</v>
       </c>
@@ -941,7 +1026,7 @@
       <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>43731</v>
       </c>
       <c r="C11" s="2">
@@ -975,7 +1060,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>57</v>
       </c>
@@ -1004,7 +1089,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>61</v>
       </c>
@@ -1034,7 +1119,7 @@
       <c r="F14" s="2">
         <v>47.6</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="9">
         <v>43491</v>
       </c>
       <c r="H14" s="2">
@@ -1058,9 +1143,220 @@
       <c r="O14" t="s">
         <v>66</v>
       </c>
+      <c r="S14" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43885</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2025</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="9">
+        <v>43419</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2030</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="G16" s="10">
+        <v>43518</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2030</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="1">
+        <v>43850</v>
+      </c>
+      <c r="K16">
+        <v>2030</v>
+      </c>
+      <c r="L16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="1">
+        <v>44377</v>
+      </c>
+      <c r="O16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44377</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44377</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="9">
+        <v>44342</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2032</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>44350</v>
+      </c>
+      <c r="H19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="1">
+        <v>44712</v>
+      </c>
+      <c r="K19">
+        <v>2030</v>
+      </c>
+      <c r="L19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="9">
+        <v>44480</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2040</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="7">
+        <v>44169</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2038</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="G22" s="7">
+        <v>44568</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2033</v>
+      </c>
+      <c r="I22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T23" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="maybe"/>
+        <filter val="yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Other data/Coal phase out announcements.xlsx
+++ b/Other data/Coal phase out announcements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive - London School of Economics\Documents\LSE\GY489_Dissertation\LETS GO\Dissertation-Code-Data\Other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFAD611-C0CA-4113-B4BC-6EFDB2C6AF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D344B222-7128-48EE-9F37-8187B6E30D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="21585" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -671,7 +671,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -745,118 +745,139 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="9">
-        <v>42326</v>
+      <c r="A2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43358</v>
       </c>
       <c r="C2" s="2">
-        <v>2025</v>
+        <v>2038</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="2">
-        <v>21.2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>43105</v>
-      </c>
-      <c r="H2">
-        <v>2025</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
+        <v>47.6</v>
+      </c>
+      <c r="G2" s="9">
+        <v>43491</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2038</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="J2" s="1">
-        <v>44179</v>
-      </c>
-      <c r="K2">
-        <v>2024</v>
+        <v>43846</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="1"/>
-      <c r="S2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" t="s">
-        <v>21</v>
+        <v>64</v>
+      </c>
+      <c r="M2" s="1">
+        <v>44484</v>
+      </c>
+      <c r="N2">
+        <v>2030</v>
+      </c>
+      <c r="O2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42486</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="9">
+        <v>42326</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2025</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="G3" s="9">
-        <v>42689</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2023</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>21.2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>43105</v>
+      </c>
+      <c r="H3">
+        <v>2025</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="1">
-        <v>42922</v>
-      </c>
-      <c r="K3" s="2">
-        <v>2022</v>
+        <v>44179</v>
+      </c>
+      <c r="K3">
+        <v>2024</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="S3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="T3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="7">
-        <v>43032</v>
+      <c r="A4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="9">
+        <v>43419</v>
       </c>
       <c r="C4" s="2">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="G4" s="1">
-        <v>43731</v>
+        <v>10.5</v>
+      </c>
+      <c r="G4" s="10">
+        <v>43518</v>
       </c>
       <c r="H4" s="2">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" t="s">
-        <v>21</v>
+        <v>72</v>
+      </c>
+      <c r="J4" s="1">
+        <v>43850</v>
+      </c>
+      <c r="K4">
+        <v>2030</v>
+      </c>
+      <c r="L4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="1">
+        <v>44377</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
@@ -940,38 +961,34 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1">
-        <v>42636</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="7">
+        <v>43032</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2025</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="G7" s="9">
-        <v>43018</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G7" s="1">
+        <v>43731</v>
       </c>
       <c r="H7" s="2">
-        <v>2030</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="1">
-        <v>43238</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2029</v>
-      </c>
-      <c r="L7" t="s">
-        <v>42</v>
+        <v>2025</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
@@ -1024,40 +1041,31 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="9">
-        <v>43731</v>
+        <v>85</v>
+      </c>
+      <c r="B11" s="7">
+        <v>44169</v>
       </c>
       <c r="C11" s="2">
-        <v>2028</v>
+        <v>2038</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G11" s="1">
-        <v>44462</v>
+        <v>8.5</v>
+      </c>
+      <c r="G11" s="7">
+        <v>44568</v>
       </c>
       <c r="H11" s="2">
-        <v>2025</v>
+        <v>2033</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="1">
-        <v>44657</v>
-      </c>
-      <c r="K11">
-        <v>2028</v>
-      </c>
-      <c r="L11" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
@@ -1101,50 +1109,39 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
-        <v>62</v>
+      <c r="A14" t="s">
+        <v>39</v>
       </c>
       <c r="B14" s="1">
-        <v>43358</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2038</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>42636</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" t="s">
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2">
-        <v>47.6</v>
+        <v>6.3</v>
       </c>
       <c r="G14" s="9">
-        <v>43491</v>
+        <v>43018</v>
       </c>
       <c r="H14" s="2">
-        <v>2038</v>
+        <v>2030</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="J14" s="1">
-        <v>43846</v>
+        <v>43238</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2029</v>
       </c>
       <c r="L14" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="1">
-        <v>44484</v>
-      </c>
-      <c r="N14">
-        <v>2030</v>
-      </c>
-      <c r="O14" t="s">
-        <v>66</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
@@ -1168,47 +1165,41 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="9">
-        <v>43419</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2030</v>
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>42486</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="G16" s="10">
-        <v>43518</v>
+        <v>5.8</v>
+      </c>
+      <c r="G16" s="9">
+        <v>42689</v>
       </c>
       <c r="H16" s="2">
-        <v>2030</v>
-      </c>
-      <c r="I16" t="s">
-        <v>72</v>
+        <v>2023</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="J16" s="1">
-        <v>43850</v>
-      </c>
-      <c r="K16">
-        <v>2030</v>
+        <v>42922</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2022</v>
       </c>
       <c r="L16" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" s="1">
-        <v>44377</v>
-      </c>
-      <c r="O16" t="s">
-        <v>74</v>
+        <v>18</v>
+      </c>
+      <c r="T16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
@@ -1310,31 +1301,40 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="7">
-        <v>44169</v>
+        <v>54</v>
+      </c>
+      <c r="B22" s="9">
+        <v>43731</v>
       </c>
       <c r="C22" s="2">
-        <v>2038</v>
+        <v>2028</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="G22" s="7">
-        <v>44568</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G22" s="1">
+        <v>44462</v>
       </c>
       <c r="H22" s="2">
-        <v>2033</v>
+        <v>2025</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
+        <v>55</v>
+      </c>
+      <c r="J22" s="1">
+        <v>44657</v>
+      </c>
+      <c r="K22">
+        <v>2028</v>
+      </c>
+      <c r="L22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
@@ -1356,6 +1356,9 @@
         <filter val="yes"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T22">
+      <sortCondition descending="1" ref="F1:F23"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Other data/Coal phase out announcements.xlsx
+++ b/Other data/Coal phase out announcements.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive - London School of Economics\Documents\LSE\GY489_Dissertation\LETS GO\Dissertation-Code-Data\Other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D344B222-7128-48EE-9F37-8187B6E30D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58A6F54-FFDF-46D3-B740-54E28B8FC142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="21585" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$T$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$W$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="98">
   <si>
     <t>Country</t>
   </si>
@@ -106,9 +106,6 @@
     <t>no reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">month before first announcement already rumours </t>
-  </si>
-  <si>
     <t>gov proposal</t>
   </si>
   <si>
@@ -305,6 +302,36 @@
   </si>
   <si>
     <t>Slovenia</t>
+  </si>
+  <si>
+    <t>spiegel leak?</t>
+  </si>
+  <si>
+    <t>Announce6</t>
+  </si>
+  <si>
+    <t>Deadline6</t>
+  </si>
+  <si>
+    <t>Desc6</t>
+  </si>
+  <si>
+    <t>agreed</t>
+  </si>
+  <si>
+    <t>confirmed</t>
+  </si>
+  <si>
+    <t>leak</t>
+  </si>
+  <si>
+    <t>2018 mostly?</t>
+  </si>
+  <si>
+    <t>minister announced?</t>
+  </si>
+  <si>
+    <t>2025?</t>
   </si>
 </sst>
 </file>
@@ -328,7 +355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,12 +371,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,10 +401,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,24 +686,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="10.59765625" customWidth="1"/>
     <col min="3" max="6" width="10.59765625" style="2" customWidth="1"/>
-    <col min="7" max="18" width="10.59765625" customWidth="1"/>
-    <col min="19" max="19" width="47.9296875" style="6" customWidth="1"/>
+    <col min="7" max="21" width="10.59765625" customWidth="1"/>
+    <col min="22" max="22" width="47.9296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -696,7 +717,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>10</v>
@@ -720,63 +741,72 @@
         <v>12</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="P1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:23" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="8">
         <v>43358</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="9">
         <v>2038</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="D2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="9">
         <v>47.6</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>43491</v>
       </c>
       <c r="H2" s="2">
         <v>2038</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J2" s="1">
         <v>43846</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M2" s="1">
         <v>44484</v>
@@ -785,32 +815,47 @@
         <v>2030</v>
       </c>
       <c r="O2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="1">
+        <v>43427</v>
+      </c>
+      <c r="R2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="1">
+        <v>44523</v>
+      </c>
+      <c r="T2">
+        <v>2030</v>
+      </c>
+      <c r="U2" t="s">
+        <v>92</v>
+      </c>
+      <c r="V2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>42326</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="9">
         <v>2025</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="9">
         <v>21.2</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="8">
         <v>43105</v>
       </c>
       <c r="H3">
@@ -828,41 +873,56 @@
       <c r="L3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="S3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="M3" s="1">
+        <v>44377</v>
+      </c>
+      <c r="N3">
+        <v>2024</v>
+      </c>
+      <c r="O3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="1">
+        <v>42283</v>
+      </c>
+      <c r="Q3">
+        <v>2023</v>
+      </c>
+      <c r="R3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="8">
+        <v>43419</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2030</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="9">
-        <v>43419</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2030</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="9">
         <v>10.5</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>43518</v>
       </c>
       <c r="H4" s="2">
         <v>2030</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" s="1">
         <v>43850</v>
@@ -871,27 +931,33 @@
         <v>2030</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M4" s="1">
         <v>44377</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
-        <v>25</v>
+        <v>73</v>
+      </c>
+      <c r="P4" s="1">
+        <v>43399</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <v>42697</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2">
         <v>2.6</v>
@@ -903,7 +969,7 @@
         <v>2030</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="1">
         <v>43200</v>
@@ -912,13 +978,13 @@
         <v>2029</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5" s="1">
         <v>43391</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P5" s="1">
         <v>43523</v>
@@ -927,12 +993,12 @@
         <v>2029</v>
       </c>
       <c r="R5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="1">
         <v>41941</v>
@@ -941,10 +1007,10 @@
         <v>2025</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2">
         <v>3.9</v>
@@ -956,47 +1022,47 @@
         <v>2030</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>43032</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="9">
         <v>2025</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="D7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="9">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="8">
         <v>43731</v>
       </c>
       <c r="H7" s="2">
         <v>2025</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="T7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
-        <v>43</v>
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
@@ -1008,12 +1074,12 @@
         <v>2030</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="B9" s="1">
         <v>43169</v>
@@ -1022,55 +1088,55 @@
         <v>2025</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="8" t="s">
-        <v>48</v>
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="8">
+        <v>44169</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2038</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="7">
-        <v>44169</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2038</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="9">
         <v>8.5</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
         <v>44568</v>
       </c>
       <c r="H11" s="2">
         <v>2033</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="8" t="s">
-        <v>57</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B12" s="1">
         <v>43424</v>
@@ -1079,10 +1145,10 @@
         <v>2030</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2">
         <v>1.1000000000000001</v>
@@ -1094,45 +1160,45 @@
         <v>2030</v>
       </c>
       <c r="I12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="8">
         <v>42636</v>
       </c>
-      <c r="C14"/>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="9">
         <v>6.3</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>43018</v>
       </c>
       <c r="H14" s="2">
         <v>2030</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="1">
         <v>43238</v>
@@ -1141,12 +1207,12 @@
         <v>2029</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="8" t="s">
-        <v>68</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B15" s="1">
         <v>43885</v>
@@ -1155,33 +1221,34 @@
         <v>2025</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="8">
         <v>42486</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="9">
         <v>5.8</v>
       </c>
-      <c r="G16" s="9">
-        <v>42689</v>
+      <c r="G16" s="8">
+        <v>42690</v>
       </c>
       <c r="H16" s="2">
         <v>2023</v>
@@ -1198,33 +1265,33 @@
       <c r="L16" t="s">
         <v>18</v>
       </c>
-      <c r="T16" t="s">
+      <c r="W16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="8" t="s">
-        <v>75</v>
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B17" s="1">
         <v>44377</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="8" t="s">
-        <v>76</v>
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="B18" s="1">
         <v>44377</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="2">
         <v>0.3</v>
@@ -1233,30 +1300,30 @@
         <v>44502</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="8">
+        <v>44342</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2032</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="9">
-        <v>44342</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2032</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="9">
+        <v>5</v>
+      </c>
+      <c r="G19" s="8">
+        <v>44350</v>
+      </c>
+      <c r="H19" t="s">
         <v>78</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="2">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1">
-        <v>44350</v>
-      </c>
-      <c r="H19" t="s">
-        <v>79</v>
       </c>
       <c r="J19" s="1">
         <v>44712</v>
@@ -1265,67 +1332,74 @@
         <v>2030</v>
       </c>
       <c r="L19" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="1">
+        <v>44303</v>
+      </c>
+      <c r="N19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
+      <c r="B20" s="8">
+        <v>44480</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2040</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="9">
-        <v>44480</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2040</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="9">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
+      <c r="E21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V21" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="S21" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>43731</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="9">
         <v>2028</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="D22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="8">
         <v>44462</v>
       </c>
       <c r="H22" s="2">
         <v>2025</v>
       </c>
       <c r="I22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J22" s="1">
         <v>44657</v>
@@ -1334,29 +1408,35 @@
         <v>2028</v>
       </c>
       <c r="L22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="8" t="s">
-        <v>88</v>
+        <v>55</v>
+      </c>
+      <c r="M22" s="1">
+        <v>44312</v>
+      </c>
+      <c r="N22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T23" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:W23" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="maybe"/>
         <filter val="yes"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T22">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W22">
       <sortCondition descending="1" ref="F1:F23"/>
     </sortState>
   </autoFilter>

--- a/Other data/Coal phase out announcements.xlsx
+++ b/Other data/Coal phase out announcements.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive - London School of Economics\Documents\LSE\GY489_Dissertation\LETS GO\Dissertation-Code-Data\Other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58A6F54-FFDF-46D3-B740-54E28B8FC142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035FED13-31FC-4551-8DDE-AF6C8C75A1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$P$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$W$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="155">
   <si>
     <t>Country</t>
   </si>
@@ -332,13 +334,208 @@
   </si>
   <si>
     <t>2025?</t>
+  </si>
+  <si>
+    <t>2035-2040</t>
+  </si>
+  <si>
+    <t>teased</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>What happened?</t>
+  </si>
+  <si>
+    <t>Phase-out deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Announcement? Legally binding? </t>
+  </si>
+  <si>
+    <t>Cancellation mechanism?</t>
+  </si>
+  <si>
+    <t>Description/Details</t>
+  </si>
+  <si>
+    <t>Confounding Events</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> www.google.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Main event?</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Coal in mix in 2016?</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Analyze?</t>
+  </si>
+  <si>
+    <t>Coal phase-out?</t>
+  </si>
+  <si>
+    <t>phase-out not government driven</t>
+  </si>
+  <si>
+    <t>Capacity in that year (GW)</t>
+  </si>
+  <si>
+    <t>Emissions in that year (Mt)</t>
+  </si>
+  <si>
+    <t>• https://carbon-pulse.com/141041/</t>
+  </si>
+  <si>
+    <t>2035, 2038 or 2040</t>
+  </si>
+  <si>
+    <t>Energy Minister Andrey Zhivkov announces that, reported by some media; PM Stefan Yanev says 2040?</t>
+  </si>
+  <si>
+    <t>• emissions 2020
+• date not 100% certain
+• no phase-out planned as of September 2021 (Euractiv 16 Sept 21)
+• Euractiv reports there was already a 2035 deadline?
+• was it all on the 11th? Or also 12th?</t>
+  </si>
+  <si>
+    <t>PM Stefan Yanev says 2040 is targeted for the EU submission tomorrow; 2038 still possible?</t>
+  </si>
+  <si>
+    <t>2040 (+2038?)</t>
+  </si>
+  <si>
+    <t>Czech expert group recommends 2038</t>
+  </si>
+  <si>
+    <t>New Czech government announces it wants to phase out coal by 2033</t>
+  </si>
+  <si>
+    <t>• emissions and capacity 2017
+• date unclear</t>
+  </si>
+  <si>
+    <t>• almost no reports 
+• COP22 tweet</t>
+  </si>
+  <si>
+    <t>Hollande announces to phase out coal by 2023</t>
+  </si>
+  <si>
+    <t>Canada announcement 21 Nov 2016; during COP22!</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>many countries joining the PPCA</t>
+  </si>
+  <si>
+    <t>2019 legislation?</t>
+  </si>
+  <si>
+    <t>Commission proposes phase-out by 2038</t>
+  </si>
+  <si>
+    <t>Spiegel leak 2038</t>
+  </si>
+  <si>
+    <t>Cabinet reaches agreement on 2038 phase-out</t>
+  </si>
+  <si>
+    <t>Parliament passes bill</t>
+  </si>
+  <si>
+    <t>New coalition agrees on 2030 exit</t>
+  </si>
+  <si>
+    <t>Habeck announces to put plants on stand-by</t>
+  </si>
+  <si>
+    <t>Germany to use more coal again</t>
+  </si>
+  <si>
+    <t>• als 23/11/21?</t>
+  </si>
+  <si>
+    <t>Mitsotakis announces 2028 at Climate Action Summit</t>
+  </si>
+  <si>
+    <t>climate action summit</t>
+  </si>
+  <si>
+    <t>Energy state secretary announces 2025 phase-out</t>
+  </si>
+  <si>
+    <t>• also report that it could be 2025? So previous announcement wasn't serious?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extension until 2028 again? </t>
+  </si>
+  <si>
+    <t>• it mentions previous 2023 target, what was that?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,8 +551,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +577,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -387,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -405,6 +614,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,19 +900,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
     <col min="3" max="6" width="10.59765625" style="2" customWidth="1"/>
     <col min="7" max="21" width="10.59765625" customWidth="1"/>
     <col min="22" max="22" width="47.9296875" style="6" customWidth="1"/>
@@ -793,7 +1008,7 @@
       <c r="F2" s="9">
         <v>47.6</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="11">
         <v>43491</v>
       </c>
       <c r="H2" s="2">
@@ -840,7 +1055,7 @@
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="11">
         <v>42326</v>
       </c>
       <c r="C3" s="9">
@@ -900,7 +1115,7 @@
       <c r="A4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="11">
         <v>43419</v>
       </c>
       <c r="C4" s="9">
@@ -946,501 +1161,1208 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1">
-        <v>42697</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="G5" s="1">
-        <v>42979</v>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="11">
+        <v>43032</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G5" s="8">
+        <v>43731</v>
       </c>
       <c r="H5" s="2">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1">
-        <v>43200</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2029</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="1">
-        <v>43391</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43523</v>
-      </c>
-      <c r="Q5">
-        <v>2029</v>
-      </c>
-      <c r="R5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1">
-        <v>41941</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2025</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="G6" s="1">
-        <v>43055</v>
+        <v>23</v>
+      </c>
+      <c r="W5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44169</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2038</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>44568</v>
       </c>
       <c r="H6" s="2">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B7" s="8">
-        <v>43032</v>
-      </c>
-      <c r="C7" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>22</v>
+        <v>42636</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="9">
+        <v>6.3</v>
+      </c>
+      <c r="G7" s="11">
+        <v>43018</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2030</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="1">
+        <v>43238</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2029</v>
+      </c>
+      <c r="L7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8">
+        <v>42486</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="9">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="G7" s="8">
-        <v>43731</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2025</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="F8" s="9">
+        <v>5.8</v>
+      </c>
+      <c r="G8" s="11">
+        <v>42689</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2023</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1">
+        <v>42922</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2022</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>43054</v>
-      </c>
-      <c r="H8" s="2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44342</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2032</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>44350</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="1">
+        <v>44712</v>
+      </c>
+      <c r="K9">
         <v>2030</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1">
-        <v>43169</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2025</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>52</v>
+      <c r="L9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="1">
+        <v>44303</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="1">
+        <v>44469</v>
+      </c>
+      <c r="Q9">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44480</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2040</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="9">
+        <v>5</v>
+      </c>
+      <c r="G10" s="8">
+        <v>44466</v>
+      </c>
+      <c r="H10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="8">
-        <v>44169</v>
+        <v>53</v>
+      </c>
+      <c r="B11" s="11">
+        <v>43731</v>
       </c>
       <c r="C11" s="9">
-        <v>2038</v>
+        <v>2028</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="9">
-        <v>8.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G11" s="8">
-        <v>44568</v>
+        <v>44462</v>
       </c>
       <c r="H11" s="2">
-        <v>2033</v>
+        <v>2025</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+      <c r="J11" s="1">
+        <v>44657</v>
+      </c>
+      <c r="K11">
+        <v>2028</v>
+      </c>
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="1">
+        <v>44312</v>
+      </c>
+      <c r="N11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1">
-        <v>43424</v>
+        <v>41941</v>
       </c>
       <c r="C12" s="2">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="2">
-        <v>1.1000000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="G12" s="1">
-        <v>43731</v>
+        <v>43055</v>
       </c>
       <c r="H12" s="2">
         <v>2030</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>60</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="1">
+        <v>42697</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="2">
-        <v>0.7</v>
+        <v>2.6</v>
+      </c>
+      <c r="G13" s="1">
+        <v>42979</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2030</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="1">
+        <v>43200</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2029</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="1">
+        <v>43391</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="1">
+        <v>43523</v>
+      </c>
+      <c r="Q13">
+        <v>2029</v>
+      </c>
+      <c r="R13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="8">
-        <v>42636</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="9">
-        <v>6.3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>43018</v>
+      <c r="A14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>43054</v>
       </c>
       <c r="H14" s="2">
         <v>2030</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="1">
-        <v>43238</v>
-      </c>
-      <c r="K14" s="2">
-        <v>2029</v>
-      </c>
-      <c r="L14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1">
-        <v>43885</v>
+        <v>43424</v>
       </c>
       <c r="C15" s="2">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F15" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>43731</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2030</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="8">
-        <v>42486</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="9">
-        <v>5.8</v>
-      </c>
-      <c r="G16" s="8">
-        <v>42690</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2023</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="1">
-        <v>42922</v>
-      </c>
-      <c r="K16" s="2">
-        <v>2022</v>
-      </c>
-      <c r="L16" t="s">
-        <v>18</v>
-      </c>
-      <c r="W16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44574</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2033</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1">
-        <v>44377</v>
+        <v>43169</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2025</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1">
-        <v>44377</v>
+        <v>43885</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2025</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F18" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44377</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="2">
         <v>0.3</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G20" s="1">
         <v>44502</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A19" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="8">
-        <v>44342</v>
-      </c>
-      <c r="C19" s="9">
-        <v>2032</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="9">
-        <v>5</v>
-      </c>
-      <c r="G19" s="8">
-        <v>44350</v>
-      </c>
-      <c r="H19" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="1">
-        <v>44712</v>
-      </c>
-      <c r="K19">
-        <v>2030</v>
-      </c>
-      <c r="L19" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" s="1">
-        <v>44303</v>
-      </c>
-      <c r="N19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A20" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="8">
-        <v>44480</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2040</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="9">
-        <v>5</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44377</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V21" s="6" t="s">
+      <c r="V23" s="6" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A22" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="8">
-        <v>43731</v>
-      </c>
-      <c r="C22" s="9">
-        <v>2028</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="9">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G22" s="8">
-        <v>44462</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2025</v>
-      </c>
-      <c r="I22" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="1">
-        <v>44657</v>
-      </c>
-      <c r="K22">
-        <v>2028</v>
-      </c>
-      <c r="L22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M22" s="1">
-        <v>44312</v>
-      </c>
-      <c r="N22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W23" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="maybe"/>
-        <filter val="yes"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W22">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W23">
       <sortCondition descending="1" ref="F1:F23"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D652218-3B78-4CB0-BA25-8DE344561C19}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:P42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.06640625" customWidth="1"/>
+    <col min="3" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="36.73046875" style="6" customWidth="1"/>
+    <col min="6" max="8" width="21.46484375" customWidth="1"/>
+    <col min="9" max="9" width="28.86328125" customWidth="1"/>
+    <col min="10" max="10" width="22.3984375" customWidth="1"/>
+    <col min="11" max="11" width="25.1328125" customWidth="1"/>
+    <col min="12" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="10.73046875" customWidth="1"/>
+    <col min="15" max="15" width="49.73046875" customWidth="1"/>
+    <col min="16" max="16" width="57.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3"/>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44480</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44483</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>0.3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7"/>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="8">
+        <v>44568</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44169</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9">
+        <v>8.5</v>
+      </c>
+      <c r="H9">
+        <v>35</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>2.5</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11"/>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>2.6</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>42689</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14">
+        <v>2023</v>
+      </c>
+      <c r="G14">
+        <v>3.5</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43491</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15">
+        <v>2038</v>
+      </c>
+      <c r="G15">
+        <v>47.6</v>
+      </c>
+      <c r="H15">
+        <v>175</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43846</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16">
+        <v>2038</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44015</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17">
+        <v>2038</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44484</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18">
+        <v>2030</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43357</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19">
+        <v>2038</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44750</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44705</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44312</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22">
+        <v>2025</v>
+      </c>
+      <c r="O22" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44657</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23">
+        <v>2028</v>
+      </c>
+      <c r="O23" t="s">
+        <v>154</v>
+      </c>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43731</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24">
+        <v>2028</v>
+      </c>
+      <c r="K24" t="s">
+        <v>150</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26"/>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27">
+        <v>0.9</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29"/>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31"/>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A34" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35"/>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44099</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36">
+        <v>2049</v>
+      </c>
+      <c r="G36">
+        <v>30.2</v>
+      </c>
+      <c r="H36">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>12</v>
+      </c>
+      <c r="K37" t="s">
+        <v>139</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A38" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39">
+        <v>0.7</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40">
+        <v>1.5</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A41" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A42" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:P42" xr:uid="{3D652218-3B78-4CB0-BA25-8DE344561C19}">
+    <filterColumn colId="12">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="13">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P42">
+      <sortCondition ref="A1:A42"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Other data/Coal phase out announcements.xlsx
+++ b/Other data/Coal phase out announcements.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive - London School of Economics\Documents\LSE\GY489_Dissertation\LETS GO\Dissertation-Code-Data\Other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035FED13-31FC-4551-8DDE-AF6C8C75A1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1C0A25-2F2A-489B-A370-62BBC3E38F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Factiva" sheetId="2" r:id="rId2"/>
+    <sheet name="Final" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$P$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Factiva!$A$1:$R$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Final!$A$1:$R$62</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$W$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="227">
   <si>
     <t>Country</t>
   </si>
@@ -480,15 +482,9 @@
     <t>Canada announcement 21 Nov 2016; during COP22!</t>
   </si>
   <si>
-    <t>xxx</t>
-  </si>
-  <si>
     <t>many countries joining the PPCA</t>
   </si>
   <si>
-    <t>2019 legislation?</t>
-  </si>
-  <si>
     <t>Commission proposes phase-out by 2038</t>
   </si>
   <si>
@@ -529,13 +525,238 @@
   </si>
   <si>
     <t>• it mentions previous 2023 target, what was that?</t>
+  </si>
+  <si>
+    <t>• Euractiv</t>
+  </si>
+  <si>
+    <t>Factiva Link</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(bulgar*+or+%d0%91%d1%8a%d0%bb%d0%b3%d0%b0%d1%80%d0%b8%d1%8f)+and+(coal+or+lignite+or+%d0%92%d1%8a%d0%b3%d0%bb%d0%b8%d1%89%d0%b0)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=01102021&amp;dateTo=20102021&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2cbta&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_bta%2cBulgarian+News+Agency&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(czech*+or+%c4%8cesky+or+%c4%8cesk%c3%a1)+and+(coal+or+lignite+or+Uhl%c3%ad)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=25112020&amp;dateTo=14122020&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2cctk%2cctkdan%2cctkbun&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_ctk%2cCTK+Business+News+(Czech+Republic)%3bsc_u_ctkdan%2cCTK+Daily+News+(Czech+Republic)%3bsc_u_ctkbun%2cCTK+Business+News+(Czech+Republic%2c+Czech+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(czech*+or+%c4%8cesky+or+%c4%8cesk%c3%a1)+and+(coal+or+lignite+or+Uhl%c3%ad)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=27122021&amp;dateTo=17012022&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2cctk%2cctkdan%2cctkbun&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_ctk%2cCTK+Business+News+(Czech+Republic)%3bsc_u_ctkdan%2cCTK+Daily+News+(Czech+Republic)%3bsc_u_ctkbun%2cCTK+Business+News+(Czech+Republic%2c+Czech+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(france+or+xxxxxx)+and+(coal+or+lignite+or+charbon)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=05112016&amp;dateTo=25112016&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfafp&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfafp%2cAgence+France+Presse+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(germany+or+deutschland)+and+(coal+or+lignite+or+kohle)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=12012020&amp;dateTo=26012020&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfdis&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfdis%2cdpa+International+Service+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(germany+or+deutschland)+and+(coal+or+lignite+or+kohle)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=02072020&amp;dateTo=13072020&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfdis&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfdis%2cdpa+International+Service+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(germany+or+deutschland)+and+(coal+or+lignite+or+kohle)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102021&amp;dateTo=25102021&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfdis&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfdis%2cdpa+International+Service+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(germany+or+deutschland)+and+(coal+or+lignite+or+kohle)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=10092018&amp;dateTo=24092018&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfdis&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfdis%2cdpa+International+Service+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(germany+or+deutschland)+and+(coal+or+lignite+or+kohle)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=17062022&amp;dateTo=30062022&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfdis&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfdis%2cdpa+International+Service+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(germany+or+deutschland)+and+(coal+or+lignite+or+kohle)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=20052022&amp;dateTo=04062022&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfdis&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfdis%2cdpa+International+Service+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(greece+or+%ce%95%ce%bb%ce%bb%ce%ac%ce%b4%ce%b1)+and+(coal+or+lignite+or+%ce%93%ce%b1%ce%b9%ce%ac%ce%bd%ce%b8%cf%81%ce%b1%ce%ba%ce%b1%cf%82)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=13092019&amp;dateTo=03102019&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2cana&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_ana%2cAthens+News+Agency&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>• one single result
+• during climate action summit</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>reaffirmed? Strategy confirmed?</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=01112017&amp;dateTo=20112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>• also 11/12/2019</t>
+  </si>
+  <si>
+    <t>• no factiva hits</t>
+  </si>
+  <si>
+    <t>early 2020</t>
+  </si>
+  <si>
+    <t>• 27/09/2021?</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(romania+or+rom%c3%a2nia)+and+(coal+or+lignite+or+c%c4%83rbune)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=07042021&amp;dateTo=13062021&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2crompes&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_rompes%2cAGERPRES+(Romania)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>leak; Carbon pulse reports</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(romania+or+rom%c3%a2nia)+and+(coal+or+lignite+or+c%c4%83rbune+or+lignit)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=21052022&amp;dateTo=10062022&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2crompes&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_rompes%2cAGERPRES+(Romania)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(greece+or+%ce%95%ce%bb%ce%bb%ce%ac%ce%b4%ce%b1)+and+(coal+or+lignite+or+%ce%93%ce%b1%ce%b9%ce%ac%ce%bd%ce%b8%cf%81%ce%b1%ce%ba%ce%b1%cf%82+or+%ce%bb%ce%b9%ce%b3%ce%bd%ce%af%cf%84%ce%b7%cf%82)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=13092021&amp;dateTo=10122021&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2cana&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_ana%2cAthens+News+Agency&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(greece+or+%ce%95%ce%bb%ce%bb%ce%ac%ce%b4%ce%b1)+and+(coal+or+lignite+or+%ce%93%ce%b1%ce%b9%ce%ac%ce%bd%ce%b8%cf%81%ce%b1%ce%ba%ce%b1%cf%82+or+%ce%bb%ce%b9%ce%b3%ce%bd%ce%af%cf%84%ce%b7%cf%82)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=16042021&amp;dateTo=06052021&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2cana&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_ana%2cAthens+News+Agency&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(netherlands+or+nederland)+and+(coal+or+lignite+or+steenkool+or+bruinkool)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=08052018&amp;dateTo=28052018&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa%2canpbin%2canpbui%2canpeco&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources%3bsc_u_anpbin%2cANP+Binnenland+(Netherlands%2c+Dutch+Language)%3bsc_u_anpbui%2cANP+Buitenland+(Netherlands%2c+Dutch+Language)%3bsc_u_anpeco%2cANP+Economie+(Netherlands%2c+Dutch+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(netherlands+or+nederland)+and+(coal+or+lignite+or+steenkool+or+bruinkool)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=23112019&amp;dateTo=01052020&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa%2canpbin%2canpbui%2canpeco&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources%3bsc_u_anpbin%2cANP+Binnenland+(Netherlands%2c+Dutch+Language)%3bsc_u_anpbui%2cANP+Buitenland+(Netherlands%2c+Dutch+Language)%3bsc_u_anpeco%2cANP+Economie+(Netherlands%2c+Dutch+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(spain+or+Espa%c3%b1a)+and+(coal+or+lignite+or+carb%c3%b3n+or+lignito)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=16102018&amp;dateTo=25112018&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfagefe&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfagefe%2cAgencia+EFE+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>• 24th already?
+• not really about the announcement of a phase-out</t>
+  </si>
+  <si>
+    <t>• 13th already?</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(spain+or+Espa%c3%b1a)+and+(coal+or+lignite+or+carb%c3%b3n+or+lignito)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=12022019&amp;dateTo=02032019&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfagefe&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfagefe%2cAgencia+EFE+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(spain+or+Espa%c3%b1a)+and+(coal+or+lignite+or+carb%c3%b3n+or+lignito)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=10012020&amp;dateTo=30012020&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfagefe&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfagefe%2cAgencia+EFE+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(spain+or+Espa%c3%b1a)+and+(coal+or+lignite+or+carb%c3%b3n+or+lignito)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=20062021&amp;dateTo=10072021&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfagefe&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfagefe%2cAgencia+EFE+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(%22united+kingdom%22+or+uk+or+xxxx)+and+(coal+or+lignite+or+xxxxxx+or+xxxxxxx)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=26092015&amp;dateTo=16102015&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfft%2csfbbc&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfft%2cFinancial+Times+(Available+through+Third+Party+Subscription+Services)+-+All+sources%3bsc_u_sfbbc%2cBBC+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(%22united+kingdom%22+or+uk+or+xxxx)+and+(coal+or+lignite+or+xxxxxx+or+xxxxxxx)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=08112015&amp;dateTo=28112015&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfft%2csfbbc&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfft%2cFinancial+Times+(Available+through+Third+Party+Subscription+Services)+-+All+sources%3bsc_u_sfbbc%2cBBC+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(%22united+kingdom%22+or+uk+or+xxxx)+and+(coal+or+lignite+or+xxxxxx+or+xxxxxxx)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=08092017&amp;dateTo=28092017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfft%2csfbbc%2cgrdn&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfft%2cFinancial+Times+(Available+through+Third+Party+Subscription+Services)+-+All+sources%3bsc_u_sfbbc%2cBBC+-+All+sources%3bsc_u_grdn%2cThe+Guardian+(U.K.)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(%22united+kingdom%22+or+uk+or+xxxx)+and+(coal+or+lignite+or+xxxxxx+or+xxxxxxx)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=25122017&amp;dateTo=15012018&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfft%2csfbbc%2cgrdn&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfft%2cFinancial+Times+(Available+through+Third+Party+Subscription+Services)+-+All+sources%3bsc_u_sfbbc%2cBBC+-+All+sources%3bsc_u_grdn%2cThe+Guardian+(U.K.)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(%22united+kingdom%22+or+uk+or+xxxx)+and+(coal+or+lignite+or+xxxxxx+or+xxxxxxx)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=04122020&amp;dateTo=24122020&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfft%2csfbbc%2cgrdn&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfft%2cFinancial+Times+(Available+through+Third+Party+Subscription+Services)+-+All+sources%3bsc_u_sfbbc%2cBBC+-+All+sources%3bsc_u_grdn%2cThe+Guardian+(U.K.)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(%22united+kingdom%22+or+uk+or+xxxx)+and+(coal+or+lignite+or+xxxxxx+or+xxxxxxx)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=27062021&amp;dateTo=10072021&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfft%2csfbbc%2cgrdn&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfft%2cFinancial+Times+(Available+through+Third+Party+Subscription+Services)+-+All+sources%3bsc_u_sfbbc%2cBBC+-+All+sources%3bsc_u_grdn%2cThe+Guardian+(U.K.)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>• emisisons 2019
+• announced at climate action summit</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(germany+or+deutschland)+and+(coal+or+lignite+or+kohle+or+braunkohle)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=16012019&amp;dateTo=06022019&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfdis&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfdis%2cdpa+International+Service+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>only looking into it</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(denmark+or+danmark)+and+(coal+or+lignite+or+kul+or+brunkul)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=01112017&amp;dateTo=30112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2critzg%2crbbrsn&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_ritzg%2cRitzau+General+News+Service+(Denmark%2c+Danish+Language)%3bsc_u_rbbrsn%2cRitzau+Finans+(Denmark%2c+Danish+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>joining PPCA with 15 other countries</t>
+  </si>
+  <si>
+    <t>PPCA other countries</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(denmark+or+danmark)+and+(coal+or+lignite+or+kul+or+brunkul)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=19102014&amp;dateTo=09112014&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2critzg%2crbbrsn&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_ritzg%2cRitzau+General+News+Service+(Denmark%2c+Danish+Language)%3bsc_u_rbbrsn%2cRitzau+Finans+(Denmark%2c+Danish+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(denmark+or+danmark)+and+(coal+or+lignite+or+kul+or+brunkul)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=15112011&amp;dateTo=05122011&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2critzg%2crbbrsn&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_ritzg%2cRitzau+General+News+Service+(Denmark%2c+Danish+Language)%3bsc_u_rbbrsn%2cRitzau+Finans+(Denmark%2c+Danish+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(finland+or+suomi)+and+(coal+or+lignite+or+kivihiili+or+ruskohiili)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=13112016&amp;dateTo=03122016&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfstt&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfstt%2cSTT+(Finland)+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(finland+or+suomi)+and+(coal+or+lignite+or+kivihiili+or+ruskohiili)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=20082017&amp;dateTo=11092017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfstt&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfstt%2cSTT+(Finland)+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(finland+or+suomi)+and+(coal+or+lignite+or+kivihiili+or+ruskohiili)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=01042018&amp;dateTo=20042018&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfstt&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfstt%2cSTT+(Finland)+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(finland+or+suomi)+and+(coal+or+lignite+or+kivihiili+or+ruskohiili)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=08102018&amp;dateTo=28102018&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfstt&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfstt%2cSTT+(Finland)+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(finland+or+suomi)+and+(coal+or+lignite+or+kivihiili+or+ruskohiili)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=17022019&amp;dateTo=07032019&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfstt&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfstt%2cSTT+(Finland)+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(hungary+or+magyarorsz%c3%a1g)+and+(coal+or+lignite+or+sz%c3%a9n+or+K%c5%91sz%c3%a9n+or+lignit)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=10112018&amp;dateTo=30112018&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2cmtie%2cmtidb%2cmtieco&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_mtie%2cMTI+-+EcoNews+(Hungary)%3bsc_u_mtidb%2cMTI+Daily+Bulletin+-+News+in+English%3bsc_u_mtieco%2cMTI-Eco+(Hungary%2c+Hungarian+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(hungary+or+magyarorsz%c3%a1g)+and+(coal+or+lignite+or+sz%c3%a9n+or+K%c5%91sz%c3%a9n+or+lignit)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=13092019&amp;dateTo=03102019&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2cmtie%2cmtidb%2cmtieco&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_mtie%2cMTI+-+EcoNews+(Hungary)%3bsc_u_mtidb%2cMTI+Daily+Bulletin+-+News+in+English%3bsc_u_mtieco%2cMTI-Eco+(Hungary%2c+Hungarian+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(ireland+or+xxxxxx)+and+(coal+or+lignite+or+xxx+or+xxxxx)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=01032018&amp;dateTo=20032018&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2cIINM%2cIRTI&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_IINM%2cIrish+Independent%3bsc_u_IRTI%2cThe+Irish+Times&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(poland+or+polska)+and+(coal+or+lignite+or+w%c4%99giel+or+%22w%c4%99giel+brunatny%22)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=15092020&amp;dateTo=05102020&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2cpapmki%2cpapibn%2cpapisr%2cpapem%2cpolsag%2cpapespi&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_papmki%2cPAP+Market+Insider+(Poland)%3bsc_u_papibn%2cPAP+Market+Insider+-+Breaking+News+(Poland)%3bsc_u_papisr%2cPAP+Market+Insider+-+Survey+(Poland)%3bsc_u_papem%2cPAP+-+EMITENT+(Poland%2c+Polish+Language)%3bsc_u_polsag%2cPAP+-+MAKRO+(Poland%2c+Polish+Language)%3bsc_u_papespi%2cPAP+Broker+%2b+ESPI+(Poland%2c+Polish+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>joining PPCA</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(portugal+or+xxxx)+and+(coal+or+lignite+or+carv%c3%a3o+or+xxxxxx)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=05112017&amp;dateTo=25112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2clusa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_lusa%2cAg%c3%aancia+Lusa+(Portugal%2c+Portuguese+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(portugal+or+xxxx)+and+(coal+or+lignite+or+carv%c3%a3o+or+xxxxxx)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=01102019&amp;dateTo=06112019&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2clusa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_lusa%2cAg%c3%aancia+Lusa+(Portugal%2c+Portuguese+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(slovakia+or+Slovensko)+and+(coal+or+lignite+or+uhlie+or+xxxx)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=02122017&amp;dateTo=02012018&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2ctasr%2cslovag&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_tasr%2cTASR+-+Tlacova+Agentura+Slovenskej+Republiky%3bsc_u_slovag%2cTASR+-+Tlacova+Agentura+Slovenskej+Republiky+(Slovak+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>hard to define what exactly happened</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(slovakia+or+Slovensko)+and+(coal+or+lignite+or+uhlie+or+xxxx)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=09112018&amp;dateTo=29112018&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2ctasr%2cslovag&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_tasr%2cTASR+-+Tlacova+Agentura+Slovenskej+Republiky%3bsc_u_slovag%2cTASR+-+Tlacova+Agentura+Slovenskej+Republiky+(Slovak+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>not a real phase-out</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(slovakia+or+Slovensko)+and+(coal+or+lignite+or+uhlie+or+xxxx)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=01022019&amp;dateTo=10032019&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2ctasr%2cslovag&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_tasr%2cTASR+-+Tlacova+Agentura+Slovenskej+Republiky%3bsc_u_slovag%2cTASR+-+Tlacova+Agentura+Slovenskej+Republiky+(Slovak+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(slovakia+or+Slovensko)+and+(coal+or+lignite+or+uhlie+or+xxxx)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=01062019&amp;dateTo=10072019&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2ctasr%2cslovag&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_tasr%2cTASR+-+Tlacova+Agentura+Slovenskej+Republiky%3bsc_u_slovag%2cTASR+-+Tlacova+Agentura+Slovenskej+Republiky+(Slovak+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>press conference PM</t>
+  </si>
+  <si>
+    <t>2020? Autumn</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(slovenia+or+Slovenija)+and+(coal+or+lignite+or+premog+or+lignit)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=01062020&amp;dateTo=31122020&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csta&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sta%2cSTA+(Slovenia)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(slovenia+or+Slovenija)+and+(coal+or+lignite+or+premog+or+lignit)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=01102021&amp;dateTo=31122021&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csta&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sta%2cSTA+(Slovenia)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>during COP26</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(slovenia+or+Slovenija)+and+(coal+or+lignite+or+premog+or+lignit)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=03012022&amp;dateTo=23012022&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csta&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sta%2cSTA+(Slovenia)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>Include/exclude why?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,8 +778,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,6 +812,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -593,10 +828,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -619,9 +855,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -906,7 +1148,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1332,7 +1574,7 @@
         <v>79</v>
       </c>
       <c r="M9" s="1">
-        <v>44303</v>
+        <v>44668</v>
       </c>
       <c r="N9" t="s">
         <v>96</v>
@@ -1676,14 +1918,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D652218-3B78-4CB0-BA25-8DE344561C19}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:P42"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1698,11 +1940,13 @@
     <col min="11" max="11" width="25.1328125" customWidth="1"/>
     <col min="12" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="10.73046875" customWidth="1"/>
-    <col min="15" max="15" width="49.73046875" customWidth="1"/>
-    <col min="16" max="16" width="57.33203125" customWidth="1"/>
+    <col min="15" max="15" width="21.1328125" customWidth="1"/>
+    <col min="16" max="16" width="49.73046875" customWidth="1"/>
+    <col min="17" max="17" width="57.33203125" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1746,21 +1990,30 @@
         <v>121</v>
       </c>
       <c r="O1" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="R1" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -1768,15 +2021,15 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="11">
         <v>44480</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -1797,18 +2050,24 @@
       <c r="N4">
         <v>1</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="R4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="15">
         <v>44483</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1830,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1843,8 +2102,11 @@
       <c r="L6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -1853,516 +2115,2150 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="8">
-        <v>44568</v>
+      <c r="B8" s="15">
+        <v>44169</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="F8">
+        <v>2038</v>
+      </c>
+      <c r="G8">
+        <v>8.5</v>
+      </c>
+      <c r="H8">
+        <v>35</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="1">
-        <v>44169</v>
+      <c r="B9" s="11">
+        <v>44568</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9">
-        <v>8.5</v>
-      </c>
-      <c r="H9">
-        <v>35</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="R9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="G10">
+      <c r="B10" s="14">
+        <v>40872</v>
+      </c>
+      <c r="F10">
+        <v>2030</v>
+      </c>
+      <c r="R10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="14">
+        <v>41941</v>
+      </c>
+      <c r="D11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11">
         <v>2.5</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>6</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="O10" s="6" t="s">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="R11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="14">
+        <v>43055</v>
+      </c>
+      <c r="D12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" t="s">
+        <v>199</v>
+      </c>
+      <c r="R12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>111</v>
       </c>
-      <c r="E11"/>
-      <c r="M11">
+      <c r="E13"/>
+      <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="G12">
+      <c r="B14" s="16">
+        <v>42697</v>
+      </c>
+      <c r="G14">
         <v>2.6</v>
       </c>
-      <c r="H12">
+      <c r="H14">
         <v>6</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="O12" s="6" t="s">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="P14" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="R14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="14">
+        <v>42978</v>
+      </c>
+      <c r="E15"/>
+      <c r="R15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="14">
+        <v>43200</v>
+      </c>
+      <c r="E16"/>
+      <c r="R16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="14">
+        <v>43391</v>
+      </c>
+      <c r="E17"/>
+      <c r="R17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="14">
+        <v>43523</v>
+      </c>
+      <c r="E18"/>
+      <c r="R18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="B19" s="14">
         <v>42689</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F14">
+      <c r="F19">
         <v>2023</v>
       </c>
-      <c r="G14">
+      <c r="G19">
         <v>3.5</v>
       </c>
-      <c r="H14">
+      <c r="H19">
         <v>11</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K19" t="s">
         <v>137</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14" s="6" t="s">
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="1">
-        <v>43491</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15">
-        <v>2038</v>
-      </c>
-      <c r="G15">
-        <v>47.6</v>
-      </c>
-      <c r="H15">
-        <v>175</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="1">
-        <v>43846</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16">
-        <v>2038</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="1">
-        <v>44015</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17">
-        <v>2038</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="1">
-        <v>44484</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F18">
-        <v>2030</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="1">
-        <v>43357</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19">
-        <v>2038</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="1">
-        <v>44750</v>
+      <c r="B20" s="11">
+        <v>43357</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="F20">
+        <v>2038</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
-      <c r="P20" s="6"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="R20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="15">
+        <v>43491</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21">
+        <v>2038</v>
+      </c>
+      <c r="G21">
+        <v>47.6</v>
+      </c>
+      <c r="H21">
+        <v>175</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="P21" s="6"/>
+      <c r="R21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="11">
+        <v>43846</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22">
+        <v>2038</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="P22" s="6"/>
+      <c r="R22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44015</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23">
+        <v>2038</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="P23" s="6"/>
+      <c r="R23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44484</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24">
+        <v>2030</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="R24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="11">
         <v>44705</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="P21" s="6"/>
-    </row>
-    <row r="22" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="E25" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44732</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="6"/>
+      <c r="R26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="P27" s="6"/>
+      <c r="R27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B28" s="15">
+        <v>43731</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28">
+        <v>2028</v>
+      </c>
+      <c r="K28" t="s">
+        <v>148</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="R28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="14">
         <v>44312</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E29" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29">
+        <v>2025</v>
+      </c>
+      <c r="P29" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q29" s="6"/>
+      <c r="R29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="14">
+        <v>44462</v>
+      </c>
+      <c r="R30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="16">
+        <v>44530</v>
+      </c>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="14">
+        <v>44657</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F22">
-        <v>2025</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="F32">
+        <v>2028</v>
+      </c>
+      <c r="P32" t="s">
         <v>152</v>
       </c>
-      <c r="P22" s="6"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="1">
-        <v>44657</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23">
-        <v>2028</v>
-      </c>
-      <c r="O23" t="s">
-        <v>154</v>
-      </c>
-      <c r="P23" s="6"/>
-    </row>
-    <row r="24" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="16">
+        <v>43424</v>
+      </c>
+      <c r="G33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="R33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="14">
         <v>43731</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24">
-        <v>2028</v>
-      </c>
-      <c r="K24" t="s">
-        <v>150</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="Q34" s="6"/>
+      <c r="R34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>118</v>
-      </c>
-      <c r="E26"/>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27">
-        <v>0.9</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A28" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29"/>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>119</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31"/>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>115</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A34" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>120</v>
       </c>
       <c r="E35"/>
       <c r="M35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="16">
+        <v>43169</v>
+      </c>
+      <c r="G36">
+        <v>0.9</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>52</v>
+      </c>
+      <c r="R36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="15">
+        <v>43032</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="R37" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="11">
+        <v>43049</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="R38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="16">
+        <v>43731</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40"/>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>119</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42"/>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>117</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A45" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="16">
+        <v>42636</v>
+      </c>
+      <c r="P45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="15">
+        <v>43018</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="14">
+        <v>43238</v>
+      </c>
+      <c r="R47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="16">
+        <v>43802</v>
+      </c>
+      <c r="P48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="R49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50"/>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B51" s="11">
         <v>44099</v>
       </c>
-      <c r="E36"/>
-      <c r="F36">
+      <c r="E51"/>
+      <c r="F51">
         <v>2049</v>
       </c>
-      <c r="G36">
+      <c r="G51">
         <v>30.2</v>
       </c>
-      <c r="H36">
+      <c r="H51">
         <v>104</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+      <c r="R51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
         <v>42</v>
       </c>
-      <c r="G37">
+      <c r="B52" s="14">
+        <v>43055</v>
+      </c>
+      <c r="D52" t="s">
+        <v>211</v>
+      </c>
+      <c r="G52">
         <v>2</v>
       </c>
-      <c r="H37">
+      <c r="H52">
         <v>12</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K52" t="s">
+        <v>138</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="R52" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="14">
+        <v>43764</v>
+      </c>
+      <c r="E53"/>
+      <c r="R53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A54" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="14">
+        <v>44342</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="R54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A55" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="11">
+        <v>44350</v>
+      </c>
+      <c r="P55" s="6"/>
+      <c r="R55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A56" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="16">
+        <v>44469</v>
+      </c>
+      <c r="P56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A57" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="16">
+        <v>44712</v>
+      </c>
+      <c r="P57" s="6"/>
+      <c r="R57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A58" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="16">
+        <v>43091</v>
+      </c>
+      <c r="D58" t="s">
+        <v>215</v>
+      </c>
+      <c r="P58" s="6"/>
+      <c r="R58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A59" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="14">
+        <v>43423</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="P59" s="6"/>
+      <c r="R59" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="18">
+        <v>43497</v>
+      </c>
+      <c r="G60">
+        <v>0.7</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="R60" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="19">
+        <v>43634</v>
+      </c>
+      <c r="D61" t="s">
+        <v>220</v>
+      </c>
+      <c r="R61" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A62" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="16">
+        <v>44504</v>
+      </c>
+      <c r="P62" t="s">
+        <v>224</v>
+      </c>
+      <c r="R62" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="11">
+        <v>44574</v>
+      </c>
+      <c r="G63">
+        <v>1.5</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="R63" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A64" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="R64" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A65" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="14">
+        <v>43397</v>
+      </c>
+      <c r="P65" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A66" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="14">
+        <v>43419</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="P66" t="s">
+        <v>184</v>
+      </c>
+      <c r="R66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="14">
+        <v>43518</v>
+      </c>
+      <c r="R67" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A68" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="16">
+        <v>43850</v>
+      </c>
+      <c r="R68" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A69" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="14">
+        <v>44377</v>
+      </c>
+      <c r="R69" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="16">
+        <v>42283</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="R70" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="11">
+        <v>42326</v>
+      </c>
+      <c r="R71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="14">
+        <v>42996</v>
+      </c>
+      <c r="R72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="14">
+        <v>43105</v>
+      </c>
+      <c r="R73" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="11">
+        <v>44179</v>
+      </c>
+      <c r="R74" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="14">
+        <v>44377</v>
+      </c>
+      <c r="R75" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:R75" xr:uid="{3D652218-3B78-4CB0-BA25-8DE344561C19}">
+    <filterColumn colId="13">
+      <filters blank="1">
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="R37" r:id="rId1" display="https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16" xr:uid="{5D92F416-BAAC-4FB5-B839-9525CB830178}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CCC5DF-E81D-45C6-92D8-92AE6A0AD22C}">
+  <dimension ref="A1:R62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.06640625" customWidth="1"/>
+    <col min="3" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="36.73046875" style="6" customWidth="1"/>
+    <col min="6" max="8" width="21.46484375" customWidth="1"/>
+    <col min="9" max="9" width="28.86328125" customWidth="1"/>
+    <col min="10" max="10" width="22.3984375" customWidth="1"/>
+    <col min="11" max="11" width="25.1328125" customWidth="1"/>
+    <col min="12" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="10.73046875" customWidth="1"/>
+    <col min="15" max="15" width="21.1328125" customWidth="1"/>
+    <col min="16" max="16" width="49.73046875" customWidth="1"/>
+    <col min="17" max="17" width="57.33203125" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44480</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="15">
+        <v>44483</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="15">
+        <v>44169</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4">
+        <v>2038</v>
+      </c>
+      <c r="G4">
+        <v>8.5</v>
+      </c>
+      <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44568</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="14">
+        <v>40872</v>
+      </c>
+      <c r="F6">
+        <v>2030</v>
+      </c>
+      <c r="R6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="14">
+        <v>41941</v>
+      </c>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7">
+        <v>2.5</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="R7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="14">
+        <v>43055</v>
+      </c>
+      <c r="D8" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" t="s">
+        <v>199</v>
+      </c>
+      <c r="R8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="16">
+        <v>42697</v>
+      </c>
+      <c r="G9">
+        <v>2.6</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="R9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="14">
+        <v>42978</v>
+      </c>
+      <c r="E10"/>
+      <c r="R10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="14">
+        <v>43200</v>
+      </c>
+      <c r="E11"/>
+      <c r="R11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="14">
+        <v>43391</v>
+      </c>
+      <c r="E12"/>
+      <c r="R12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="14">
+        <v>43523</v>
+      </c>
+      <c r="E13"/>
+      <c r="R13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="14">
+        <v>42689</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14">
+        <v>2023</v>
+      </c>
+      <c r="G14">
+        <v>3.5</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="R14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="11">
+        <v>43357</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15">
+        <v>2038</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="R15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="15">
+        <v>43491</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="O37" s="6" t="s">
+      <c r="F16">
+        <v>2038</v>
+      </c>
+      <c r="G16">
+        <v>47.6</v>
+      </c>
+      <c r="H16">
+        <v>175</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="R16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="11">
+        <v>43846</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17">
+        <v>2038</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6"/>
+      <c r="R17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44015</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18">
+        <v>2038</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6"/>
+      <c r="R18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44484</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19">
+        <v>2030</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="R19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44705</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44732</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="6"/>
+      <c r="R21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="P22" s="6"/>
+      <c r="R22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="15">
+        <v>43731</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23">
+        <v>2028</v>
+      </c>
+      <c r="K23" t="s">
+        <v>148</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="R23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="14">
+        <v>44312</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24">
+        <v>2025</v>
+      </c>
+      <c r="P24" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q24" s="6"/>
+      <c r="R24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="14">
+        <v>44462</v>
+      </c>
+      <c r="R25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="16">
+        <v>44530</v>
+      </c>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="14">
+        <v>44657</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27">
+        <v>2028</v>
+      </c>
+      <c r="P27" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="16">
+        <v>43424</v>
+      </c>
+      <c r="G28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="R28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="14">
+        <v>43731</v>
+      </c>
+      <c r="Q29" s="6"/>
+      <c r="R29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="15">
+        <v>43032</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="R30" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="11">
+        <v>43049</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="R31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="16">
+        <v>43731</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="16">
+        <v>42636</v>
+      </c>
+      <c r="P33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="15">
+        <v>43018</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="14">
+        <v>43238</v>
+      </c>
+      <c r="R35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="16">
+        <v>43802</v>
+      </c>
+      <c r="P36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="R37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="11">
+        <v>44099</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38">
+        <v>2049</v>
+      </c>
+      <c r="G38">
+        <v>30.2</v>
+      </c>
+      <c r="H38">
+        <v>104</v>
+      </c>
+      <c r="R38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="14">
+        <v>43055</v>
+      </c>
+      <c r="D39" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>12</v>
+      </c>
+      <c r="K39" t="s">
+        <v>138</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="P39" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A38" s="14" t="s">
+      <c r="R39" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="14">
+        <v>43764</v>
+      </c>
+      <c r="E40"/>
+      <c r="R40" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="B41" s="14">
+        <v>44342</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A42" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="11">
+        <v>44350</v>
+      </c>
+      <c r="P42" s="6"/>
+      <c r="R42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="16">
+        <v>44469</v>
+      </c>
+      <c r="P43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A44" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="16">
+        <v>44712</v>
+      </c>
+      <c r="P44" s="6"/>
+      <c r="R44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A45" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G39">
+      <c r="B45" s="16">
+        <v>43091</v>
+      </c>
+      <c r="D45" t="s">
+        <v>215</v>
+      </c>
+      <c r="P45" s="6"/>
+      <c r="R45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A46" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="14">
+        <v>43423</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="P46" s="6"/>
+      <c r="R46" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="18">
+        <v>43497</v>
+      </c>
+      <c r="G47">
         <v>0.7</v>
       </c>
-      <c r="H39">
+      <c r="H47">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+      <c r="R47" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="19">
+        <v>43634</v>
+      </c>
+      <c r="D48" t="s">
+        <v>220</v>
+      </c>
+      <c r="R48" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G40">
+      <c r="B49" s="16">
+        <v>44504</v>
+      </c>
+      <c r="P49" t="s">
+        <v>224</v>
+      </c>
+      <c r="R49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="11">
+        <v>44574</v>
+      </c>
+      <c r="G50">
         <v>1.5</v>
       </c>
-      <c r="H40">
+      <c r="H50">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A41" s="14" t="s">
+      <c r="R50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A51" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="R51" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A42" s="14" t="s">
+      <c r="B52" s="14">
+        <v>43397</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A53" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="14">
+        <v>43419</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="P53" t="s">
+        <v>184</v>
+      </c>
+      <c r="R53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A54" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="14">
+        <v>43518</v>
+      </c>
+      <c r="R54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A55" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="16">
+        <v>43850</v>
+      </c>
+      <c r="R55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A56" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="14">
+        <v>44377</v>
+      </c>
+      <c r="R56" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N42">
-        <v>1</v>
+      <c r="B57" s="16">
+        <v>42283</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="R57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="11">
+        <v>42326</v>
+      </c>
+      <c r="R58" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="14">
+        <v>42996</v>
+      </c>
+      <c r="R59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="14">
+        <v>43105</v>
+      </c>
+      <c r="R60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="11">
+        <v>44179</v>
+      </c>
+      <c r="R61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="14">
+        <v>44377</v>
+      </c>
+      <c r="R62" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P42" xr:uid="{3D652218-3B78-4CB0-BA25-8DE344561C19}">
-    <filterColumn colId="12">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="13">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P42">
-      <sortCondition ref="A1:A42"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:R62" xr:uid="{3D652218-3B78-4CB0-BA25-8DE344561C19}"/>
+  <hyperlinks>
+    <hyperlink ref="R30" r:id="rId1" display="https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16" xr:uid="{505B5FEE-A6F5-47CB-9917-E30704A91A4C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Other data/Coal phase out announcements.xlsx
+++ b/Other data/Coal phase out announcements.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive - London School of Economics\Documents\LSE\GY489_Dissertation\LETS GO\Dissertation-Code-Data\Other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1C0A25-2F2A-489B-A370-62BBC3E38F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44AE399-B6A1-41F5-8272-3D69FE00AE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Initial" sheetId="1" r:id="rId1"/>
     <sheet name="Factiva" sheetId="2" r:id="rId2"/>
     <sheet name="Final" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId4"/>
+    <sheet name="COP" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Factiva!$A$1:$R$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Final!$A$1:$R$62</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$W$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Factiva!$A$1:$R$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Final!$A$1:$O$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Initial!$A$1:$W$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="355">
   <si>
     <t>Country</t>
   </si>
@@ -751,12 +753,400 @@
   <si>
     <t>Include/exclude why?</t>
   </si>
+  <si>
+    <t>Finland 27/02</t>
+  </si>
+  <si>
+    <t>Spain 22/02</t>
+  </si>
+  <si>
+    <t>climate action summit; Hungary same day?</t>
+  </si>
+  <si>
+    <t>climate actioa summit; Greece + Hungary same day?</t>
+  </si>
+  <si>
+    <t>Spain 20/01</t>
+  </si>
+  <si>
+    <t>Germany 16/01</t>
+  </si>
+  <si>
+    <t>PPCA day; also UK</t>
+  </si>
+  <si>
+    <t>PPCA day; also Spain</t>
+  </si>
+  <si>
+    <t>Bulgaria 14/10</t>
+  </si>
+  <si>
+    <t>Bulgaria 11/10</t>
+  </si>
+  <si>
+    <t>The COP 17 took place from 28 November to 9 December 2011 in Durban, South Africa.</t>
+  </si>
+  <si>
+    <t>The eighteenth session of the Conference of the Parties (COP 18) took place from Monday, 26 November to Friday, 7 December 2012 at the Qatar National Convention Centre in Doha, Qatar.</t>
+  </si>
+  <si>
+    <t>The nineteenth session of the Conference of the Parties (COP 19) took place from 11 to 22 November 2013 in Warsaw, Poland.</t>
+  </si>
+  <si>
+    <t>The twentieth session of the Conference of the Parties (COP 20) took place from 1 to 12 December 2014 in Lima, Peru.</t>
+  </si>
+  <si>
+    <t>The twenty-first session of the Conference of the Parties (COP) and the eleventh session of the Conference of the Parties serving as the meeting of the Parties to the Kyoto Protocol (CMP) took place from 30 November to 11 December 2015, in Paris, France.</t>
+  </si>
+  <si>
+    <t>The twenty-second session of the Conference of the Parties (COP 22) and the twelfth session of the Conference of the Parties serving as the meeting of the Parties to the Kyoto Protocol (CMP 12) took place in Bab Ighli, Marrakech, Morocco from 7 to 18 November 2016.</t>
+  </si>
+  <si>
+    <t>The twenty-third session of the Conference of the Parties (COP 23) will take place from 6-17 November in Bonn, Germany and will be presided over by the Government of Fiji.</t>
+  </si>
+  <si>
+    <t>2 Dec 2018 - 14 Dec 2018</t>
+  </si>
+  <si>
+    <t>2 Dec 2019 - 13 Dec 2019 COP25</t>
+  </si>
+  <si>
+    <t>31 Oct 2021 - 12 Nov 2021 COP 26</t>
+  </si>
+  <si>
+    <t>COP22</t>
+  </si>
+  <si>
+    <t>during COP23</t>
+  </si>
+  <si>
+    <t>PPCA other countries; during COP23</t>
+  </si>
+  <si>
+    <t>many countries joining the PPCA; during COP23</t>
+  </si>
+  <si>
+    <t>COP25</t>
+  </si>
+  <si>
+    <t>COP26</t>
+  </si>
+  <si>
+    <t>climate action summit; Greece + Italysame day?</t>
+  </si>
+  <si>
+    <t>Link1</t>
+  </si>
+  <si>
+    <t>Link2</t>
+  </si>
+  <si>
+    <t>Update on preparatory steps for auctioning of phase 3 allowances (europa.eu)</t>
+  </si>
+  <si>
+    <t>Enhancing EU rules for monitoring greenhouse gas emissions (europa.eu)</t>
+  </si>
+  <si>
+    <t>Confounding Events (see also links)</t>
+  </si>
+  <si>
+    <t>European Commission adopts the carbon leakage list for the period 2015-2019 (europa.eu)</t>
+  </si>
+  <si>
+    <t>Updated information on Exchange and International Credit Use in the EU ETS (europa.eu)</t>
+  </si>
+  <si>
+    <t>not checked</t>
+  </si>
+  <si>
+    <t>alright</t>
+  </si>
+  <si>
+    <t>Commission proposes safeguard measures for EU Emissions Trading System (europa.eu)</t>
+  </si>
+  <si>
+    <t>EU Emissions Trading System: landmark agreement between Parliament and Council delivers on EU's commitment to turn Paris Agreement into reality (europa.eu)</t>
+  </si>
+  <si>
+    <t>ETS Market Stability Reserve will start by reducing auction volume by almost 265 million allowances over the first 8 months of 2019 (europa.eu)</t>
+  </si>
+  <si>
+    <t>Emissions Trading: Commission adopts amendment to ETS Auctioning Regulation (europa.eu)</t>
+  </si>
+  <si>
+    <t>Towards a climate-neutral Europe: EU invests over €10bn in innovative clean technologies (europa.eu)</t>
+  </si>
+  <si>
+    <t>Updated information on exchange and international credit use in the EU ETS (europa.eu)</t>
+  </si>
+  <si>
+    <t>Poland’s 2020 auction volume to include allowances not used for power sector modernisation (europa.eu)</t>
+  </si>
+  <si>
+    <t>Adoption of the Regulation on adjustments to free allocation of emission allowances due to activity level changes (europa.eu)</t>
+  </si>
+  <si>
+    <t>Commission publishes status update for New Entrants' Reserve (europa.eu)</t>
+  </si>
+  <si>
+    <t>2020 revised auction calendars published (europa.eu)</t>
+  </si>
+  <si>
+    <t>Draft implementing regulation determining revised benchmark values for the period 2021-2025 open for 4-week stakeholder feedback (europa.eu)</t>
+  </si>
+  <si>
+    <t>Further information on the start of phase 4 of the EU ETS in 2021: emission allowances to be issued for aircraft operators and the Market Stability Reserve (europa.eu)</t>
+  </si>
+  <si>
+    <t>Updated information on exchange and international credits’ use in the EU ETS (europa.eu)</t>
+  </si>
+  <si>
+    <t>Commission adopts the uniform cross-sectoral correction factor to be applied to free allocation for 2021 to 2025 in EU ETS (europa.eu)</t>
+  </si>
+  <si>
+    <t>Commission publishes the national allocation tables of Member States for EU ETS stationary installations eligible to receive free allocation in the period 2021-2025 (europa.eu)</t>
+  </si>
+  <si>
+    <t>Revised 2022 auction calendar for general allowances published (europa.eu)</t>
+  </si>
+  <si>
+    <t>REPowerEU (europa.eu)</t>
+  </si>
+  <si>
+    <t>Carbon Pulse</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t>preferred date 2030; no decision</t>
+  </si>
+  <si>
+    <t>government proposal; climate targets; coal phase-out 2030 as one of the targets</t>
+  </si>
+  <si>
+    <t>only looking into it; not a clear announcement</t>
+  </si>
+  <si>
+    <t>announcement that they will introduce a law</t>
+  </si>
+  <si>
+    <t>previous announcement in 2016</t>
+  </si>
+  <si>
+    <t>confirmation</t>
+  </si>
+  <si>
+    <t>again confirmed?</t>
+  </si>
+  <si>
+    <t>maybe, leak</t>
+  </si>
+  <si>
+    <t>no, confounding event</t>
+  </si>
+  <si>
+    <t>maybe, parliament vote</t>
+  </si>
+  <si>
+    <t>• also 23/11/21?</t>
+  </si>
+  <si>
+    <t>maybe, new deadline</t>
+  </si>
+  <si>
+    <t>mostly distributional + Spain event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maybe, coal phase-in </t>
+  </si>
+  <si>
+    <t>other countries doing the same</t>
+  </si>
+  <si>
+    <t>Safe</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>for new date?</t>
+  </si>
+  <si>
+    <t>Probably not</t>
+  </si>
+  <si>
+    <t>stata owned company announced 2023 phase out a couple of days before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maybe, new date? </t>
+  </si>
+  <si>
+    <t>2025 possible?</t>
+  </si>
+  <si>
+    <t>maybe, confounding event though</t>
+  </si>
+  <si>
+    <t>2030 mentioned in speech by president</t>
+  </si>
+  <si>
+    <t>incoming government announces 2030 coal phase-out</t>
+  </si>
+  <si>
+    <t>parliament pressures government</t>
+  </si>
+  <si>
+    <t>announces ban on some to implement goal</t>
+  </si>
+  <si>
+    <t>maybe, follow-up; confounding event though</t>
+  </si>
+  <si>
+    <t>stop funding coal in 2049</t>
+  </si>
+  <si>
+    <t>what about PPCA joining 2017 with other countries?</t>
+  </si>
+  <si>
+    <t>closing the last two until 2023 instead of 2030 as initially planned</t>
+  </si>
+  <si>
+    <t>joining PPCA along with 14 other countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">documented adopted </t>
+  </si>
+  <si>
+    <t>yes, confounding?</t>
+  </si>
+  <si>
+    <t>deal with EU</t>
+  </si>
+  <si>
+    <t>not a real phase-out; subsidies for coal mining</t>
+  </si>
+  <si>
+    <t>2030 was already decided in some strategy earlier</t>
+  </si>
+  <si>
+    <t>maybe, new date? Also subsidies removed from 2023 earlier; so exlcude?</t>
+  </si>
+  <si>
+    <t>joining PPCA?</t>
+  </si>
+  <si>
+    <t>confirming 2033</t>
+  </si>
+  <si>
+    <t>joined PPCA during COP26</t>
+  </si>
+  <si>
+    <t>2033 first announced?</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(slovenia+or+Slovenija)+and+(coal+or+lignite+or+premog+or+lignit)+and+(202*+or+203*+or+204*)+and+2033&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=03012017&amp;dateTo=23012022&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csta&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sta%2cSTA+(Slovenia)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>2033 first announced? Not for all regions though? Just one of several options?</t>
+  </si>
+  <si>
+    <t>250 million agreement; support for coal regions until 2027; no real phase-out announcement though</t>
+  </si>
+  <si>
+    <t>maybe, confounding events</t>
+  </si>
+  <si>
+    <t>announcement by state secretary; but no imposed closure</t>
+  </si>
+  <si>
+    <t>• 13th already?
+• 9/14 already closing in 2020</t>
+  </si>
+  <si>
+    <t>government proposal; not a strict prohibition; maybe some reserve capacity after 2030</t>
+  </si>
+  <si>
+    <t>leak by The Times</t>
+  </si>
+  <si>
+    <t>maybe, Brexit</t>
+  </si>
+  <si>
+    <t>government announce 2025 target</t>
+  </si>
+  <si>
+    <t>set emissiosn limit from 2025</t>
+  </si>
+  <si>
+    <t>maybe, follow-up</t>
+  </si>
+  <si>
+    <t>not sure, reaffirmed?</t>
+  </si>
+  <si>
+    <t>bringing it forward by 1 year</t>
+  </si>
+  <si>
+    <t>maybe, new date</t>
+  </si>
+  <si>
+    <t>government says that it is unlikely that it is additional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundled together: </t>
+  </si>
+  <si>
+    <t>Greece Hungary</t>
+  </si>
+  <si>
+    <t>Spain Slovakia Hungary</t>
+  </si>
+  <si>
+    <t>Slovakia 19/11; Hungary 20/11; Germany cancellation</t>
+  </si>
+  <si>
+    <t>Spain 15/11; Hungary 20/11; Germany cancellation</t>
+  </si>
+  <si>
+    <t>Spain 15/11; Slovakia 19/11; Germany cancellation</t>
+  </si>
+  <si>
+    <t>CP: Commission recommends cancellation?</t>
+  </si>
+  <si>
+    <t>confounding events; see Spain</t>
+  </si>
+  <si>
+    <t>Government confirms planned canellation</t>
+  </si>
+  <si>
+    <t>different analysis</t>
+  </si>
+  <si>
+    <t>Merkel announces (temporary?) closure of some nuclear plants and that extensions may not be granted</t>
+  </si>
+  <si>
+    <t>Merkel announces closure of all until 2022</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(germany+or+deutschland)+and+(coal+or+lignite+or+kohle+or+nuklear+or+nuclear+or+atom)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=04032011&amp;dateTo=24032011&amp;sortBy=y&amp;currentSources=U%7csfdis%2csfreut%2csfeuac&amp;currentSourcesDesc=sc_u_sfdis%2cdpa+International+Service+-+All+sources%3bsc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(germany+or+deutschland)+and+(coal+or+lignite+or+kohle+or+nuklear+or+nuclear+or+atom)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=20052011&amp;dateTo=10062011&amp;sortBy=o&amp;currentSources=U%7csfdis%2csfreut%2csfeuac&amp;currentSourcesDesc=sc_u_sfdis%2cdpa+International+Service+-+All+sources%3bsc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy state secretary announces 2025 phase-out; 22: company announces it </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyymmdd"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,6 +1175,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -832,7 +1241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -861,6 +1270,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="17" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1145,10 +1567,10 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1918,14 +2340,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D652218-3B78-4CB0-BA25-8DE344561C19}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:R75"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2002,7 +2424,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2089,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -2218,7 +2640,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -2628,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2684,7 +3106,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -2696,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -2707,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>113</v>
       </c>
@@ -2719,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -2730,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>117</v>
       </c>
@@ -2796,7 +3218,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>120</v>
       </c>
@@ -2984,73 +3406,74 @@
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A62" s="4" t="s">
+      <c r="A62" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="14">
+        <v>44270</v>
+      </c>
+      <c r="D62" t="s">
+        <v>323</v>
+      </c>
+      <c r="E62"/>
+      <c r="R62" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A63" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="16">
         <v>44504</v>
       </c>
-      <c r="P62" t="s">
+      <c r="D63" t="s">
+        <v>320</v>
+      </c>
+      <c r="P63" t="s">
         <v>224</v>
       </c>
-      <c r="R62" t="s">
+      <c r="R63" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B64" s="11">
         <v>44574</v>
       </c>
-      <c r="G63">
+      <c r="G64">
         <v>1.5</v>
       </c>
-      <c r="H63">
+      <c r="H64">
         <v>5</v>
       </c>
-      <c r="R63" t="s">
+      <c r="R64" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A64" s="4" t="s">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A65" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B65" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="R64" t="s">
+      <c r="R65" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A65" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="14">
-        <v>43397</v>
-      </c>
-      <c r="P65" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A66" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="14">
-        <v>43419</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="P66" t="s">
-        <v>184</v>
-      </c>
-      <c r="R66" t="s">
-        <v>182</v>
+        <v>43397</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.45">
@@ -3058,68 +3481,74 @@
         <v>69</v>
       </c>
       <c r="B67" s="14">
-        <v>43518</v>
+        <v>43419</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="P67" t="s">
+        <v>184</v>
       </c>
       <c r="R67" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A68" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="16">
-        <v>43850</v>
+      <c r="B68" s="14">
+        <v>43518</v>
       </c>
       <c r="R68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="14">
-        <v>44377</v>
+      <c r="B69" s="16">
+        <v>43850</v>
       </c>
       <c r="R69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A70" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" s="16">
-        <v>42283</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="B70" s="14">
+        <v>44377</v>
       </c>
       <c r="R70" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="11">
-        <v>42326</v>
+      <c r="B71" s="16">
+        <v>42283</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
       </c>
       <c r="R71" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A72" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="14">
-        <v>42996</v>
+      <c r="B72" s="11">
+        <v>42326</v>
       </c>
       <c r="R72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.45">
@@ -3127,41 +3556,50 @@
         <v>8</v>
       </c>
       <c r="B73" s="14">
-        <v>43105</v>
+        <v>42996</v>
       </c>
       <c r="R73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="11">
-        <v>44179</v>
+      <c r="B74" s="14">
+        <v>43105</v>
       </c>
       <c r="R74" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="14">
+      <c r="B75" s="11">
+        <v>44179</v>
+      </c>
+      <c r="R75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="14">
         <v>44377</v>
       </c>
-      <c r="R75" t="s">
+      <c r="R76" t="s">
         <v>193</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R75" xr:uid="{3D652218-3B78-4CB0-BA25-8DE344561C19}">
-    <filterColumn colId="13">
-      <filters blank="1">
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:R76" xr:uid="{3D652218-3B78-4CB0-BA25-8DE344561C19}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R76">
+      <sortCondition ref="A1:A76"/>
+    </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="R37" r:id="rId1" display="https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16" xr:uid="{5D92F416-BAAC-4FB5-B839-9525CB830178}"/>
@@ -3173,34 +3611,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CCC5DF-E81D-45C6-92D8-92AE6A0AD22C}">
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.06640625" customWidth="1"/>
-    <col min="3" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="36.73046875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="21.46484375" customWidth="1"/>
-    <col min="9" max="9" width="28.86328125" customWidth="1"/>
-    <col min="10" max="10" width="22.3984375" customWidth="1"/>
-    <col min="11" max="11" width="25.1328125" customWidth="1"/>
-    <col min="12" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="10.73046875" customWidth="1"/>
-    <col min="15" max="15" width="21.1328125" customWidth="1"/>
-    <col min="16" max="16" width="49.73046875" customWidth="1"/>
-    <col min="17" max="17" width="57.33203125" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="36.73046875" style="6" customWidth="1"/>
+    <col min="5" max="7" width="21.46484375" customWidth="1"/>
+    <col min="8" max="8" width="22.3984375" customWidth="1"/>
+    <col min="9" max="11" width="25.1328125" customWidth="1"/>
+    <col min="12" max="12" width="10.73046875" customWidth="1"/>
+    <col min="13" max="13" width="21.1328125" customWidth="1"/>
+    <col min="14" max="14" width="49.73046875" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3208,1057 +3643,2231 @@
         <v>100</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>101</v>
       </c>
+      <c r="E1" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="F1" s="12" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>103</v>
+        <v>258</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>104</v>
+        <v>254</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>106</v>
+        <v>255</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="R1" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="25">
         <v>44480</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>127</v>
       </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
       <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
         <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J2" t="s">
+        <v>262</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="N2">
-        <v>1</v>
+      <c r="M2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="O2" t="s">
-        <v>153</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="R2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="26">
         <v>44483</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>131</v>
       </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
       <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
         <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3" t="s">
+        <v>262</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="26">
         <v>44169</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>132</v>
       </c>
+      <c r="E4">
+        <v>2038</v>
+      </c>
       <c r="F4">
-        <v>2038</v>
+        <v>8.5</v>
       </c>
       <c r="G4">
-        <v>8.5</v>
-      </c>
-      <c r="H4">
         <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>273</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="O4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="25">
         <v>44568</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="E5">
+        <v>2033</v>
+      </c>
+      <c r="H5" t="s">
+        <v>261</v>
+      </c>
+      <c r="J5" t="s">
+        <v>262</v>
+      </c>
+      <c r="L5" t="s">
+        <v>302</v>
+      </c>
+      <c r="O5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="27">
         <v>40872</v>
       </c>
-      <c r="F6">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6">
         <v>2030</v>
       </c>
-      <c r="R6" t="s">
+      <c r="H6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>311</v>
+      </c>
+      <c r="O6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="14">
-        <v>41941</v>
+      <c r="B7" s="27">
+        <v>43055</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G7">
-        <v>2.5</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2030</v>
+      </c>
+      <c r="H7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="27">
+        <v>41941</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8">
+        <v>2025</v>
+      </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>281</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="L8" t="s">
+        <v>302</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="16">
         <v>43055</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
         <v>198</v>
       </c>
-      <c r="K8" t="s">
-        <v>199</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="H9" t="s">
+        <v>261</v>
+      </c>
+      <c r="I9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J9" t="s">
+        <v>261</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="16">
-        <v>42697</v>
-      </c>
-      <c r="G9">
-        <v>2.6</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="14">
-        <v>42978</v>
-      </c>
-      <c r="E10"/>
-      <c r="R10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B10" s="16">
+        <v>42697</v>
+      </c>
+      <c r="F10">
+        <v>2.6</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>247</v>
+      </c>
+      <c r="J10" t="s">
+        <v>261</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="14">
-        <v>43200</v>
-      </c>
-      <c r="E11"/>
-      <c r="R11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B11" s="27">
+        <v>42978</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11">
+        <v>2030</v>
+      </c>
+      <c r="H11" t="s">
+        <v>261</v>
+      </c>
+      <c r="J11" t="s">
+        <v>262</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" t="s">
+        <v>286</v>
+      </c>
+      <c r="O11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="14">
-        <v>43391</v>
-      </c>
-      <c r="E12"/>
-      <c r="R12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B12" s="27">
+        <v>43200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E12">
+        <v>2029</v>
+      </c>
+      <c r="H12" t="s">
+        <v>261</v>
+      </c>
+      <c r="J12" t="s">
+        <v>262</v>
+      </c>
+      <c r="L12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="27">
+        <v>43391</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13">
+        <v>2029</v>
+      </c>
+      <c r="H13" t="s">
+        <v>261</v>
+      </c>
+      <c r="J13" t="s">
+        <v>262</v>
+      </c>
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="27">
         <v>43523</v>
       </c>
-      <c r="E13"/>
-      <c r="R13" t="s">
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>2029</v>
+      </c>
+      <c r="H14" t="s">
+        <v>261</v>
+      </c>
+      <c r="I14" t="s">
+        <v>228</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="L14" t="s">
+        <v>291</v>
+      </c>
+      <c r="O14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B15" s="14">
         <v>42689</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F14">
+      <c r="E15">
         <v>2023</v>
       </c>
-      <c r="G14">
+      <c r="F15">
         <v>3.5</v>
       </c>
-      <c r="H14">
+      <c r="G15">
         <v>11</v>
       </c>
-      <c r="K14" t="s">
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" t="s">
         <v>137</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="P14" s="6" t="s">
+      <c r="J15" t="s">
+        <v>262</v>
+      </c>
+      <c r="L15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="R14" t="s">
+      <c r="O15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="11">
-        <v>43357</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15">
-        <v>2038</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="R15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="15">
-        <v>43491</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16">
+      <c r="B16" s="25">
+        <v>43357</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16">
         <v>2038</v>
       </c>
-      <c r="G16">
-        <v>47.6</v>
-      </c>
-      <c r="H16">
-        <v>175</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="P16" s="6"/>
-      <c r="R16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="H16" t="s">
+        <v>261</v>
+      </c>
+      <c r="J16" t="s">
+        <v>262</v>
+      </c>
+      <c r="L16" t="s">
+        <v>289</v>
+      </c>
+      <c r="O16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="11">
-        <v>43846</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17">
-        <v>2038</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="P17" s="6"/>
-      <c r="R17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B17" s="25">
+        <v>43419</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>346</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
+        <v>347</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="11">
-        <v>44015</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18">
+      <c r="B18" s="14">
+        <v>43846</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18">
         <v>2038</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="P18" s="6"/>
-      <c r="R18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I18" t="s">
+        <v>231</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="L18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" t="s">
+        <v>294</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="11">
-        <v>44484</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>143</v>
+      <c r="B19" s="26">
+        <v>43491</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19">
+        <v>2038</v>
       </c>
       <c r="F19">
-        <v>2030</v>
-      </c>
-      <c r="N19">
+        <v>47.6</v>
+      </c>
+      <c r="G19">
+        <v>175</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" t="s">
+        <v>262</v>
+      </c>
+      <c r="L19">
         <v>1</v>
       </c>
-      <c r="P19" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="R19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="N19" s="6"/>
+      <c r="O19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="11">
-        <v>44705</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B20" s="25">
+        <v>43808</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>261</v>
+      </c>
+      <c r="J20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="11">
-        <v>44732</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="6"/>
-      <c r="R21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B21" s="16">
+        <v>44705</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" t="s">
+        <v>261</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="L21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="P22" s="6"/>
-      <c r="R22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
+      <c r="B22" s="25">
+        <v>44015</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22">
+        <v>2038</v>
+      </c>
+      <c r="H22" t="s">
+        <v>261</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="L22" t="s">
+        <v>291</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="25">
+        <v>44484</v>
+      </c>
+      <c r="C23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23">
+        <v>2030</v>
+      </c>
+      <c r="H23" t="s">
+        <v>261</v>
+      </c>
+      <c r="J23" t="s">
+        <v>262</v>
+      </c>
+      <c r="L23" t="s">
+        <v>293</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="O23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="25">
+        <v>40616</v>
+      </c>
+      <c r="C24" t="s">
+        <v>349</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="H24" t="s">
+        <v>281</v>
+      </c>
+      <c r="I24" t="s">
+        <v>261</v>
+      </c>
+      <c r="J24" t="s">
+        <v>261</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="25">
+        <v>40693</v>
+      </c>
+      <c r="C25" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="H25" t="s">
+        <v>281</v>
+      </c>
+      <c r="I25" t="s">
+        <v>261</v>
+      </c>
+      <c r="J25" t="s">
+        <v>261</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="25">
+        <v>44732</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" t="s">
+        <v>261</v>
+      </c>
+      <c r="I26" t="s">
+        <v>296</v>
+      </c>
+      <c r="J26" t="s">
+        <v>261</v>
+      </c>
+      <c r="L26" t="s">
+        <v>295</v>
+      </c>
+      <c r="O26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B27" s="27">
         <v>43731</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F23">
+      <c r="E27">
         <v>2028</v>
       </c>
-      <c r="K23" t="s">
-        <v>148</v>
-      </c>
-      <c r="N23">
+      <c r="H27" t="s">
+        <v>261</v>
+      </c>
+      <c r="I27" t="s">
+        <v>229</v>
+      </c>
+      <c r="J27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L27" t="s">
+        <v>304</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="O27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="27">
+        <v>44312</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E28">
+        <v>2025</v>
+      </c>
+      <c r="H28" t="s">
+        <v>261</v>
+      </c>
+      <c r="I28" t="s">
+        <v>301</v>
+      </c>
+      <c r="J28" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s">
+        <v>302</v>
+      </c>
+      <c r="N28" t="s">
+        <v>150</v>
+      </c>
+      <c r="O28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="27">
+        <v>44462</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L29" t="s">
+        <v>302</v>
+      </c>
+      <c r="O29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="14">
+        <v>44657</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30">
+        <v>2028</v>
+      </c>
+      <c r="H30" t="s">
+        <v>261</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="L30" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="16">
+        <v>44530</v>
+      </c>
+      <c r="H31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" t="s">
+        <v>261</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="27">
+        <v>43424</v>
+      </c>
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="P23" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="R23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="14">
-        <v>44312</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24">
+      <c r="D32" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E32">
+        <v>2030</v>
+      </c>
+      <c r="F32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
+        <v>345</v>
+      </c>
+      <c r="J32" t="s">
+        <v>261</v>
+      </c>
+      <c r="L32" t="s">
+        <v>304</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="14">
+        <v>43731</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E33">
+        <v>2030</v>
+      </c>
+      <c r="H33" t="s">
+        <v>261</v>
+      </c>
+      <c r="I33" t="s">
+        <v>253</v>
+      </c>
+      <c r="J33" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" t="s">
+        <v>52</v>
+      </c>
+      <c r="O33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="26">
+        <v>43032</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="E34">
         <v>2025</v>
       </c>
-      <c r="P24" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q24" s="6"/>
-      <c r="R24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="14">
-        <v>44462</v>
-      </c>
-      <c r="R25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="16">
-        <v>44530</v>
-      </c>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="14">
-        <v>44657</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27">
-        <v>2028</v>
-      </c>
-      <c r="P27" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="16">
-        <v>43424</v>
-      </c>
-      <c r="G28">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H28">
-        <v>4</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="R28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="14">
+      <c r="H34" t="s">
+        <v>261</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="L34" t="s">
+        <v>304</v>
+      </c>
+      <c r="O34" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="16">
         <v>43731</v>
       </c>
-      <c r="Q29" s="6"/>
-      <c r="R29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A30" s="4" t="s">
+      <c r="H35" t="s">
+        <v>261</v>
+      </c>
+      <c r="I35" t="s">
+        <v>230</v>
+      </c>
+      <c r="J35" t="s">
+        <v>262</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="15">
-        <v>43032</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="R30" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="11">
+      <c r="B36" s="11">
         <v>43049</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="R31" t="s">
+      <c r="E36">
+        <v>2025</v>
+      </c>
+      <c r="H36" t="s">
+        <v>261</v>
+      </c>
+      <c r="I36" t="s">
+        <v>248</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="L36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O36" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="16">
-        <v>43731</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="16">
-        <v>42636</v>
-      </c>
-      <c r="P33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="15">
-        <v>43018</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="14">
-        <v>43238</v>
-      </c>
-      <c r="R35" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="16">
-        <v>43802</v>
-      </c>
-      <c r="P36" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="R37" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="11">
-        <v>44099</v>
-      </c>
-      <c r="E38"/>
-      <c r="F38">
-        <v>2049</v>
-      </c>
-      <c r="G38">
-        <v>30.2</v>
-      </c>
-      <c r="H38">
-        <v>104</v>
-      </c>
-      <c r="R38" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="14">
-        <v>43055</v>
-      </c>
-      <c r="D39" t="s">
-        <v>211</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
-        <v>12</v>
-      </c>
-      <c r="K39" t="s">
-        <v>138</v>
+      <c r="B37" s="16">
+        <v>43802</v>
+      </c>
+      <c r="H37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" t="s">
+        <v>251</v>
+      </c>
+      <c r="J37" t="s">
+        <v>261</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="27">
+        <v>42636</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="H38" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" t="s">
+        <v>261</v>
+      </c>
+      <c r="L38" t="s">
+        <v>49</v>
+      </c>
+      <c r="N38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="26">
+        <v>43018</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E39">
+        <v>2030</v>
+      </c>
+      <c r="H39" t="s">
+        <v>261</v>
+      </c>
+      <c r="J39" t="s">
+        <v>262</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
-      <c r="P39" s="6" t="s">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="27">
+        <v>43238</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H40" t="s">
+        <v>261</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="L40" t="s">
+        <v>309</v>
+      </c>
+      <c r="O40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A42" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="25">
+        <v>44099</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E42">
+        <v>2049</v>
+      </c>
+      <c r="F42">
+        <v>30.2</v>
+      </c>
+      <c r="G42">
+        <v>104</v>
+      </c>
+      <c r="H42" t="s">
+        <v>261</v>
+      </c>
+      <c r="J42" t="s">
+        <v>262</v>
+      </c>
+      <c r="L42" t="s">
+        <v>49</v>
+      </c>
+      <c r="O42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="16">
+        <v>43055</v>
+      </c>
+      <c r="C43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>261</v>
+      </c>
+      <c r="I43" t="s">
+        <v>250</v>
+      </c>
+      <c r="J43" t="s">
+        <v>261</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="R39" t="s">
+      <c r="O43" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="44" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B44" s="27">
+        <v>43055</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>313</v>
+      </c>
+      <c r="E44" s="6">
+        <v>2030</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>261</v>
+      </c>
+      <c r="I44" t="s">
+        <v>138</v>
+      </c>
+      <c r="J44" t="s">
+        <v>261</v>
+      </c>
+      <c r="L44" t="s">
+        <v>304</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="O44" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="27">
         <v>43764</v>
       </c>
-      <c r="E40"/>
-      <c r="R40" t="s">
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E45">
+        <v>2023</v>
+      </c>
+      <c r="H45" t="s">
+        <v>261</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="L45" t="s">
+        <v>302</v>
+      </c>
+      <c r="O45" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A41" s="4" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A46" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B46" s="27">
         <v>44342</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="N41">
+      <c r="E46">
+        <v>2032</v>
+      </c>
+      <c r="H46" t="s">
+        <v>261</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="L46" t="s">
+        <v>289</v>
+      </c>
+      <c r="O46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A47" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="25">
+        <v>44350</v>
+      </c>
+      <c r="C47">
         <v>1</v>
       </c>
-      <c r="R41" t="s">
+      <c r="D47" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E47">
+        <v>2032</v>
+      </c>
+      <c r="H47" t="s">
+        <v>261</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="L47" t="s">
+        <v>315</v>
+      </c>
+      <c r="N47" s="6"/>
+      <c r="O47" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A42" s="4" t="s">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A48" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="11">
-        <v>44350</v>
-      </c>
-      <c r="P42" s="6"/>
-      <c r="R42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A43" s="4" t="s">
+      <c r="B48" s="27">
+        <v>44469</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E48">
+        <v>2032</v>
+      </c>
+      <c r="H48" t="s">
+        <v>50</v>
+      </c>
+      <c r="J48" t="s">
+        <v>261</v>
+      </c>
+      <c r="N48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A49" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="16">
-        <v>44469</v>
-      </c>
-      <c r="P43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A44" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="16">
+      <c r="B49" s="16">
         <v>44712</v>
       </c>
-      <c r="P44" s="6"/>
-      <c r="R44" t="s">
+      <c r="H49" t="s">
+        <v>52</v>
+      </c>
+      <c r="J49" t="s">
+        <v>261</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6"/>
+      <c r="O49" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A45" s="4" t="s">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A50" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B50" s="16">
         <v>43091</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C50" t="s">
         <v>215</v>
       </c>
-      <c r="P45" s="6"/>
-      <c r="R45" t="s">
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+      <c r="J50" t="s">
+        <v>261</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6"/>
+      <c r="O50" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A46" s="4" t="s">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B51" s="16">
+        <v>43497</v>
+      </c>
+      <c r="F51">
+        <v>0.7</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51" t="s">
+        <v>52</v>
+      </c>
+      <c r="J51" t="s">
+        <v>261</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="27">
         <v>43423</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="P46" s="6"/>
-      <c r="R46" t="s">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E52">
+        <v>2023</v>
+      </c>
+      <c r="H52" t="s">
+        <v>261</v>
+      </c>
+      <c r="I52" t="s">
+        <v>344</v>
+      </c>
+      <c r="J52" t="s">
+        <v>262</v>
+      </c>
+      <c r="N52" s="6"/>
+      <c r="O52" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="18">
-        <v>43497</v>
-      </c>
-      <c r="G47">
-        <v>0.7</v>
-      </c>
-      <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="R47" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="19">
+      <c r="B53" s="27">
         <v>43634</v>
       </c>
-      <c r="D48" t="s">
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" t="s">
         <v>220</v>
       </c>
-      <c r="R48" t="s">
+      <c r="E53">
+        <v>2023</v>
+      </c>
+      <c r="H53" t="s">
+        <v>261</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="L53" t="s">
+        <v>319</v>
+      </c>
+      <c r="N53" t="s">
+        <v>318</v>
+      </c>
+      <c r="O53" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A49" s="4" t="s">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B54" s="27">
+        <v>44270</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>325</v>
+      </c>
+      <c r="E54">
+        <v>2033</v>
+      </c>
+      <c r="H54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J54" t="s">
+        <v>261</v>
+      </c>
+      <c r="L54" t="s">
+        <v>49</v>
+      </c>
+      <c r="O54" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="27">
+        <v>44574</v>
+      </c>
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E55">
+        <v>2033</v>
+      </c>
+      <c r="F55">
+        <v>1.5</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55" t="s">
+        <v>261</v>
+      </c>
+      <c r="J55" t="s">
+        <v>262</v>
+      </c>
+      <c r="L55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N55" t="s">
+        <v>322</v>
+      </c>
+      <c r="O55" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A56" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="28">
         <v>44504</v>
       </c>
-      <c r="P49" t="s">
+      <c r="H56" t="s">
+        <v>52</v>
+      </c>
+      <c r="I56" t="s">
+        <v>252</v>
+      </c>
+      <c r="J56" t="s">
+        <v>261</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
         <v>224</v>
       </c>
-      <c r="R49" t="s">
+      <c r="O56" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A57" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B50" s="11">
-        <v>44574</v>
-      </c>
-      <c r="G50">
-        <v>1.5</v>
-      </c>
-      <c r="H50">
-        <v>5</v>
-      </c>
-      <c r="R50" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A51" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="16" t="s">
+      <c r="B57" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="R51" t="s">
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A52" s="4" t="s">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A58" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B58" s="16">
+        <v>43850</v>
+      </c>
+      <c r="H58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I58" t="s">
+        <v>232</v>
+      </c>
+      <c r="J58" t="s">
+        <v>261</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A59" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="16">
+        <v>44377</v>
+      </c>
+      <c r="H59" t="s">
+        <v>261</v>
+      </c>
+      <c r="I59" t="s">
+        <v>233</v>
+      </c>
+      <c r="J59" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A60" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="27">
         <v>43397</v>
       </c>
-      <c r="P52" s="6" t="s">
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H60" t="s">
+        <v>261</v>
+      </c>
+      <c r="J60" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="N60" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A53" s="4" t="s">
+    <row r="61" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B61" s="27">
         <v>43419</v>
       </c>
-      <c r="N53">
+      <c r="C61" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E61">
+        <v>2030</v>
+      </c>
+      <c r="H61" t="s">
+        <v>261</v>
+      </c>
+      <c r="I61" t="s">
+        <v>343</v>
+      </c>
+      <c r="J61" t="s">
+        <v>262</v>
+      </c>
+      <c r="L61" t="s">
+        <v>327</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O61" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A62" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="27">
+        <v>43518</v>
+      </c>
+      <c r="C62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E62">
+        <v>2030</v>
+      </c>
+      <c r="H62" t="s">
+        <v>261</v>
+      </c>
+      <c r="I62" t="s">
+        <v>227</v>
+      </c>
+      <c r="J62" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="O62" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="16">
+        <v>44377</v>
+      </c>
+      <c r="H63" t="s">
+        <v>261</v>
+      </c>
+      <c r="I63" t="s">
+        <v>234</v>
+      </c>
+      <c r="J63" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="27">
+        <v>42283</v>
+      </c>
+      <c r="C64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E64">
+        <v>2023</v>
+      </c>
+      <c r="H64" t="s">
+        <v>50</v>
+      </c>
+      <c r="J64" t="s">
+        <v>261</v>
+      </c>
+      <c r="L64" t="s">
+        <v>289</v>
+      </c>
+      <c r="O64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="25">
+        <v>42326</v>
+      </c>
+      <c r="C65">
         <v>1</v>
       </c>
-      <c r="P53" t="s">
-        <v>184</v>
-      </c>
-      <c r="R53" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A54" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="14">
-        <v>43518</v>
-      </c>
-      <c r="R54" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A55" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="16">
-        <v>43850</v>
-      </c>
-      <c r="R55" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A56" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="14">
-        <v>44377</v>
-      </c>
-      <c r="R56" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A57" s="4" t="s">
+      <c r="D65" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E65">
+        <v>2025</v>
+      </c>
+      <c r="H65" t="s">
+        <v>261</v>
+      </c>
+      <c r="J65" t="s">
+        <v>262</v>
+      </c>
+      <c r="L65" t="s">
+        <v>332</v>
+      </c>
+      <c r="O65" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="16">
-        <v>42283</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="R57" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A58" s="4" t="s">
+      <c r="B66" s="14">
+        <v>42996</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E66">
+        <v>2025</v>
+      </c>
+      <c r="H66" t="s">
+        <v>261</v>
+      </c>
+      <c r="J66" t="s">
+        <v>262</v>
+      </c>
+      <c r="L66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O66" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A67" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="11">
-        <v>42326</v>
-      </c>
-      <c r="R58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A59" s="4" t="s">
+      <c r="B67" s="27">
+        <v>43105</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E67">
+        <v>2025</v>
+      </c>
+      <c r="H67" t="s">
+        <v>261</v>
+      </c>
+      <c r="J67" t="s">
+        <v>262</v>
+      </c>
+      <c r="L67" t="s">
+        <v>335</v>
+      </c>
+      <c r="O67" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A68" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="14">
-        <v>42996</v>
-      </c>
-      <c r="R59" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="14">
-        <v>43105</v>
-      </c>
-      <c r="R60" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="11">
+      <c r="B68" s="25">
         <v>44179</v>
       </c>
-      <c r="R61" t="s">
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E68">
+        <v>2024</v>
+      </c>
+      <c r="H68" t="s">
+        <v>261</v>
+      </c>
+      <c r="J68" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="K68" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="L68" t="s">
+        <v>338</v>
+      </c>
+      <c r="N68" t="s">
+        <v>339</v>
+      </c>
+      <c r="O68" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="14">
-        <v>44377</v>
-      </c>
-      <c r="R62" t="s">
-        <v>193</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:R62" xr:uid="{3D652218-3B78-4CB0-BA25-8DE344561C19}"/>
+  <autoFilter ref="A1:O68" xr:uid="{3D652218-3B78-4CB0-BA25-8DE344561C19}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O68">
+      <sortCondition ref="A1:A68"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="R30" r:id="rId1" display="https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16" xr:uid="{505B5FEE-A6F5-47CB-9917-E30704A91A4C}"/>
+    <hyperlink ref="O34" r:id="rId1" display="https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16" xr:uid="{505B5FEE-A6F5-47CB-9917-E30704A91A4C}"/>
+    <hyperlink ref="J6" r:id="rId2" display="https://ec.europa.eu/clima/news-your-voice/news/update-preparatory-steps-auctioning-phase-3-allowances-2011-11-25_en" xr:uid="{E0BDB423-56EA-44F0-A54A-0F5B4F2A2147}"/>
+    <hyperlink ref="K6" r:id="rId3" display="https://ec.europa.eu/clima/news-your-voice/news/enhancing-eu-rules-monitoring-greenhouse-gas-emissions-2011-11-23_en" xr:uid="{9BD80364-5CA2-43DB-B2CC-0E03E8DA4A0C}"/>
+    <hyperlink ref="J8" r:id="rId4" display="https://ec.europa.eu/clima/news-your-voice/news/european-commission-adopts-carbon-leakage-list-period-2015-2019-2014-10-27_en" xr:uid="{A6A17CE0-740F-4D5D-B313-5A7D344A91EA}"/>
+    <hyperlink ref="K8" r:id="rId5" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2014-11-04_en" xr:uid="{8247D59B-1565-4720-B464-3B76D4306051}"/>
+    <hyperlink ref="J34" r:id="rId6" display="https://ec.europa.eu/clima/news-your-voice/news/commission-proposes-safeguard-measures-eu-emissions-trading-system-2017-10-24_en" xr:uid="{0DD0FCDC-28E2-41DE-B6F4-45CBD31C5107}"/>
+    <hyperlink ref="J36" r:id="rId7" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2017-11-06_en" xr:uid="{13CCF2E4-4BEB-447B-B73C-69BAB51FDDF4}"/>
+    <hyperlink ref="K36" r:id="rId8" display="https://ec.europa.eu/clima/news-your-voice/news/eu-emissions-trading-system-landmark-agreement-between-parliament-and-council-delivers-eus-2017-11-09_en" xr:uid="{454861F8-3E39-4C29-A4AA-465B15683294}"/>
+    <hyperlink ref="J40" r:id="rId9" display="https://ec.europa.eu/clima/news-your-voice/news/ets-market-stability-reserve-will-start-reducing-auction-volume-almost-265-million-allowances-over-2018-05-15_en" xr:uid="{C721078D-42C8-4E8F-A645-8D1BD1241E6C}"/>
+    <hyperlink ref="J60" r:id="rId10" display="https://ec.europa.eu/clima/news-your-voice/news/emissions-trading-commission-adopts-amendment-ets-auctioning-regulation-2018-10-30_en" xr:uid="{1DA6063C-C717-4DBA-BA11-FA42D50774A1}"/>
+    <hyperlink ref="J62" r:id="rId11" display="https://ec.europa.eu/clima/news-your-voice/news/towards-climate-neutral-europe-eu-invests-over-eu10bn-innovative-clean-technologies-2019-02-26_en" xr:uid="{507015DA-B303-49DD-BE42-8DA9AF07D7DC}"/>
+    <hyperlink ref="J14" r:id="rId12" display="https://ec.europa.eu/clima/news-your-voice/news/towards-climate-neutral-europe-eu-invests-over-eu10bn-innovative-clean-technologies-2019-02-26_en" xr:uid="{F695F6A8-94CC-4324-881A-6C6ADE693EA0}"/>
+    <hyperlink ref="J53" r:id="rId13" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2019-06-19_en" xr:uid="{A71B360B-E82C-443B-A0BC-C4F1B76F9882}"/>
+    <hyperlink ref="K53" r:id="rId14" display="https://ec.europa.eu/clima/news-your-voice/news/polands-2020-auction-volume-include-allowances-not-used-power-sector-modernisation-2019-06-12_en" xr:uid="{415A5C0B-1796-4A12-9A96-39DA2523F414}"/>
+    <hyperlink ref="J45" r:id="rId15" display="https://ec.europa.eu/clima/news-your-voice/news/adoption-regulation-adjustments-free-allocation-emission-allowances-due-activity-level-changes-2019-10-31_en" xr:uid="{F8C2477A-A966-4A33-B989-ABEB3FD073BF}"/>
+    <hyperlink ref="J18" r:id="rId16" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-status-update-new-entrants-reserve-2020-01-15_en" xr:uid="{ABCA4C5C-168F-4911-A05E-3E193BB0607F}"/>
+    <hyperlink ref="J22" r:id="rId17" display="https://ec.europa.eu/clima/news-your-voice/news/2020-revised-auction-calendars-published-2020-07-01_en" xr:uid="{9D566DF6-E071-4458-A5B6-59D0E48FBF3A}"/>
+    <hyperlink ref="J4" r:id="rId18" display="https://ec.europa.eu/clima/news-your-voice/news/draft-implementing-regulation-determining-revised-benchmark-values-period-2021-2025-open-4-week-2020-12-08_en" xr:uid="{19E0304F-6616-473B-A894-D0B7F9DBC892}"/>
+    <hyperlink ref="J68" r:id="rId19" display="https://ec.europa.eu/clima/news-your-voice/news/draft-implementing-regulation-determining-revised-benchmark-values-period-2021-2025-open-4-week-2020-12-08_en" xr:uid="{658F0735-A061-4C52-B67E-F6B04D42BB54}"/>
+    <hyperlink ref="K68" r:id="rId20" display="https://ec.europa.eu/clima/news-your-voice/news/further-information-start-phase-4-eu-ets-2021-emission-allowances-be-issued-aircraft-operators-and-2020-12-11_en" xr:uid="{687C8CA1-0617-4C04-B1E2-3A6EE9FA542A}"/>
+    <hyperlink ref="J46" r:id="rId21" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credits-use-eu-ets-2021-05-25_en" xr:uid="{786141D5-4E60-47E5-868D-0BC2E5D732A1}"/>
+    <hyperlink ref="K46" r:id="rId22" display="https://ec.europa.eu/clima/news-your-voice/news/commission-adopts-uniform-cross-sectoral-correction-factor-be-applied-free-allocation-2021-2025-eu-2021-05-31_en" xr:uid="{727E1C4B-1C90-4B4F-B840-392DA92B4D85}"/>
+    <hyperlink ref="J47" r:id="rId23" display="https://ec.europa.eu/clima/news-your-voice/news/commission-adopts-uniform-cross-sectoral-correction-factor-be-applied-free-allocation-2021-2025-eu-2021-05-31_en" xr:uid="{229EEBB8-9D9F-4092-B53F-78A789BC03EF}"/>
+    <hyperlink ref="J59" r:id="rId24" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-national-allocation-tables-member-states-eu-ets-stationary-installations-2021-06-29_en" xr:uid="{89D453DE-89FB-4B15-9C24-8E5340DED0FD}"/>
+    <hyperlink ref="J63" r:id="rId25" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-national-allocation-tables-member-states-eu-ets-stationary-installations-2021-06-29_en" xr:uid="{E19D2B34-612B-4770-9952-A0724072D571}"/>
+    <hyperlink ref="J21" r:id="rId26" display="https://ec.europa.eu/clima/news-your-voice/news/revised-2022-auction-calendar-general-allowances-published-2022-05-19_en" xr:uid="{D6A0CCD9-573F-4ABD-A090-B97A1BD04FAE}"/>
+    <hyperlink ref="K21" r:id="rId27" display="https://ec.europa.eu/commission/presscorner/detail/en/ip_22_3131" xr:uid="{EBAADABC-FD35-40D8-894F-A1A7B431C0BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F04AECB-DE21-40E1-BE46-F4D01F8ED512}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.53125" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBACDB4C-377C-4D42-A1C4-4E227FE38167}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="97.265625" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="61.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="61.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="46.15" x14ac:dyDescent="0.45">
+      <c r="A7" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" s="20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Other data/Coal phase out announcements.xlsx
+++ b/Other data/Coal phase out announcements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive - London School of Economics\Documents\LSE\GY489_Dissertation\LETS GO\Dissertation-Code-Data\Other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44AE399-B6A1-41F5-8272-3D69FE00AE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15171072-9B7A-41C3-A797-D3E8EAB2575C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="356">
   <si>
     <t>Country</t>
   </si>
@@ -1138,13 +1138,16 @@
   <si>
     <t xml:space="preserve">Energy state secretary announces 2025 phase-out; 22: company announces it </t>
   </si>
+  <si>
+    <t>confounding event CP: expectations of post 2020 ETS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyymmdd"/>
+    <numFmt numFmtId="164" formatCode="yyyymmdd"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1279,10 +1282,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2344,10 +2347,10 @@
   <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2426,1183 +2429,1183 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14">
+        <v>40872</v>
+      </c>
+      <c r="F2">
+        <v>2030</v>
+      </c>
+      <c r="R2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3"/>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="11">
-        <v>44480</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>15</v>
-      </c>
-      <c r="L4">
+        <v>36</v>
+      </c>
+      <c r="B3" s="14">
+        <v>41941</v>
+      </c>
+      <c r="D3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3">
+        <v>2.5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="L3">
         <v>1</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="16">
+        <v>42283</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
-      <c r="O4" t="s">
-        <v>153</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="R4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="15">
-        <v>44483</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>15</v>
-      </c>
-      <c r="L5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11">
+        <v>42326</v>
+      </c>
+      <c r="R5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="16">
+        <v>42636</v>
+      </c>
+      <c r="P6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="14">
+        <v>42689</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7">
+        <v>2023</v>
+      </c>
+      <c r="G7">
+        <v>3.5</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="N5">
+      <c r="N7">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6">
-        <v>0.3</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7"/>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="P7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="R7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="15">
-        <v>44169</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8">
-        <v>2038</v>
+        <v>24</v>
+      </c>
+      <c r="B8" s="16">
+        <v>42697</v>
       </c>
       <c r="G8">
-        <v>8.5</v>
+        <v>2.6</v>
       </c>
       <c r="H8">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="N8">
+      <c r="P8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="14">
+        <v>42978</v>
+      </c>
+      <c r="E9"/>
+      <c r="R9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14">
+        <v>42996</v>
+      </c>
+      <c r="R10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="15">
+        <v>43018</v>
+      </c>
+      <c r="N11">
         <v>1</v>
       </c>
-      <c r="R8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="11">
-        <v>44568</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="N9">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="15">
+        <v>43032</v>
+      </c>
+      <c r="N12">
         <v>1</v>
       </c>
-      <c r="R9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="R12" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="11">
+        <v>43049</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="R13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="14">
-        <v>40872</v>
-      </c>
-      <c r="F10">
-        <v>2030</v>
-      </c>
-      <c r="R10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="14">
-        <v>41941</v>
-      </c>
-      <c r="D11" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11">
-        <v>2.5</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="L11">
+      <c r="B14" s="14">
+        <v>43055</v>
+      </c>
+      <c r="D14" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" t="s">
+        <v>199</v>
+      </c>
+      <c r="R14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14">
+        <v>43055</v>
+      </c>
+      <c r="D15" t="s">
+        <v>211</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15">
         <v>1</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P15" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="R11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="14">
-        <v>43055</v>
-      </c>
-      <c r="D12" t="s">
-        <v>198</v>
-      </c>
-      <c r="K12" t="s">
-        <v>199</v>
-      </c>
-      <c r="R12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13"/>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="16">
-        <v>42697</v>
-      </c>
-      <c r="G14">
-        <v>2.6</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="14">
-        <v>42978</v>
-      </c>
-      <c r="E15"/>
       <c r="R15" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="14">
-        <v>43200</v>
-      </c>
-      <c r="E16"/>
+      <c r="A16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="16">
+        <v>43091</v>
+      </c>
+      <c r="D16" t="s">
+        <v>215</v>
+      </c>
+      <c r="P16" s="6"/>
       <c r="R16" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>24</v>
+      <c r="A17" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B17" s="14">
-        <v>43391</v>
-      </c>
-      <c r="E17"/>
+        <v>43105</v>
+      </c>
       <c r="R17" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="16">
+        <v>43169</v>
+      </c>
+      <c r="G18">
+        <v>0.9</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="R18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="14">
-        <v>43523</v>
-      </c>
-      <c r="E18"/>
-      <c r="R18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
       <c r="B19" s="14">
-        <v>42689</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19">
-        <v>2023</v>
-      </c>
-      <c r="G19">
-        <v>3.5</v>
-      </c>
-      <c r="H19">
-        <v>11</v>
-      </c>
-      <c r="K19" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>135</v>
-      </c>
+        <v>43200</v>
+      </c>
+      <c r="E19"/>
       <c r="R19" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="11">
-        <v>43357</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20">
-        <v>2038</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>108</v>
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="14">
+        <v>43238</v>
       </c>
       <c r="R20" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="15">
-        <v>43491</v>
+      <c r="B21" s="11">
+        <v>43357</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F21">
         <v>2038</v>
       </c>
-      <c r="G21">
-        <v>47.6</v>
-      </c>
-      <c r="H21">
-        <v>175</v>
-      </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
-      <c r="P21" s="6"/>
+      <c r="Q21" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="R21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="11">
-        <v>43846</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22">
-        <v>2038</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="P22" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="B22" s="14">
+        <v>43391</v>
+      </c>
+      <c r="E22"/>
       <c r="R22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="11">
-        <v>44015</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23">
-        <v>2038</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="P23" s="6"/>
-      <c r="R23" t="s">
-        <v>160</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="14">
+        <v>43397</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="11">
-        <v>44484</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24">
-        <v>2030</v>
+      <c r="A24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="14">
+        <v>43419</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
-      <c r="P24" s="6" t="s">
-        <v>146</v>
+      <c r="P24" t="s">
+        <v>184</v>
       </c>
       <c r="R24" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="11">
-        <v>44705</v>
+      <c r="A25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="14">
+        <v>43423</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+      <c r="P25" s="6"/>
+      <c r="R25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="11">
-        <v>44732</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="B26" s="16">
+        <v>43424</v>
+      </c>
+      <c r="G26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="R26" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>167</v>
+      <c r="B27" s="15">
+        <v>43491</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27">
+        <v>2038</v>
+      </c>
+      <c r="G27">
+        <v>47.6</v>
+      </c>
+      <c r="H27">
+        <v>175</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
       </c>
       <c r="P27" s="6"/>
       <c r="R27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="15">
-        <v>43731</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28">
-        <v>2028</v>
-      </c>
-      <c r="K28" t="s">
-        <v>148</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>166</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="18">
+        <v>43497</v>
+      </c>
+      <c r="G28">
+        <v>0.7</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
       </c>
       <c r="R28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>53</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A29" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B29" s="14">
-        <v>44312</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29">
-        <v>2025</v>
-      </c>
-      <c r="P29" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q29" s="6"/>
+        <v>43518</v>
+      </c>
       <c r="R29" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B30" s="14">
-        <v>44462</v>
-      </c>
+        <v>43523</v>
+      </c>
+      <c r="E30"/>
       <c r="R30" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="19">
+        <v>43634</v>
+      </c>
+      <c r="D31" t="s">
+        <v>220</v>
+      </c>
+      <c r="R31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="16">
-        <v>44530</v>
-      </c>
-      <c r="Q31" s="6"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="14">
-        <v>44657</v>
+      <c r="B32" s="15">
+        <v>43731</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F32">
         <v>2028</v>
       </c>
-      <c r="P32" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q32" s="6"/>
-    </row>
-    <row r="33" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="K32" t="s">
+        <v>148</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="R32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="16">
-        <v>43424</v>
-      </c>
-      <c r="G33">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H33">
-        <v>4</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>194</v>
-      </c>
+      <c r="B33" s="14">
+        <v>43731</v>
+      </c>
+      <c r="Q33" s="6"/>
       <c r="R33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="14">
+      <c r="A34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="16">
         <v>43731</v>
-      </c>
-      <c r="Q34" s="6"/>
-      <c r="R34" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>42</v>
+      </c>
+      <c r="B35" s="14">
+        <v>43764</v>
       </c>
       <c r="E35"/>
-      <c r="M35">
-        <v>0</v>
+      <c r="R35" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>44</v>
+      <c r="A36" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B36" s="16">
-        <v>43169</v>
-      </c>
-      <c r="G36">
-        <v>0.9</v>
-      </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
-      <c r="N36" t="s">
-        <v>52</v>
-      </c>
-      <c r="R36" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="15">
-        <v>43032</v>
+        <v>43802</v>
+      </c>
+      <c r="P36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="11">
+        <v>43846</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37">
+        <v>2038</v>
       </c>
       <c r="N37">
         <v>1</v>
       </c>
-      <c r="R37" s="17" t="s">
-        <v>168</v>
+      <c r="P37" s="6"/>
+      <c r="R37" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="11">
-        <v>43049</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>169</v>
+        <v>69</v>
+      </c>
+      <c r="B38" s="16">
+        <v>43850</v>
       </c>
       <c r="R38" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="16">
-        <v>43731</v>
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="11">
+        <v>44015</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39">
+        <v>2038</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="P39" s="6"/>
+      <c r="R39" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>82</v>
+      </c>
+      <c r="B40" s="11">
+        <v>44099</v>
       </c>
       <c r="E40"/>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
+      <c r="F40">
+        <v>2049</v>
+      </c>
+      <c r="G40">
+        <v>30.2</v>
+      </c>
+      <c r="H40">
+        <v>104</v>
+      </c>
+      <c r="R40" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>119</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="B41" s="15">
+        <v>44169</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41">
+        <v>2038</v>
+      </c>
+      <c r="G41">
+        <v>8.5</v>
+      </c>
+      <c r="H41">
+        <v>35</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R41" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42"/>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
+      <c r="A42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="11">
+        <v>44179</v>
+      </c>
+      <c r="R42" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>115</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+      <c r="B43" s="14">
+        <v>44270</v>
+      </c>
+      <c r="D43" t="s">
+        <v>323</v>
+      </c>
+      <c r="E43"/>
+      <c r="R43" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>117</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="B44" s="14">
+        <v>44312</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44">
+        <v>2025</v>
+      </c>
+      <c r="P44" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q44" s="6"/>
+      <c r="R44" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="16">
-        <v>42636</v>
-      </c>
-      <c r="P45" t="s">
-        <v>172</v>
+        <v>76</v>
+      </c>
+      <c r="B45" s="14">
+        <v>44342</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="R45" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="15">
-        <v>43018</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="B46" s="11">
+        <v>44350</v>
+      </c>
+      <c r="P46" s="6"/>
+      <c r="R46" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B47" s="14">
-        <v>43238</v>
+        <v>44377</v>
       </c>
       <c r="R47" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="16">
-        <v>43802</v>
-      </c>
-      <c r="P48" t="s">
-        <v>171</v>
+        <v>8</v>
+      </c>
+      <c r="B48" s="14">
+        <v>44377</v>
+      </c>
+      <c r="R48" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A49" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>173</v>
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="14">
+        <v>44462</v>
       </c>
       <c r="R49" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50"/>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A50" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="16">
+        <v>44469</v>
+      </c>
+      <c r="P50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B51" s="11">
-        <v>44099</v>
-      </c>
-      <c r="E51"/>
-      <c r="F51">
-        <v>2049</v>
+        <v>44480</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F51" t="s">
+        <v>127</v>
       </c>
       <c r="G51">
-        <v>30.2</v>
+        <v>5</v>
       </c>
       <c r="H51">
-        <v>104</v>
+        <v>15</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>153</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="R51" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="14">
-        <v>43055</v>
-      </c>
-      <c r="D52" t="s">
-        <v>211</v>
+        <v>80</v>
+      </c>
+      <c r="B52" s="15">
+        <v>44483</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" t="s">
+        <v>131</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H52">
-        <v>12</v>
-      </c>
-      <c r="K52" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
-      <c r="P52" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R52" t="s">
-        <v>212</v>
+      <c r="N52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="14">
-        <v>43764</v>
-      </c>
-      <c r="E53"/>
+        <v>61</v>
+      </c>
+      <c r="B53" s="11">
+        <v>44484</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53">
+        <v>2030</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="R53" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A54" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="16">
+        <v>44504</v>
+      </c>
+      <c r="D54" t="s">
+        <v>320</v>
+      </c>
+      <c r="P54" t="s">
+        <v>224</v>
+      </c>
+      <c r="R54" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="16">
+        <v>44530</v>
+      </c>
+      <c r="Q55" s="6"/>
+    </row>
+    <row r="56" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="11">
+        <v>44568</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="R56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="11">
+        <v>44574</v>
+      </c>
+      <c r="G57">
+        <v>1.5</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="R57" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="14">
+        <v>44657</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58">
+        <v>2028</v>
+      </c>
+      <c r="P58" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q58" s="6"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="11">
+        <v>44705</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="6"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A60" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="14">
-        <v>44342</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="R54" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A55" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="11">
-        <v>44350</v>
-      </c>
-      <c r="P55" s="6"/>
-      <c r="R55" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A56" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" s="16">
-        <v>44469</v>
-      </c>
-      <c r="P56" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A57" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="16">
+      <c r="B60" s="16">
         <v>44712</v>
       </c>
-      <c r="P57" s="6"/>
-      <c r="R57" t="s">
+      <c r="P60" s="6"/>
+      <c r="R60" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A58" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="16">
-        <v>43091</v>
-      </c>
-      <c r="D58" t="s">
-        <v>215</v>
-      </c>
-      <c r="P58" s="6"/>
-      <c r="R58" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A59" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="14">
-        <v>43423</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="P59" s="6"/>
-      <c r="R59" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="18">
-        <v>43497</v>
-      </c>
-      <c r="G60">
-        <v>0.7</v>
-      </c>
-      <c r="H60">
-        <v>3</v>
-      </c>
-      <c r="R60" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="19">
-        <v>43634</v>
-      </c>
-      <c r="D61" t="s">
-        <v>220</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B61" s="11">
+        <v>44732</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="6"/>
       <c r="R61" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+      <c r="A62" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="14">
-        <v>44270</v>
-      </c>
-      <c r="D62" t="s">
-        <v>323</v>
-      </c>
-      <c r="E62"/>
+      <c r="B62" s="16" t="s">
+        <v>221</v>
+      </c>
       <c r="R62" t="s">
-        <v>324</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B63" s="16">
-        <v>44504</v>
-      </c>
-      <c r="D63" t="s">
-        <v>320</v>
-      </c>
-      <c r="P63" t="s">
-        <v>224</v>
+        <v>38</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="R63" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>87</v>
-      </c>
-      <c r="B64" s="11">
-        <v>44574</v>
-      </c>
-      <c r="G64">
-        <v>1.5</v>
-      </c>
-      <c r="H64">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="P64" s="6"/>
       <c r="R64" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A65" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="R65" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="14">
-        <v>43397</v>
-      </c>
-      <c r="P66" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A67" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="14">
-        <v>43419</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66"/>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="G67">
+        <v>0.3</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
       </c>
       <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="P67" t="s">
-        <v>184</v>
-      </c>
-      <c r="R67" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A68" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="14">
-        <v>43518</v>
-      </c>
-      <c r="R68" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A69" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="16">
-        <v>43850</v>
-      </c>
-      <c r="R69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A70" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="14">
-        <v>44377</v>
-      </c>
-      <c r="R70" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A71" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="16">
-        <v>42283</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>110</v>
+      </c>
+      <c r="E68"/>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69"/>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70"/>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>112</v>
+      </c>
+      <c r="E71"/>
+      <c r="M71">
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="R71" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="11">
-        <v>42326</v>
-      </c>
-      <c r="R72" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="14">
-        <v>42996</v>
-      </c>
-      <c r="R73" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A74" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="14">
-        <v>43105</v>
-      </c>
-      <c r="R74" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A75" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="11">
-        <v>44179</v>
-      </c>
-      <c r="R75" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A76" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="14">
-        <v>44377</v>
-      </c>
-      <c r="R76" t="s">
-        <v>193</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>119</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73"/>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>115</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>117</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>120</v>
+      </c>
+      <c r="E76"/>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R76" xr:uid="{3D652218-3B78-4CB0-BA25-8DE344561C19}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R76">
-      <sortCondition ref="A1:A76"/>
+      <sortCondition ref="B1:B76"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="R37" r:id="rId1" display="https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16" xr:uid="{5D92F416-BAAC-4FB5-B839-9525CB830178}"/>
+    <hyperlink ref="R12" r:id="rId1" display="https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16" xr:uid="{5D92F416-BAAC-4FB5-B839-9525CB830178}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3614,10 +3617,10 @@
   <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A71" sqref="A71"/>
+      <selection pane="bottomRight" activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4833,6 +4836,9 @@
       </c>
       <c r="L39">
         <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.45">
@@ -5698,7 +5704,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Other data/Coal phase out announcements.xlsx
+++ b/Other data/Coal phase out announcements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive - London School of Economics\Documents\LSE\GY489_Dissertation\LETS GO\Dissertation-Code-Data\Other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15171072-9B7A-41C3-A797-D3E8EAB2575C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861D108A-2728-44FC-93C7-5E9B26C836B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,13 @@
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
     <sheet name="Factiva" sheetId="2" r:id="rId2"/>
     <sheet name="Final" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId4"/>
-    <sheet name="COP" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId5"/>
+    <sheet name="COP" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Factiva!$A$1:$R$76</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Final!$A$1:$O$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Final!$A$1:$Q$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Initial!$A$1:$W$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="426">
   <si>
     <t>Country</t>
   </si>
@@ -817,9 +818,6 @@
     <t>COP22</t>
   </si>
   <si>
-    <t>during COP23</t>
-  </si>
-  <si>
     <t>PPCA other countries; during COP23</t>
   </si>
   <si>
@@ -835,12 +833,6 @@
     <t>climate action summit; Greece + Italysame day?</t>
   </si>
   <si>
-    <t>Link1</t>
-  </si>
-  <si>
-    <t>Link2</t>
-  </si>
-  <si>
     <t>Update on preparatory steps for auctioning of phase 3 allowances (europa.eu)</t>
   </si>
   <si>
@@ -935,9 +927,6 @@
   </si>
   <si>
     <t>confirmation</t>
-  </si>
-  <si>
-    <t>again confirmed?</t>
   </si>
   <si>
     <t>maybe, leak</t>
@@ -1109,9 +1098,6 @@
     <t>Spain 15/11; Hungary 20/11; Germany cancellation</t>
   </si>
   <si>
-    <t>Spain 15/11; Slovakia 19/11; Germany cancellation</t>
-  </si>
-  <si>
     <t>CP: Commission recommends cancellation?</t>
   </si>
   <si>
@@ -1140,6 +1126,231 @@
   </si>
   <si>
     <t>confounding event CP: expectations of post 2020 ETS</t>
+  </si>
+  <si>
+    <t>BG_main1</t>
+  </si>
+  <si>
+    <t>BG_alt1</t>
+  </si>
+  <si>
+    <t>CZ_main1</t>
+  </si>
+  <si>
+    <t>CZ_new1</t>
+  </si>
+  <si>
+    <t>DK_main1</t>
+  </si>
+  <si>
+    <t>DK_new1</t>
+  </si>
+  <si>
+    <t>FI_main1</t>
+  </si>
+  <si>
+    <t>FI_alt1</t>
+  </si>
+  <si>
+    <t>FI_alt2</t>
+  </si>
+  <si>
+    <t>FI_parl1</t>
+  </si>
+  <si>
+    <t>DE_main1</t>
+  </si>
+  <si>
+    <t>DE_leak1</t>
+  </si>
+  <si>
+    <t>DE_canc1</t>
+  </si>
+  <si>
+    <t>DE_canc2</t>
+  </si>
+  <si>
+    <t>DE_parl1</t>
+  </si>
+  <si>
+    <t>DE_new1</t>
+  </si>
+  <si>
+    <t>DE_new2</t>
+  </si>
+  <si>
+    <t>DE_nuc1</t>
+  </si>
+  <si>
+    <t>DE_nuc2</t>
+  </si>
+  <si>
+    <t>DE_rev1</t>
+  </si>
+  <si>
+    <t>EL_main1</t>
+  </si>
+  <si>
+    <t>EL_new1</t>
+  </si>
+  <si>
+    <t>HU_main1</t>
+  </si>
+  <si>
+    <t>HU_alt1</t>
+  </si>
+  <si>
+    <t>IT_main1</t>
+  </si>
+  <si>
+    <t>NL_main1</t>
+  </si>
+  <si>
+    <t>NL_alt1</t>
+  </si>
+  <si>
+    <t>NL_follow1</t>
+  </si>
+  <si>
+    <t>PL_main1</t>
+  </si>
+  <si>
+    <t>PT_main1</t>
+  </si>
+  <si>
+    <t>PT_new1</t>
+  </si>
+  <si>
+    <t>RO_main1</t>
+  </si>
+  <si>
+    <t>RO_leak1</t>
+  </si>
+  <si>
+    <t>RO_alt1</t>
+  </si>
+  <si>
+    <t>SK_main1</t>
+  </si>
+  <si>
+    <t>SK_alt1</t>
+  </si>
+  <si>
+    <t>SI_main1</t>
+  </si>
+  <si>
+    <t>SI_alt2</t>
+  </si>
+  <si>
+    <t>SI_alt1</t>
+  </si>
+  <si>
+    <t>ES_main1</t>
+  </si>
+  <si>
+    <t>ES_alt1</t>
+  </si>
+  <si>
+    <t>ES_alt2</t>
+  </si>
+  <si>
+    <t>UK_main1</t>
+  </si>
+  <si>
+    <t>UK_leak1</t>
+  </si>
+  <si>
+    <t>UK_follow1</t>
+  </si>
+  <si>
+    <t>UK_new1</t>
+  </si>
+  <si>
+    <t>XX_main1</t>
+  </si>
+  <si>
+    <t>XX_main2</t>
+  </si>
+  <si>
+    <t>XX_main3</t>
+  </si>
+  <si>
+    <t>Conf EC</t>
+  </si>
+  <si>
+    <t>Conf EC2</t>
+  </si>
+  <si>
+    <t>Conf CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Oct greece MSR proposal; </t>
+  </si>
+  <si>
+    <t>19/20 Oct technical breach and rebound</t>
+  </si>
+  <si>
+    <t>2 Dec: proposal fit for 55 leak?</t>
+  </si>
+  <si>
+    <t>Conf EC3</t>
+  </si>
+  <si>
+    <t>EU leaders agree 2030 climate and energy goals (europa.eu)</t>
+  </si>
+  <si>
+    <t>during COP23; 16 Nov other countries join</t>
+  </si>
+  <si>
+    <t>05 Sept comments by France+Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">again confirmed? Ban </t>
+  </si>
+  <si>
+    <t>Oct 15: technical + Brexit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COP25, </t>
+  </si>
+  <si>
+    <t>Financing the energy transition: Commission puts €14 billion fund to modernise energy sectors in 10 Member States into action (europa.eu)</t>
+  </si>
+  <si>
+    <t>Boosting the EU’s green recovery: Commission invests € 1 billion in innovative clean technology projects (europa.eu)</t>
+  </si>
+  <si>
+    <t>EU invests over €1 billion to decarbonise the economy (europa.eu)</t>
+  </si>
+  <si>
+    <t>Bulgaria Coal phase-out; 19/20 Oct technical breach and rebound; for the 23/11: announcement carbon price floor</t>
+  </si>
+  <si>
+    <t>15 June: fit for 55 deals; 23 June deal reached</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 May MSR selling leak + EP vote; </t>
+  </si>
+  <si>
+    <t>Spain 15/11; Slovakia 19/11; Germany cancellation; France 27 Nov (not too important)</t>
+  </si>
+  <si>
+    <t>17 Oct: number Dutch CPF</t>
+  </si>
+  <si>
+    <t>EU Member States agree negotiating position on key 2030 climate policy proposals (europa.eu)</t>
+  </si>
+  <si>
+    <t>trilogue hopes</t>
+  </si>
+  <si>
+    <t>Member States' emission reduction targets for 2021 to 2030 adopted (europa.eu)</t>
+  </si>
+  <si>
+    <t>EU and Switzerland sign agreement to link emissions trading systems (europa.eu)</t>
+  </si>
+  <si>
+    <t>UN climate conference makes progress on Paris Agreement implementation (europa.eu)</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1410,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1230,6 +1441,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1244,7 +1461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1286,6 +1503,7 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2347,10 +2565,10 @@
   <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3114,11 +3332,11 @@
         <v>44270</v>
       </c>
       <c r="D43" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E43"/>
       <c r="R43" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
@@ -3310,7 +3528,7 @@
         <v>44504</v>
       </c>
       <c r="D54" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P54" t="s">
         <v>224</v>
@@ -3614,13 +3832,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CCC5DF-E81D-45C6-92D8-92AE6A0AD22C}">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M40" sqref="M40"/>
+      <selection pane="bottomRight" activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3631,14 +3849,14 @@
     <col min="4" max="4" width="36.73046875" style="6" customWidth="1"/>
     <col min="5" max="7" width="21.46484375" customWidth="1"/>
     <col min="8" max="8" width="22.3984375" customWidth="1"/>
-    <col min="9" max="11" width="25.1328125" customWidth="1"/>
-    <col min="12" max="12" width="10.73046875" customWidth="1"/>
-    <col min="13" max="13" width="21.1328125" customWidth="1"/>
-    <col min="14" max="14" width="49.73046875" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="9" max="12" width="25.1328125" customWidth="1"/>
+    <col min="14" max="14" width="10.73046875" customWidth="1"/>
+    <col min="15" max="15" width="21.1328125" customWidth="1"/>
+    <col min="16" max="16" width="49.73046875" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3661,35 +3879,41 @@
         <v>125</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>254</v>
+        <v>402</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>255</v>
+        <v>400</v>
       </c>
       <c r="L1" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="26">
         <v>44480</v>
       </c>
       <c r="C2" t="s">
@@ -3708,32 +3932,35 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I2" t="s">
         <v>235</v>
       </c>
       <c r="J2" t="s">
-        <v>262</v>
-      </c>
-      <c r="L2">
+        <v>403</v>
+      </c>
+      <c r="K2" t="s">
+        <v>259</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>153</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="27">
         <v>44483</v>
       </c>
       <c r="C3">
@@ -3752,19 +3979,22 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I3" t="s">
         <v>236</v>
       </c>
       <c r="J3" t="s">
-        <v>262</v>
-      </c>
-      <c r="L3">
+        <v>404</v>
+      </c>
+      <c r="K3" t="s">
+        <v>259</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -3787,19 +4017,25 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>261</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="L4">
+        <v>258</v>
+      </c>
+      <c r="J4" t="s">
+        <v>405</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -3816,124 +4052,127 @@
         <v>2033</v>
       </c>
       <c r="H5" t="s">
-        <v>261</v>
-      </c>
-      <c r="J5" t="s">
-        <v>262</v>
-      </c>
-      <c r="L5" t="s">
-        <v>302</v>
-      </c>
-      <c r="O5" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" t="s">
+        <v>259</v>
+      </c>
+      <c r="N5" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="29">
         <v>40872</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E6">
         <v>2030</v>
       </c>
       <c r="H6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="L6" t="s">
+        <v>253</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="N6" t="s">
         <v>49</v>
       </c>
-      <c r="N6" t="s">
-        <v>311</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="27">
-        <v>43055</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2030</v>
+      <c r="B7" s="29">
+        <v>41941</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7">
+        <v>2025</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>261</v>
-      </c>
-      <c r="I7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>278</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="N7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="27">
-        <v>41941</v>
-      </c>
-      <c r="C8" t="s">
+        <v>43055</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2030</v>
+      </c>
+      <c r="H8" t="s">
+        <v>258</v>
+      </c>
+      <c r="I8" t="s">
+        <v>199</v>
+      </c>
+      <c r="N8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E8">
-        <v>2025</v>
-      </c>
-      <c r="F8">
-        <v>2.5</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>281</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="L8" t="s">
-        <v>302</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="O8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="Q8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -3944,22 +4183,22 @@
         <v>198</v>
       </c>
       <c r="H9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I9" t="s">
-        <v>249</v>
-      </c>
-      <c r="J9" t="s">
-        <v>261</v>
-      </c>
-      <c r="L9">
+        <v>248</v>
+      </c>
+      <c r="K9" t="s">
+        <v>258</v>
+      </c>
+      <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3978,20 +4217,20 @@
       <c r="I10" t="s">
         <v>247</v>
       </c>
-      <c r="J10" t="s">
-        <v>261</v>
-      </c>
-      <c r="L10">
+      <c r="K10" t="s">
+        <v>258</v>
+      </c>
+      <c r="N10">
         <v>0</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -4002,28 +4241,31 @@
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E11">
         <v>2030</v>
       </c>
       <c r="H11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J11" t="s">
-        <v>262</v>
-      </c>
-      <c r="L11" t="s">
+        <v>409</v>
+      </c>
+      <c r="K11" t="s">
+        <v>259</v>
+      </c>
+      <c r="N11" t="s">
         <v>49</v>
       </c>
-      <c r="N11" t="s">
-        <v>286</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q11" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -4034,25 +4276,25 @@
         <v>52</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E12">
         <v>2029</v>
       </c>
       <c r="H12" t="s">
-        <v>261</v>
-      </c>
-      <c r="J12" t="s">
-        <v>262</v>
-      </c>
-      <c r="L12" t="s">
+        <v>258</v>
+      </c>
+      <c r="K12" t="s">
+        <v>259</v>
+      </c>
+      <c r="N12" t="s">
         <v>49</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4063,25 +4305,28 @@
         <v>52</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>288</v>
+        <v>410</v>
       </c>
       <c r="E13">
         <v>2029</v>
       </c>
       <c r="H13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J13" t="s">
-        <v>262</v>
-      </c>
-      <c r="L13" t="s">
+        <v>411</v>
+      </c>
+      <c r="K13" t="s">
+        <v>259</v>
+      </c>
+      <c r="N13" t="s">
         <v>49</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -4098,22 +4343,22 @@
         <v>2029</v>
       </c>
       <c r="H14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I14" t="s">
         <v>228</v>
       </c>
-      <c r="J14" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="L14" t="s">
-        <v>291</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="K14" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="N14" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -4141,304 +4386,325 @@
       <c r="I15" t="s">
         <v>137</v>
       </c>
-      <c r="J15" t="s">
-        <v>262</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="K15" t="s">
+        <v>259</v>
+      </c>
+      <c r="N15" t="s">
         <v>52</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="P15" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="25">
-        <v>43357</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
+        <v>40616</v>
+      </c>
+      <c r="C16" t="s">
+        <v>344</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16">
-        <v>2038</v>
+        <v>345</v>
       </c>
       <c r="H16" t="s">
-        <v>261</v>
-      </c>
-      <c r="J16" t="s">
-        <v>262</v>
-      </c>
-      <c r="L16" t="s">
-        <v>289</v>
-      </c>
-      <c r="O16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+        <v>278</v>
+      </c>
+      <c r="I16" t="s">
+        <v>258</v>
+      </c>
+      <c r="K16" t="s">
+        <v>259</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="25">
-        <v>43419</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
+        <v>40693</v>
+      </c>
+      <c r="C17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>346</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>278</v>
       </c>
       <c r="I17" t="s">
-        <v>347</v>
-      </c>
-      <c r="N17" s="6"/>
-      <c r="O17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>258</v>
+      </c>
+      <c r="K17" t="s">
+        <v>258</v>
+      </c>
+      <c r="P17" s="6"/>
+      <c r="Q17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="14">
-        <v>43846</v>
+      <c r="B18" s="25">
+        <v>43357</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18">
         <v>2038</v>
       </c>
       <c r="H18" t="s">
-        <v>261</v>
-      </c>
-      <c r="I18" t="s">
-        <v>231</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="L18" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18" t="s">
-        <v>294</v>
-      </c>
-      <c r="N18" s="6"/>
-      <c r="O18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+        <v>258</v>
+      </c>
+      <c r="K18" t="s">
+        <v>259</v>
+      </c>
+      <c r="N18" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="26">
-        <v>43491</v>
+      <c r="B19" s="25">
+        <v>43419</v>
       </c>
       <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19">
-        <v>2038</v>
-      </c>
-      <c r="F19">
-        <v>47.6</v>
-      </c>
-      <c r="G19">
-        <v>175</v>
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>341</v>
       </c>
       <c r="H19" t="s">
         <v>50</v>
       </c>
+      <c r="I19" t="s">
+        <v>342</v>
+      </c>
       <c r="J19" t="s">
-        <v>262</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="N19" s="6"/>
-      <c r="O19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+        <v>404</v>
+      </c>
+      <c r="K19" t="s">
+        <v>259</v>
+      </c>
+      <c r="P19" s="6"/>
+      <c r="Q19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="25">
-        <v>43808</v>
+      <c r="B20" s="26">
+        <v>43491</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>348</v>
+        <v>139</v>
+      </c>
+      <c r="E20">
+        <v>2038</v>
+      </c>
+      <c r="F20">
+        <v>47.6</v>
+      </c>
+      <c r="G20">
+        <v>175</v>
       </c>
       <c r="H20" t="s">
         <v>50</v>
       </c>
-      <c r="I20" t="s">
-        <v>261</v>
-      </c>
-      <c r="J20" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K20" t="s">
+        <v>259</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="P20" s="6"/>
+      <c r="Q20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="16">
-        <v>44705</v>
+      <c r="B21" s="25">
+        <v>43808</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="H21" t="s">
-        <v>261</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="L21" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+      <c r="I21" t="s">
+        <v>412</v>
+      </c>
+      <c r="K21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="25">
-        <v>44015</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
+      <c r="B22" s="14">
+        <v>43846</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E22">
         <v>2038</v>
       </c>
       <c r="H22" t="s">
-        <v>261</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="L22" t="s">
-        <v>291</v>
-      </c>
-      <c r="N22" s="6"/>
+        <v>258</v>
+      </c>
+      <c r="I22" t="s">
+        <v>231</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="N22" t="s">
+        <v>52</v>
+      </c>
       <c r="O22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+        <v>290</v>
+      </c>
+      <c r="P22" s="6"/>
+      <c r="Q22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>61</v>
       </c>
       <c r="B23" s="25">
-        <v>44484</v>
-      </c>
-      <c r="C23" t="s">
-        <v>299</v>
+        <v>44015</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E23">
-        <v>2030</v>
+        <v>2038</v>
       </c>
       <c r="H23" t="s">
-        <v>261</v>
-      </c>
-      <c r="J23" t="s">
-        <v>262</v>
-      </c>
-      <c r="L23" t="s">
-        <v>293</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="O23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>258</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="N23" t="s">
+        <v>287</v>
+      </c>
+      <c r="P23" s="6"/>
+      <c r="Q23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="25">
-        <v>40616</v>
+        <v>44484</v>
       </c>
       <c r="C24" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>350</v>
+        <v>143</v>
+      </c>
+      <c r="E24">
+        <v>2030</v>
       </c>
       <c r="H24" t="s">
-        <v>281</v>
-      </c>
-      <c r="I24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J24" t="s">
-        <v>261</v>
-      </c>
-      <c r="N24" s="6"/>
-      <c r="O24" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+        <v>416</v>
+      </c>
+      <c r="K24" t="s">
+        <v>259</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="N24" t="s">
+        <v>289</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="25">
-        <v>40693</v>
-      </c>
-      <c r="C25" t="s">
-        <v>349</v>
+      <c r="B25" s="16">
+        <v>44705</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>351</v>
+        <v>144</v>
       </c>
       <c r="H25" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I25" t="s">
-        <v>261</v>
-      </c>
-      <c r="J25" t="s">
-        <v>261</v>
-      </c>
-      <c r="N25" s="6"/>
-      <c r="O25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+        <v>418</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="N25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -4452,22 +4718,25 @@
         <v>145</v>
       </c>
       <c r="H26" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I26" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J26" t="s">
-        <v>261</v>
-      </c>
-      <c r="L26" t="s">
-        <v>295</v>
-      </c>
-      <c r="O26" t="s">
+        <v>417</v>
+      </c>
+      <c r="K26" t="s">
+        <v>259</v>
+      </c>
+      <c r="N26" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q26" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
@@ -4484,25 +4753,25 @@
         <v>2028</v>
       </c>
       <c r="H27" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I27" t="s">
         <v>229</v>
       </c>
-      <c r="J27" t="s">
-        <v>262</v>
-      </c>
-      <c r="L27" t="s">
-        <v>304</v>
-      </c>
-      <c r="N27" s="6" t="s">
+      <c r="K27" t="s">
+        <v>259</v>
+      </c>
+      <c r="N27" t="s">
+        <v>300</v>
+      </c>
+      <c r="P27" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="O27" t="s">
+      <c r="Q27" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -4513,31 +4782,31 @@
         <v>0</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E28">
         <v>2025</v>
       </c>
       <c r="H28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I28" t="s">
-        <v>301</v>
-      </c>
-      <c r="J28" t="s">
-        <v>262</v>
-      </c>
-      <c r="L28" t="s">
-        <v>302</v>
+        <v>297</v>
+      </c>
+      <c r="K28" t="s">
+        <v>259</v>
       </c>
       <c r="N28" t="s">
+        <v>298</v>
+      </c>
+      <c r="P28" t="s">
         <v>150</v>
       </c>
-      <c r="O28" t="s">
+      <c r="Q28" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -4548,68 +4817,68 @@
         <v>0</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H29" t="s">
         <v>52</v>
       </c>
-      <c r="J29" t="s">
-        <v>262</v>
-      </c>
-      <c r="L29" t="s">
-        <v>302</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="K29" t="s">
+        <v>259</v>
+      </c>
+      <c r="N29" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q29" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="14">
-        <v>44657</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="16">
+        <v>44530</v>
+      </c>
+      <c r="H30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30" t="s">
+        <v>258</v>
+      </c>
+      <c r="N30">
         <v>0</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E30">
-        <v>2028</v>
-      </c>
-      <c r="H30" t="s">
-        <v>261</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="L30" t="s">
-        <v>52</v>
-      </c>
-      <c r="N30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="16">
-        <v>44530</v>
+      <c r="B31" s="14">
+        <v>44657</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31">
+        <v>2028</v>
       </c>
       <c r="H31" t="s">
+        <v>258</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="N31" t="s">
         <v>52</v>
       </c>
-      <c r="J31" t="s">
-        <v>261</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="P31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -4620,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E32">
         <v>2030</v>
@@ -4635,22 +4904,22 @@
         <v>50</v>
       </c>
       <c r="I32" t="s">
-        <v>345</v>
-      </c>
-      <c r="J32" t="s">
-        <v>261</v>
-      </c>
-      <c r="L32" t="s">
-        <v>304</v>
-      </c>
-      <c r="N32" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="K32" t="s">
+        <v>259</v>
+      </c>
+      <c r="N32" t="s">
+        <v>300</v>
+      </c>
+      <c r="P32" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="O32" t="s">
+      <c r="Q32" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -4661,28 +4930,28 @@
         <v>0</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E33">
         <v>2030</v>
       </c>
       <c r="H33" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I33" t="s">
-        <v>253</v>
-      </c>
-      <c r="J33" t="s">
-        <v>262</v>
-      </c>
-      <c r="L33" t="s">
+        <v>252</v>
+      </c>
+      <c r="K33" t="s">
+        <v>259</v>
+      </c>
+      <c r="N33" t="s">
         <v>52</v>
       </c>
-      <c r="O33" t="s">
+      <c r="Q33" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
         <v>19</v>
       </c>
@@ -4696,192 +4965,204 @@
         <v>2025</v>
       </c>
       <c r="H34" t="s">
-        <v>261</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="L34" t="s">
-        <v>304</v>
-      </c>
-      <c r="O34" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="J34" t="s">
+        <v>420</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="N34" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q34" s="17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="16">
-        <v>43731</v>
+      <c r="B35" s="11">
+        <v>43049</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35">
+        <v>2025</v>
       </c>
       <c r="H35" t="s">
+        <v>258</v>
+      </c>
+      <c r="I35" t="s">
+        <v>408</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="L35" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="I35" t="s">
-        <v>230</v>
-      </c>
-      <c r="J35" t="s">
-        <v>262</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N35" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="11">
-        <v>43049</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="16">
+        <v>43731</v>
+      </c>
+      <c r="H36" t="s">
+        <v>258</v>
+      </c>
+      <c r="I36" t="s">
+        <v>230</v>
+      </c>
+      <c r="K36" t="s">
+        <v>259</v>
+      </c>
+      <c r="N36">
         <v>0</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36">
-        <v>2025</v>
-      </c>
-      <c r="H36" t="s">
-        <v>261</v>
-      </c>
-      <c r="I36" t="s">
-        <v>248</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="K36" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="L36" t="s">
-        <v>52</v>
-      </c>
-      <c r="O36" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="16">
-        <v>43802</v>
+      <c r="B37" s="27">
+        <v>42636</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>303</v>
       </c>
       <c r="H37" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" t="s">
-        <v>251</v>
-      </c>
-      <c r="J37" t="s">
-        <v>261</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="K37" t="s">
+        <v>259</v>
       </c>
       <c r="N37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="P37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="27">
-        <v>42636</v>
+      <c r="B38" s="26">
+        <v>43018</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
+      </c>
+      <c r="E38">
+        <v>2030</v>
       </c>
       <c r="H38" t="s">
-        <v>50</v>
+        <v>258</v>
       </c>
       <c r="J38" t="s">
-        <v>261</v>
-      </c>
-      <c r="L38" t="s">
-        <v>49</v>
-      </c>
-      <c r="N38" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>422</v>
+      </c>
+      <c r="K38" t="s">
+        <v>259</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="26">
-        <v>43018</v>
+      <c r="B39" s="27">
+        <v>43238</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="E39">
-        <v>2030</v>
+        <v>304</v>
       </c>
       <c r="H39" t="s">
-        <v>261</v>
-      </c>
-      <c r="J39" t="s">
+        <v>258</v>
+      </c>
+      <c r="K39" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L39" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="N39" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="27">
-        <v>43238</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="16">
+        <v>43802</v>
+      </c>
+      <c r="H40" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" t="s">
+        <v>250</v>
+      </c>
+      <c r="K40" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="N40">
         <v>0</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="H40" t="s">
-        <v>261</v>
-      </c>
-      <c r="J40" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="L40" t="s">
-        <v>309</v>
-      </c>
-      <c r="O40" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <v>0</v>
       </c>
-      <c r="O41" t="s">
+      <c r="Q41" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A42" s="24" t="s">
         <v>82</v>
       </c>
@@ -4892,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E42">
         <v>2049</v>
@@ -4904,19 +5185,19 @@
         <v>104</v>
       </c>
       <c r="H42" t="s">
-        <v>261</v>
-      </c>
-      <c r="J42" t="s">
-        <v>262</v>
-      </c>
-      <c r="L42" t="s">
+        <v>258</v>
+      </c>
+      <c r="K42" t="s">
+        <v>259</v>
+      </c>
+      <c r="N42" t="s">
         <v>49</v>
       </c>
-      <c r="O42" t="s">
+      <c r="Q42" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -4933,25 +5214,25 @@
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I43" t="s">
-        <v>250</v>
-      </c>
-      <c r="J43" t="s">
-        <v>261</v>
-      </c>
-      <c r="L43">
+        <v>249</v>
+      </c>
+      <c r="K43" t="s">
+        <v>258</v>
+      </c>
+      <c r="N43">
         <v>0</v>
       </c>
-      <c r="N43" s="6" t="s">
+      <c r="P43" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="O43" t="s">
+      <c r="Q43" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -4962,7 +5243,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E44" s="6">
         <v>2030</v>
@@ -4974,25 +5255,31 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I44" t="s">
         <v>138</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="M44" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="L44" t="s">
-        <v>304</v>
-      </c>
-      <c r="N44" s="6" t="s">
+      <c r="N44" t="s">
+        <v>300</v>
+      </c>
+      <c r="P44" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="O44" t="s">
+      <c r="Q44" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -5003,25 +5290,25 @@
         <v>49</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E45">
         <v>2023</v>
       </c>
       <c r="H45" t="s">
-        <v>261</v>
-      </c>
-      <c r="J45" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="L45" t="s">
-        <v>302</v>
-      </c>
-      <c r="O45" t="s">
+        <v>258</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="N45" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q45" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
         <v>76</v>
       </c>
@@ -5038,22 +5325,22 @@
         <v>2032</v>
       </c>
       <c r="H46" t="s">
-        <v>261</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="L46" t="s">
-        <v>289</v>
-      </c>
-      <c r="O46" t="s">
+        <v>272</v>
+      </c>
+      <c r="L46" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="N46" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q46" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>76</v>
       </c>
@@ -5064,26 +5351,26 @@
         <v>1</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E47">
         <v>2032</v>
       </c>
       <c r="H47" t="s">
-        <v>261</v>
-      </c>
-      <c r="J47" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="L47" t="s">
-        <v>315</v>
-      </c>
-      <c r="N47" s="6"/>
-      <c r="O47" t="s">
+        <v>258</v>
+      </c>
+      <c r="K47" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="N47" t="s">
+        <v>311</v>
+      </c>
+      <c r="P47" s="6"/>
+      <c r="Q47" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
         <v>76</v>
       </c>
@@ -5094,7 +5381,7 @@
         <v>52</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E48">
         <v>2032</v>
@@ -5102,14 +5389,14 @@
       <c r="H48" t="s">
         <v>50</v>
       </c>
-      <c r="J48" t="s">
-        <v>261</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="K48" t="s">
+        <v>258</v>
+      </c>
+      <c r="P48" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>76</v>
       </c>
@@ -5119,18 +5406,18 @@
       <c r="H49" t="s">
         <v>52</v>
       </c>
-      <c r="J49" t="s">
-        <v>261</v>
-      </c>
-      <c r="L49">
+      <c r="K49" t="s">
+        <v>258</v>
+      </c>
+      <c r="N49">
         <v>0</v>
       </c>
-      <c r="N49" s="6"/>
-      <c r="O49" t="s">
+      <c r="P49" s="6"/>
+      <c r="Q49" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A50" s="4" t="s">
         <v>60</v>
       </c>
@@ -5143,74 +5430,74 @@
       <c r="H50" t="s">
         <v>52</v>
       </c>
-      <c r="J50" t="s">
-        <v>261</v>
-      </c>
-      <c r="L50">
+      <c r="K50" t="s">
+        <v>258</v>
+      </c>
+      <c r="N50">
         <v>0</v>
       </c>
-      <c r="N50" s="6"/>
-      <c r="O50" t="s">
+      <c r="P50" s="6"/>
+      <c r="Q50" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+    <row r="51" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="27">
+        <v>43423</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E51">
+        <v>2023</v>
+      </c>
+      <c r="H51" t="s">
+        <v>258</v>
+      </c>
+      <c r="I51" t="s">
+        <v>340</v>
+      </c>
+      <c r="K51" t="s">
+        <v>259</v>
+      </c>
+      <c r="P51" s="6"/>
+      <c r="Q51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="16">
         <v>43497</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>0.7</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <v>3</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H52" t="s">
         <v>52</v>
       </c>
-      <c r="J51" t="s">
-        <v>261</v>
-      </c>
-      <c r="L51">
+      <c r="K52" t="s">
+        <v>258</v>
+      </c>
+      <c r="N52">
         <v>0</v>
       </c>
-      <c r="O51" t="s">
+      <c r="Q52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A52" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="27">
-        <v>43423</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="E52">
-        <v>2023</v>
-      </c>
-      <c r="H52" t="s">
-        <v>261</v>
-      </c>
-      <c r="I52" t="s">
-        <v>344</v>
-      </c>
-      <c r="J52" t="s">
-        <v>262</v>
-      </c>
-      <c r="N52" s="6"/>
-      <c r="O52" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -5227,25 +5514,25 @@
         <v>2023</v>
       </c>
       <c r="H53" t="s">
-        <v>261</v>
-      </c>
-      <c r="J53" s="17" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="L53" t="s">
-        <v>319</v>
+        <v>265</v>
+      </c>
+      <c r="L53" s="17" t="s">
+        <v>266</v>
       </c>
       <c r="N53" t="s">
-        <v>318</v>
-      </c>
-      <c r="O53" t="s">
+        <v>315</v>
+      </c>
+      <c r="P53" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q53" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -5256,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E54">
         <v>2033</v>
@@ -5264,447 +5551,1090 @@
       <c r="H54" t="s">
         <v>52</v>
       </c>
-      <c r="J54" t="s">
-        <v>261</v>
-      </c>
-      <c r="L54" t="s">
+      <c r="K54" t="s">
+        <v>258</v>
+      </c>
+      <c r="N54" t="s">
         <v>49</v>
       </c>
-      <c r="O54" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+      <c r="Q54" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A55" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="27">
+      <c r="B55" s="28">
+        <v>44504</v>
+      </c>
+      <c r="H55" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" t="s">
+        <v>251</v>
+      </c>
+      <c r="K55" t="s">
+        <v>258</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="27">
         <v>44574</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="E55">
+      <c r="D56" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E56">
         <v>2033</v>
       </c>
-      <c r="F55">
+      <c r="F56">
         <v>1.5</v>
       </c>
-      <c r="G55">
+      <c r="G56">
         <v>5</v>
       </c>
-      <c r="H55" t="s">
-        <v>261</v>
-      </c>
-      <c r="J55" t="s">
-        <v>262</v>
-      </c>
-      <c r="L55" t="s">
+      <c r="H56" t="s">
+        <v>258</v>
+      </c>
+      <c r="K56" t="s">
+        <v>259</v>
+      </c>
+      <c r="N56" t="s">
         <v>51</v>
       </c>
-      <c r="N55" t="s">
-        <v>322</v>
-      </c>
-      <c r="O55" t="s">
+      <c r="P56" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q56" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A56" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="28">
-        <v>44504</v>
-      </c>
-      <c r="H56" t="s">
-        <v>52</v>
-      </c>
-      <c r="I56" t="s">
-        <v>252</v>
-      </c>
-      <c r="J56" t="s">
-        <v>261</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="N56" t="s">
-        <v>224</v>
-      </c>
-      <c r="O56" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="L57">
+      <c r="N57">
         <v>0</v>
       </c>
-      <c r="O57" t="s">
+      <c r="Q57" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A58" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="16">
-        <v>43850</v>
+      <c r="B58" s="27">
+        <v>43397</v>
+      </c>
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="H58" t="s">
-        <v>52</v>
-      </c>
-      <c r="I58" t="s">
-        <v>232</v>
-      </c>
-      <c r="J58" t="s">
-        <v>261</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="O58" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+        <v>258</v>
+      </c>
+      <c r="K58" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="16">
-        <v>44377</v>
+      <c r="B59" s="27">
+        <v>43419</v>
+      </c>
+      <c r="C59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E59">
+        <v>2030</v>
       </c>
       <c r="H59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I59" t="s">
-        <v>233</v>
-      </c>
-      <c r="J59" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="O59" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>339</v>
+      </c>
+      <c r="K59" t="s">
+        <v>259</v>
+      </c>
+      <c r="N59" t="s">
+        <v>323</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A60" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B60" s="27">
-        <v>43397</v>
+        <v>43518</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>326</v>
       </c>
+      <c r="E60">
+        <v>2030</v>
+      </c>
       <c r="H60" t="s">
-        <v>261</v>
-      </c>
-      <c r="J60" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="N60" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+        <v>258</v>
+      </c>
+      <c r="I60" t="s">
+        <v>227</v>
+      </c>
+      <c r="K60" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="27">
-        <v>43419</v>
-      </c>
-      <c r="C61" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="E61">
-        <v>2030</v>
+      <c r="B61" s="16">
+        <v>43850</v>
       </c>
       <c r="H61" t="s">
-        <v>261</v>
+        <v>52</v>
       </c>
       <c r="I61" t="s">
-        <v>343</v>
-      </c>
-      <c r="J61" t="s">
-        <v>262</v>
-      </c>
-      <c r="L61" t="s">
-        <v>327</v>
-      </c>
-      <c r="N61" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="O61" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+      <c r="K61" t="s">
+        <v>258</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A62" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="27">
-        <v>43518</v>
-      </c>
-      <c r="C62" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E62">
-        <v>2030</v>
+      <c r="B62" s="16">
+        <v>44377</v>
       </c>
       <c r="H62" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I62" t="s">
-        <v>227</v>
-      </c>
-      <c r="J62" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="O62" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+        <v>233</v>
+      </c>
+      <c r="K62" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="16">
-        <v>44377</v>
+      <c r="B63" s="27">
+        <v>42283</v>
+      </c>
+      <c r="C63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E63">
+        <v>2023</v>
       </c>
       <c r="H63" t="s">
-        <v>261</v>
-      </c>
-      <c r="I63" t="s">
-        <v>234</v>
-      </c>
-      <c r="J63" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="O63" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+      <c r="K63" t="s">
+        <v>258</v>
+      </c>
+      <c r="N63" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A64" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="27">
-        <v>42283</v>
-      </c>
-      <c r="C64" t="s">
-        <v>49</v>
+      <c r="B64" s="25">
+        <v>42326</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E64">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="H64" t="s">
-        <v>50</v>
-      </c>
-      <c r="J64" t="s">
-        <v>261</v>
-      </c>
-      <c r="L64" t="s">
-        <v>289</v>
-      </c>
-      <c r="O64" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+        <v>258</v>
+      </c>
+      <c r="K64" t="s">
+        <v>259</v>
+      </c>
+      <c r="N64" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="25">
-        <v>42326</v>
+      <c r="B65" s="14">
+        <v>42996</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E65">
         <v>2025</v>
       </c>
       <c r="H65" t="s">
-        <v>261</v>
-      </c>
-      <c r="J65" t="s">
-        <v>262</v>
-      </c>
-      <c r="L65" t="s">
-        <v>332</v>
-      </c>
-      <c r="O65" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+        <v>258</v>
+      </c>
+      <c r="K65" t="s">
+        <v>259</v>
+      </c>
+      <c r="N65" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="14">
-        <v>42996</v>
+      <c r="B66" s="27">
+        <v>43105</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E66">
         <v>2025</v>
       </c>
       <c r="H66" t="s">
-        <v>261</v>
-      </c>
-      <c r="J66" t="s">
-        <v>262</v>
-      </c>
-      <c r="L66" t="s">
-        <v>52</v>
-      </c>
-      <c r="O66" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+        <v>258</v>
+      </c>
+      <c r="K66" t="s">
+        <v>259</v>
+      </c>
+      <c r="N66" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="27">
-        <v>43105</v>
+      <c r="B67" s="25">
+        <v>44179</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E67">
+        <v>2024</v>
+      </c>
+      <c r="H67" t="s">
+        <v>258</v>
+      </c>
+      <c r="K67" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="L67" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="N67" t="s">
         <v>334</v>
       </c>
-      <c r="E67">
-        <v>2025</v>
-      </c>
-      <c r="H67" t="s">
-        <v>261</v>
-      </c>
-      <c r="J67" t="s">
-        <v>262</v>
-      </c>
-      <c r="L67" t="s">
+      <c r="P67" t="s">
         <v>335</v>
       </c>
-      <c r="O67" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="Q67" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A68" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="25">
-        <v>44179</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="E68">
-        <v>2024</v>
+      <c r="B68" s="16">
+        <v>44377</v>
       </c>
       <c r="H68" t="s">
-        <v>261</v>
-      </c>
-      <c r="J68" s="17" t="s">
-        <v>273</v>
+        <v>258</v>
+      </c>
+      <c r="I68" t="s">
+        <v>234</v>
       </c>
       <c r="K68" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="L68" t="s">
-        <v>338</v>
-      </c>
-      <c r="N68" t="s">
-        <v>339</v>
-      </c>
-      <c r="O68" t="s">
-        <v>192</v>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O68" xr:uid="{3D652218-3B78-4CB0-BA25-8DE344561C19}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O68">
+  <autoFilter ref="A1:Q68" xr:uid="{3D652218-3B78-4CB0-BA25-8DE344561C19}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q68">
       <sortCondition ref="A1:A68"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="O34" r:id="rId1" display="https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16" xr:uid="{505B5FEE-A6F5-47CB-9917-E30704A91A4C}"/>
-    <hyperlink ref="J6" r:id="rId2" display="https://ec.europa.eu/clima/news-your-voice/news/update-preparatory-steps-auctioning-phase-3-allowances-2011-11-25_en" xr:uid="{E0BDB423-56EA-44F0-A54A-0F5B4F2A2147}"/>
-    <hyperlink ref="K6" r:id="rId3" display="https://ec.europa.eu/clima/news-your-voice/news/enhancing-eu-rules-monitoring-greenhouse-gas-emissions-2011-11-23_en" xr:uid="{9BD80364-5CA2-43DB-B2CC-0E03E8DA4A0C}"/>
-    <hyperlink ref="J8" r:id="rId4" display="https://ec.europa.eu/clima/news-your-voice/news/european-commission-adopts-carbon-leakage-list-period-2015-2019-2014-10-27_en" xr:uid="{A6A17CE0-740F-4D5D-B313-5A7D344A91EA}"/>
-    <hyperlink ref="K8" r:id="rId5" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2014-11-04_en" xr:uid="{8247D59B-1565-4720-B464-3B76D4306051}"/>
-    <hyperlink ref="J34" r:id="rId6" display="https://ec.europa.eu/clima/news-your-voice/news/commission-proposes-safeguard-measures-eu-emissions-trading-system-2017-10-24_en" xr:uid="{0DD0FCDC-28E2-41DE-B6F4-45CBD31C5107}"/>
-    <hyperlink ref="J36" r:id="rId7" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2017-11-06_en" xr:uid="{13CCF2E4-4BEB-447B-B73C-69BAB51FDDF4}"/>
-    <hyperlink ref="K36" r:id="rId8" display="https://ec.europa.eu/clima/news-your-voice/news/eu-emissions-trading-system-landmark-agreement-between-parliament-and-council-delivers-eus-2017-11-09_en" xr:uid="{454861F8-3E39-4C29-A4AA-465B15683294}"/>
-    <hyperlink ref="J40" r:id="rId9" display="https://ec.europa.eu/clima/news-your-voice/news/ets-market-stability-reserve-will-start-reducing-auction-volume-almost-265-million-allowances-over-2018-05-15_en" xr:uid="{C721078D-42C8-4E8F-A645-8D1BD1241E6C}"/>
-    <hyperlink ref="J60" r:id="rId10" display="https://ec.europa.eu/clima/news-your-voice/news/emissions-trading-commission-adopts-amendment-ets-auctioning-regulation-2018-10-30_en" xr:uid="{1DA6063C-C717-4DBA-BA11-FA42D50774A1}"/>
-    <hyperlink ref="J62" r:id="rId11" display="https://ec.europa.eu/clima/news-your-voice/news/towards-climate-neutral-europe-eu-invests-over-eu10bn-innovative-clean-technologies-2019-02-26_en" xr:uid="{507015DA-B303-49DD-BE42-8DA9AF07D7DC}"/>
-    <hyperlink ref="J14" r:id="rId12" display="https://ec.europa.eu/clima/news-your-voice/news/towards-climate-neutral-europe-eu-invests-over-eu10bn-innovative-clean-technologies-2019-02-26_en" xr:uid="{F695F6A8-94CC-4324-881A-6C6ADE693EA0}"/>
-    <hyperlink ref="J53" r:id="rId13" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2019-06-19_en" xr:uid="{A71B360B-E82C-443B-A0BC-C4F1B76F9882}"/>
-    <hyperlink ref="K53" r:id="rId14" display="https://ec.europa.eu/clima/news-your-voice/news/polands-2020-auction-volume-include-allowances-not-used-power-sector-modernisation-2019-06-12_en" xr:uid="{415A5C0B-1796-4A12-9A96-39DA2523F414}"/>
-    <hyperlink ref="J45" r:id="rId15" display="https://ec.europa.eu/clima/news-your-voice/news/adoption-regulation-adjustments-free-allocation-emission-allowances-due-activity-level-changes-2019-10-31_en" xr:uid="{F8C2477A-A966-4A33-B989-ABEB3FD073BF}"/>
-    <hyperlink ref="J18" r:id="rId16" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-status-update-new-entrants-reserve-2020-01-15_en" xr:uid="{ABCA4C5C-168F-4911-A05E-3E193BB0607F}"/>
-    <hyperlink ref="J22" r:id="rId17" display="https://ec.europa.eu/clima/news-your-voice/news/2020-revised-auction-calendars-published-2020-07-01_en" xr:uid="{9D566DF6-E071-4458-A5B6-59D0E48FBF3A}"/>
-    <hyperlink ref="J4" r:id="rId18" display="https://ec.europa.eu/clima/news-your-voice/news/draft-implementing-regulation-determining-revised-benchmark-values-period-2021-2025-open-4-week-2020-12-08_en" xr:uid="{19E0304F-6616-473B-A894-D0B7F9DBC892}"/>
-    <hyperlink ref="J68" r:id="rId19" display="https://ec.europa.eu/clima/news-your-voice/news/draft-implementing-regulation-determining-revised-benchmark-values-period-2021-2025-open-4-week-2020-12-08_en" xr:uid="{658F0735-A061-4C52-B67E-F6B04D42BB54}"/>
-    <hyperlink ref="K68" r:id="rId20" display="https://ec.europa.eu/clima/news-your-voice/news/further-information-start-phase-4-eu-ets-2021-emission-allowances-be-issued-aircraft-operators-and-2020-12-11_en" xr:uid="{687C8CA1-0617-4C04-B1E2-3A6EE9FA542A}"/>
-    <hyperlink ref="J46" r:id="rId21" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credits-use-eu-ets-2021-05-25_en" xr:uid="{786141D5-4E60-47E5-868D-0BC2E5D732A1}"/>
-    <hyperlink ref="K46" r:id="rId22" display="https://ec.europa.eu/clima/news-your-voice/news/commission-adopts-uniform-cross-sectoral-correction-factor-be-applied-free-allocation-2021-2025-eu-2021-05-31_en" xr:uid="{727E1C4B-1C90-4B4F-B840-392DA92B4D85}"/>
-    <hyperlink ref="J47" r:id="rId23" display="https://ec.europa.eu/clima/news-your-voice/news/commission-adopts-uniform-cross-sectoral-correction-factor-be-applied-free-allocation-2021-2025-eu-2021-05-31_en" xr:uid="{229EEBB8-9D9F-4092-B53F-78A789BC03EF}"/>
-    <hyperlink ref="J59" r:id="rId24" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-national-allocation-tables-member-states-eu-ets-stationary-installations-2021-06-29_en" xr:uid="{89D453DE-89FB-4B15-9C24-8E5340DED0FD}"/>
-    <hyperlink ref="J63" r:id="rId25" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-national-allocation-tables-member-states-eu-ets-stationary-installations-2021-06-29_en" xr:uid="{E19D2B34-612B-4770-9952-A0724072D571}"/>
-    <hyperlink ref="J21" r:id="rId26" display="https://ec.europa.eu/clima/news-your-voice/news/revised-2022-auction-calendar-general-allowances-published-2022-05-19_en" xr:uid="{D6A0CCD9-573F-4ABD-A090-B97A1BD04FAE}"/>
-    <hyperlink ref="K21" r:id="rId27" display="https://ec.europa.eu/commission/presscorner/detail/en/ip_22_3131" xr:uid="{EBAADABC-FD35-40D8-894F-A1A7B431C0BC}"/>
+    <hyperlink ref="Q34" r:id="rId1" display="https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16" xr:uid="{505B5FEE-A6F5-47CB-9917-E30704A91A4C}"/>
+    <hyperlink ref="K6" r:id="rId2" display="https://ec.europa.eu/clima/news-your-voice/news/update-preparatory-steps-auctioning-phase-3-allowances-2011-11-25_en" xr:uid="{E0BDB423-56EA-44F0-A54A-0F5B4F2A2147}"/>
+    <hyperlink ref="L6" r:id="rId3" display="https://ec.europa.eu/clima/news-your-voice/news/enhancing-eu-rules-monitoring-greenhouse-gas-emissions-2011-11-23_en" xr:uid="{9BD80364-5CA2-43DB-B2CC-0E03E8DA4A0C}"/>
+    <hyperlink ref="K7" r:id="rId4" display="https://ec.europa.eu/clima/news-your-voice/news/european-commission-adopts-carbon-leakage-list-period-2015-2019-2014-10-27_en" xr:uid="{A6A17CE0-740F-4D5D-B313-5A7D344A91EA}"/>
+    <hyperlink ref="L7" r:id="rId5" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2014-11-04_en" xr:uid="{8247D59B-1565-4720-B464-3B76D4306051}"/>
+    <hyperlink ref="K34" r:id="rId6" display="https://ec.europa.eu/clima/news-your-voice/news/commission-proposes-safeguard-measures-eu-emissions-trading-system-2017-10-24_en" xr:uid="{0DD0FCDC-28E2-41DE-B6F4-45CBD31C5107}"/>
+    <hyperlink ref="K35" r:id="rId7" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2017-11-06_en" xr:uid="{13CCF2E4-4BEB-447B-B73C-69BAB51FDDF4}"/>
+    <hyperlink ref="L35" r:id="rId8" display="https://ec.europa.eu/clima/news-your-voice/news/eu-emissions-trading-system-landmark-agreement-between-parliament-and-council-delivers-eus-2017-11-09_en" xr:uid="{454861F8-3E39-4C29-A4AA-465B15683294}"/>
+    <hyperlink ref="K39" r:id="rId9" display="https://ec.europa.eu/clima/news-your-voice/news/ets-market-stability-reserve-will-start-reducing-auction-volume-almost-265-million-allowances-over-2018-05-15_en" xr:uid="{C721078D-42C8-4E8F-A645-8D1BD1241E6C}"/>
+    <hyperlink ref="K58" r:id="rId10" display="https://ec.europa.eu/clima/news-your-voice/news/emissions-trading-commission-adopts-amendment-ets-auctioning-regulation-2018-10-30_en" xr:uid="{1DA6063C-C717-4DBA-BA11-FA42D50774A1}"/>
+    <hyperlink ref="K60" r:id="rId11" display="https://ec.europa.eu/clima/news-your-voice/news/towards-climate-neutral-europe-eu-invests-over-eu10bn-innovative-clean-technologies-2019-02-26_en" xr:uid="{507015DA-B303-49DD-BE42-8DA9AF07D7DC}"/>
+    <hyperlink ref="K14" r:id="rId12" display="https://ec.europa.eu/clima/news-your-voice/news/towards-climate-neutral-europe-eu-invests-over-eu10bn-innovative-clean-technologies-2019-02-26_en" xr:uid="{F695F6A8-94CC-4324-881A-6C6ADE693EA0}"/>
+    <hyperlink ref="K53" r:id="rId13" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2019-06-19_en" xr:uid="{A71B360B-E82C-443B-A0BC-C4F1B76F9882}"/>
+    <hyperlink ref="L53" r:id="rId14" display="https://ec.europa.eu/clima/news-your-voice/news/polands-2020-auction-volume-include-allowances-not-used-power-sector-modernisation-2019-06-12_en" xr:uid="{415A5C0B-1796-4A12-9A96-39DA2523F414}"/>
+    <hyperlink ref="K45" r:id="rId15" display="https://ec.europa.eu/clima/news-your-voice/news/adoption-regulation-adjustments-free-allocation-emission-allowances-due-activity-level-changes-2019-10-31_en" xr:uid="{F8C2477A-A966-4A33-B989-ABEB3FD073BF}"/>
+    <hyperlink ref="K22" r:id="rId16" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-status-update-new-entrants-reserve-2020-01-15_en" xr:uid="{ABCA4C5C-168F-4911-A05E-3E193BB0607F}"/>
+    <hyperlink ref="K23" r:id="rId17" display="https://ec.europa.eu/clima/news-your-voice/news/2020-revised-auction-calendars-published-2020-07-01_en" xr:uid="{9D566DF6-E071-4458-A5B6-59D0E48FBF3A}"/>
+    <hyperlink ref="K4" r:id="rId18" display="https://ec.europa.eu/clima/news-your-voice/news/draft-implementing-regulation-determining-revised-benchmark-values-period-2021-2025-open-4-week-2020-12-08_en" xr:uid="{19E0304F-6616-473B-A894-D0B7F9DBC892}"/>
+    <hyperlink ref="K67" r:id="rId19" display="https://ec.europa.eu/clima/news-your-voice/news/draft-implementing-regulation-determining-revised-benchmark-values-period-2021-2025-open-4-week-2020-12-08_en" xr:uid="{658F0735-A061-4C52-B67E-F6B04D42BB54}"/>
+    <hyperlink ref="L67" r:id="rId20" display="https://ec.europa.eu/clima/news-your-voice/news/further-information-start-phase-4-eu-ets-2021-emission-allowances-be-issued-aircraft-operators-and-2020-12-11_en" xr:uid="{687C8CA1-0617-4C04-B1E2-3A6EE9FA542A}"/>
+    <hyperlink ref="K46" r:id="rId21" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credits-use-eu-ets-2021-05-25_en" xr:uid="{786141D5-4E60-47E5-868D-0BC2E5D732A1}"/>
+    <hyperlink ref="L46" r:id="rId22" display="https://ec.europa.eu/clima/news-your-voice/news/commission-adopts-uniform-cross-sectoral-correction-factor-be-applied-free-allocation-2021-2025-eu-2021-05-31_en" xr:uid="{727E1C4B-1C90-4B4F-B840-392DA92B4D85}"/>
+    <hyperlink ref="K47" r:id="rId23" display="https://ec.europa.eu/clima/news-your-voice/news/commission-adopts-uniform-cross-sectoral-correction-factor-be-applied-free-allocation-2021-2025-eu-2021-05-31_en" xr:uid="{229EEBB8-9D9F-4092-B53F-78A789BC03EF}"/>
+    <hyperlink ref="K62" r:id="rId24" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-national-allocation-tables-member-states-eu-ets-stationary-installations-2021-06-29_en" xr:uid="{89D453DE-89FB-4B15-9C24-8E5340DED0FD}"/>
+    <hyperlink ref="K68" r:id="rId25" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-national-allocation-tables-member-states-eu-ets-stationary-installations-2021-06-29_en" xr:uid="{E19D2B34-612B-4770-9952-A0724072D571}"/>
+    <hyperlink ref="K25" r:id="rId26" display="https://ec.europa.eu/clima/news-your-voice/news/revised-2022-auction-calendar-general-allowances-published-2022-05-19_en" xr:uid="{D6A0CCD9-573F-4ABD-A090-B97A1BD04FAE}"/>
+    <hyperlink ref="L25" r:id="rId27" display="https://ec.europa.eu/commission/presscorner/detail/en/ip_22_3131" xr:uid="{EBAADABC-FD35-40D8-894F-A1A7B431C0BC}"/>
+    <hyperlink ref="L4" r:id="rId28" display="https://ec.europa.eu/clima/news-your-voice/news/further-information-start-phase-4-eu-ets-2021-emission-allowances-be-issued-aircraft-operators-and-2020-12-11_en" xr:uid="{EDEA86E0-E622-447C-A19C-FB5362C65735}"/>
+    <hyperlink ref="M7" r:id="rId29" display="https://ec.europa.eu/clima/news-your-voice/news/eu-leaders-agree-2030-climate-and-energy-goals-2014-10-24_en" xr:uid="{091C0239-D1B9-4526-BD63-97C9DEA7A648}"/>
+    <hyperlink ref="L23" r:id="rId30" display="https://ec.europa.eu/clima/news-your-voice/news/financing-energy-transition-commission-puts-eu14-billion-fund-modernise-energy-sectors-10-member-2020-07-09_en" xr:uid="{5B8F9CC5-B7D3-4BC4-A650-352814C687BC}"/>
+    <hyperlink ref="M23" r:id="rId31" display="https://ec.europa.eu/clima/news-your-voice/news/boosting-eus-green-recovery-commission-invests-eu-1-billion-innovative-clean-technology-projects-2020-07-03_en" xr:uid="{C0A7BD83-7044-4ED1-818F-46B46744F552}"/>
+    <hyperlink ref="L24" r:id="rId32" display="https://ec.europa.eu/commission/presscorner/detail/en/ip_21_6042" xr:uid="{8854F8D5-0532-4F0E-91C7-60C67286654D}"/>
+    <hyperlink ref="L38" r:id="rId33" display="https://ec.europa.eu/clima/news-your-voice/news/eu-member-states-agree-negotiating-position-key-2030-climate-policy-proposals-2017-10-13_en" xr:uid="{70D0D58B-B7F9-45A6-A335-5B8700139411}"/>
+    <hyperlink ref="K40" r:id="rId34" display="https://ec.europa.eu/clima/news-your-voice/news/member-states-emission-reduction-targets-2021-2030-adopted-2018-05-14_en" xr:uid="{26A50BE7-AD06-4B9A-9645-E4391F452CFF}"/>
+    <hyperlink ref="L39" r:id="rId35" display="https://ec.europa.eu/clima/news-your-voice/news/ets-market-stability-reserve-will-start-reducing-auction-volume-almost-265-million-allowances-over-2018-05-15_en" xr:uid="{C9572FEA-0976-472B-AAEC-D5F85E2EE313}"/>
+    <hyperlink ref="K44" r:id="rId36" display="https://ec.europa.eu/clima/news-your-voice/news/eu-and-switzerland-sign-agreement-link-emissions-trading-systems-2017-11-23_en" xr:uid="{D1F584D8-A9E6-4830-B87A-59072962FBDE}"/>
+    <hyperlink ref="L44" r:id="rId37" display="https://ec.europa.eu/clima/news-your-voice/news/un-climate-conference-makes-progress-paris-agreement-implementation-2017-11-18_en" xr:uid="{BEFA94A6-DDF4-4E95-A6FA-BCD766336BF9}"/>
+    <hyperlink ref="M44" r:id="rId38" display="https://ec.europa.eu/clima/news-your-voice/news/eu-emissions-trading-system-landmark-agreement-between-parliament-and-council-delivers-eus-2017-11-09_en" xr:uid="{BE6B9B42-B032-4671-BCB8-5AD6B033B4BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305282EE-FEB0-4997-81CE-FEC2156B98DC}">
+  <dimension ref="A1:BA49"/>
+  <sheetViews>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:AW3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="49" width="11.1328125" customWidth="1"/>
+    <col min="50" max="53" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K1" t="s">
+        <v>361</v>
+      </c>
+      <c r="L1" t="s">
+        <v>362</v>
+      </c>
+      <c r="M1" t="s">
+        <v>363</v>
+      </c>
+      <c r="N1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O1" t="s">
+        <v>365</v>
+      </c>
+      <c r="P1" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>367</v>
+      </c>
+      <c r="R1" t="s">
+        <v>368</v>
+      </c>
+      <c r="S1" t="s">
+        <v>369</v>
+      </c>
+      <c r="T1" t="s">
+        <v>370</v>
+      </c>
+      <c r="U1" t="s">
+        <v>371</v>
+      </c>
+      <c r="V1" t="s">
+        <v>372</v>
+      </c>
+      <c r="W1" t="s">
+        <v>373</v>
+      </c>
+      <c r="X1" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>20211014</v>
+      </c>
+      <c r="B2">
+        <v>20211011</v>
+      </c>
+      <c r="C2">
+        <v>20201204</v>
+      </c>
+      <c r="D2">
+        <v>20220107</v>
+      </c>
+      <c r="E2">
+        <v>20111125</v>
+      </c>
+      <c r="F2">
+        <v>20141029</v>
+      </c>
+      <c r="G2">
+        <v>20170831</v>
+      </c>
+      <c r="H2">
+        <v>20180410</v>
+      </c>
+      <c r="I2">
+        <v>20181018</v>
+      </c>
+      <c r="J2">
+        <v>20190227</v>
+      </c>
+      <c r="K2">
+        <v>20190126</v>
+      </c>
+      <c r="L2">
+        <v>20180914</v>
+      </c>
+      <c r="M2">
+        <v>20181115</v>
+      </c>
+      <c r="N2">
+        <v>20191209</v>
+      </c>
+      <c r="O2">
+        <v>20200703</v>
+      </c>
+      <c r="P2">
+        <v>20211015</v>
+      </c>
+      <c r="Q2">
+        <v>20211123</v>
+      </c>
+      <c r="R2">
+        <v>20110314</v>
+      </c>
+      <c r="S2">
+        <v>20110530</v>
+      </c>
+      <c r="T2">
+        <v>20220620</v>
+      </c>
+      <c r="U2">
+        <v>20190923</v>
+      </c>
+      <c r="V2">
+        <v>20210426</v>
+      </c>
+      <c r="W2">
+        <v>20190923</v>
+      </c>
+      <c r="X2">
+        <v>20181120</v>
+      </c>
+      <c r="Y2">
+        <v>20171024</v>
+      </c>
+      <c r="Z2">
+        <v>20171010</v>
+      </c>
+      <c r="AA2">
+        <v>20160923</v>
+      </c>
+      <c r="AB2">
+        <v>20180518</v>
+      </c>
+      <c r="AC2">
+        <v>20200925</v>
+      </c>
+      <c r="AD2">
+        <v>20171116</v>
+      </c>
+      <c r="AE2">
+        <v>20191026</v>
+      </c>
+      <c r="AF2">
+        <v>20210603</v>
+      </c>
+      <c r="AG2">
+        <v>20210526</v>
+      </c>
+      <c r="AH2">
+        <v>20210930</v>
+      </c>
+      <c r="AI2">
+        <v>20190618</v>
+      </c>
+      <c r="AJ2">
+        <v>20181119</v>
+      </c>
+      <c r="AK2">
+        <v>20210315</v>
+      </c>
+      <c r="AL2">
+        <v>20220113</v>
+      </c>
+      <c r="AM2">
+        <v>20211104</v>
+      </c>
+      <c r="AN2">
+        <v>20181115</v>
+      </c>
+      <c r="AO2">
+        <v>20181024</v>
+      </c>
+      <c r="AP2">
+        <v>20190222</v>
+      </c>
+      <c r="AQ2">
+        <v>20151118</v>
+      </c>
+      <c r="AR2">
+        <v>20151006</v>
+      </c>
+      <c r="AS2">
+        <v>20180105</v>
+      </c>
+      <c r="AT2">
+        <v>20201214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>44483</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44480</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44169</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44568</v>
+      </c>
+      <c r="E3" s="1">
+        <v>40872</v>
+      </c>
+      <c r="F3" s="1">
+        <v>41941</v>
+      </c>
+      <c r="G3" s="1">
+        <v>42978</v>
+      </c>
+      <c r="H3" s="1">
+        <v>43200</v>
+      </c>
+      <c r="I3" s="1">
+        <v>43391</v>
+      </c>
+      <c r="J3" s="1">
+        <v>43523</v>
+      </c>
+      <c r="K3" s="1">
+        <v>43491</v>
+      </c>
+      <c r="L3" s="1">
+        <v>43357</v>
+      </c>
+      <c r="M3" s="1">
+        <v>43419</v>
+      </c>
+      <c r="N3" s="1">
+        <v>43808</v>
+      </c>
+      <c r="O3" s="1">
+        <v>44015</v>
+      </c>
+      <c r="P3" s="1">
+        <v>44484</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>44523</v>
+      </c>
+      <c r="R3" s="1">
+        <v>40616</v>
+      </c>
+      <c r="S3" s="1">
+        <v>40693</v>
+      </c>
+      <c r="T3" s="1">
+        <v>44732</v>
+      </c>
+      <c r="U3" s="1">
+        <v>43731</v>
+      </c>
+      <c r="V3" s="1">
+        <v>44312</v>
+      </c>
+      <c r="W3" s="1">
+        <v>43731</v>
+      </c>
+      <c r="X3" s="1">
+        <v>43424</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>43032</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>43018</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>42636</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>43238</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>44099</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>43055</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>43764</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>44350</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>44342</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>44469</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>43634</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>43423</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>44270</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>44574</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>44504</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>43419</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>43397</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>43518</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>42326</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>42283</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>43105</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="C16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C49" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F04AECB-DE21-40E1-BE46-F4D01F8ED512}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5715,13 +6645,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -5792,15 +6722,15 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B14" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -5809,12 +6739,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBACDB4C-377C-4D42-A1C4-4E227FE38167}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>

--- a/Other data/Coal phase out announcements.xlsx
+++ b/Other data/Coal phase out announcements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive - London School of Economics\Documents\LSE\GY489_Dissertation\LETS GO\Dissertation-Code-Data\Other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861D108A-2728-44FC-93C7-5E9B26C836B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B564D1-77A1-4FF7-BE67-DFBFE770716B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2565,10 +2565,10 @@
   <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2647,1183 +2647,1183 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="14">
-        <v>40872</v>
-      </c>
-      <c r="F2">
-        <v>2030</v>
-      </c>
-      <c r="R2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="14">
-        <v>41941</v>
-      </c>
-      <c r="D3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3">
-        <v>2.5</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="L3">
+        <v>109</v>
+      </c>
+      <c r="E3"/>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44480</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="L4">
         <v>1</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="16">
-        <v>42283</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
+      <c r="O4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="R4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="11">
-        <v>42326</v>
-      </c>
-      <c r="R5" t="s">
-        <v>189</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="15">
+        <v>44483</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="16">
-        <v>42636</v>
-      </c>
-      <c r="P6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>0.3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="14">
-        <v>42689</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7">
-        <v>2023</v>
-      </c>
-      <c r="G7">
-        <v>3.5</v>
-      </c>
-      <c r="H7">
-        <v>11</v>
-      </c>
-      <c r="K7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="R7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+      <c r="E7"/>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="16">
-        <v>42697</v>
+        <v>84</v>
+      </c>
+      <c r="B8" s="15">
+        <v>44169</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8">
+        <v>2038</v>
       </c>
       <c r="G8">
-        <v>2.6</v>
+        <v>8.5</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44568</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="14">
+        <v>40872</v>
+      </c>
+      <c r="F10">
+        <v>2030</v>
+      </c>
+      <c r="R10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="14">
+        <v>41941</v>
+      </c>
+      <c r="D11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11">
+        <v>2.5</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="14">
+        <v>43055</v>
+      </c>
+      <c r="D12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" t="s">
+        <v>199</v>
+      </c>
+      <c r="R12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13"/>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="16">
+        <v>42697</v>
+      </c>
+      <c r="G14">
+        <v>2.6</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="R14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B15" s="14">
         <v>42978</v>
       </c>
-      <c r="E9"/>
-      <c r="R9" t="s">
+      <c r="E15"/>
+      <c r="R15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14">
-        <v>42996</v>
-      </c>
-      <c r="R10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="15">
-        <v>43018</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="15">
-        <v>43032</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="11">
-        <v>43049</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="R13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="14">
-        <v>43055</v>
-      </c>
-      <c r="D14" t="s">
-        <v>198</v>
-      </c>
-      <c r="K14" t="s">
-        <v>199</v>
-      </c>
-      <c r="R14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="14">
-        <v>43055</v>
-      </c>
-      <c r="D15" t="s">
-        <v>211</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>12</v>
-      </c>
-      <c r="K15" t="s">
-        <v>138</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R15" t="s">
-        <v>212</v>
-      </c>
-    </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="16">
-        <v>43091</v>
-      </c>
-      <c r="D16" t="s">
-        <v>215</v>
-      </c>
-      <c r="P16" s="6"/>
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="14">
+        <v>43200</v>
+      </c>
+      <c r="E16"/>
       <c r="R16" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
-        <v>8</v>
+      <c r="A17" t="s">
+        <v>24</v>
       </c>
       <c r="B17" s="14">
-        <v>43105</v>
-      </c>
+        <v>43391</v>
+      </c>
+      <c r="E17"/>
       <c r="R17" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="16">
-        <v>43169</v>
-      </c>
-      <c r="G18">
-        <v>0.9</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="N18" t="s">
-        <v>52</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B18" s="14">
+        <v>43523</v>
+      </c>
+      <c r="E18"/>
       <c r="R18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B19" s="14">
-        <v>43200</v>
-      </c>
-      <c r="E19"/>
+        <v>42689</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19">
+        <v>2023</v>
+      </c>
+      <c r="G19">
+        <v>3.5</v>
+      </c>
+      <c r="H19">
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
+        <v>137</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="R19" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="14">
-        <v>43238</v>
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="11">
+        <v>43357</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20">
+        <v>2038</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="R20" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="11">
-        <v>43357</v>
+      <c r="B21" s="15">
+        <v>43491</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F21">
         <v>2038</v>
       </c>
+      <c r="G21">
+        <v>47.6</v>
+      </c>
+      <c r="H21">
+        <v>175</v>
+      </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
-      <c r="Q21" s="6" t="s">
-        <v>108</v>
-      </c>
+      <c r="P21" s="6"/>
       <c r="R21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="14">
-        <v>43391</v>
-      </c>
-      <c r="E22"/>
+        <v>61</v>
+      </c>
+      <c r="B22" s="11">
+        <v>43846</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22">
+        <v>2038</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="P22" s="6"/>
       <c r="R22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="14">
-        <v>43397</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>183</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44015</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23">
+        <v>2038</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="P23" s="6"/>
+      <c r="R23" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="14">
-        <v>43419</v>
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44484</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24">
+        <v>2030</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
-      <c r="P24" t="s">
-        <v>184</v>
+      <c r="P24" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="R24" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="14">
-        <v>43423</v>
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44705</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="P25" s="6"/>
-      <c r="R25" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="16">
-        <v>43424</v>
-      </c>
-      <c r="G26">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>194</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44732</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="6"/>
       <c r="R26" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="15">
-        <v>43491</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27">
-        <v>2038</v>
-      </c>
-      <c r="G27">
-        <v>47.6</v>
-      </c>
-      <c r="H27">
-        <v>175</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
+      <c r="B27" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="P27" s="6"/>
       <c r="R27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="18">
-        <v>43497</v>
-      </c>
-      <c r="G28">
-        <v>0.7</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="15">
+        <v>43731</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28">
+        <v>2028</v>
+      </c>
+      <c r="K28" t="s">
+        <v>148</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="R28" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A29" s="4" t="s">
-        <v>69</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>53</v>
       </c>
       <c r="B29" s="14">
-        <v>43518</v>
-      </c>
+        <v>44312</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29">
+        <v>2025</v>
+      </c>
+      <c r="P29" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q29" s="6"/>
       <c r="R29" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B30" s="14">
-        <v>43523</v>
-      </c>
-      <c r="E30"/>
+        <v>44462</v>
+      </c>
       <c r="R30" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="19">
-        <v>43634</v>
-      </c>
-      <c r="D31" t="s">
-        <v>220</v>
-      </c>
-      <c r="R31" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="15">
-        <v>43731</v>
+      <c r="B31" s="16">
+        <v>44530</v>
+      </c>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="14">
+        <v>44657</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F32">
         <v>2028</v>
       </c>
-      <c r="K32" t="s">
-        <v>148</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="R32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="P32" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="16">
+        <v>43424</v>
+      </c>
+      <c r="G33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="R33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="14">
         <v>43731</v>
       </c>
-      <c r="Q33" s="6"/>
-      <c r="R33" t="s">
+      <c r="Q34" s="6"/>
+      <c r="R34" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A34" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="16">
-        <v>43731</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="14">
-        <v>43764</v>
+        <v>118</v>
       </c>
       <c r="E35"/>
-      <c r="R35" t="s">
-        <v>213</v>
+      <c r="M35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A36" s="4" t="s">
-        <v>38</v>
+      <c r="A36" t="s">
+        <v>44</v>
       </c>
       <c r="B36" s="16">
-        <v>43802</v>
-      </c>
-      <c r="P36" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="11">
-        <v>43846</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F37">
-        <v>2038</v>
+        <v>43169</v>
+      </c>
+      <c r="G36">
+        <v>0.9</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>52</v>
+      </c>
+      <c r="R36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="15">
+        <v>43032</v>
       </c>
       <c r="N37">
         <v>1</v>
       </c>
-      <c r="P37" s="6"/>
-      <c r="R37" t="s">
-        <v>159</v>
+      <c r="R37" s="17" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="16">
-        <v>43850</v>
+        <v>19</v>
+      </c>
+      <c r="B38" s="11">
+        <v>43049</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="R38" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="11">
-        <v>44015</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39">
-        <v>2038</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="P39" s="6"/>
-      <c r="R39" t="s">
-        <v>160</v>
+      <c r="A39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="16">
+        <v>43731</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="11">
-        <v>44099</v>
+        <v>112</v>
       </c>
       <c r="E40"/>
-      <c r="F40">
-        <v>2049</v>
-      </c>
-      <c r="G40">
-        <v>30.2</v>
-      </c>
-      <c r="H40">
-        <v>104</v>
-      </c>
-      <c r="R40" t="s">
-        <v>210</v>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="15">
-        <v>44169</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F41">
-        <v>2038</v>
-      </c>
-      <c r="G41">
-        <v>8.5</v>
-      </c>
-      <c r="H41">
-        <v>35</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="R41" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="11">
-        <v>44179</v>
-      </c>
-      <c r="R42" t="s">
-        <v>192</v>
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42"/>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="14">
-        <v>44270</v>
-      </c>
-      <c r="D43" t="s">
-        <v>319</v>
-      </c>
-      <c r="E43"/>
-      <c r="R43" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="14">
-        <v>44312</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F44">
-        <v>2025</v>
-      </c>
-      <c r="P44" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q44" s="6"/>
-      <c r="R44" t="s">
-        <v>179</v>
+        <v>117</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="14">
-        <v>44342</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="R45" t="s">
-        <v>175</v>
+        <v>38</v>
+      </c>
+      <c r="B45" s="16">
+        <v>42636</v>
+      </c>
+      <c r="P45" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="11">
-        <v>44350</v>
-      </c>
-      <c r="P46" s="6"/>
-      <c r="R46" t="s">
-        <v>175</v>
+        <v>38</v>
+      </c>
+      <c r="B46" s="15">
+        <v>43018</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B47" s="14">
-        <v>44377</v>
+        <v>43238</v>
       </c>
       <c r="R47" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="14">
-        <v>44377</v>
-      </c>
-      <c r="R48" t="s">
-        <v>193</v>
+        <v>38</v>
+      </c>
+      <c r="B48" s="16">
+        <v>43802</v>
+      </c>
+      <c r="P48" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="14">
-        <v>44462</v>
+      <c r="A49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="R49" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A50" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="16">
-        <v>44469</v>
-      </c>
-      <c r="P50" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50"/>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B51" s="11">
-        <v>44480</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F51" t="s">
-        <v>127</v>
+        <v>44099</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51">
+        <v>2049</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>30.2</v>
       </c>
       <c r="H51">
-        <v>15</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51" t="s">
-        <v>153</v>
-      </c>
-      <c r="P51" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q51" s="6" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="R51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="15">
-        <v>44483</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F52" t="s">
-        <v>131</v>
+        <v>42</v>
+      </c>
+      <c r="B52" s="14">
+        <v>43055</v>
+      </c>
+      <c r="D52" t="s">
+        <v>211</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="K52" t="s">
+        <v>138</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
-      <c r="N52">
-        <v>1</v>
+      <c r="P52" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="R52" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="11">
-        <v>44484</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F53">
-        <v>2030</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="P53" s="6" t="s">
-        <v>146</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B53" s="14">
+        <v>43764</v>
+      </c>
+      <c r="E53"/>
       <c r="R53" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A54" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="16">
-        <v>44504</v>
-      </c>
-      <c r="D54" t="s">
-        <v>316</v>
-      </c>
-      <c r="P54" t="s">
-        <v>224</v>
+        <v>76</v>
+      </c>
+      <c r="B54" s="14">
+        <v>44342</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
       </c>
       <c r="R54" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="16">
-        <v>44530</v>
-      </c>
-      <c r="Q55" s="6"/>
-    </row>
-    <row r="56" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="11">
-        <v>44568</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="R56" t="s">
-        <v>157</v>
+      <c r="A55" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="11">
+        <v>44350</v>
+      </c>
+      <c r="P55" s="6"/>
+      <c r="R55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A56" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="16">
+        <v>44469</v>
+      </c>
+      <c r="P56" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="11">
-        <v>44574</v>
-      </c>
-      <c r="G57">
-        <v>1.5</v>
-      </c>
-      <c r="H57">
-        <v>5</v>
-      </c>
+      <c r="A57" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="16">
+        <v>44712</v>
+      </c>
+      <c r="P57" s="6"/>
       <c r="R57" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="14">
-        <v>44657</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F58">
-        <v>2028</v>
-      </c>
-      <c r="P58" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="16">
+        <v>43091</v>
+      </c>
+      <c r="D58" t="s">
+        <v>215</v>
+      </c>
+      <c r="P58" s="6"/>
+      <c r="R58" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="11">
-        <v>44705</v>
+      <c r="A59" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="14">
+        <v>43423</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="P59" s="6"/>
+      <c r="R59" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A60" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="16">
-        <v>44712</v>
-      </c>
-      <c r="P60" s="6"/>
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="18">
+        <v>43497</v>
+      </c>
+      <c r="G60">
+        <v>0.7</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
       <c r="R60" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="11">
-        <v>44732</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="19">
+        <v>43634</v>
+      </c>
+      <c r="D61" t="s">
+        <v>220</v>
+      </c>
       <c r="R61" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A62" s="4" t="s">
+      <c r="A62" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="16" t="s">
-        <v>221</v>
-      </c>
+      <c r="B62" s="14">
+        <v>44270</v>
+      </c>
+      <c r="D62" t="s">
+        <v>319</v>
+      </c>
+      <c r="E62"/>
       <c r="R62" t="s">
-        <v>222</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>173</v>
+        <v>87</v>
+      </c>
+      <c r="B63" s="16">
+        <v>44504</v>
+      </c>
+      <c r="D63" t="s">
+        <v>316</v>
+      </c>
+      <c r="P63" t="s">
+        <v>224</v>
       </c>
       <c r="R63" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="P64" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="B64" s="11">
+        <v>44574</v>
+      </c>
+      <c r="G64">
+        <v>1.5</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
       <c r="R64" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>47</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="P65" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>109</v>
-      </c>
-      <c r="E66"/>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="P66" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>75</v>
-      </c>
-      <c r="G67">
-        <v>0.3</v>
-      </c>
-      <c r="H67">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A65" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="R65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A66" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="14">
+        <v>43397</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="14">
+        <v>43419</v>
+      </c>
+      <c r="N67">
         <v>1</v>
       </c>
-      <c r="L67">
+      <c r="P67" t="s">
+        <v>184</v>
+      </c>
+      <c r="R67" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A68" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="14">
+        <v>43518</v>
+      </c>
+      <c r="R68" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A69" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="16">
+        <v>43850</v>
+      </c>
+      <c r="R69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A70" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="14">
+        <v>44377</v>
+      </c>
+      <c r="R70" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="16">
+        <v>42283</v>
+      </c>
+      <c r="N71">
         <v>1</v>
       </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>110</v>
-      </c>
-      <c r="E68"/>
-      <c r="M68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>111</v>
-      </c>
-      <c r="E69"/>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>118</v>
-      </c>
-      <c r="E70"/>
-      <c r="M70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>112</v>
-      </c>
-      <c r="E71"/>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>119</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>113</v>
-      </c>
-      <c r="E73"/>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>115</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>117</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>120</v>
-      </c>
-      <c r="E76"/>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
+      <c r="R71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="11">
+        <v>42326</v>
+      </c>
+      <c r="R72" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="14">
+        <v>42996</v>
+      </c>
+      <c r="R73" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="14">
+        <v>43105</v>
+      </c>
+      <c r="R74" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="11">
+        <v>44179</v>
+      </c>
+      <c r="R75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="14">
+        <v>44377</v>
+      </c>
+      <c r="R76" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R76" xr:uid="{3D652218-3B78-4CB0-BA25-8DE344561C19}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R76">
-      <sortCondition ref="B1:B76"/>
+      <sortCondition ref="A1:A76"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="R12" r:id="rId1" display="https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16" xr:uid="{5D92F416-BAAC-4FB5-B839-9525CB830178}"/>
+    <hyperlink ref="R37" r:id="rId1" display="https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16" xr:uid="{5D92F416-BAAC-4FB5-B839-9525CB830178}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3835,10 +3835,10 @@
   <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M44" sqref="M44"/>
+      <selection pane="bottomRight" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Other data/Coal phase out announcements.xlsx
+++ b/Other data/Coal phase out announcements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive - London School of Economics\Documents\LSE\GY489_Dissertation\LETS GO\Dissertation-Code-Data\Other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B564D1-77A1-4FF7-BE67-DFBFE770716B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3CBDAC-68D3-4275-82F2-AFED536D7DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="427">
   <si>
     <t>Country</t>
   </si>
@@ -1351,6 +1351,9 @@
   </si>
   <si>
     <t>UN climate conference makes progress on Paris Agreement implementation (europa.eu)</t>
+  </si>
+  <si>
+    <t>Update on safeguard measures for EU Emissions Trading System in 2018 following adoption of UK law (europa.eu)</t>
   </si>
 </sst>
 </file>
@@ -1461,14 +1464,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1476,8 +1477,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1797,109 +1796,107 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.86328125" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="6" width="10.59765625" style="2" customWidth="1"/>
-    <col min="7" max="21" width="10.59765625" customWidth="1"/>
-    <col min="22" max="22" width="47.9296875" style="6" customWidth="1"/>
+    <col min="2" max="21" width="10.59765625" customWidth="1"/>
+    <col min="22" max="22" width="47.9296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="1">
         <v>43358</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2">
         <v>2038</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2">
         <v>47.6</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="7">
         <v>43491</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>2038</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" s="1">
@@ -1932,30 +1929,30 @@
       <c r="U2" t="s">
         <v>92</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="7">
         <v>42326</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3">
         <v>2025</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3">
         <v>21.2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="1">
         <v>43105</v>
       </c>
       <c r="H3">
@@ -1991,34 +1988,34 @@
       <c r="R3" t="s">
         <v>94</v>
       </c>
-      <c r="V3" s="4"/>
+      <c r="V3"/>
       <c r="W3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <v>43419</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>2030</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4">
         <v>10.5</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="1">
         <v>43518</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>2030</v>
       </c>
       <c r="I4" t="s">
@@ -2047,28 +2044,28 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>43032</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>2025</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="1">
         <v>43731</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>2025</v>
       </c>
       <c r="I5" t="s">
@@ -2079,28 +2076,28 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>44169</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>2038</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6">
         <v>8.5</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="1">
         <v>44568</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>2033</v>
       </c>
       <c r="I6" t="s">
@@ -2108,35 +2105,34 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="1">
         <v>42636</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7">
         <v>6.3</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="7">
         <v>43018</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>2030</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>39</v>
       </c>
       <c r="J7" s="1">
         <v>43238</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7">
         <v>2029</v>
       </c>
       <c r="L7" t="s">
@@ -2144,35 +2140,34 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="1">
         <v>42486</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
+      <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8">
         <v>5.8</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="7">
         <v>42689</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>2023</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="1">
         <v>42922</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <v>2022</v>
       </c>
       <c r="L8" t="s">
@@ -2183,25 +2178,25 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <v>44342</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>2032</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="1">
         <v>44350</v>
       </c>
       <c r="H9" t="s">
@@ -2230,25 +2225,25 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <v>44480</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10">
         <v>2040</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="1">
         <v>44466</v>
       </c>
       <c r="H10" t="s">
@@ -2259,28 +2254,28 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <v>43731</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11">
         <v>2028</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="1">
         <v>44462</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <v>2025</v>
       </c>
       <c r="I11" t="s">
@@ -2303,28 +2298,28 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="1">
         <v>41941</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>2025</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>3.9</v>
       </c>
       <c r="G12" s="1">
         <v>43055</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>2030</v>
       </c>
       <c r="I12" t="s">
@@ -2332,25 +2327,25 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="1">
         <v>42697</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>2.6</v>
       </c>
       <c r="G13" s="1">
         <v>42979</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <v>2030</v>
       </c>
       <c r="I13" t="s">
@@ -2359,16 +2354,16 @@
       <c r="J13" s="1">
         <v>43200</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13">
         <v>2029</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" t="s">
         <v>25</v>
       </c>
       <c r="M13" s="1">
         <v>43391</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" t="s">
         <v>35</v>
       </c>
       <c r="P13" s="1">
@@ -2382,48 +2377,48 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <v>2</v>
       </c>
       <c r="G14" s="1">
         <v>43054</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
         <v>2030</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="1">
         <v>43424</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>2030</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15">
         <v>1.1000000000000001</v>
       </c>
       <c r="G15" s="1">
         <v>43731</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15">
         <v>2030</v>
       </c>
       <c r="I15" t="s">
@@ -2431,84 +2426,84 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B16" s="1">
         <v>44574</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>2033</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="1">
         <v>43169</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>2025</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="1">
         <v>43885</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>2025</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B20" s="1">
         <v>44377</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>0.3</v>
       </c>
       <c r="G20" s="1">
@@ -2516,35 +2511,35 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B21" s="1">
         <v>44377</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" t="s">
         <v>52</v>
       </c>
-      <c r="V23" s="6" t="s">
+      <c r="V23" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2576,7 +2571,7 @@
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.06640625" customWidth="1"/>
     <col min="3" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="36.73046875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="36.73046875" style="4" customWidth="1"/>
     <col min="6" max="8" width="21.46484375" customWidth="1"/>
     <col min="9" max="9" width="28.86328125" customWidth="1"/>
     <col min="10" max="10" width="22.3984375" customWidth="1"/>
@@ -2589,59 +2584,59 @@
     <col min="18" max="18" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="8" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2672,10 +2667,10 @@
       <c r="A4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <v>44480</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>128</v>
       </c>
       <c r="F4" t="s">
@@ -2696,10 +2691,10 @@
       <c r="O4" t="s">
         <v>153</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="4" t="s">
         <v>126</v>
       </c>
       <c r="R4" t="s">
@@ -2710,10 +2705,10 @@
       <c r="A5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <v>44483</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>130</v>
       </c>
       <c r="F5" t="s">
@@ -2762,10 +2757,10 @@
       <c r="A8" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <v>44169</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>132</v>
       </c>
       <c r="F8">
@@ -2791,10 +2786,10 @@
       <c r="A9" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <v>44568</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>133</v>
       </c>
       <c r="N9">
@@ -2808,7 +2803,7 @@
       <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="10">
         <v>40872</v>
       </c>
       <c r="F10">
@@ -2822,7 +2817,7 @@
       <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="10">
         <v>41941</v>
       </c>
       <c r="D11" t="s">
@@ -2837,7 +2832,7 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="4" t="s">
         <v>134</v>
       </c>
       <c r="R11" t="s">
@@ -2848,7 +2843,7 @@
       <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="10">
         <v>43055</v>
       </c>
       <c r="D12" t="s">
@@ -2877,7 +2872,7 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="12">
         <v>42697</v>
       </c>
       <c r="G14">
@@ -2889,7 +2884,7 @@
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="4" t="s">
         <v>134</v>
       </c>
       <c r="R14" t="s">
@@ -2900,7 +2895,7 @@
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="10">
         <v>42978</v>
       </c>
       <c r="E15"/>
@@ -2912,7 +2907,7 @@
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="10">
         <v>43200</v>
       </c>
       <c r="E16"/>
@@ -2924,7 +2919,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="10">
         <v>43391</v>
       </c>
       <c r="E17"/>
@@ -2936,7 +2931,7 @@
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="10">
         <v>43523</v>
       </c>
       <c r="E18"/>
@@ -2948,10 +2943,10 @@
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="10">
         <v>42689</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>136</v>
       </c>
       <c r="F19">
@@ -2972,7 +2967,7 @@
       <c r="N19">
         <v>1</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="P19" s="4" t="s">
         <v>135</v>
       </c>
       <c r="R19" t="s">
@@ -2983,10 +2978,10 @@
       <c r="A20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="7">
         <v>43357</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>140</v>
       </c>
       <c r="F20">
@@ -2998,7 +2993,7 @@
       <c r="N20">
         <v>1</v>
       </c>
-      <c r="Q20" s="6" t="s">
+      <c r="Q20" s="4" t="s">
         <v>108</v>
       </c>
       <c r="R20" t="s">
@@ -3009,10 +3004,10 @@
       <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="11">
         <v>43491</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>139</v>
       </c>
       <c r="F21">
@@ -3030,7 +3025,7 @@
       <c r="N21">
         <v>1</v>
       </c>
-      <c r="P21" s="6"/>
+      <c r="P21" s="4"/>
       <c r="R21" t="s">
         <v>195</v>
       </c>
@@ -3039,10 +3034,10 @@
       <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="7">
         <v>43846</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>141</v>
       </c>
       <c r="F22">
@@ -3051,7 +3046,7 @@
       <c r="N22">
         <v>1</v>
       </c>
-      <c r="P22" s="6"/>
+      <c r="P22" s="4"/>
       <c r="R22" t="s">
         <v>159</v>
       </c>
@@ -3060,10 +3055,10 @@
       <c r="A23" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="7">
         <v>44015</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>142</v>
       </c>
       <c r="F23">
@@ -3072,7 +3067,7 @@
       <c r="N23">
         <v>1</v>
       </c>
-      <c r="P23" s="6"/>
+      <c r="P23" s="4"/>
       <c r="R23" t="s">
         <v>160</v>
       </c>
@@ -3081,10 +3076,10 @@
       <c r="A24" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="7">
         <v>44484</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="4" t="s">
         <v>143</v>
       </c>
       <c r="F24">
@@ -3093,7 +3088,7 @@
       <c r="N24">
         <v>1</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="P24" s="4" t="s">
         <v>146</v>
       </c>
       <c r="R24" t="s">
@@ -3104,31 +3099,31 @@
       <c r="A25" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="7">
         <v>44705</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>144</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
-      <c r="Q25" s="6"/>
+      <c r="Q25" s="4"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="7">
         <v>44732</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="4" t="s">
         <v>145</v>
       </c>
       <c r="N26">
         <v>1</v>
       </c>
-      <c r="Q26" s="6"/>
+      <c r="Q26" s="4"/>
       <c r="R26" t="s">
         <v>164</v>
       </c>
@@ -3137,22 +3132,22 @@
       <c r="A27" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P27" s="6"/>
+      <c r="P27" s="4"/>
       <c r="R27" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="s">
+      <c r="A28" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="11">
         <v>43731</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="4" t="s">
         <v>147</v>
       </c>
       <c r="F28">
@@ -3164,7 +3159,7 @@
       <c r="N28">
         <v>1</v>
       </c>
-      <c r="P28" s="6" t="s">
+      <c r="P28" s="4" t="s">
         <v>166</v>
       </c>
       <c r="R28" t="s">
@@ -3175,10 +3170,10 @@
       <c r="A29" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="10">
         <v>44312</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>149</v>
       </c>
       <c r="F29">
@@ -3187,7 +3182,7 @@
       <c r="P29" t="s">
         <v>150</v>
       </c>
-      <c r="Q29" s="6"/>
+      <c r="Q29" s="4"/>
       <c r="R29" t="s">
         <v>179</v>
       </c>
@@ -3196,7 +3191,7 @@
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="10">
         <v>44462</v>
       </c>
       <c r="R30" t="s">
@@ -3207,19 +3202,19 @@
       <c r="A31" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="12">
         <v>44530</v>
       </c>
-      <c r="Q31" s="6"/>
+      <c r="Q31" s="4"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="10">
         <v>44657</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="4" t="s">
         <v>151</v>
       </c>
       <c r="F32">
@@ -3228,13 +3223,13 @@
       <c r="P32" t="s">
         <v>152</v>
       </c>
-      <c r="Q32" s="6"/>
+      <c r="Q32" s="4"/>
     </row>
     <row r="33" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="12">
         <v>43424</v>
       </c>
       <c r="G33">
@@ -3243,7 +3238,7 @@
       <c r="H33">
         <v>4</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="P33" s="4" t="s">
         <v>194</v>
       </c>
       <c r="R33" t="s">
@@ -3254,10 +3249,10 @@
       <c r="A34" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="10">
         <v>43731</v>
       </c>
-      <c r="Q34" s="6"/>
+      <c r="Q34" s="4"/>
       <c r="R34" t="s">
         <v>208</v>
       </c>
@@ -3275,7 +3270,7 @@
       <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="12">
         <v>43169</v>
       </c>
       <c r="G36">
@@ -3292,27 +3287,27 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A37" s="4" t="s">
+      <c r="A37" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="11">
         <v>43032</v>
       </c>
       <c r="N37">
         <v>1</v>
       </c>
-      <c r="R37" s="17" t="s">
+      <c r="R37" s="13" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A38" s="4" t="s">
+      <c r="A38" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="7">
         <v>43049</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="4" t="s">
         <v>169</v>
       </c>
       <c r="R38" t="s">
@@ -3320,10 +3315,10 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A39" s="4" t="s">
+      <c r="A39" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="12">
         <v>43731</v>
       </c>
     </row>
@@ -3385,10 +3380,10 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A45" s="4" t="s">
+      <c r="A45" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="12">
         <v>42636</v>
       </c>
       <c r="P45" t="s">
@@ -3396,10 +3391,10 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A46" s="4" t="s">
+      <c r="A46" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="11">
         <v>43018</v>
       </c>
       <c r="N46">
@@ -3407,10 +3402,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A47" s="4" t="s">
+      <c r="A47" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="10">
         <v>43238</v>
       </c>
       <c r="R47" t="s">
@@ -3418,10 +3413,10 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A48" s="4" t="s">
+      <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="12">
         <v>43802</v>
       </c>
       <c r="P48" t="s">
@@ -3429,10 +3424,10 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A49" s="4" t="s">
+      <c r="A49" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="12" t="s">
         <v>173</v>
       </c>
       <c r="R49" t="s">
@@ -3455,7 +3450,7 @@
       <c r="A51" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="7">
         <v>44099</v>
       </c>
       <c r="E51"/>
@@ -3476,7 +3471,7 @@
       <c r="A52" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="10">
         <v>43055</v>
       </c>
       <c r="D52" t="s">
@@ -3494,7 +3489,7 @@
       <c r="L52">
         <v>1</v>
       </c>
-      <c r="P52" s="6" t="s">
+      <c r="P52" s="4" t="s">
         <v>134</v>
       </c>
       <c r="R52" t="s">
@@ -3505,7 +3500,7 @@
       <c r="A53" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="10">
         <v>43764</v>
       </c>
       <c r="E53"/>
@@ -3514,13 +3509,13 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A54" s="4" t="s">
+      <c r="A54" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="10">
         <v>44342</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="4" t="s">
         <v>176</v>
       </c>
       <c r="N54">
@@ -3531,22 +3526,22 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A55" s="4" t="s">
+      <c r="A55" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="7">
         <v>44350</v>
       </c>
-      <c r="P55" s="6"/>
+      <c r="P55" s="4"/>
       <c r="R55" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A56" s="4" t="s">
+      <c r="A56" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="12">
         <v>44469</v>
       </c>
       <c r="P56" t="s">
@@ -3554,43 +3549,43 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A57" s="4" t="s">
+      <c r="A57" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="12">
         <v>44712</v>
       </c>
-      <c r="P57" s="6"/>
+      <c r="P57" s="4"/>
       <c r="R57" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A58" s="4" t="s">
+      <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="12">
         <v>43091</v>
       </c>
       <c r="D58" t="s">
         <v>215</v>
       </c>
-      <c r="P58" s="6"/>
+      <c r="P58" s="4"/>
       <c r="R58" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A59" s="4" t="s">
+      <c r="A59" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="10">
         <v>43423</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="P59" s="6"/>
+      <c r="P59" s="4"/>
       <c r="R59" t="s">
         <v>216</v>
       </c>
@@ -3599,7 +3594,7 @@
       <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="18">
+      <c r="B60" s="14">
         <v>43497</v>
       </c>
       <c r="G60">
@@ -3616,7 +3611,7 @@
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="19">
+      <c r="B61" s="15">
         <v>43634</v>
       </c>
       <c r="D61" t="s">
@@ -3630,7 +3625,7 @@
       <c r="A62" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="14">
+      <c r="B62" s="10">
         <v>44270</v>
       </c>
       <c r="D62" t="s">
@@ -3642,10 +3637,10 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A63" s="4" t="s">
+      <c r="A63" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="12">
         <v>44504</v>
       </c>
       <c r="D63" t="s">
@@ -3662,7 +3657,7 @@
       <c r="A64" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64" s="7">
         <v>44574</v>
       </c>
       <c r="G64">
@@ -3676,10 +3671,10 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A65" s="4" t="s">
+      <c r="A65" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="12" t="s">
         <v>221</v>
       </c>
       <c r="R65" t="s">
@@ -3687,21 +3682,21 @@
       </c>
     </row>
     <row r="66" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="4" t="s">
+      <c r="A66" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="14">
+      <c r="B66" s="10">
         <v>43397</v>
       </c>
-      <c r="P66" s="6" t="s">
+      <c r="P66" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A67" s="4" t="s">
+      <c r="A67" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="10">
         <v>43419</v>
       </c>
       <c r="N67">
@@ -3715,10 +3710,10 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A68" s="4" t="s">
+      <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="14">
+      <c r="B68" s="10">
         <v>43518</v>
       </c>
       <c r="R68" t="s">
@@ -3726,10 +3721,10 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A69" s="4" t="s">
+      <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="12">
         <v>43850</v>
       </c>
       <c r="R69" t="s">
@@ -3737,10 +3732,10 @@
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A70" s="4" t="s">
+      <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="14">
+      <c r="B70" s="10">
         <v>44377</v>
       </c>
       <c r="R70" t="s">
@@ -3748,10 +3743,10 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A71" s="4" t="s">
+      <c r="A71" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="12">
         <v>42283</v>
       </c>
       <c r="N71">
@@ -3762,10 +3757,10 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A72" s="4" t="s">
+      <c r="A72" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="11">
+      <c r="B72" s="7">
         <v>42326</v>
       </c>
       <c r="R72" t="s">
@@ -3773,10 +3768,10 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A73" s="4" t="s">
+      <c r="A73" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="14">
+      <c r="B73" s="10">
         <v>42996</v>
       </c>
       <c r="R73" t="s">
@@ -3784,10 +3779,10 @@
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A74" s="4" t="s">
+      <c r="A74" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="14">
+      <c r="B74" s="10">
         <v>43105</v>
       </c>
       <c r="R74" t="s">
@@ -3795,10 +3790,10 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A75" s="4" t="s">
+      <c r="A75" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B75" s="7">
         <v>44179</v>
       </c>
       <c r="R75" t="s">
@@ -3806,10 +3801,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A76" s="4" t="s">
+      <c r="A76" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="14">
+      <c r="B76" s="10">
         <v>44377</v>
       </c>
       <c r="R76" t="s">
@@ -3835,10 +3830,10 @@
   <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I48" sqref="I48"/>
+      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3846,7 +3841,7 @@
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.06640625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="36.73046875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36.73046875" style="4" customWidth="1"/>
     <col min="5" max="7" width="21.46484375" customWidth="1"/>
     <col min="8" max="8" width="22.3984375" customWidth="1"/>
     <col min="9" max="12" width="25.1328125" customWidth="1"/>
@@ -3856,56 +3851,56 @@
     <col min="17" max="17" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="8" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3913,13 +3908,13 @@
       <c r="A2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="22">
         <v>44480</v>
       </c>
       <c r="C2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E2" t="s">
@@ -3949,7 +3944,7 @@
       <c r="O2" t="s">
         <v>153</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="4" t="s">
         <v>129</v>
       </c>
       <c r="Q2" t="s">
@@ -3960,13 +3955,13 @@
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="23">
         <v>44483</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>130</v>
       </c>
       <c r="E3" t="s">
@@ -3998,13 +3993,13 @@
       <c r="A4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="22">
         <v>44169</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E4">
@@ -4022,10 +4017,10 @@
       <c r="J4" t="s">
         <v>405</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="13" t="s">
         <v>271</v>
       </c>
       <c r="N4">
@@ -4039,13 +4034,13 @@
       <c r="A5" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="21">
         <v>44568</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>133</v>
       </c>
       <c r="E5">
@@ -4068,13 +4063,13 @@
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="25">
         <v>40872</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E6">
@@ -4083,10 +4078,10 @@
       <c r="H6" t="s">
         <v>278</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="13" t="s">
         <v>254</v>
       </c>
       <c r="N6" t="s">
@@ -4103,13 +4098,13 @@
       <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="25">
         <v>41941</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>281</v>
       </c>
       <c r="E7">
@@ -4124,19 +4119,19 @@
       <c r="H7" t="s">
         <v>278</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="13" t="s">
         <v>407</v>
       </c>
       <c r="N7" t="s">
         <v>298</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="4" t="s">
         <v>134</v>
       </c>
       <c r="Q7" t="s">
@@ -4147,7 +4142,7 @@
       <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="23">
         <v>43055</v>
       </c>
       <c r="C8">
@@ -4156,7 +4151,7 @@
       <c r="D8" t="s">
         <v>198</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>2030</v>
       </c>
       <c r="H8" t="s">
@@ -4176,7 +4171,7 @@
       <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <v>43055</v>
       </c>
       <c r="C9" t="s">
@@ -4202,7 +4197,7 @@
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <v>42697</v>
       </c>
       <c r="F10">
@@ -4223,7 +4218,7 @@
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P10" s="4" t="s">
         <v>134</v>
       </c>
       <c r="Q10" t="s">
@@ -4234,13 +4229,13 @@
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="23">
         <v>42978</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>282</v>
       </c>
       <c r="E11">
@@ -4269,13 +4264,13 @@
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="23">
         <v>43200</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>284</v>
       </c>
       <c r="E12">
@@ -4298,13 +4293,13 @@
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="23">
         <v>43391</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>410</v>
       </c>
       <c r="E13">
@@ -4330,13 +4325,13 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="23">
         <v>43523</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E14">
@@ -4348,7 +4343,7 @@
       <c r="I14" t="s">
         <v>228</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="13" t="s">
         <v>264</v>
       </c>
       <c r="N14" t="s">
@@ -4362,13 +4357,13 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="10">
         <v>42689</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E15">
@@ -4392,7 +4387,7 @@
       <c r="N15" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="4" t="s">
         <v>135</v>
       </c>
       <c r="Q15" t="s">
@@ -4403,13 +4398,13 @@
       <c r="A16" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="21">
         <v>40616</v>
       </c>
       <c r="C16" t="s">
         <v>344</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>345</v>
       </c>
       <c r="H16" t="s">
@@ -4421,7 +4416,7 @@
       <c r="K16" t="s">
         <v>259</v>
       </c>
-      <c r="P16" s="6"/>
+      <c r="P16" s="4"/>
       <c r="Q16" t="s">
         <v>347</v>
       </c>
@@ -4430,13 +4425,13 @@
       <c r="A17" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="21">
         <v>40693</v>
       </c>
       <c r="C17" t="s">
         <v>344</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>346</v>
       </c>
       <c r="H17" t="s">
@@ -4448,7 +4443,7 @@
       <c r="K17" t="s">
         <v>258</v>
       </c>
-      <c r="P17" s="6"/>
+      <c r="P17" s="4"/>
       <c r="Q17" t="s">
         <v>348</v>
       </c>
@@ -4457,13 +4452,13 @@
       <c r="A18" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="21">
         <v>43357</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E18">
@@ -4486,7 +4481,7 @@
       <c r="A19" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="21">
         <v>43419</v>
       </c>
       <c r="C19">
@@ -4507,7 +4502,7 @@
       <c r="K19" t="s">
         <v>259</v>
       </c>
-      <c r="P19" s="6"/>
+      <c r="P19" s="4"/>
       <c r="Q19" t="s">
         <v>163</v>
       </c>
@@ -4516,13 +4511,13 @@
       <c r="A20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="22">
         <v>43491</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E20">
@@ -4543,7 +4538,7 @@
       <c r="N20">
         <v>1</v>
       </c>
-      <c r="P20" s="6"/>
+      <c r="P20" s="4"/>
       <c r="Q20" t="s">
         <v>195</v>
       </c>
@@ -4552,13 +4547,13 @@
       <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="21">
         <v>43808</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>343</v>
       </c>
       <c r="H21" t="s">
@@ -4575,10 +4570,10 @@
       <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="10">
         <v>43846</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E22">
@@ -4590,7 +4585,7 @@
       <c r="I22" t="s">
         <v>231</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="13" t="s">
         <v>268</v>
       </c>
       <c r="N22" t="s">
@@ -4599,7 +4594,7 @@
       <c r="O22" t="s">
         <v>290</v>
       </c>
-      <c r="P22" s="6"/>
+      <c r="P22" s="4"/>
       <c r="Q22" t="s">
         <v>159</v>
       </c>
@@ -4608,13 +4603,13 @@
       <c r="A23" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="21">
         <v>44015</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E23">
@@ -4623,19 +4618,19 @@
       <c r="H23" t="s">
         <v>258</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="K23" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="M23" s="17" t="s">
+      <c r="M23" s="13" t="s">
         <v>414</v>
       </c>
       <c r="N23" t="s">
         <v>287</v>
       </c>
-      <c r="P23" s="6"/>
+      <c r="P23" s="4"/>
       <c r="Q23" t="s">
         <v>160</v>
       </c>
@@ -4644,13 +4639,13 @@
       <c r="A24" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="21">
         <v>44484</v>
       </c>
       <c r="C24" t="s">
         <v>295</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>143</v>
       </c>
       <c r="E24">
@@ -4665,13 +4660,13 @@
       <c r="K24" t="s">
         <v>259</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="L24" s="13" t="s">
         <v>415</v>
       </c>
       <c r="N24" t="s">
         <v>289</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="P24" s="4" t="s">
         <v>288</v>
       </c>
       <c r="Q24" t="s">
@@ -4682,10 +4677,10 @@
       <c r="A25" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="12">
         <v>44705</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>144</v>
       </c>
       <c r="H25" t="s">
@@ -4694,10 +4689,10 @@
       <c r="I25" t="s">
         <v>418</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L25" s="13" t="s">
         <v>276</v>
       </c>
       <c r="N25" t="s">
@@ -4708,13 +4703,13 @@
       <c r="A26" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="21">
         <v>44732</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>145</v>
       </c>
       <c r="H26" t="s">
@@ -4737,16 +4732,16 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="23">
         <v>43731</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>147</v>
       </c>
       <c r="E27">
@@ -4764,7 +4759,7 @@
       <c r="N27" t="s">
         <v>300</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="P27" s="4" t="s">
         <v>166</v>
       </c>
       <c r="Q27" t="s">
@@ -4775,13 +4770,13 @@
       <c r="A28" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="23">
         <v>44312</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>349</v>
       </c>
       <c r="E28">
@@ -4810,13 +4805,13 @@
       <c r="A29" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="23">
         <v>44462</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>299</v>
       </c>
       <c r="H29" t="s">
@@ -4836,7 +4831,7 @@
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="12">
         <v>44530</v>
       </c>
       <c r="H30" t="s">
@@ -4853,13 +4848,13 @@
       <c r="A31" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="10">
         <v>44657</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="4" t="s">
         <v>151</v>
       </c>
       <c r="E31">
@@ -4868,7 +4863,7 @@
       <c r="H31" t="s">
         <v>258</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="K31" s="13" t="s">
         <v>259</v>
       </c>
       <c r="N31" t="s">
@@ -4882,13 +4877,13 @@
       <c r="A32" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="23">
         <v>43424</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="4" t="s">
         <v>279</v>
       </c>
       <c r="E32">
@@ -4912,7 +4907,7 @@
       <c r="N32" t="s">
         <v>300</v>
       </c>
-      <c r="P32" s="6" t="s">
+      <c r="P32" s="4" t="s">
         <v>194</v>
       </c>
       <c r="Q32" t="s">
@@ -4923,13 +4918,13 @@
       <c r="A33" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="10">
         <v>43731</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="4" t="s">
         <v>301</v>
       </c>
       <c r="E33">
@@ -4952,10 +4947,10 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A34" s="4" t="s">
+      <c r="A34" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="22">
         <v>43032</v>
       </c>
       <c r="C34">
@@ -4970,27 +4965,27 @@
       <c r="J34" t="s">
         <v>420</v>
       </c>
-      <c r="K34" s="17" t="s">
+      <c r="K34" s="13" t="s">
         <v>260</v>
       </c>
       <c r="N34" t="s">
         <v>300</v>
       </c>
-      <c r="Q34" s="17" t="s">
+      <c r="Q34" s="13" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
+      <c r="A35" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="7">
         <v>43049</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="4" t="s">
         <v>169</v>
       </c>
       <c r="E35">
@@ -5002,10 +4997,10 @@
       <c r="I35" t="s">
         <v>408</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="K35" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="L35" s="17" t="s">
+      <c r="L35" s="13" t="s">
         <v>261</v>
       </c>
       <c r="N35" t="s">
@@ -5016,10 +5011,10 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="12">
         <v>43731</v>
       </c>
       <c r="H36" t="s">
@@ -5036,16 +5031,16 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A37" s="4" t="s">
+      <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37" s="23">
         <v>42636</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="4" t="s">
         <v>303</v>
       </c>
       <c r="H37" t="s">
@@ -5062,16 +5057,16 @@
       </c>
     </row>
     <row r="38" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="4" t="s">
+      <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="22">
         <v>43018</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="4" t="s">
         <v>302</v>
       </c>
       <c r="E38">
@@ -5086,7 +5081,7 @@
       <c r="K38" t="s">
         <v>259</v>
       </c>
-      <c r="L38" s="17" t="s">
+      <c r="L38" s="13" t="s">
         <v>421</v>
       </c>
       <c r="N38">
@@ -5097,25 +5092,25 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A39" s="4" t="s">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="23">
         <v>43238</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="4" t="s">
         <v>304</v>
       </c>
       <c r="H39" t="s">
         <v>258</v>
       </c>
-      <c r="K39" s="17" t="s">
+      <c r="K39" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="L39" s="17" t="s">
+      <c r="L39" s="13" t="s">
         <v>262</v>
       </c>
       <c r="N39" t="s">
@@ -5126,10 +5121,10 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A40" s="4" t="s">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="12">
         <v>43802</v>
       </c>
       <c r="H40" t="s">
@@ -5138,7 +5133,7 @@
       <c r="I40" t="s">
         <v>250</v>
       </c>
-      <c r="K40" s="17" t="s">
+      <c r="K40" s="13" t="s">
         <v>423</v>
       </c>
       <c r="N40">
@@ -5149,10 +5144,10 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A41" s="4" t="s">
+      <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="12" t="s">
         <v>173</v>
       </c>
       <c r="N41">
@@ -5163,16 +5158,16 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B42" s="21">
         <v>44099</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="4" t="s">
         <v>306</v>
       </c>
       <c r="E42">
@@ -5201,7 +5196,7 @@
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="12">
         <v>43055</v>
       </c>
       <c r="C43" t="s">
@@ -5225,7 +5220,7 @@
       <c r="N43">
         <v>0</v>
       </c>
-      <c r="P43" s="6" t="s">
+      <c r="P43" s="4" t="s">
         <v>134</v>
       </c>
       <c r="Q43" t="s">
@@ -5236,7 +5231,7 @@
       <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27">
+      <c r="B44" s="23">
         <v>43055</v>
       </c>
       <c r="C44">
@@ -5245,7 +5240,7 @@
       <c r="D44" t="s">
         <v>309</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="4">
         <v>2030</v>
       </c>
       <c r="F44">
@@ -5260,19 +5255,19 @@
       <c r="I44" t="s">
         <v>138</v>
       </c>
-      <c r="K44" s="17" t="s">
+      <c r="K44" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="L44" s="17" t="s">
+      <c r="L44" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="M44" s="17" t="s">
+      <c r="M44" s="13" t="s">
         <v>261</v>
       </c>
       <c r="N44" t="s">
         <v>300</v>
       </c>
-      <c r="P44" s="6" t="s">
+      <c r="P44" s="4" t="s">
         <v>134</v>
       </c>
       <c r="Q44" t="s">
@@ -5283,13 +5278,13 @@
       <c r="A45" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="27">
+      <c r="B45" s="23">
         <v>43764</v>
       </c>
       <c r="C45" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="4" t="s">
         <v>308</v>
       </c>
       <c r="E45">
@@ -5298,7 +5293,7 @@
       <c r="H45" t="s">
         <v>258</v>
       </c>
-      <c r="K45" s="17" t="s">
+      <c r="K45" s="13" t="s">
         <v>267</v>
       </c>
       <c r="N45" t="s">
@@ -5309,16 +5304,16 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A46" s="4" t="s">
+      <c r="A46" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="27">
+      <c r="B46" s="23">
         <v>44342</v>
       </c>
       <c r="C46" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E46">
@@ -5327,10 +5322,10 @@
       <c r="H46" t="s">
         <v>258</v>
       </c>
-      <c r="K46" s="17" t="s">
+      <c r="K46" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="L46" s="17" t="s">
+      <c r="L46" s="13" t="s">
         <v>273</v>
       </c>
       <c r="N46" t="s">
@@ -5341,16 +5336,16 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A47" s="4" t="s">
+      <c r="A47" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="25">
+      <c r="B47" s="21">
         <v>44350</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="4" t="s">
         <v>310</v>
       </c>
       <c r="E47">
@@ -5359,28 +5354,28 @@
       <c r="H47" t="s">
         <v>258</v>
       </c>
-      <c r="K47" s="17" t="s">
+      <c r="K47" s="13" t="s">
         <v>273</v>
       </c>
       <c r="N47" t="s">
         <v>311</v>
       </c>
-      <c r="P47" s="6"/>
+      <c r="P47" s="4"/>
       <c r="Q47" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A48" s="4" t="s">
+      <c r="A48" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="27">
+      <c r="B48" s="23">
         <v>44469</v>
       </c>
       <c r="C48" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="4" t="s">
         <v>312</v>
       </c>
       <c r="E48">
@@ -5397,10 +5392,10 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A49" s="4" t="s">
+      <c r="A49" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="12">
         <v>44712</v>
       </c>
       <c r="H49" t="s">
@@ -5412,16 +5407,16 @@
       <c r="N49">
         <v>0</v>
       </c>
-      <c r="P49" s="6"/>
+      <c r="P49" s="4"/>
       <c r="Q49" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A50" s="4" t="s">
+      <c r="A50" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="12">
         <v>43091</v>
       </c>
       <c r="C50" t="s">
@@ -5436,22 +5431,22 @@
       <c r="N50">
         <v>0</v>
       </c>
-      <c r="P50" s="6"/>
+      <c r="P50" s="4"/>
       <c r="Q50" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="4" t="s">
+      <c r="A51" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="27">
+      <c r="B51" s="23">
         <v>43423</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="4" t="s">
         <v>313</v>
       </c>
       <c r="E51">
@@ -5466,7 +5461,7 @@
       <c r="K51" t="s">
         <v>259</v>
       </c>
-      <c r="P51" s="6"/>
+      <c r="P51" s="4"/>
       <c r="Q51" t="s">
         <v>216</v>
       </c>
@@ -5475,7 +5470,7 @@
       <c r="A52" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="12">
         <v>43497</v>
       </c>
       <c r="F52">
@@ -5501,7 +5496,7 @@
       <c r="A53" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="27">
+      <c r="B53" s="23">
         <v>43634</v>
       </c>
       <c r="C53" t="s">
@@ -5516,10 +5511,10 @@
       <c r="H53" t="s">
         <v>258</v>
       </c>
-      <c r="K53" s="17" t="s">
+      <c r="K53" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="L53" s="17" t="s">
+      <c r="L53" s="13" t="s">
         <v>266</v>
       </c>
       <c r="N53" t="s">
@@ -5536,7 +5531,7 @@
       <c r="A54" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="27">
+      <c r="B54" s="23">
         <v>44270</v>
       </c>
       <c r="C54">
@@ -5552,7 +5547,7 @@
         <v>52</v>
       </c>
       <c r="K54" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N54" t="s">
         <v>49</v>
@@ -5562,11 +5557,11 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A55" s="4" t="s">
+      <c r="A55" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="28">
-        <v>44504</v>
+      <c r="B55" s="24">
+        <v>44502</v>
       </c>
       <c r="H55" t="s">
         <v>52</v>
@@ -5575,7 +5570,7 @@
         <v>251</v>
       </c>
       <c r="K55" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -5591,13 +5586,13 @@
       <c r="A56" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="27">
+      <c r="B56" s="23">
         <v>44574</v>
       </c>
       <c r="C56" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="4" t="s">
         <v>317</v>
       </c>
       <c r="E56">
@@ -5626,10 +5621,10 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A57" s="4" t="s">
+      <c r="A57" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="12" t="s">
         <v>221</v>
       </c>
       <c r="N57">
@@ -5640,39 +5635,39 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A58" s="4" t="s">
+      <c r="A58" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="27">
+      <c r="B58" s="23">
         <v>43397</v>
       </c>
       <c r="C58" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="4" t="s">
         <v>322</v>
       </c>
       <c r="H58" t="s">
         <v>258</v>
       </c>
-      <c r="K58" s="17" t="s">
+      <c r="K58" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="P58" s="6" t="s">
+      <c r="P58" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A59" s="4" t="s">
+      <c r="A59" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="27">
+      <c r="B59" s="23">
         <v>43419</v>
       </c>
       <c r="C59" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="4" t="s">
         <v>324</v>
       </c>
       <c r="E59">
@@ -5690,7 +5685,7 @@
       <c r="N59" t="s">
         <v>323</v>
       </c>
-      <c r="P59" s="6" t="s">
+      <c r="P59" s="4" t="s">
         <v>325</v>
       </c>
       <c r="Q59" t="s">
@@ -5698,16 +5693,16 @@
       </c>
     </row>
     <row r="60" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A60" s="4" t="s">
+      <c r="A60" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="27">
+      <c r="B60" s="23">
         <v>43518</v>
       </c>
       <c r="C60" t="s">
         <v>49</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="4" t="s">
         <v>326</v>
       </c>
       <c r="E60">
@@ -5719,7 +5714,7 @@
       <c r="I60" t="s">
         <v>227</v>
       </c>
-      <c r="K60" s="17" t="s">
+      <c r="K60" s="13" t="s">
         <v>264</v>
       </c>
       <c r="Q60" t="s">
@@ -5727,10 +5722,10 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A61" s="4" t="s">
+      <c r="A61" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="12">
         <v>43850</v>
       </c>
       <c r="H61" t="s">
@@ -5750,10 +5745,10 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A62" s="4" t="s">
+      <c r="A62" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="12">
         <v>44377</v>
       </c>
       <c r="H62" t="s">
@@ -5762,7 +5757,7 @@
       <c r="I62" t="s">
         <v>233</v>
       </c>
-      <c r="K62" s="17" t="s">
+      <c r="K62" s="13" t="s">
         <v>274</v>
       </c>
       <c r="N62">
@@ -5773,16 +5768,16 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A63" s="4" t="s">
+      <c r="A63" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="27">
+      <c r="B63" s="23">
         <v>42283</v>
       </c>
       <c r="C63" t="s">
         <v>49</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="4" t="s">
         <v>327</v>
       </c>
       <c r="E63">
@@ -5792,7 +5787,7 @@
         <v>50</v>
       </c>
       <c r="K63" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N63" t="s">
         <v>285</v>
@@ -5802,16 +5797,16 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A64" s="4" t="s">
+      <c r="A64" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="25">
+      <c r="B64" s="21">
         <v>42326</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="4" t="s">
         <v>329</v>
       </c>
       <c r="E64">
@@ -5831,16 +5826,16 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A65" s="4" t="s">
+      <c r="A65" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="14">
+      <c r="B65" s="10">
         <v>42996</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="4" t="s">
         <v>332</v>
       </c>
       <c r="E65">
@@ -5860,16 +5855,16 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A66" s="4" t="s">
+      <c r="A66" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="27">
+      <c r="B66" s="23">
         <v>43105</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="4" t="s">
         <v>330</v>
       </c>
       <c r="E66">
@@ -5881,6 +5876,9 @@
       <c r="K66" t="s">
         <v>259</v>
       </c>
+      <c r="L66" s="13" t="s">
+        <v>426</v>
+      </c>
       <c r="N66" t="s">
         <v>331</v>
       </c>
@@ -5889,16 +5887,16 @@
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A67" s="4" t="s">
+      <c r="A67" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="25">
+      <c r="B67" s="21">
         <v>44179</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="4" t="s">
         <v>333</v>
       </c>
       <c r="E67">
@@ -5907,10 +5905,10 @@
       <c r="H67" t="s">
         <v>258</v>
       </c>
-      <c r="K67" s="17" t="s">
+      <c r="K67" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="L67" s="17" t="s">
+      <c r="L67" s="13" t="s">
         <v>271</v>
       </c>
       <c r="N67" t="s">
@@ -5924,10 +5922,10 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A68" s="4" t="s">
+      <c r="A68" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="12">
         <v>44377</v>
       </c>
       <c r="H68" t="s">
@@ -5936,7 +5934,7 @@
       <c r="I68" t="s">
         <v>234</v>
       </c>
-      <c r="K68" s="17" t="s">
+      <c r="K68" s="13" t="s">
         <v>274</v>
       </c>
       <c r="N68">
@@ -5991,9 +5989,10 @@
     <hyperlink ref="K44" r:id="rId36" display="https://ec.europa.eu/clima/news-your-voice/news/eu-and-switzerland-sign-agreement-link-emissions-trading-systems-2017-11-23_en" xr:uid="{D1F584D8-A9E6-4830-B87A-59072962FBDE}"/>
     <hyperlink ref="L44" r:id="rId37" display="https://ec.europa.eu/clima/news-your-voice/news/un-climate-conference-makes-progress-paris-agreement-implementation-2017-11-18_en" xr:uid="{BEFA94A6-DDF4-4E95-A6FA-BCD766336BF9}"/>
     <hyperlink ref="M44" r:id="rId38" display="https://ec.europa.eu/clima/news-your-voice/news/eu-emissions-trading-system-landmark-agreement-between-parliament-and-council-delivers-eus-2017-11-09_en" xr:uid="{BE6B9B42-B032-4671-BCB8-5AD6B033B4BC}"/>
+    <hyperlink ref="L66" r:id="rId39" display="https://ec.europa.eu/clima/news-your-voice/news/update-safeguard-measures-eu-emissions-trading-system-2018-following-adoption-uk-law-2018-01-08_en" xr:uid="{60C5A314-1D7C-4699-9335-84B9B95C6199}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 
@@ -6643,14 +6642,14 @@
     <col min="3" max="3" width="11.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>296</v>
       </c>
     </row>
@@ -6749,56 +6748,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="97.265625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="97.265625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="17" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="61.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="61.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="46.15" x14ac:dyDescent="0.45">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="18" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>246</v>
       </c>
     </row>

--- a/Other data/Coal phase out announcements.xlsx
+++ b/Other data/Coal phase out announcements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive - London School of Economics\Documents\LSE\GY489_Dissertation\LETS GO\Dissertation-Code-Data\Other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3CBDAC-68D3-4275-82F2-AFED536D7DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD957514-27C0-4AF4-AF2A-7A859A64E837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -1787,7 +1787,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
@@ -2559,11 +2559,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomRight" activeCell="Y4" sqref="Y4:Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3829,11 +3829,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CCC5DF-E81D-45C6-92D8-92AE6A0AD22C}">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3904,293 +3904,262 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="22">
-        <v>44480</v>
+        <v>61</v>
+      </c>
+      <c r="B2" s="21">
+        <v>40616</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>344</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
+        <v>345</v>
       </c>
       <c r="H2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I2" t="s">
         <v>258</v>
-      </c>
-      <c r="I2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J2" t="s">
-        <v>403</v>
       </c>
       <c r="K2" t="s">
         <v>259</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>153</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>129</v>
-      </c>
+      <c r="P2" s="4"/>
       <c r="Q2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="23">
-        <v>44483</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="B3" s="21">
+        <v>40693</v>
+      </c>
+      <c r="C3" t="s">
+        <v>344</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
+        <v>346</v>
       </c>
       <c r="H3" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" t="s">
         <v>258</v>
       </c>
-      <c r="I3" t="s">
-        <v>236</v>
-      </c>
-      <c r="J3" t="s">
-        <v>404</v>
-      </c>
       <c r="K3" t="s">
-        <v>259</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+        <v>258</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="22">
-        <v>44169</v>
+        <v>36</v>
+      </c>
+      <c r="B4" s="25">
+        <v>40872</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>132</v>
+        <v>280</v>
       </c>
       <c r="E4">
-        <v>2038</v>
-      </c>
-      <c r="F4">
-        <v>8.5</v>
-      </c>
-      <c r="G4">
-        <v>35</v>
+        <v>2030</v>
       </c>
       <c r="H4" t="s">
-        <v>258</v>
-      </c>
-      <c r="J4" t="s">
-        <v>405</v>
+        <v>278</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
+        <v>254</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s">
+        <v>307</v>
       </c>
       <c r="Q4" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="21">
-        <v>44568</v>
+        <v>36</v>
+      </c>
+      <c r="B5" s="25">
+        <v>41941</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="E5">
-        <v>2033</v>
+        <v>2025</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K5" t="s">
-        <v>259</v>
+        <v>278</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>407</v>
       </c>
       <c r="N5" t="s">
         <v>298</v>
       </c>
+      <c r="P5" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="Q5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="25">
-        <v>40872</v>
-      </c>
-      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="B6" s="23">
+        <v>42283</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>259</v>
+      </c>
+      <c r="N6" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="21">
+        <v>42326</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6">
-        <v>2030</v>
-      </c>
-      <c r="H6" t="s">
-        <v>278</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="N6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="25">
-        <v>41941</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="E7">
         <v>2025</v>
       </c>
-      <c r="F7">
-        <v>2.5</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
       <c r="H7" t="s">
-        <v>278</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>407</v>
+        <v>258</v>
+      </c>
+      <c r="K7" t="s">
+        <v>259</v>
       </c>
       <c r="N7" t="s">
-        <v>298</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>134</v>
+        <v>328</v>
       </c>
       <c r="Q7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" s="23">
-        <v>43055</v>
+        <v>42636</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2030</v>
+      <c r="D8" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="H8" t="s">
-        <v>258</v>
-      </c>
-      <c r="I8" t="s">
-        <v>199</v>
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>259</v>
       </c>
       <c r="N8" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="P8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="12">
-        <v>43055</v>
-      </c>
-      <c r="C9" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="10">
+        <v>42689</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="F9">
+        <v>3.5</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>258</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="K9" t="s">
-        <v>258</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
+        <v>259</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="Q9" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
@@ -4262,19 +4231,19 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="23">
-        <v>43200</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
+        <v>8</v>
+      </c>
+      <c r="B12" s="10">
+        <v>42996</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="E12">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="H12" t="s">
         <v>258</v>
@@ -4283,356 +4252,360 @@
         <v>259</v>
       </c>
       <c r="N12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="23">
-        <v>43391</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="B13" s="22">
+        <v>43018</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>410</v>
+        <v>302</v>
       </c>
       <c r="E13">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="H13" t="s">
         <v>258</v>
       </c>
       <c r="J13" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="K13" t="s">
         <v>259</v>
       </c>
-      <c r="N13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>205</v>
+      <c r="L13" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="23">
-        <v>43523</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="B14" s="22">
+        <v>43032</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="H14" t="s">
         <v>258</v>
       </c>
-      <c r="I14" t="s">
-        <v>228</v>
+      <c r="J14" t="s">
+        <v>420</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N14" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+        <v>300</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="10">
-        <v>42689</v>
+        <v>19</v>
+      </c>
+      <c r="B15" s="7">
+        <v>43049</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="E15">
-        <v>2023</v>
-      </c>
-      <c r="F15">
-        <v>3.5</v>
-      </c>
-      <c r="G15">
-        <v>11</v>
+        <v>2025</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>258</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
-      </c>
-      <c r="K15" t="s">
-        <v>259</v>
+        <v>408</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>261</v>
       </c>
       <c r="N15" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="Q15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="21">
-        <v>40616</v>
-      </c>
-      <c r="C16" t="s">
-        <v>344</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>345</v>
+        <v>36</v>
+      </c>
+      <c r="B16" s="23">
+        <v>43055</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2030</v>
       </c>
       <c r="H16" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="I16" t="s">
-        <v>258</v>
-      </c>
-      <c r="K16" t="s">
-        <v>259</v>
-      </c>
-      <c r="P16" s="4"/>
+        <v>199</v>
+      </c>
+      <c r="N16" t="s">
+        <v>49</v>
+      </c>
       <c r="Q16" t="s">
-        <v>347</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="21">
-        <v>40693</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="12">
+        <v>43055</v>
       </c>
       <c r="C17" t="s">
-        <v>344</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>346</v>
+        <v>198</v>
       </c>
       <c r="H17" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="I17" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K17" t="s">
         <v>258</v>
       </c>
-      <c r="P17" s="4"/>
+      <c r="N17">
+        <v>0</v>
+      </c>
       <c r="Q17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="21">
-        <v>43357</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18">
-        <v>2038</v>
+        <v>42</v>
+      </c>
+      <c r="B18" s="12">
+        <v>43055</v>
+      </c>
+      <c r="C18" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
       </c>
       <c r="H18" t="s">
         <v>258</v>
       </c>
+      <c r="I18" t="s">
+        <v>249</v>
+      </c>
       <c r="K18" t="s">
-        <v>259</v>
-      </c>
-      <c r="N18" t="s">
-        <v>285</v>
+        <v>258</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="Q18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="21">
-        <v>43419</v>
+        <v>42</v>
+      </c>
+      <c r="B19" s="23">
+        <v>43055</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>341</v>
+        <v>309</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2030</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>258</v>
       </c>
       <c r="I19" t="s">
-        <v>342</v>
-      </c>
-      <c r="J19" t="s">
-        <v>404</v>
-      </c>
-      <c r="K19" t="s">
-        <v>259</v>
-      </c>
-      <c r="P19" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="N19" t="s">
+        <v>300</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="Q19" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="22">
-        <v>43491</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20">
-        <v>2038</v>
-      </c>
-      <c r="F20">
-        <v>47.6</v>
-      </c>
-      <c r="G20">
-        <v>175</v>
+        <v>60</v>
+      </c>
+      <c r="B20" s="12">
+        <v>43091</v>
+      </c>
+      <c r="C20" t="s">
+        <v>215</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="21">
-        <v>43808</v>
+        <v>8</v>
+      </c>
+      <c r="B21" s="23">
+        <v>43105</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>343</v>
+        <v>330</v>
+      </c>
+      <c r="E21">
+        <v>2025</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" t="s">
-        <v>412</v>
+        <v>258</v>
       </c>
       <c r="K21" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="L21" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="N21" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="10">
-        <v>43846</v>
+        <v>24</v>
+      </c>
+      <c r="B22" s="23">
+        <v>43200</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>141</v>
+        <v>284</v>
       </c>
       <c r="E22">
-        <v>2038</v>
+        <v>2029</v>
       </c>
       <c r="H22" t="s">
         <v>258</v>
       </c>
-      <c r="I22" t="s">
-        <v>231</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>268</v>
+      <c r="K22" t="s">
+        <v>259</v>
       </c>
       <c r="N22" t="s">
-        <v>52</v>
-      </c>
-      <c r="O22" t="s">
-        <v>290</v>
-      </c>
-      <c r="P22" s="4"/>
+        <v>49</v>
+      </c>
       <c r="Q22" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="21">
-        <v>44015</v>
+        <v>38</v>
+      </c>
+      <c r="B23" s="23">
+        <v>43238</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23">
-        <v>2038</v>
+        <v>304</v>
       </c>
       <c r="H23" t="s">
         <v>258</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>414</v>
+        <v>262</v>
       </c>
       <c r="N23" t="s">
-        <v>287</v>
-      </c>
-      <c r="P23" s="4"/>
+        <v>305</v>
+      </c>
       <c r="Q23" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
@@ -4640,292 +4613,295 @@
         <v>61</v>
       </c>
       <c r="B24" s="21">
-        <v>44484</v>
-      </c>
-      <c r="C24" t="s">
-        <v>295</v>
+        <v>43357</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E24">
-        <v>2030</v>
+        <v>2038</v>
       </c>
       <c r="H24" t="s">
         <v>258</v>
       </c>
-      <c r="J24" t="s">
-        <v>416</v>
-      </c>
       <c r="K24" t="s">
         <v>259</v>
       </c>
-      <c r="L24" s="13" t="s">
-        <v>415</v>
-      </c>
       <c r="N24" t="s">
-        <v>289</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="12">
-        <v>44705</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="23">
+        <v>43391</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>144</v>
+        <v>410</v>
+      </c>
+      <c r="E25">
+        <v>2029</v>
       </c>
       <c r="H25" t="s">
         <v>258</v>
       </c>
-      <c r="I25" t="s">
-        <v>418</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>276</v>
+      <c r="J25" t="s">
+        <v>411</v>
+      </c>
+      <c r="K25" t="s">
+        <v>259</v>
       </c>
       <c r="N25" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="21">
-        <v>44732</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="B26" s="23">
+        <v>43397</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>145</v>
+        <v>322</v>
       </c>
       <c r="H26" t="s">
         <v>258</v>
       </c>
-      <c r="I26" t="s">
-        <v>292</v>
-      </c>
-      <c r="J26" t="s">
-        <v>417</v>
-      </c>
-      <c r="K26" t="s">
-        <v>259</v>
-      </c>
-      <c r="N26" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="K26" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="23">
-        <v>43731</v>
+        <v>61</v>
+      </c>
+      <c r="B27" s="21">
+        <v>43419</v>
       </c>
       <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27">
-        <v>2028</v>
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>341</v>
       </c>
       <c r="H27" t="s">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="I27" t="s">
-        <v>229</v>
+        <v>342</v>
+      </c>
+      <c r="J27" t="s">
+        <v>404</v>
       </c>
       <c r="K27" t="s">
         <v>259</v>
       </c>
-      <c r="N27" t="s">
-        <v>300</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="P27" s="4"/>
       <c r="Q27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B28" s="23">
-        <v>44312</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
+        <v>43419</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="E28">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="H28" t="s">
         <v>258</v>
       </c>
       <c r="I28" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="K28" t="s">
         <v>259</v>
       </c>
       <c r="N28" t="s">
-        <v>298</v>
-      </c>
-      <c r="P28" t="s">
-        <v>150</v>
+        <v>323</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="Q28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B29" s="23">
-        <v>44462</v>
+        <v>43423</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>299</v>
+        <v>313</v>
+      </c>
+      <c r="E29">
+        <v>2023</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>258</v>
+      </c>
+      <c r="I29" t="s">
+        <v>340</v>
       </c>
       <c r="K29" t="s">
         <v>259</v>
       </c>
-      <c r="N29" t="s">
-        <v>298</v>
-      </c>
+      <c r="P29" s="4"/>
       <c r="Q29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="12">
-        <v>44530</v>
+        <v>56</v>
+      </c>
+      <c r="B30" s="23">
+        <v>43424</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E30">
+        <v>2030</v>
+      </c>
+      <c r="F30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="I30" t="s">
+        <v>419</v>
       </c>
       <c r="K30" t="s">
-        <v>258</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
+        <v>259</v>
+      </c>
+      <c r="N30" t="s">
+        <v>300</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="10">
-        <v>44657</v>
+        <v>61</v>
+      </c>
+      <c r="B31" s="22">
+        <v>43491</v>
       </c>
       <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31">
+        <v>2038</v>
+      </c>
+      <c r="F31">
+        <v>47.6</v>
+      </c>
+      <c r="G31">
+        <v>175</v>
+      </c>
+      <c r="H31" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" t="s">
+        <v>259</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="P31" s="4"/>
+      <c r="Q31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="12">
+        <v>43497</v>
+      </c>
+      <c r="F32">
+        <v>0.7</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" t="s">
+        <v>258</v>
+      </c>
+      <c r="N32">
         <v>0</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31">
-        <v>2028</v>
-      </c>
-      <c r="H31" t="s">
-        <v>258</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="N31" t="s">
-        <v>52</v>
-      </c>
-      <c r="P31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="23">
-        <v>43424</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E32">
-        <v>2030</v>
-      </c>
-      <c r="F32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" t="s">
-        <v>419</v>
-      </c>
-      <c r="K32" t="s">
-        <v>259</v>
-      </c>
-      <c r="N32" t="s">
-        <v>300</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="Q32" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="10">
-        <v>43731</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="B33" s="23">
+        <v>43518</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="E33">
         <v>2030</v>
@@ -4934,190 +4910,196 @@
         <v>258</v>
       </c>
       <c r="I33" t="s">
-        <v>252</v>
-      </c>
-      <c r="K33" t="s">
-        <v>259</v>
-      </c>
-      <c r="N33" t="s">
-        <v>52</v>
+        <v>227</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>264</v>
       </c>
       <c r="Q33" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="22">
-        <v>43032</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B34" s="23">
+        <v>43523</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E34">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="H34" t="s">
         <v>258</v>
       </c>
-      <c r="J34" t="s">
-        <v>420</v>
+      <c r="I34" t="s">
+        <v>228</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="N34" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q34" s="13" t="s">
-        <v>168</v>
+        <v>287</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="7">
-        <v>43049</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>169</v>
+        <v>60</v>
+      </c>
+      <c r="B35" s="23">
+        <v>43634</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>220</v>
       </c>
       <c r="E35">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="H35" t="s">
         <v>258</v>
       </c>
-      <c r="I35" t="s">
-        <v>408</v>
-      </c>
       <c r="K35" s="13" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="N35" t="s">
-        <v>52</v>
+        <v>315</v>
+      </c>
+      <c r="P35" t="s">
+        <v>314</v>
       </c>
       <c r="Q35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="12">
+        <v>53</v>
+      </c>
+      <c r="B36" s="23">
         <v>43731</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36">
+        <v>2028</v>
       </c>
       <c r="H36" t="s">
         <v>258</v>
       </c>
       <c r="I36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K36" t="s">
         <v>259</v>
       </c>
-      <c r="N36">
-        <v>0</v>
+      <c r="N36" t="s">
+        <v>300</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="23">
-        <v>42636</v>
+        <v>56</v>
+      </c>
+      <c r="B37" s="10">
+        <v>43731</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
+      </c>
+      <c r="E37">
+        <v>2030</v>
       </c>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>258</v>
+      </c>
+      <c r="I37" t="s">
+        <v>252</v>
       </c>
       <c r="K37" t="s">
         <v>259</v>
       </c>
       <c r="N37" t="s">
-        <v>49</v>
-      </c>
-      <c r="P37" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="22">
-        <v>43018</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E38">
-        <v>2030</v>
+        <v>19</v>
+      </c>
+      <c r="B38" s="12">
+        <v>43731</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
       </c>
-      <c r="J38" t="s">
-        <v>422</v>
+      <c r="I38" t="s">
+        <v>230</v>
       </c>
       <c r="K38" t="s">
         <v>259</v>
       </c>
-      <c r="L38" s="13" t="s">
-        <v>421</v>
-      </c>
       <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B39" s="23">
-        <v>43238</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
+        <v>43764</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>304</v>
+        <v>308</v>
+      </c>
+      <c r="E39">
+        <v>2023</v>
       </c>
       <c r="H39" t="s">
         <v>258</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="N39" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="Q39" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.45">
@@ -5145,74 +5127,72 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="N41">
+        <v>61</v>
+      </c>
+      <c r="B41" s="21">
+        <v>43808</v>
+      </c>
+      <c r="C41">
         <v>0</v>
       </c>
-      <c r="Q41" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A42" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="21">
-        <v>44099</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
+      <c r="D41" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="H41" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" t="s">
+        <v>412</v>
+      </c>
+      <c r="K41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="10">
+        <v>43846</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>306</v>
+        <v>141</v>
       </c>
       <c r="E42">
-        <v>2049</v>
-      </c>
-      <c r="F42">
-        <v>30.2</v>
-      </c>
-      <c r="G42">
-        <v>104</v>
+        <v>2038</v>
       </c>
       <c r="H42" t="s">
         <v>258</v>
       </c>
-      <c r="K42" t="s">
-        <v>259</v>
+      <c r="I42" t="s">
+        <v>231</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>268</v>
       </c>
       <c r="N42" t="s">
-        <v>49</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O42" t="s">
+        <v>290</v>
+      </c>
+      <c r="P42" s="4"/>
       <c r="Q42" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B43" s="12">
-        <v>43055</v>
-      </c>
-      <c r="C43" t="s">
-        <v>211</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43">
-        <v>12</v>
+        <v>43850</v>
       </c>
       <c r="H43" t="s">
-        <v>258</v>
+        <v>52</v>
       </c>
       <c r="I43" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="K43" t="s">
         <v>258</v>
@@ -5220,328 +5200,341 @@
       <c r="N43">
         <v>0</v>
       </c>
-      <c r="P43" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="Q43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="23">
-        <v>43055</v>
+        <v>61</v>
+      </c>
+      <c r="B44" s="21">
+        <v>44015</v>
       </c>
       <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>309</v>
-      </c>
-      <c r="E44" s="4">
-        <v>2030</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44">
+        <v>2038</v>
       </c>
       <c r="H44" t="s">
         <v>258</v>
       </c>
-      <c r="I44" t="s">
-        <v>138</v>
-      </c>
       <c r="K44" s="13" t="s">
-        <v>424</v>
+        <v>269</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>261</v>
+        <v>414</v>
       </c>
       <c r="N44" t="s">
-        <v>300</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>134</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="P44" s="4"/>
       <c r="Q44" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="23">
-        <v>43764</v>
-      </c>
-      <c r="C45" t="s">
-        <v>49</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A45" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="21">
+        <v>44099</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E45">
-        <v>2023</v>
+        <v>2049</v>
+      </c>
+      <c r="F45">
+        <v>30.2</v>
+      </c>
+      <c r="G45">
+        <v>104</v>
       </c>
       <c r="H45" t="s">
         <v>258</v>
       </c>
-      <c r="K45" s="13" t="s">
-        <v>267</v>
+      <c r="K45" t="s">
+        <v>259</v>
       </c>
       <c r="N45" t="s">
-        <v>298</v>
+        <v>49</v>
       </c>
       <c r="Q45" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="23">
-        <v>44342</v>
-      </c>
-      <c r="C46" t="s">
-        <v>49</v>
+        <v>84</v>
+      </c>
+      <c r="B46" s="22">
+        <v>44169</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="E46">
-        <v>2032</v>
+        <v>2038</v>
+      </c>
+      <c r="F46">
+        <v>8.5</v>
+      </c>
+      <c r="G46">
+        <v>35</v>
       </c>
       <c r="H46" t="s">
         <v>258</v>
       </c>
+      <c r="J46" t="s">
+        <v>405</v>
+      </c>
       <c r="K46" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="N46" t="s">
-        <v>285</v>
+        <v>271</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
       </c>
       <c r="Q46" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B47" s="21">
-        <v>44350</v>
+        <v>44179</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="E47">
-        <v>2032</v>
+        <v>2024</v>
       </c>
       <c r="H47" t="s">
         <v>258</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="N47" t="s">
-        <v>311</v>
-      </c>
-      <c r="P47" s="4"/>
+        <v>334</v>
+      </c>
+      <c r="P47" t="s">
+        <v>335</v>
+      </c>
       <c r="Q47" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B48" s="23">
-        <v>44469</v>
-      </c>
-      <c r="C48" t="s">
+        <v>44270</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>321</v>
+      </c>
+      <c r="E48">
+        <v>2033</v>
+      </c>
+      <c r="H48" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E48">
-        <v>2032</v>
-      </c>
-      <c r="H48" t="s">
-        <v>50</v>
-      </c>
       <c r="K48" t="s">
+        <v>259</v>
+      </c>
+      <c r="N48" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="23">
+        <v>44312</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E49">
+        <v>2025</v>
+      </c>
+      <c r="H49" t="s">
         <v>258</v>
       </c>
-      <c r="P48" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="12">
-        <v>44712</v>
-      </c>
-      <c r="H49" t="s">
-        <v>52</v>
+      <c r="I49" t="s">
+        <v>297</v>
       </c>
       <c r="K49" t="s">
-        <v>258</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="P49" s="4"/>
+        <v>259</v>
+      </c>
+      <c r="N49" t="s">
+        <v>298</v>
+      </c>
+      <c r="P49" t="s">
+        <v>150</v>
+      </c>
       <c r="Q49" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="12">
-        <v>43091</v>
+        <v>76</v>
+      </c>
+      <c r="B50" s="23">
+        <v>44342</v>
       </c>
       <c r="C50" t="s">
-        <v>215</v>
+        <v>49</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50">
+        <v>2032</v>
       </c>
       <c r="H50" t="s">
-        <v>52</v>
-      </c>
-      <c r="K50" t="s">
         <v>258</v>
       </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="P50" s="4"/>
+      <c r="K50" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="N50" t="s">
+        <v>285</v>
+      </c>
       <c r="Q50" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="23">
-        <v>43423</v>
+        <v>76</v>
+      </c>
+      <c r="B51" s="21">
+        <v>44350</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E51">
-        <v>2023</v>
+        <v>2032</v>
       </c>
       <c r="H51" t="s">
         <v>258</v>
       </c>
-      <c r="I51" t="s">
-        <v>340</v>
-      </c>
-      <c r="K51" t="s">
-        <v>259</v>
+      <c r="K51" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="N51" t="s">
+        <v>311</v>
       </c>
       <c r="P51" s="4"/>
       <c r="Q51" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B52" s="12">
-        <v>43497</v>
-      </c>
-      <c r="F52">
-        <v>0.7</v>
-      </c>
-      <c r="G52">
-        <v>3</v>
+        <v>44377</v>
       </c>
       <c r="H52" t="s">
-        <v>52</v>
-      </c>
-      <c r="K52" t="s">
         <v>258</v>
+      </c>
+      <c r="I52" t="s">
+        <v>233</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>274</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
       <c r="Q52" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="23">
-        <v>43634</v>
-      </c>
-      <c r="C53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" t="s">
-        <v>220</v>
-      </c>
-      <c r="E53">
-        <v>2023</v>
+        <v>8</v>
+      </c>
+      <c r="B53" s="12">
+        <v>44377</v>
       </c>
       <c r="H53" t="s">
         <v>258</v>
       </c>
+      <c r="I53" t="s">
+        <v>234</v>
+      </c>
       <c r="K53" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="L53" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="N53" t="s">
-        <v>315</v>
-      </c>
-      <c r="P53" t="s">
-        <v>314</v>
+        <v>274</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
       </c>
       <c r="Q53" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B54" s="23">
-        <v>44270</v>
+        <v>44462</v>
       </c>
       <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>321</v>
-      </c>
-      <c r="E54">
-        <v>2033</v>
+        <v>0</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="H54" t="s">
         <v>52</v>
@@ -5550,446 +5543,453 @@
         <v>259</v>
       </c>
       <c r="N54" t="s">
-        <v>49</v>
+        <v>298</v>
       </c>
       <c r="Q54" t="s">
-        <v>320</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" s="24">
-        <v>44502</v>
+        <v>76</v>
+      </c>
+      <c r="B55" s="23">
+        <v>44469</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E55">
+        <v>2032</v>
       </c>
       <c r="H55" t="s">
-        <v>52</v>
-      </c>
-      <c r="I55" t="s">
-        <v>251</v>
+        <v>50</v>
       </c>
       <c r="K55" t="s">
-        <v>259</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="P55" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="23">
-        <v>44574</v>
+        <v>80</v>
+      </c>
+      <c r="B56" s="22">
+        <v>44480</v>
       </c>
       <c r="C56" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E56">
-        <v>2033</v>
+        <v>128</v>
+      </c>
+      <c r="E56" t="s">
+        <v>127</v>
       </c>
       <c r="F56">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="G56">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H56" t="s">
         <v>258</v>
       </c>
+      <c r="I56" t="s">
+        <v>235</v>
+      </c>
+      <c r="J56" t="s">
+        <v>403</v>
+      </c>
       <c r="K56" t="s">
         <v>259</v>
       </c>
-      <c r="N56" t="s">
-        <v>51</v>
-      </c>
-      <c r="P56" t="s">
-        <v>318</v>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>153</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="Q56" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>221</v>
+        <v>80</v>
+      </c>
+      <c r="B57" s="23">
+        <v>44483</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>15</v>
+      </c>
+      <c r="H57" t="s">
+        <v>258</v>
+      </c>
+      <c r="I57" t="s">
+        <v>236</v>
+      </c>
+      <c r="J57" t="s">
+        <v>404</v>
+      </c>
+      <c r="K57" t="s">
+        <v>259</v>
       </c>
       <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="23">
-        <v>43397</v>
+        <v>61</v>
+      </c>
+      <c r="B58" s="21">
+        <v>44484</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>295</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>322</v>
+        <v>143</v>
+      </c>
+      <c r="E58">
+        <v>2030</v>
       </c>
       <c r="H58" t="s">
         <v>258</v>
       </c>
-      <c r="K58" s="13" t="s">
-        <v>263</v>
+      <c r="J58" t="s">
+        <v>416</v>
+      </c>
+      <c r="K58" t="s">
+        <v>259</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="N58" t="s">
+        <v>289</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+        <v>288</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" s="23">
-        <v>43419</v>
-      </c>
-      <c r="C59" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="E59">
-        <v>2030</v>
+        <v>87</v>
+      </c>
+      <c r="B59" s="24">
+        <v>44502</v>
       </c>
       <c r="H59" t="s">
-        <v>258</v>
+        <v>52</v>
       </c>
       <c r="I59" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="K59" t="s">
         <v>259</v>
       </c>
-      <c r="N59" t="s">
-        <v>323</v>
-      </c>
-      <c r="P59" s="4" t="s">
-        <v>325</v>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="s">
+        <v>224</v>
       </c>
       <c r="Q59" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="23">
-        <v>43518</v>
-      </c>
-      <c r="C60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E60">
-        <v>2030</v>
+        <v>53</v>
+      </c>
+      <c r="B60" s="12">
+        <v>44530</v>
       </c>
       <c r="H60" t="s">
+        <v>52</v>
+      </c>
+      <c r="K60" t="s">
         <v>258</v>
       </c>
-      <c r="I60" t="s">
-        <v>227</v>
-      </c>
-      <c r="K60" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="12">
-        <v>43850</v>
+        <v>84</v>
+      </c>
+      <c r="B61" s="21">
+        <v>44568</v>
+      </c>
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61">
+        <v>2033</v>
       </c>
       <c r="H61" t="s">
-        <v>52</v>
-      </c>
-      <c r="I61" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="K61" t="s">
-        <v>258</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
+        <v>259</v>
+      </c>
+      <c r="N61" t="s">
+        <v>298</v>
       </c>
       <c r="Q61" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="12">
-        <v>44377</v>
+        <v>87</v>
+      </c>
+      <c r="B62" s="23">
+        <v>44574</v>
+      </c>
+      <c r="C62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E62">
+        <v>2033</v>
+      </c>
+      <c r="F62">
+        <v>1.5</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
       </c>
       <c r="H62" t="s">
         <v>258</v>
       </c>
-      <c r="I62" t="s">
-        <v>233</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
+      <c r="K62" t="s">
+        <v>259</v>
+      </c>
+      <c r="N62" t="s">
+        <v>51</v>
+      </c>
+      <c r="P62" t="s">
+        <v>318</v>
       </c>
       <c r="Q62" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="23">
-        <v>42283</v>
-      </c>
-      <c r="C63" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="B63" s="10">
+        <v>44657</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>327</v>
+        <v>151</v>
       </c>
       <c r="E63">
-        <v>2023</v>
+        <v>2028</v>
       </c>
       <c r="H63" t="s">
-        <v>50</v>
-      </c>
-      <c r="K63" t="s">
+        <v>258</v>
+      </c>
+      <c r="K63" s="13" t="s">
         <v>259</v>
       </c>
       <c r="N63" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>188</v>
+        <v>52</v>
+      </c>
+      <c r="P63" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="21">
-        <v>42326</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="B64" s="12">
+        <v>44705</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E64">
-        <v>2025</v>
+        <v>144</v>
       </c>
       <c r="H64" t="s">
         <v>258</v>
       </c>
-      <c r="K64" t="s">
-        <v>259</v>
+      <c r="I64" t="s">
+        <v>418</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="L64" s="13" t="s">
+        <v>276</v>
       </c>
       <c r="N64" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="10">
-        <v>42996</v>
-      </c>
-      <c r="C65">
+        <v>76</v>
+      </c>
+      <c r="B65" s="12">
+        <v>44712</v>
+      </c>
+      <c r="H65" t="s">
+        <v>52</v>
+      </c>
+      <c r="K65" t="s">
+        <v>258</v>
+      </c>
+      <c r="N65">
         <v>0</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="E65">
-        <v>2025</v>
-      </c>
-      <c r="H65" t="s">
-        <v>258</v>
-      </c>
-      <c r="K65" t="s">
-        <v>259</v>
-      </c>
-      <c r="N65" t="s">
-        <v>52</v>
-      </c>
+      <c r="P65" s="4"/>
       <c r="Q65" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="23">
-        <v>43105</v>
+        <v>61</v>
+      </c>
+      <c r="B66" s="21">
+        <v>44732</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E66">
-        <v>2025</v>
+        <v>145</v>
       </c>
       <c r="H66" t="s">
         <v>258</v>
       </c>
+      <c r="I66" t="s">
+        <v>292</v>
+      </c>
+      <c r="J66" t="s">
+        <v>417</v>
+      </c>
       <c r="K66" t="s">
         <v>259</v>
       </c>
-      <c r="L66" s="13" t="s">
-        <v>426</v>
-      </c>
       <c r="N66" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="Q66" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="21">
-        <v>44179</v>
-      </c>
-      <c r="C67">
+        <v>87</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="N67">
         <v>0</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E67">
-        <v>2024</v>
-      </c>
-      <c r="H67" t="s">
-        <v>258</v>
-      </c>
-      <c r="K67" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="L67" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="N67" t="s">
-        <v>334</v>
-      </c>
-      <c r="P67" t="s">
-        <v>335</v>
-      </c>
       <c r="Q67" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="12">
-        <v>44377</v>
-      </c>
-      <c r="H68" t="s">
-        <v>258</v>
-      </c>
-      <c r="I68" t="s">
-        <v>234</v>
-      </c>
-      <c r="K68" s="13" t="s">
-        <v>274</v>
+        <v>38</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q68" xr:uid="{3D652218-3B78-4CB0-BA25-8DE344561C19}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q68">
-      <sortCondition ref="A1:A68"/>
+      <sortCondition ref="B1:B68"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="Q34" r:id="rId1" display="https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16" xr:uid="{505B5FEE-A6F5-47CB-9917-E30704A91A4C}"/>
-    <hyperlink ref="K6" r:id="rId2" display="https://ec.europa.eu/clima/news-your-voice/news/update-preparatory-steps-auctioning-phase-3-allowances-2011-11-25_en" xr:uid="{E0BDB423-56EA-44F0-A54A-0F5B4F2A2147}"/>
-    <hyperlink ref="L6" r:id="rId3" display="https://ec.europa.eu/clima/news-your-voice/news/enhancing-eu-rules-monitoring-greenhouse-gas-emissions-2011-11-23_en" xr:uid="{9BD80364-5CA2-43DB-B2CC-0E03E8DA4A0C}"/>
-    <hyperlink ref="K7" r:id="rId4" display="https://ec.europa.eu/clima/news-your-voice/news/european-commission-adopts-carbon-leakage-list-period-2015-2019-2014-10-27_en" xr:uid="{A6A17CE0-740F-4D5D-B313-5A7D344A91EA}"/>
-    <hyperlink ref="L7" r:id="rId5" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2014-11-04_en" xr:uid="{8247D59B-1565-4720-B464-3B76D4306051}"/>
-    <hyperlink ref="K34" r:id="rId6" display="https://ec.europa.eu/clima/news-your-voice/news/commission-proposes-safeguard-measures-eu-emissions-trading-system-2017-10-24_en" xr:uid="{0DD0FCDC-28E2-41DE-B6F4-45CBD31C5107}"/>
-    <hyperlink ref="K35" r:id="rId7" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2017-11-06_en" xr:uid="{13CCF2E4-4BEB-447B-B73C-69BAB51FDDF4}"/>
-    <hyperlink ref="L35" r:id="rId8" display="https://ec.europa.eu/clima/news-your-voice/news/eu-emissions-trading-system-landmark-agreement-between-parliament-and-council-delivers-eus-2017-11-09_en" xr:uid="{454861F8-3E39-4C29-A4AA-465B15683294}"/>
-    <hyperlink ref="K39" r:id="rId9" display="https://ec.europa.eu/clima/news-your-voice/news/ets-market-stability-reserve-will-start-reducing-auction-volume-almost-265-million-allowances-over-2018-05-15_en" xr:uid="{C721078D-42C8-4E8F-A645-8D1BD1241E6C}"/>
-    <hyperlink ref="K58" r:id="rId10" display="https://ec.europa.eu/clima/news-your-voice/news/emissions-trading-commission-adopts-amendment-ets-auctioning-regulation-2018-10-30_en" xr:uid="{1DA6063C-C717-4DBA-BA11-FA42D50774A1}"/>
-    <hyperlink ref="K60" r:id="rId11" display="https://ec.europa.eu/clima/news-your-voice/news/towards-climate-neutral-europe-eu-invests-over-eu10bn-innovative-clean-technologies-2019-02-26_en" xr:uid="{507015DA-B303-49DD-BE42-8DA9AF07D7DC}"/>
-    <hyperlink ref="K14" r:id="rId12" display="https://ec.europa.eu/clima/news-your-voice/news/towards-climate-neutral-europe-eu-invests-over-eu10bn-innovative-clean-technologies-2019-02-26_en" xr:uid="{F695F6A8-94CC-4324-881A-6C6ADE693EA0}"/>
-    <hyperlink ref="K53" r:id="rId13" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2019-06-19_en" xr:uid="{A71B360B-E82C-443B-A0BC-C4F1B76F9882}"/>
-    <hyperlink ref="L53" r:id="rId14" display="https://ec.europa.eu/clima/news-your-voice/news/polands-2020-auction-volume-include-allowances-not-used-power-sector-modernisation-2019-06-12_en" xr:uid="{415A5C0B-1796-4A12-9A96-39DA2523F414}"/>
-    <hyperlink ref="K45" r:id="rId15" display="https://ec.europa.eu/clima/news-your-voice/news/adoption-regulation-adjustments-free-allocation-emission-allowances-due-activity-level-changes-2019-10-31_en" xr:uid="{F8C2477A-A966-4A33-B989-ABEB3FD073BF}"/>
-    <hyperlink ref="K22" r:id="rId16" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-status-update-new-entrants-reserve-2020-01-15_en" xr:uid="{ABCA4C5C-168F-4911-A05E-3E193BB0607F}"/>
-    <hyperlink ref="K23" r:id="rId17" display="https://ec.europa.eu/clima/news-your-voice/news/2020-revised-auction-calendars-published-2020-07-01_en" xr:uid="{9D566DF6-E071-4458-A5B6-59D0E48FBF3A}"/>
-    <hyperlink ref="K4" r:id="rId18" display="https://ec.europa.eu/clima/news-your-voice/news/draft-implementing-regulation-determining-revised-benchmark-values-period-2021-2025-open-4-week-2020-12-08_en" xr:uid="{19E0304F-6616-473B-A894-D0B7F9DBC892}"/>
-    <hyperlink ref="K67" r:id="rId19" display="https://ec.europa.eu/clima/news-your-voice/news/draft-implementing-regulation-determining-revised-benchmark-values-period-2021-2025-open-4-week-2020-12-08_en" xr:uid="{658F0735-A061-4C52-B67E-F6B04D42BB54}"/>
-    <hyperlink ref="L67" r:id="rId20" display="https://ec.europa.eu/clima/news-your-voice/news/further-information-start-phase-4-eu-ets-2021-emission-allowances-be-issued-aircraft-operators-and-2020-12-11_en" xr:uid="{687C8CA1-0617-4C04-B1E2-3A6EE9FA542A}"/>
-    <hyperlink ref="K46" r:id="rId21" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credits-use-eu-ets-2021-05-25_en" xr:uid="{786141D5-4E60-47E5-868D-0BC2E5D732A1}"/>
-    <hyperlink ref="L46" r:id="rId22" display="https://ec.europa.eu/clima/news-your-voice/news/commission-adopts-uniform-cross-sectoral-correction-factor-be-applied-free-allocation-2021-2025-eu-2021-05-31_en" xr:uid="{727E1C4B-1C90-4B4F-B840-392DA92B4D85}"/>
-    <hyperlink ref="K47" r:id="rId23" display="https://ec.europa.eu/clima/news-your-voice/news/commission-adopts-uniform-cross-sectoral-correction-factor-be-applied-free-allocation-2021-2025-eu-2021-05-31_en" xr:uid="{229EEBB8-9D9F-4092-B53F-78A789BC03EF}"/>
-    <hyperlink ref="K62" r:id="rId24" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-national-allocation-tables-member-states-eu-ets-stationary-installations-2021-06-29_en" xr:uid="{89D453DE-89FB-4B15-9C24-8E5340DED0FD}"/>
-    <hyperlink ref="K68" r:id="rId25" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-national-allocation-tables-member-states-eu-ets-stationary-installations-2021-06-29_en" xr:uid="{E19D2B34-612B-4770-9952-A0724072D571}"/>
-    <hyperlink ref="K25" r:id="rId26" display="https://ec.europa.eu/clima/news-your-voice/news/revised-2022-auction-calendar-general-allowances-published-2022-05-19_en" xr:uid="{D6A0CCD9-573F-4ABD-A090-B97A1BD04FAE}"/>
-    <hyperlink ref="L25" r:id="rId27" display="https://ec.europa.eu/commission/presscorner/detail/en/ip_22_3131" xr:uid="{EBAADABC-FD35-40D8-894F-A1A7B431C0BC}"/>
-    <hyperlink ref="L4" r:id="rId28" display="https://ec.europa.eu/clima/news-your-voice/news/further-information-start-phase-4-eu-ets-2021-emission-allowances-be-issued-aircraft-operators-and-2020-12-11_en" xr:uid="{EDEA86E0-E622-447C-A19C-FB5362C65735}"/>
-    <hyperlink ref="M7" r:id="rId29" display="https://ec.europa.eu/clima/news-your-voice/news/eu-leaders-agree-2030-climate-and-energy-goals-2014-10-24_en" xr:uid="{091C0239-D1B9-4526-BD63-97C9DEA7A648}"/>
-    <hyperlink ref="L23" r:id="rId30" display="https://ec.europa.eu/clima/news-your-voice/news/financing-energy-transition-commission-puts-eu14-billion-fund-modernise-energy-sectors-10-member-2020-07-09_en" xr:uid="{5B8F9CC5-B7D3-4BC4-A650-352814C687BC}"/>
-    <hyperlink ref="M23" r:id="rId31" display="https://ec.europa.eu/clima/news-your-voice/news/boosting-eus-green-recovery-commission-invests-eu-1-billion-innovative-clean-technology-projects-2020-07-03_en" xr:uid="{C0A7BD83-7044-4ED1-818F-46B46744F552}"/>
-    <hyperlink ref="L24" r:id="rId32" display="https://ec.europa.eu/commission/presscorner/detail/en/ip_21_6042" xr:uid="{8854F8D5-0532-4F0E-91C7-60C67286654D}"/>
-    <hyperlink ref="L38" r:id="rId33" display="https://ec.europa.eu/clima/news-your-voice/news/eu-member-states-agree-negotiating-position-key-2030-climate-policy-proposals-2017-10-13_en" xr:uid="{70D0D58B-B7F9-45A6-A335-5B8700139411}"/>
+    <hyperlink ref="Q14" r:id="rId1" display="https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16" xr:uid="{505B5FEE-A6F5-47CB-9917-E30704A91A4C}"/>
+    <hyperlink ref="K4" r:id="rId2" display="https://ec.europa.eu/clima/news-your-voice/news/update-preparatory-steps-auctioning-phase-3-allowances-2011-11-25_en" xr:uid="{E0BDB423-56EA-44F0-A54A-0F5B4F2A2147}"/>
+    <hyperlink ref="L4" r:id="rId3" display="https://ec.europa.eu/clima/news-your-voice/news/enhancing-eu-rules-monitoring-greenhouse-gas-emissions-2011-11-23_en" xr:uid="{9BD80364-5CA2-43DB-B2CC-0E03E8DA4A0C}"/>
+    <hyperlink ref="K5" r:id="rId4" display="https://ec.europa.eu/clima/news-your-voice/news/european-commission-adopts-carbon-leakage-list-period-2015-2019-2014-10-27_en" xr:uid="{A6A17CE0-740F-4D5D-B313-5A7D344A91EA}"/>
+    <hyperlink ref="L5" r:id="rId5" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2014-11-04_en" xr:uid="{8247D59B-1565-4720-B464-3B76D4306051}"/>
+    <hyperlink ref="K14" r:id="rId6" display="https://ec.europa.eu/clima/news-your-voice/news/commission-proposes-safeguard-measures-eu-emissions-trading-system-2017-10-24_en" xr:uid="{0DD0FCDC-28E2-41DE-B6F4-45CBD31C5107}"/>
+    <hyperlink ref="K15" r:id="rId7" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2017-11-06_en" xr:uid="{13CCF2E4-4BEB-447B-B73C-69BAB51FDDF4}"/>
+    <hyperlink ref="L15" r:id="rId8" display="https://ec.europa.eu/clima/news-your-voice/news/eu-emissions-trading-system-landmark-agreement-between-parliament-and-council-delivers-eus-2017-11-09_en" xr:uid="{454861F8-3E39-4C29-A4AA-465B15683294}"/>
+    <hyperlink ref="K23" r:id="rId9" display="https://ec.europa.eu/clima/news-your-voice/news/ets-market-stability-reserve-will-start-reducing-auction-volume-almost-265-million-allowances-over-2018-05-15_en" xr:uid="{C721078D-42C8-4E8F-A645-8D1BD1241E6C}"/>
+    <hyperlink ref="K26" r:id="rId10" display="https://ec.europa.eu/clima/news-your-voice/news/emissions-trading-commission-adopts-amendment-ets-auctioning-regulation-2018-10-30_en" xr:uid="{1DA6063C-C717-4DBA-BA11-FA42D50774A1}"/>
+    <hyperlink ref="K33" r:id="rId11" display="https://ec.europa.eu/clima/news-your-voice/news/towards-climate-neutral-europe-eu-invests-over-eu10bn-innovative-clean-technologies-2019-02-26_en" xr:uid="{507015DA-B303-49DD-BE42-8DA9AF07D7DC}"/>
+    <hyperlink ref="K34" r:id="rId12" display="https://ec.europa.eu/clima/news-your-voice/news/towards-climate-neutral-europe-eu-invests-over-eu10bn-innovative-clean-technologies-2019-02-26_en" xr:uid="{F695F6A8-94CC-4324-881A-6C6ADE693EA0}"/>
+    <hyperlink ref="K35" r:id="rId13" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2019-06-19_en" xr:uid="{A71B360B-E82C-443B-A0BC-C4F1B76F9882}"/>
+    <hyperlink ref="L35" r:id="rId14" display="https://ec.europa.eu/clima/news-your-voice/news/polands-2020-auction-volume-include-allowances-not-used-power-sector-modernisation-2019-06-12_en" xr:uid="{415A5C0B-1796-4A12-9A96-39DA2523F414}"/>
+    <hyperlink ref="K39" r:id="rId15" display="https://ec.europa.eu/clima/news-your-voice/news/adoption-regulation-adjustments-free-allocation-emission-allowances-due-activity-level-changes-2019-10-31_en" xr:uid="{F8C2477A-A966-4A33-B989-ABEB3FD073BF}"/>
+    <hyperlink ref="K42" r:id="rId16" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-status-update-new-entrants-reserve-2020-01-15_en" xr:uid="{ABCA4C5C-168F-4911-A05E-3E193BB0607F}"/>
+    <hyperlink ref="K44" r:id="rId17" display="https://ec.europa.eu/clima/news-your-voice/news/2020-revised-auction-calendars-published-2020-07-01_en" xr:uid="{9D566DF6-E071-4458-A5B6-59D0E48FBF3A}"/>
+    <hyperlink ref="K46" r:id="rId18" display="https://ec.europa.eu/clima/news-your-voice/news/draft-implementing-regulation-determining-revised-benchmark-values-period-2021-2025-open-4-week-2020-12-08_en" xr:uid="{19E0304F-6616-473B-A894-D0B7F9DBC892}"/>
+    <hyperlink ref="K47" r:id="rId19" display="https://ec.europa.eu/clima/news-your-voice/news/draft-implementing-regulation-determining-revised-benchmark-values-period-2021-2025-open-4-week-2020-12-08_en" xr:uid="{658F0735-A061-4C52-B67E-F6B04D42BB54}"/>
+    <hyperlink ref="L47" r:id="rId20" display="https://ec.europa.eu/clima/news-your-voice/news/further-information-start-phase-4-eu-ets-2021-emission-allowances-be-issued-aircraft-operators-and-2020-12-11_en" xr:uid="{687C8CA1-0617-4C04-B1E2-3A6EE9FA542A}"/>
+    <hyperlink ref="K50" r:id="rId21" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credits-use-eu-ets-2021-05-25_en" xr:uid="{786141D5-4E60-47E5-868D-0BC2E5D732A1}"/>
+    <hyperlink ref="L50" r:id="rId22" display="https://ec.europa.eu/clima/news-your-voice/news/commission-adopts-uniform-cross-sectoral-correction-factor-be-applied-free-allocation-2021-2025-eu-2021-05-31_en" xr:uid="{727E1C4B-1C90-4B4F-B840-392DA92B4D85}"/>
+    <hyperlink ref="K51" r:id="rId23" display="https://ec.europa.eu/clima/news-your-voice/news/commission-adopts-uniform-cross-sectoral-correction-factor-be-applied-free-allocation-2021-2025-eu-2021-05-31_en" xr:uid="{229EEBB8-9D9F-4092-B53F-78A789BC03EF}"/>
+    <hyperlink ref="K52" r:id="rId24" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-national-allocation-tables-member-states-eu-ets-stationary-installations-2021-06-29_en" xr:uid="{89D453DE-89FB-4B15-9C24-8E5340DED0FD}"/>
+    <hyperlink ref="K53" r:id="rId25" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-national-allocation-tables-member-states-eu-ets-stationary-installations-2021-06-29_en" xr:uid="{E19D2B34-612B-4770-9952-A0724072D571}"/>
+    <hyperlink ref="K64" r:id="rId26" display="https://ec.europa.eu/clima/news-your-voice/news/revised-2022-auction-calendar-general-allowances-published-2022-05-19_en" xr:uid="{D6A0CCD9-573F-4ABD-A090-B97A1BD04FAE}"/>
+    <hyperlink ref="L64" r:id="rId27" display="https://ec.europa.eu/commission/presscorner/detail/en/ip_22_3131" xr:uid="{EBAADABC-FD35-40D8-894F-A1A7B431C0BC}"/>
+    <hyperlink ref="L46" r:id="rId28" display="https://ec.europa.eu/clima/news-your-voice/news/further-information-start-phase-4-eu-ets-2021-emission-allowances-be-issued-aircraft-operators-and-2020-12-11_en" xr:uid="{EDEA86E0-E622-447C-A19C-FB5362C65735}"/>
+    <hyperlink ref="M5" r:id="rId29" display="https://ec.europa.eu/clima/news-your-voice/news/eu-leaders-agree-2030-climate-and-energy-goals-2014-10-24_en" xr:uid="{091C0239-D1B9-4526-BD63-97C9DEA7A648}"/>
+    <hyperlink ref="L44" r:id="rId30" display="https://ec.europa.eu/clima/news-your-voice/news/financing-energy-transition-commission-puts-eu14-billion-fund-modernise-energy-sectors-10-member-2020-07-09_en" xr:uid="{5B8F9CC5-B7D3-4BC4-A650-352814C687BC}"/>
+    <hyperlink ref="M44" r:id="rId31" display="https://ec.europa.eu/clima/news-your-voice/news/boosting-eus-green-recovery-commission-invests-eu-1-billion-innovative-clean-technology-projects-2020-07-03_en" xr:uid="{C0A7BD83-7044-4ED1-818F-46B46744F552}"/>
+    <hyperlink ref="L58" r:id="rId32" display="https://ec.europa.eu/commission/presscorner/detail/en/ip_21_6042" xr:uid="{8854F8D5-0532-4F0E-91C7-60C67286654D}"/>
+    <hyperlink ref="L13" r:id="rId33" display="https://ec.europa.eu/clima/news-your-voice/news/eu-member-states-agree-negotiating-position-key-2030-climate-policy-proposals-2017-10-13_en" xr:uid="{70D0D58B-B7F9-45A6-A335-5B8700139411}"/>
     <hyperlink ref="K40" r:id="rId34" display="https://ec.europa.eu/clima/news-your-voice/news/member-states-emission-reduction-targets-2021-2030-adopted-2018-05-14_en" xr:uid="{26A50BE7-AD06-4B9A-9645-E4391F452CFF}"/>
-    <hyperlink ref="L39" r:id="rId35" display="https://ec.europa.eu/clima/news-your-voice/news/ets-market-stability-reserve-will-start-reducing-auction-volume-almost-265-million-allowances-over-2018-05-15_en" xr:uid="{C9572FEA-0976-472B-AAEC-D5F85E2EE313}"/>
-    <hyperlink ref="K44" r:id="rId36" display="https://ec.europa.eu/clima/news-your-voice/news/eu-and-switzerland-sign-agreement-link-emissions-trading-systems-2017-11-23_en" xr:uid="{D1F584D8-A9E6-4830-B87A-59072962FBDE}"/>
-    <hyperlink ref="L44" r:id="rId37" display="https://ec.europa.eu/clima/news-your-voice/news/un-climate-conference-makes-progress-paris-agreement-implementation-2017-11-18_en" xr:uid="{BEFA94A6-DDF4-4E95-A6FA-BCD766336BF9}"/>
-    <hyperlink ref="M44" r:id="rId38" display="https://ec.europa.eu/clima/news-your-voice/news/eu-emissions-trading-system-landmark-agreement-between-parliament-and-council-delivers-eus-2017-11-09_en" xr:uid="{BE6B9B42-B032-4671-BCB8-5AD6B033B4BC}"/>
-    <hyperlink ref="L66" r:id="rId39" display="https://ec.europa.eu/clima/news-your-voice/news/update-safeguard-measures-eu-emissions-trading-system-2018-following-adoption-uk-law-2018-01-08_en" xr:uid="{60C5A314-1D7C-4699-9335-84B9B95C6199}"/>
+    <hyperlink ref="L23" r:id="rId35" display="https://ec.europa.eu/clima/news-your-voice/news/ets-market-stability-reserve-will-start-reducing-auction-volume-almost-265-million-allowances-over-2018-05-15_en" xr:uid="{C9572FEA-0976-472B-AAEC-D5F85E2EE313}"/>
+    <hyperlink ref="K19" r:id="rId36" display="https://ec.europa.eu/clima/news-your-voice/news/eu-and-switzerland-sign-agreement-link-emissions-trading-systems-2017-11-23_en" xr:uid="{D1F584D8-A9E6-4830-B87A-59072962FBDE}"/>
+    <hyperlink ref="L19" r:id="rId37" display="https://ec.europa.eu/clima/news-your-voice/news/un-climate-conference-makes-progress-paris-agreement-implementation-2017-11-18_en" xr:uid="{BEFA94A6-DDF4-4E95-A6FA-BCD766336BF9}"/>
+    <hyperlink ref="M19" r:id="rId38" display="https://ec.europa.eu/clima/news-your-voice/news/eu-emissions-trading-system-landmark-agreement-between-parliament-and-council-delivers-eus-2017-11-09_en" xr:uid="{BE6B9B42-B032-4671-BCB8-5AD6B033B4BC}"/>
+    <hyperlink ref="L21" r:id="rId39" display="https://ec.europa.eu/clima/news-your-voice/news/update-safeguard-measures-eu-emissions-trading-system-2018-following-adoption-uk-law-2018-01-08_en" xr:uid="{60C5A314-1D7C-4699-9335-84B9B95C6199}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>

--- a/Other data/Coal phase out announcements.xlsx
+++ b/Other data/Coal phase out announcements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive - London School of Economics\Documents\LSE\GY489_Dissertation\LETS GO\Dissertation-Code-Data\Other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD957514-27C0-4AF4-AF2A-7A859A64E837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF0AA49-FA2B-4295-AD7C-AE8B48371CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -2559,7 +2559,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3829,11 +3829,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CCC5DF-E81D-45C6-92D8-92AE6A0AD22C}">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3904,262 +3904,293 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="21">
-        <v>40616</v>
+        <v>80</v>
+      </c>
+      <c r="B2" s="22">
+        <v>44480</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>345</v>
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="I2" t="s">
-        <v>258</v>
+        <v>235</v>
+      </c>
+      <c r="J2" t="s">
+        <v>403</v>
       </c>
       <c r="K2" t="s">
         <v>259</v>
       </c>
-      <c r="P2" s="4"/>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="Q2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="21">
-        <v>40693</v>
-      </c>
-      <c r="C3" t="s">
-        <v>344</v>
+        <v>80</v>
+      </c>
+      <c r="B3" s="23">
+        <v>44483</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>346</v>
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="I3" t="s">
-        <v>258</v>
+        <v>236</v>
+      </c>
+      <c r="J3" t="s">
+        <v>404</v>
       </c>
       <c r="K3" t="s">
-        <v>258</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+        <v>259</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="25">
-        <v>40872</v>
+        <v>84</v>
+      </c>
+      <c r="B4" s="22">
+        <v>44169</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="E4">
-        <v>2030</v>
+        <v>2038</v>
+      </c>
+      <c r="F4">
+        <v>8.5</v>
+      </c>
+      <c r="G4">
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>278</v>
+        <v>258</v>
+      </c>
+      <c r="J4" t="s">
+        <v>405</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="N4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" t="s">
-        <v>307</v>
+        <v>271</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="25">
-        <v>41941</v>
+        <v>84</v>
+      </c>
+      <c r="B5" s="21">
+        <v>44568</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>281</v>
+        <v>133</v>
       </c>
       <c r="E5">
-        <v>2025</v>
-      </c>
-      <c r="F5">
-        <v>2.5</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
+        <v>2033</v>
       </c>
       <c r="H5" t="s">
-        <v>278</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>407</v>
+        <v>258</v>
+      </c>
+      <c r="K5" t="s">
+        <v>259</v>
       </c>
       <c r="N5" t="s">
         <v>298</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="Q5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="23">
-        <v>42283</v>
-      </c>
-      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="25">
+        <v>40872</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6">
+        <v>2030</v>
+      </c>
+      <c r="H6" t="s">
+        <v>278</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="N6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E6">
-        <v>2023</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" t="s">
-        <v>259</v>
-      </c>
-      <c r="N6" t="s">
-        <v>285</v>
+      <c r="P6" t="s">
+        <v>307</v>
       </c>
       <c r="Q6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="21">
-        <v>42326</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="B7" s="25">
+        <v>41941</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="E7">
         <v>2025</v>
       </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
       <c r="H7" t="s">
-        <v>258</v>
-      </c>
-      <c r="K7" t="s">
-        <v>259</v>
+        <v>278</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>407</v>
       </c>
       <c r="N7" t="s">
-        <v>328</v>
+        <v>298</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="Q7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="23">
-        <v>42636</v>
+        <v>43055</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>303</v>
+      <c r="D8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2030</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="I8" t="s">
+        <v>199</v>
       </c>
       <c r="N8" t="s">
         <v>49</v>
       </c>
-      <c r="P8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="Q8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="10">
-        <v>42689</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9">
-        <v>2023</v>
-      </c>
-      <c r="F9">
-        <v>3.5</v>
-      </c>
-      <c r="G9">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="B9" s="12">
+        <v>43055</v>
+      </c>
+      <c r="C9" t="s">
+        <v>198</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>258</v>
       </c>
       <c r="I9" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="K9" t="s">
-        <v>259</v>
-      </c>
-      <c r="N9" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>135</v>
+        <v>258</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
@@ -4231,19 +4262,19 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="10">
-        <v>42996</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="B12" s="23">
+        <v>43200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="E12">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="H12" t="s">
         <v>258</v>
@@ -4252,360 +4283,356 @@
         <v>259</v>
       </c>
       <c r="N12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="23">
+        <v>43391</v>
+      </c>
+      <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="Q12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="22">
-        <v>43018</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>302</v>
+        <v>410</v>
       </c>
       <c r="E13">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="H13" t="s">
         <v>258</v>
       </c>
       <c r="J13" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="K13" t="s">
         <v>259</v>
       </c>
-      <c r="L13" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
-        <v>350</v>
+      <c r="N13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="22">
-        <v>43032</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="23">
+        <v>43523</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E14">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="H14" t="s">
         <v>258</v>
       </c>
-      <c r="J14" t="s">
-        <v>420</v>
+      <c r="I14" t="s">
+        <v>228</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="N14" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+        <v>287</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="7">
-        <v>43049</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="10">
+        <v>42689</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="E15">
-        <v>2025</v>
+        <v>2023</v>
+      </c>
+      <c r="F15">
+        <v>3.5</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>258</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s">
-        <v>408</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>261</v>
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>259</v>
       </c>
       <c r="N15" t="s">
         <v>52</v>
       </c>
+      <c r="P15" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="Q15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="23">
-        <v>43055</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>198</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2030</v>
+        <v>61</v>
+      </c>
+      <c r="B16" s="21">
+        <v>40616</v>
+      </c>
+      <c r="C16" t="s">
+        <v>344</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>345</v>
       </c>
       <c r="H16" t="s">
+        <v>278</v>
+      </c>
+      <c r="I16" t="s">
         <v>258</v>
       </c>
-      <c r="I16" t="s">
-        <v>199</v>
-      </c>
-      <c r="N16" t="s">
-        <v>49</v>
-      </c>
+      <c r="K16" t="s">
+        <v>259</v>
+      </c>
+      <c r="P16" s="4"/>
       <c r="Q16" t="s">
-        <v>197</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="12">
-        <v>43055</v>
+        <v>61</v>
+      </c>
+      <c r="B17" s="21">
+        <v>40693</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>344</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="H17" t="s">
+        <v>278</v>
+      </c>
+      <c r="I17" t="s">
         <v>258</v>
-      </c>
-      <c r="I17" t="s">
-        <v>248</v>
       </c>
       <c r="K17" t="s">
         <v>258</v>
       </c>
-      <c r="N17">
+      <c r="P17" s="4"/>
+      <c r="Q17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="21">
+        <v>43357</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="Q17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="12">
-        <v>43055</v>
-      </c>
-      <c r="C18" t="s">
-        <v>211</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>12</v>
+      <c r="D18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18">
+        <v>2038</v>
       </c>
       <c r="H18" t="s">
         <v>258</v>
       </c>
-      <c r="I18" t="s">
-        <v>249</v>
-      </c>
       <c r="K18" t="s">
-        <v>258</v>
-      </c>
-      <c r="N18">
+        <v>259</v>
+      </c>
+      <c r="N18" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="21">
+        <v>43419</v>
+      </c>
+      <c r="C19">
         <v>0</v>
       </c>
-      <c r="P18" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="23">
-        <v>43055</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
       <c r="D19" t="s">
-        <v>309</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2030</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="H19" t="s">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s">
-        <v>138</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="N19" t="s">
-        <v>300</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>134</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="J19" t="s">
+        <v>404</v>
+      </c>
+      <c r="K19" t="s">
+        <v>259</v>
+      </c>
+      <c r="P19" s="4"/>
       <c r="Q19" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="12">
-        <v>43091</v>
-      </c>
-      <c r="C20" t="s">
-        <v>215</v>
+        <v>61</v>
+      </c>
+      <c r="B20" s="22">
+        <v>43491</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20">
+        <v>2038</v>
+      </c>
+      <c r="F20">
+        <v>47.6</v>
+      </c>
+      <c r="G20">
+        <v>175</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="23">
-        <v>43105</v>
+        <v>61</v>
+      </c>
+      <c r="B21" s="21">
+        <v>43808</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E21">
-        <v>2025</v>
+        <v>343</v>
       </c>
       <c r="H21" t="s">
-        <v>258</v>
+        <v>50</v>
+      </c>
+      <c r="I21" t="s">
+        <v>412</v>
       </c>
       <c r="K21" t="s">
         <v>259</v>
       </c>
-      <c r="L21" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="N21" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="23">
-        <v>43200</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="B22" s="10">
+        <v>43846</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>284</v>
+        <v>141</v>
       </c>
       <c r="E22">
-        <v>2029</v>
+        <v>2038</v>
       </c>
       <c r="H22" t="s">
         <v>258</v>
       </c>
-      <c r="K22" t="s">
-        <v>259</v>
+      <c r="I22" t="s">
+        <v>231</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>268</v>
       </c>
       <c r="N22" t="s">
-        <v>49</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O22" t="s">
+        <v>290</v>
+      </c>
+      <c r="P22" s="4"/>
       <c r="Q22" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="23">
-        <v>43238</v>
+        <v>61</v>
+      </c>
+      <c r="B23" s="21">
+        <v>44015</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>304</v>
+        <v>142</v>
+      </c>
+      <c r="E23">
+        <v>2038</v>
       </c>
       <c r="H23" t="s">
         <v>258</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>262</v>
+        <v>413</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>414</v>
       </c>
       <c r="N23" t="s">
-        <v>305</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="P23" s="4"/>
       <c r="Q23" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
@@ -4613,295 +4640,292 @@
         <v>61</v>
       </c>
       <c r="B24" s="21">
-        <v>43357</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
+        <v>44484</v>
+      </c>
+      <c r="C24" t="s">
+        <v>295</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E24">
-        <v>2038</v>
+        <v>2030</v>
       </c>
       <c r="H24" t="s">
         <v>258</v>
       </c>
+      <c r="J24" t="s">
+        <v>416</v>
+      </c>
       <c r="K24" t="s">
         <v>259</v>
       </c>
+      <c r="L24" s="13" t="s">
+        <v>415</v>
+      </c>
       <c r="N24" t="s">
-        <v>285</v>
+        <v>289</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="Q24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="23">
-        <v>43391</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="B25" s="12">
+        <v>44705</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E25">
-        <v>2029</v>
+        <v>144</v>
       </c>
       <c r="H25" t="s">
         <v>258</v>
       </c>
-      <c r="J25" t="s">
-        <v>411</v>
-      </c>
-      <c r="K25" t="s">
-        <v>259</v>
+      <c r="I25" t="s">
+        <v>418</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>276</v>
       </c>
       <c r="N25" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="23">
-        <v>43397</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c r="B26" s="21">
+        <v>44732</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>322</v>
+        <v>145</v>
       </c>
       <c r="H26" t="s">
         <v>258</v>
       </c>
-      <c r="K26" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="I26" t="s">
+        <v>292</v>
+      </c>
+      <c r="J26" t="s">
+        <v>417</v>
+      </c>
+      <c r="K26" t="s">
+        <v>259</v>
+      </c>
+      <c r="N26" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="21">
-        <v>43419</v>
+        <v>53</v>
+      </c>
+      <c r="B27" s="23">
+        <v>43731</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>341</v>
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27">
+        <v>2028</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>258</v>
       </c>
       <c r="I27" t="s">
-        <v>342</v>
-      </c>
-      <c r="J27" t="s">
-        <v>404</v>
+        <v>229</v>
       </c>
       <c r="K27" t="s">
         <v>259</v>
       </c>
-      <c r="P27" s="4"/>
+      <c r="N27" t="s">
+        <v>300</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="Q27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B28" s="23">
-        <v>43419</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
+        <v>44312</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="E28">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="H28" t="s">
         <v>258</v>
       </c>
       <c r="I28" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="K28" t="s">
         <v>259</v>
       </c>
       <c r="N28" t="s">
-        <v>323</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>325</v>
+        <v>298</v>
+      </c>
+      <c r="P28" t="s">
+        <v>150</v>
       </c>
       <c r="Q28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B29" s="23">
-        <v>43423</v>
+        <v>44462</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="E29">
-        <v>2023</v>
+        <v>299</v>
       </c>
       <c r="H29" t="s">
-        <v>258</v>
-      </c>
-      <c r="I29" t="s">
-        <v>340</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s">
         <v>259</v>
       </c>
-      <c r="P29" s="4"/>
+      <c r="N29" t="s">
+        <v>298</v>
+      </c>
       <c r="Q29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="23">
-        <v>43424</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E30">
-        <v>2030</v>
-      </c>
-      <c r="F30">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G30">
-        <v>4</v>
+        <v>53</v>
+      </c>
+      <c r="B30" s="12">
+        <v>44530</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" t="s">
-        <v>419</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s">
-        <v>259</v>
-      </c>
-      <c r="N30" t="s">
-        <v>300</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>207</v>
+        <v>258</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="22">
-        <v>43491</v>
+        <v>53</v>
+      </c>
+      <c r="B31" s="10">
+        <v>44657</v>
       </c>
       <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31">
+        <v>2028</v>
+      </c>
+      <c r="H31" t="s">
+        <v>258</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="N31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="23">
+        <v>43424</v>
+      </c>
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31">
-        <v>2038</v>
-      </c>
-      <c r="F31">
-        <v>47.6</v>
-      </c>
-      <c r="G31">
-        <v>175</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="D32" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E32">
+        <v>2030</v>
+      </c>
+      <c r="F32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
         <v>50</v>
       </c>
-      <c r="K31" t="s">
+      <c r="I32" t="s">
+        <v>419</v>
+      </c>
+      <c r="K32" t="s">
         <v>259</v>
       </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="P31" s="4"/>
-      <c r="Q31" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="12">
-        <v>43497</v>
-      </c>
-      <c r="F32">
-        <v>0.7</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32" t="s">
-        <v>258</v>
-      </c>
-      <c r="N32">
+      <c r="N32" t="s">
+        <v>300</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="10">
+        <v>43731</v>
+      </c>
+      <c r="C33">
         <v>0</v>
       </c>
-      <c r="Q32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="23">
-        <v>43518</v>
-      </c>
-      <c r="C33" t="s">
-        <v>49</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="E33">
         <v>2030</v>
@@ -4910,196 +4934,190 @@
         <v>258</v>
       </c>
       <c r="I33" t="s">
-        <v>227</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>264</v>
+        <v>252</v>
+      </c>
+      <c r="K33" t="s">
+        <v>259</v>
+      </c>
+      <c r="N33" t="s">
+        <v>52</v>
       </c>
       <c r="Q33" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="23">
-        <v>43523</v>
-      </c>
-      <c r="C34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="B34" s="22">
+        <v>43032</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="H34" t="s">
         <v>258</v>
       </c>
-      <c r="I34" t="s">
-        <v>228</v>
+      <c r="J34" t="s">
+        <v>420</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N34" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>206</v>
+        <v>300</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="23">
-        <v>43634</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" t="s">
-        <v>220</v>
+        <v>19</v>
+      </c>
+      <c r="B35" s="7">
+        <v>43049</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="E35">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="H35" t="s">
         <v>258</v>
       </c>
+      <c r="I35" t="s">
+        <v>408</v>
+      </c>
       <c r="K35" s="13" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="N35" t="s">
-        <v>315</v>
-      </c>
-      <c r="P35" t="s">
-        <v>314</v>
+        <v>52</v>
       </c>
       <c r="Q35" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="23">
+        <v>19</v>
+      </c>
+      <c r="B36" s="12">
         <v>43731</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36">
-        <v>2028</v>
       </c>
       <c r="H36" t="s">
         <v>258</v>
       </c>
       <c r="I36" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K36" t="s">
         <v>259</v>
       </c>
-      <c r="N36" t="s">
-        <v>300</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>165</v>
+      <c r="N36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="10">
-        <v>43731</v>
+        <v>38</v>
+      </c>
+      <c r="B37" s="23">
+        <v>42636</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E37">
-        <v>2030</v>
+        <v>303</v>
       </c>
       <c r="H37" t="s">
-        <v>258</v>
-      </c>
-      <c r="I37" t="s">
-        <v>252</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s">
         <v>259</v>
       </c>
       <c r="N37" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="P37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="12">
-        <v>43731</v>
+        <v>38</v>
+      </c>
+      <c r="B38" s="22">
+        <v>43018</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E38">
+        <v>2030</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
       </c>
-      <c r="I38" t="s">
-        <v>230</v>
+      <c r="J38" t="s">
+        <v>422</v>
       </c>
       <c r="K38" t="s">
         <v>259</v>
       </c>
+      <c r="L38" s="13" t="s">
+        <v>421</v>
+      </c>
       <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="23">
+        <v>43238</v>
+      </c>
+      <c r="C39">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="23">
-        <v>43764</v>
-      </c>
-      <c r="C39" t="s">
-        <v>49</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E39">
-        <v>2023</v>
+        <v>304</v>
       </c>
       <c r="H39" t="s">
         <v>258</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>267</v>
+        <v>262</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="N39" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Q39" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.45">
@@ -5127,72 +5145,74 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="21">
-        <v>43808</v>
-      </c>
-      <c r="C41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="N41">
         <v>0</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="H41" t="s">
-        <v>50</v>
-      </c>
-      <c r="I41" t="s">
-        <v>412</v>
-      </c>
-      <c r="K41" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="10">
-        <v>43846</v>
+      <c r="Q41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A42" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="21">
+        <v>44099</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>141</v>
+        <v>306</v>
       </c>
       <c r="E42">
-        <v>2038</v>
+        <v>2049</v>
+      </c>
+      <c r="F42">
+        <v>30.2</v>
+      </c>
+      <c r="G42">
+        <v>104</v>
       </c>
       <c r="H42" t="s">
         <v>258</v>
       </c>
-      <c r="I42" t="s">
-        <v>231</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>268</v>
+      <c r="K42" t="s">
+        <v>259</v>
       </c>
       <c r="N42" t="s">
-        <v>52</v>
-      </c>
-      <c r="O42" t="s">
-        <v>290</v>
-      </c>
-      <c r="P42" s="4"/>
+        <v>49</v>
+      </c>
       <c r="Q42" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B43" s="12">
-        <v>43850</v>
+        <v>43055</v>
+      </c>
+      <c r="C43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>52</v>
+        <v>258</v>
       </c>
       <c r="I43" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="K43" t="s">
         <v>258</v>
@@ -5200,341 +5220,328 @@
       <c r="N43">
         <v>0</v>
       </c>
+      <c r="P43" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="Q43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="21">
-        <v>44015</v>
+        <v>42</v>
+      </c>
+      <c r="B44" s="23">
+        <v>43055</v>
       </c>
       <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44">
-        <v>2038</v>
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>309</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2030</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>12</v>
       </c>
       <c r="H44" t="s">
         <v>258</v>
       </c>
+      <c r="I44" t="s">
+        <v>138</v>
+      </c>
       <c r="K44" s="13" t="s">
-        <v>269</v>
+        <v>424</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>414</v>
+        <v>261</v>
       </c>
       <c r="N44" t="s">
-        <v>287</v>
-      </c>
-      <c r="P44" s="4"/>
+        <v>300</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="Q44" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A45" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="21">
-        <v>44099</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="23">
+        <v>43764</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E45">
-        <v>2049</v>
-      </c>
-      <c r="F45">
-        <v>30.2</v>
-      </c>
-      <c r="G45">
-        <v>104</v>
+        <v>2023</v>
       </c>
       <c r="H45" t="s">
         <v>258</v>
       </c>
-      <c r="K45" t="s">
-        <v>259</v>
+      <c r="K45" s="13" t="s">
+        <v>267</v>
       </c>
       <c r="N45" t="s">
-        <v>49</v>
+        <v>298</v>
       </c>
       <c r="Q45" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="22">
-        <v>44169</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="B46" s="23">
+        <v>44342</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="E46">
-        <v>2038</v>
-      </c>
-      <c r="F46">
-        <v>8.5</v>
-      </c>
-      <c r="G46">
-        <v>35</v>
+        <v>2032</v>
       </c>
       <c r="H46" t="s">
         <v>258</v>
       </c>
-      <c r="J46" t="s">
-        <v>405</v>
-      </c>
       <c r="K46" s="13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
+        <v>273</v>
+      </c>
+      <c r="N46" t="s">
+        <v>285</v>
       </c>
       <c r="Q46" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="B47" s="21">
-        <v>44179</v>
+        <v>44350</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="E47">
-        <v>2024</v>
+        <v>2032</v>
       </c>
       <c r="H47" t="s">
         <v>258</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N47" t="s">
-        <v>334</v>
-      </c>
-      <c r="P47" t="s">
-        <v>335</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="P47" s="4"/>
       <c r="Q47" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B48" s="23">
-        <v>44270</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>321</v>
+        <v>44469</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="E48">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="H48" t="s">
+        <v>50</v>
+      </c>
+      <c r="K48" t="s">
+        <v>258</v>
+      </c>
+      <c r="P48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="12">
+        <v>44712</v>
+      </c>
+      <c r="H49" t="s">
         <v>52</v>
       </c>
-      <c r="K48" t="s">
-        <v>259</v>
-      </c>
-      <c r="N48" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="23">
-        <v>44312</v>
-      </c>
-      <c r="C49">
+      <c r="K49" t="s">
+        <v>258</v>
+      </c>
+      <c r="N49">
         <v>0</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="E49">
-        <v>2025</v>
-      </c>
-      <c r="H49" t="s">
-        <v>258</v>
-      </c>
-      <c r="I49" t="s">
-        <v>297</v>
-      </c>
-      <c r="K49" t="s">
-        <v>259</v>
-      </c>
-      <c r="N49" t="s">
-        <v>298</v>
-      </c>
-      <c r="P49" t="s">
-        <v>150</v>
-      </c>
+      <c r="P49" s="4"/>
       <c r="Q49" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="23">
-        <v>44342</v>
+        <v>60</v>
+      </c>
+      <c r="B50" s="12">
+        <v>43091</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E50">
-        <v>2032</v>
+        <v>215</v>
       </c>
       <c r="H50" t="s">
+        <v>52</v>
+      </c>
+      <c r="K50" t="s">
         <v>258</v>
       </c>
-      <c r="K50" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="L50" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="N50" t="s">
-        <v>285</v>
-      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="P50" s="4"/>
       <c r="Q50" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" s="21">
-        <v>44350</v>
+        <v>60</v>
+      </c>
+      <c r="B51" s="23">
+        <v>43423</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E51">
-        <v>2032</v>
+        <v>2023</v>
       </c>
       <c r="H51" t="s">
         <v>258</v>
       </c>
-      <c r="K51" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="N51" t="s">
-        <v>311</v>
+      <c r="I51" t="s">
+        <v>340</v>
+      </c>
+      <c r="K51" t="s">
+        <v>259</v>
       </c>
       <c r="P51" s="4"/>
       <c r="Q51" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B52" s="12">
-        <v>44377</v>
+        <v>43497</v>
+      </c>
+      <c r="F52">
+        <v>0.7</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
       </c>
       <c r="H52" t="s">
+        <v>52</v>
+      </c>
+      <c r="K52" t="s">
         <v>258</v>
-      </c>
-      <c r="I52" t="s">
-        <v>233</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>274</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
       <c r="Q52" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="12">
-        <v>44377</v>
+        <v>60</v>
+      </c>
+      <c r="B53" s="23">
+        <v>43634</v>
+      </c>
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53">
+        <v>2023</v>
       </c>
       <c r="H53" t="s">
         <v>258</v>
       </c>
-      <c r="I53" t="s">
-        <v>234</v>
-      </c>
       <c r="K53" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
+        <v>265</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="N53" t="s">
+        <v>315</v>
+      </c>
+      <c r="P53" t="s">
+        <v>314</v>
       </c>
       <c r="Q53" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B54" s="23">
-        <v>44462</v>
+        <v>44270</v>
       </c>
       <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>299</v>
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>321</v>
+      </c>
+      <c r="E54">
+        <v>2033</v>
       </c>
       <c r="H54" t="s">
         <v>52</v>
@@ -5543,453 +5550,446 @@
         <v>259</v>
       </c>
       <c r="N54" t="s">
-        <v>298</v>
+        <v>49</v>
       </c>
       <c r="Q54" t="s">
-        <v>178</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="23">
-        <v>44469</v>
-      </c>
-      <c r="C55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="24">
+        <v>44502</v>
+      </c>
+      <c r="H55" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E55">
-        <v>2032</v>
-      </c>
-      <c r="H55" t="s">
-        <v>50</v>
+      <c r="I55" t="s">
+        <v>251</v>
       </c>
       <c r="K55" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="85.5" x14ac:dyDescent="0.45">
+        <v>224</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56" s="22">
-        <v>44480</v>
+        <v>87</v>
+      </c>
+      <c r="B56" s="23">
+        <v>44574</v>
       </c>
       <c r="C56" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" t="s">
-        <v>127</v>
+        <v>317</v>
+      </c>
+      <c r="E56">
+        <v>2033</v>
       </c>
       <c r="F56">
+        <v>1.5</v>
+      </c>
+      <c r="G56">
         <v>5</v>
-      </c>
-      <c r="G56">
-        <v>15</v>
       </c>
       <c r="H56" t="s">
         <v>258</v>
       </c>
-      <c r="I56" t="s">
-        <v>235</v>
-      </c>
-      <c r="J56" t="s">
-        <v>403</v>
-      </c>
       <c r="K56" t="s">
         <v>259</v>
       </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56" t="s">
-        <v>153</v>
-      </c>
-      <c r="P56" s="4" t="s">
-        <v>129</v>
+      <c r="N56" t="s">
+        <v>51</v>
+      </c>
+      <c r="P56" t="s">
+        <v>318</v>
       </c>
       <c r="Q56" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" s="23">
-        <v>44483</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E57" t="s">
-        <v>131</v>
-      </c>
-      <c r="F57">
-        <v>5</v>
-      </c>
-      <c r="G57">
-        <v>15</v>
-      </c>
-      <c r="H57" t="s">
-        <v>258</v>
-      </c>
-      <c r="I57" t="s">
-        <v>236</v>
-      </c>
-      <c r="J57" t="s">
-        <v>404</v>
-      </c>
-      <c r="K57" t="s">
-        <v>259</v>
+        <v>87</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="N57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="21">
-        <v>44484</v>
+        <v>69</v>
+      </c>
+      <c r="B58" s="23">
+        <v>43397</v>
       </c>
       <c r="C58" t="s">
-        <v>295</v>
+        <v>51</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E58">
-        <v>2030</v>
+        <v>322</v>
       </c>
       <c r="H58" t="s">
         <v>258</v>
       </c>
-      <c r="J58" t="s">
-        <v>416</v>
-      </c>
-      <c r="K58" t="s">
-        <v>259</v>
-      </c>
-      <c r="L58" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="N58" t="s">
-        <v>289</v>
+      <c r="K58" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" s="24">
-        <v>44502</v>
+        <v>69</v>
+      </c>
+      <c r="B59" s="23">
+        <v>43419</v>
+      </c>
+      <c r="C59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E59">
+        <v>2030</v>
       </c>
       <c r="H59" t="s">
-        <v>52</v>
+        <v>258</v>
       </c>
       <c r="I59" t="s">
-        <v>251</v>
+        <v>339</v>
       </c>
       <c r="K59" t="s">
         <v>259</v>
       </c>
-      <c r="N59">
+      <c r="N59" t="s">
+        <v>323</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="23">
+        <v>43518</v>
+      </c>
+      <c r="C60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E60">
+        <v>2030</v>
+      </c>
+      <c r="H60" t="s">
+        <v>258</v>
+      </c>
+      <c r="I60" t="s">
+        <v>227</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="12">
+        <v>43850</v>
+      </c>
+      <c r="H61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I61" t="s">
+        <v>232</v>
+      </c>
+      <c r="K61" t="s">
+        <v>258</v>
+      </c>
+      <c r="N61">
         <v>0</v>
       </c>
-      <c r="P59" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" s="12">
-        <v>44530</v>
-      </c>
-      <c r="H60" t="s">
-        <v>52</v>
-      </c>
-      <c r="K60" t="s">
-        <v>258</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" s="21">
-        <v>44568</v>
-      </c>
-      <c r="C61" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E61">
-        <v>2033</v>
-      </c>
-      <c r="H61" t="s">
-        <v>258</v>
-      </c>
-      <c r="K61" t="s">
-        <v>259</v>
-      </c>
-      <c r="N61" t="s">
-        <v>298</v>
-      </c>
       <c r="Q61" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>87</v>
-      </c>
-      <c r="B62" s="23">
-        <v>44574</v>
-      </c>
-      <c r="C62" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E62">
-        <v>2033</v>
-      </c>
-      <c r="F62">
-        <v>1.5</v>
-      </c>
-      <c r="G62">
-        <v>5</v>
+        <v>69</v>
+      </c>
+      <c r="B62" s="12">
+        <v>44377</v>
       </c>
       <c r="H62" t="s">
         <v>258</v>
       </c>
-      <c r="K62" t="s">
-        <v>259</v>
-      </c>
-      <c r="N62" t="s">
-        <v>51</v>
-      </c>
-      <c r="P62" t="s">
-        <v>318</v>
+      <c r="I62" t="s">
+        <v>233</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
       </c>
       <c r="Q62" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" s="10">
-        <v>44657</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="B63" s="23">
+        <v>42283</v>
+      </c>
+      <c r="C63" t="s">
+        <v>49</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>151</v>
+        <v>327</v>
       </c>
       <c r="E63">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="H63" t="s">
-        <v>258</v>
-      </c>
-      <c r="K63" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K63" t="s">
         <v>259</v>
       </c>
       <c r="N63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P63" t="s">
-        <v>152</v>
+        <v>285</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="12">
-        <v>44705</v>
+        <v>8</v>
+      </c>
+      <c r="B64" s="21">
+        <v>42326</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>144</v>
+        <v>329</v>
+      </c>
+      <c r="E64">
+        <v>2025</v>
       </c>
       <c r="H64" t="s">
         <v>258</v>
       </c>
-      <c r="I64" t="s">
-        <v>418</v>
-      </c>
-      <c r="K64" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="L64" s="13" t="s">
-        <v>276</v>
+      <c r="K64" t="s">
+        <v>259</v>
       </c>
       <c r="N64" t="s">
-        <v>286</v>
+        <v>328</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>76</v>
-      </c>
-      <c r="B65" s="12">
-        <v>44712</v>
+        <v>8</v>
+      </c>
+      <c r="B65" s="10">
+        <v>42996</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E65">
+        <v>2025</v>
       </c>
       <c r="H65" t="s">
+        <v>258</v>
+      </c>
+      <c r="K65" t="s">
+        <v>259</v>
+      </c>
+      <c r="N65" t="s">
         <v>52</v>
       </c>
-      <c r="K65" t="s">
-        <v>258</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="P65" s="4"/>
       <c r="Q65" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="21">
-        <v>44732</v>
+        <v>8</v>
+      </c>
+      <c r="B66" s="23">
+        <v>43105</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>145</v>
+        <v>330</v>
+      </c>
+      <c r="E66">
+        <v>2025</v>
       </c>
       <c r="H66" t="s">
         <v>258</v>
       </c>
-      <c r="I66" t="s">
-        <v>292</v>
-      </c>
-      <c r="J66" t="s">
-        <v>417</v>
-      </c>
       <c r="K66" t="s">
         <v>259</v>
       </c>
+      <c r="L66" s="13" t="s">
+        <v>426</v>
+      </c>
       <c r="N66" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="Q66" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>87</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="N67">
+        <v>8</v>
+      </c>
+      <c r="B67" s="21">
+        <v>44179</v>
+      </c>
+      <c r="C67">
         <v>0</v>
       </c>
+      <c r="D67" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E67">
+        <v>2024</v>
+      </c>
+      <c r="H67" t="s">
+        <v>258</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="N67" t="s">
+        <v>334</v>
+      </c>
+      <c r="P67" t="s">
+        <v>335</v>
+      </c>
       <c r="Q67" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>173</v>
+        <v>8</v>
+      </c>
+      <c r="B68" s="12">
+        <v>44377</v>
+      </c>
+      <c r="H68" t="s">
+        <v>258</v>
+      </c>
+      <c r="I68" t="s">
+        <v>234</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>274</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q68" xr:uid="{3D652218-3B78-4CB0-BA25-8DE344561C19}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q68">
-      <sortCondition ref="B1:B68"/>
+      <sortCondition ref="A1:A68"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="Q14" r:id="rId1" display="https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16" xr:uid="{505B5FEE-A6F5-47CB-9917-E30704A91A4C}"/>
-    <hyperlink ref="K4" r:id="rId2" display="https://ec.europa.eu/clima/news-your-voice/news/update-preparatory-steps-auctioning-phase-3-allowances-2011-11-25_en" xr:uid="{E0BDB423-56EA-44F0-A54A-0F5B4F2A2147}"/>
-    <hyperlink ref="L4" r:id="rId3" display="https://ec.europa.eu/clima/news-your-voice/news/enhancing-eu-rules-monitoring-greenhouse-gas-emissions-2011-11-23_en" xr:uid="{9BD80364-5CA2-43DB-B2CC-0E03E8DA4A0C}"/>
-    <hyperlink ref="K5" r:id="rId4" display="https://ec.europa.eu/clima/news-your-voice/news/european-commission-adopts-carbon-leakage-list-period-2015-2019-2014-10-27_en" xr:uid="{A6A17CE0-740F-4D5D-B313-5A7D344A91EA}"/>
-    <hyperlink ref="L5" r:id="rId5" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2014-11-04_en" xr:uid="{8247D59B-1565-4720-B464-3B76D4306051}"/>
-    <hyperlink ref="K14" r:id="rId6" display="https://ec.europa.eu/clima/news-your-voice/news/commission-proposes-safeguard-measures-eu-emissions-trading-system-2017-10-24_en" xr:uid="{0DD0FCDC-28E2-41DE-B6F4-45CBD31C5107}"/>
-    <hyperlink ref="K15" r:id="rId7" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2017-11-06_en" xr:uid="{13CCF2E4-4BEB-447B-B73C-69BAB51FDDF4}"/>
-    <hyperlink ref="L15" r:id="rId8" display="https://ec.europa.eu/clima/news-your-voice/news/eu-emissions-trading-system-landmark-agreement-between-parliament-and-council-delivers-eus-2017-11-09_en" xr:uid="{454861F8-3E39-4C29-A4AA-465B15683294}"/>
-    <hyperlink ref="K23" r:id="rId9" display="https://ec.europa.eu/clima/news-your-voice/news/ets-market-stability-reserve-will-start-reducing-auction-volume-almost-265-million-allowances-over-2018-05-15_en" xr:uid="{C721078D-42C8-4E8F-A645-8D1BD1241E6C}"/>
-    <hyperlink ref="K26" r:id="rId10" display="https://ec.europa.eu/clima/news-your-voice/news/emissions-trading-commission-adopts-amendment-ets-auctioning-regulation-2018-10-30_en" xr:uid="{1DA6063C-C717-4DBA-BA11-FA42D50774A1}"/>
-    <hyperlink ref="K33" r:id="rId11" display="https://ec.europa.eu/clima/news-your-voice/news/towards-climate-neutral-europe-eu-invests-over-eu10bn-innovative-clean-technologies-2019-02-26_en" xr:uid="{507015DA-B303-49DD-BE42-8DA9AF07D7DC}"/>
-    <hyperlink ref="K34" r:id="rId12" display="https://ec.europa.eu/clima/news-your-voice/news/towards-climate-neutral-europe-eu-invests-over-eu10bn-innovative-clean-technologies-2019-02-26_en" xr:uid="{F695F6A8-94CC-4324-881A-6C6ADE693EA0}"/>
-    <hyperlink ref="K35" r:id="rId13" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2019-06-19_en" xr:uid="{A71B360B-E82C-443B-A0BC-C4F1B76F9882}"/>
-    <hyperlink ref="L35" r:id="rId14" display="https://ec.europa.eu/clima/news-your-voice/news/polands-2020-auction-volume-include-allowances-not-used-power-sector-modernisation-2019-06-12_en" xr:uid="{415A5C0B-1796-4A12-9A96-39DA2523F414}"/>
-    <hyperlink ref="K39" r:id="rId15" display="https://ec.europa.eu/clima/news-your-voice/news/adoption-regulation-adjustments-free-allocation-emission-allowances-due-activity-level-changes-2019-10-31_en" xr:uid="{F8C2477A-A966-4A33-B989-ABEB3FD073BF}"/>
-    <hyperlink ref="K42" r:id="rId16" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-status-update-new-entrants-reserve-2020-01-15_en" xr:uid="{ABCA4C5C-168F-4911-A05E-3E193BB0607F}"/>
-    <hyperlink ref="K44" r:id="rId17" display="https://ec.europa.eu/clima/news-your-voice/news/2020-revised-auction-calendars-published-2020-07-01_en" xr:uid="{9D566DF6-E071-4458-A5B6-59D0E48FBF3A}"/>
-    <hyperlink ref="K46" r:id="rId18" display="https://ec.europa.eu/clima/news-your-voice/news/draft-implementing-regulation-determining-revised-benchmark-values-period-2021-2025-open-4-week-2020-12-08_en" xr:uid="{19E0304F-6616-473B-A894-D0B7F9DBC892}"/>
-    <hyperlink ref="K47" r:id="rId19" display="https://ec.europa.eu/clima/news-your-voice/news/draft-implementing-regulation-determining-revised-benchmark-values-period-2021-2025-open-4-week-2020-12-08_en" xr:uid="{658F0735-A061-4C52-B67E-F6B04D42BB54}"/>
-    <hyperlink ref="L47" r:id="rId20" display="https://ec.europa.eu/clima/news-your-voice/news/further-information-start-phase-4-eu-ets-2021-emission-allowances-be-issued-aircraft-operators-and-2020-12-11_en" xr:uid="{687C8CA1-0617-4C04-B1E2-3A6EE9FA542A}"/>
-    <hyperlink ref="K50" r:id="rId21" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credits-use-eu-ets-2021-05-25_en" xr:uid="{786141D5-4E60-47E5-868D-0BC2E5D732A1}"/>
-    <hyperlink ref="L50" r:id="rId22" display="https://ec.europa.eu/clima/news-your-voice/news/commission-adopts-uniform-cross-sectoral-correction-factor-be-applied-free-allocation-2021-2025-eu-2021-05-31_en" xr:uid="{727E1C4B-1C90-4B4F-B840-392DA92B4D85}"/>
-    <hyperlink ref="K51" r:id="rId23" display="https://ec.europa.eu/clima/news-your-voice/news/commission-adopts-uniform-cross-sectoral-correction-factor-be-applied-free-allocation-2021-2025-eu-2021-05-31_en" xr:uid="{229EEBB8-9D9F-4092-B53F-78A789BC03EF}"/>
-    <hyperlink ref="K52" r:id="rId24" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-national-allocation-tables-member-states-eu-ets-stationary-installations-2021-06-29_en" xr:uid="{89D453DE-89FB-4B15-9C24-8E5340DED0FD}"/>
-    <hyperlink ref="K53" r:id="rId25" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-national-allocation-tables-member-states-eu-ets-stationary-installations-2021-06-29_en" xr:uid="{E19D2B34-612B-4770-9952-A0724072D571}"/>
-    <hyperlink ref="K64" r:id="rId26" display="https://ec.europa.eu/clima/news-your-voice/news/revised-2022-auction-calendar-general-allowances-published-2022-05-19_en" xr:uid="{D6A0CCD9-573F-4ABD-A090-B97A1BD04FAE}"/>
-    <hyperlink ref="L64" r:id="rId27" display="https://ec.europa.eu/commission/presscorner/detail/en/ip_22_3131" xr:uid="{EBAADABC-FD35-40D8-894F-A1A7B431C0BC}"/>
-    <hyperlink ref="L46" r:id="rId28" display="https://ec.europa.eu/clima/news-your-voice/news/further-information-start-phase-4-eu-ets-2021-emission-allowances-be-issued-aircraft-operators-and-2020-12-11_en" xr:uid="{EDEA86E0-E622-447C-A19C-FB5362C65735}"/>
-    <hyperlink ref="M5" r:id="rId29" display="https://ec.europa.eu/clima/news-your-voice/news/eu-leaders-agree-2030-climate-and-energy-goals-2014-10-24_en" xr:uid="{091C0239-D1B9-4526-BD63-97C9DEA7A648}"/>
-    <hyperlink ref="L44" r:id="rId30" display="https://ec.europa.eu/clima/news-your-voice/news/financing-energy-transition-commission-puts-eu14-billion-fund-modernise-energy-sectors-10-member-2020-07-09_en" xr:uid="{5B8F9CC5-B7D3-4BC4-A650-352814C687BC}"/>
-    <hyperlink ref="M44" r:id="rId31" display="https://ec.europa.eu/clima/news-your-voice/news/boosting-eus-green-recovery-commission-invests-eu-1-billion-innovative-clean-technology-projects-2020-07-03_en" xr:uid="{C0A7BD83-7044-4ED1-818F-46B46744F552}"/>
-    <hyperlink ref="L58" r:id="rId32" display="https://ec.europa.eu/commission/presscorner/detail/en/ip_21_6042" xr:uid="{8854F8D5-0532-4F0E-91C7-60C67286654D}"/>
-    <hyperlink ref="L13" r:id="rId33" display="https://ec.europa.eu/clima/news-your-voice/news/eu-member-states-agree-negotiating-position-key-2030-climate-policy-proposals-2017-10-13_en" xr:uid="{70D0D58B-B7F9-45A6-A335-5B8700139411}"/>
+    <hyperlink ref="Q34" r:id="rId1" display="https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16" xr:uid="{505B5FEE-A6F5-47CB-9917-E30704A91A4C}"/>
+    <hyperlink ref="K6" r:id="rId2" display="https://ec.europa.eu/clima/news-your-voice/news/update-preparatory-steps-auctioning-phase-3-allowances-2011-11-25_en" xr:uid="{E0BDB423-56EA-44F0-A54A-0F5B4F2A2147}"/>
+    <hyperlink ref="L6" r:id="rId3" display="https://ec.europa.eu/clima/news-your-voice/news/enhancing-eu-rules-monitoring-greenhouse-gas-emissions-2011-11-23_en" xr:uid="{9BD80364-5CA2-43DB-B2CC-0E03E8DA4A0C}"/>
+    <hyperlink ref="K7" r:id="rId4" display="https://ec.europa.eu/clima/news-your-voice/news/european-commission-adopts-carbon-leakage-list-period-2015-2019-2014-10-27_en" xr:uid="{A6A17CE0-740F-4D5D-B313-5A7D344A91EA}"/>
+    <hyperlink ref="L7" r:id="rId5" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2014-11-04_en" xr:uid="{8247D59B-1565-4720-B464-3B76D4306051}"/>
+    <hyperlink ref="K34" r:id="rId6" display="https://ec.europa.eu/clima/news-your-voice/news/commission-proposes-safeguard-measures-eu-emissions-trading-system-2017-10-24_en" xr:uid="{0DD0FCDC-28E2-41DE-B6F4-45CBD31C5107}"/>
+    <hyperlink ref="K35" r:id="rId7" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2017-11-06_en" xr:uid="{13CCF2E4-4BEB-447B-B73C-69BAB51FDDF4}"/>
+    <hyperlink ref="L35" r:id="rId8" display="https://ec.europa.eu/clima/news-your-voice/news/eu-emissions-trading-system-landmark-agreement-between-parliament-and-council-delivers-eus-2017-11-09_en" xr:uid="{454861F8-3E39-4C29-A4AA-465B15683294}"/>
+    <hyperlink ref="K39" r:id="rId9" display="https://ec.europa.eu/clima/news-your-voice/news/ets-market-stability-reserve-will-start-reducing-auction-volume-almost-265-million-allowances-over-2018-05-15_en" xr:uid="{C721078D-42C8-4E8F-A645-8D1BD1241E6C}"/>
+    <hyperlink ref="K58" r:id="rId10" display="https://ec.europa.eu/clima/news-your-voice/news/emissions-trading-commission-adopts-amendment-ets-auctioning-regulation-2018-10-30_en" xr:uid="{1DA6063C-C717-4DBA-BA11-FA42D50774A1}"/>
+    <hyperlink ref="K60" r:id="rId11" display="https://ec.europa.eu/clima/news-your-voice/news/towards-climate-neutral-europe-eu-invests-over-eu10bn-innovative-clean-technologies-2019-02-26_en" xr:uid="{507015DA-B303-49DD-BE42-8DA9AF07D7DC}"/>
+    <hyperlink ref="K14" r:id="rId12" display="https://ec.europa.eu/clima/news-your-voice/news/towards-climate-neutral-europe-eu-invests-over-eu10bn-innovative-clean-technologies-2019-02-26_en" xr:uid="{F695F6A8-94CC-4324-881A-6C6ADE693EA0}"/>
+    <hyperlink ref="K53" r:id="rId13" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2019-06-19_en" xr:uid="{A71B360B-E82C-443B-A0BC-C4F1B76F9882}"/>
+    <hyperlink ref="L53" r:id="rId14" display="https://ec.europa.eu/clima/news-your-voice/news/polands-2020-auction-volume-include-allowances-not-used-power-sector-modernisation-2019-06-12_en" xr:uid="{415A5C0B-1796-4A12-9A96-39DA2523F414}"/>
+    <hyperlink ref="K45" r:id="rId15" display="https://ec.europa.eu/clima/news-your-voice/news/adoption-regulation-adjustments-free-allocation-emission-allowances-due-activity-level-changes-2019-10-31_en" xr:uid="{F8C2477A-A966-4A33-B989-ABEB3FD073BF}"/>
+    <hyperlink ref="K22" r:id="rId16" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-status-update-new-entrants-reserve-2020-01-15_en" xr:uid="{ABCA4C5C-168F-4911-A05E-3E193BB0607F}"/>
+    <hyperlink ref="K23" r:id="rId17" display="https://ec.europa.eu/clima/news-your-voice/news/2020-revised-auction-calendars-published-2020-07-01_en" xr:uid="{9D566DF6-E071-4458-A5B6-59D0E48FBF3A}"/>
+    <hyperlink ref="K4" r:id="rId18" display="https://ec.europa.eu/clima/news-your-voice/news/draft-implementing-regulation-determining-revised-benchmark-values-period-2021-2025-open-4-week-2020-12-08_en" xr:uid="{19E0304F-6616-473B-A894-D0B7F9DBC892}"/>
+    <hyperlink ref="K67" r:id="rId19" display="https://ec.europa.eu/clima/news-your-voice/news/draft-implementing-regulation-determining-revised-benchmark-values-period-2021-2025-open-4-week-2020-12-08_en" xr:uid="{658F0735-A061-4C52-B67E-F6B04D42BB54}"/>
+    <hyperlink ref="L67" r:id="rId20" display="https://ec.europa.eu/clima/news-your-voice/news/further-information-start-phase-4-eu-ets-2021-emission-allowances-be-issued-aircraft-operators-and-2020-12-11_en" xr:uid="{687C8CA1-0617-4C04-B1E2-3A6EE9FA542A}"/>
+    <hyperlink ref="K46" r:id="rId21" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credits-use-eu-ets-2021-05-25_en" xr:uid="{786141D5-4E60-47E5-868D-0BC2E5D732A1}"/>
+    <hyperlink ref="L46" r:id="rId22" display="https://ec.europa.eu/clima/news-your-voice/news/commission-adopts-uniform-cross-sectoral-correction-factor-be-applied-free-allocation-2021-2025-eu-2021-05-31_en" xr:uid="{727E1C4B-1C90-4B4F-B840-392DA92B4D85}"/>
+    <hyperlink ref="K47" r:id="rId23" display="https://ec.europa.eu/clima/news-your-voice/news/commission-adopts-uniform-cross-sectoral-correction-factor-be-applied-free-allocation-2021-2025-eu-2021-05-31_en" xr:uid="{229EEBB8-9D9F-4092-B53F-78A789BC03EF}"/>
+    <hyperlink ref="K62" r:id="rId24" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-national-allocation-tables-member-states-eu-ets-stationary-installations-2021-06-29_en" xr:uid="{89D453DE-89FB-4B15-9C24-8E5340DED0FD}"/>
+    <hyperlink ref="K68" r:id="rId25" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-national-allocation-tables-member-states-eu-ets-stationary-installations-2021-06-29_en" xr:uid="{E19D2B34-612B-4770-9952-A0724072D571}"/>
+    <hyperlink ref="K25" r:id="rId26" display="https://ec.europa.eu/clima/news-your-voice/news/revised-2022-auction-calendar-general-allowances-published-2022-05-19_en" xr:uid="{D6A0CCD9-573F-4ABD-A090-B97A1BD04FAE}"/>
+    <hyperlink ref="L25" r:id="rId27" display="https://ec.europa.eu/commission/presscorner/detail/en/ip_22_3131" xr:uid="{EBAADABC-FD35-40D8-894F-A1A7B431C0BC}"/>
+    <hyperlink ref="L4" r:id="rId28" display="https://ec.europa.eu/clima/news-your-voice/news/further-information-start-phase-4-eu-ets-2021-emission-allowances-be-issued-aircraft-operators-and-2020-12-11_en" xr:uid="{EDEA86E0-E622-447C-A19C-FB5362C65735}"/>
+    <hyperlink ref="M7" r:id="rId29" display="https://ec.europa.eu/clima/news-your-voice/news/eu-leaders-agree-2030-climate-and-energy-goals-2014-10-24_en" xr:uid="{091C0239-D1B9-4526-BD63-97C9DEA7A648}"/>
+    <hyperlink ref="L23" r:id="rId30" display="https://ec.europa.eu/clima/news-your-voice/news/financing-energy-transition-commission-puts-eu14-billion-fund-modernise-energy-sectors-10-member-2020-07-09_en" xr:uid="{5B8F9CC5-B7D3-4BC4-A650-352814C687BC}"/>
+    <hyperlink ref="M23" r:id="rId31" display="https://ec.europa.eu/clima/news-your-voice/news/boosting-eus-green-recovery-commission-invests-eu-1-billion-innovative-clean-technology-projects-2020-07-03_en" xr:uid="{C0A7BD83-7044-4ED1-818F-46B46744F552}"/>
+    <hyperlink ref="L24" r:id="rId32" display="https://ec.europa.eu/commission/presscorner/detail/en/ip_21_6042" xr:uid="{8854F8D5-0532-4F0E-91C7-60C67286654D}"/>
+    <hyperlink ref="L38" r:id="rId33" display="https://ec.europa.eu/clima/news-your-voice/news/eu-member-states-agree-negotiating-position-key-2030-climate-policy-proposals-2017-10-13_en" xr:uid="{70D0D58B-B7F9-45A6-A335-5B8700139411}"/>
     <hyperlink ref="K40" r:id="rId34" display="https://ec.europa.eu/clima/news-your-voice/news/member-states-emission-reduction-targets-2021-2030-adopted-2018-05-14_en" xr:uid="{26A50BE7-AD06-4B9A-9645-E4391F452CFF}"/>
-    <hyperlink ref="L23" r:id="rId35" display="https://ec.europa.eu/clima/news-your-voice/news/ets-market-stability-reserve-will-start-reducing-auction-volume-almost-265-million-allowances-over-2018-05-15_en" xr:uid="{C9572FEA-0976-472B-AAEC-D5F85E2EE313}"/>
-    <hyperlink ref="K19" r:id="rId36" display="https://ec.europa.eu/clima/news-your-voice/news/eu-and-switzerland-sign-agreement-link-emissions-trading-systems-2017-11-23_en" xr:uid="{D1F584D8-A9E6-4830-B87A-59072962FBDE}"/>
-    <hyperlink ref="L19" r:id="rId37" display="https://ec.europa.eu/clima/news-your-voice/news/un-climate-conference-makes-progress-paris-agreement-implementation-2017-11-18_en" xr:uid="{BEFA94A6-DDF4-4E95-A6FA-BCD766336BF9}"/>
-    <hyperlink ref="M19" r:id="rId38" display="https://ec.europa.eu/clima/news-your-voice/news/eu-emissions-trading-system-landmark-agreement-between-parliament-and-council-delivers-eus-2017-11-09_en" xr:uid="{BE6B9B42-B032-4671-BCB8-5AD6B033B4BC}"/>
-    <hyperlink ref="L21" r:id="rId39" display="https://ec.europa.eu/clima/news-your-voice/news/update-safeguard-measures-eu-emissions-trading-system-2018-following-adoption-uk-law-2018-01-08_en" xr:uid="{60C5A314-1D7C-4699-9335-84B9B95C6199}"/>
+    <hyperlink ref="L39" r:id="rId35" display="https://ec.europa.eu/clima/news-your-voice/news/ets-market-stability-reserve-will-start-reducing-auction-volume-almost-265-million-allowances-over-2018-05-15_en" xr:uid="{C9572FEA-0976-472B-AAEC-D5F85E2EE313}"/>
+    <hyperlink ref="K44" r:id="rId36" display="https://ec.europa.eu/clima/news-your-voice/news/eu-and-switzerland-sign-agreement-link-emissions-trading-systems-2017-11-23_en" xr:uid="{D1F584D8-A9E6-4830-B87A-59072962FBDE}"/>
+    <hyperlink ref="L44" r:id="rId37" display="https://ec.europa.eu/clima/news-your-voice/news/un-climate-conference-makes-progress-paris-agreement-implementation-2017-11-18_en" xr:uid="{BEFA94A6-DDF4-4E95-A6FA-BCD766336BF9}"/>
+    <hyperlink ref="M44" r:id="rId38" display="https://ec.europa.eu/clima/news-your-voice/news/eu-emissions-trading-system-landmark-agreement-between-parliament-and-council-delivers-eus-2017-11-09_en" xr:uid="{BE6B9B42-B032-4671-BCB8-5AD6B033B4BC}"/>
+    <hyperlink ref="L66" r:id="rId39" display="https://ec.europa.eu/clima/news-your-voice/news/update-safeguard-measures-eu-emissions-trading-system-2018-following-adoption-uk-law-2018-01-08_en" xr:uid="{60C5A314-1D7C-4699-9335-84B9B95C6199}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>

--- a/Other data/Coal phase out announcements.xlsx
+++ b/Other data/Coal phase out announcements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive - London School of Economics\Documents\LSE\GY489_Dissertation\LETS GO\Dissertation-Code-Data\Other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF0AA49-FA2B-4295-AD7C-AE8B48371CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED31F893-5F57-4996-9867-0DEAE314B613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Factiva!$A$1:$R$76</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Final!$A$1:$Q$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Final!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Initial!$A$1:$W$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="451">
   <si>
     <t>Country</t>
   </si>
@@ -1354,6 +1354,78 @@
   </si>
   <si>
     <t>Update on safeguard measures for EU Emissions Trading System in 2018 following adoption of UK law (europa.eu)</t>
+  </si>
+  <si>
+    <t>Factiva Leak</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(bulgar*+or+%d0%91%d1%8a%d0%bb%d0%b3%d0%b0%d1%80%d0%b8%d1%8f)+and+(coal+or+lignite+or+%d0%92%d1%8a%d0%b3%d0%bb%d0%b8%d1%89%d0%b0)+and+(2035+or+2038+or+2040+or+leak)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=01012015&amp;dateTo=11102021&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2cbta&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_bta%2cBulgarian+News+Agency&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>Leaks</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(czech*+or+%c4%8cesky+or+%c4%8cesk%c3%a1)+and+(coal+or+lignite+or+Uhl%c3%ad)+and+(2038+or+leak)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=25112015&amp;dateTo=04122020&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2cctk%2cctkdan%2cctkbun&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_ctk%2cCTK+Business+News+(Czech+Republic)%3bsc_u_ctkdan%2cCTK+Daily+News+(Czech+Republic)%3bsc_u_ctkbun%2cCTK+Business+News+(Czech+Republic%2c+Czech+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>16 Oct 2020 (not clear when exactly); 2038 expected</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(czech*+or+%c4%8cesky+or+%c4%8cesk%c3%a1)+and+(coal+or+lignite+or+Uhl%c3%ad)+and+(2033+or+leak)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=04122020&amp;dateTo=07012022&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2cctk%2cctkdan%2cctkbun&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_ctk%2cCTK+Business+News+(Czech+Republic)%3bsc_u_ctkdan%2cCTK+Daily+News+(Czech+Republic)%3bsc_u_ctkbun%2cCTK+Business+News+(Czech+Republic%2c+Czech+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>30 Jan 2021 (one minister demands 2033)</t>
+  </si>
+  <si>
+    <t>24 May 2021: gvmt acknowledges 2038</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(finland+or+suomi)+and+(coal+or+lignite+or+kivihiili+or+ruskohiili)+and+(2030+or+leak)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=20082014&amp;dateTo=31082017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfstt&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfstt%2cSTT+(Finland)+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(germany+or+deutschland)+and+(coal+or+lignite+or+kohle+or+braunkohle)+and+(2038+or+leak)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=16012016&amp;dateTo=26012019&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfdis&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfdis%2cdpa+International+Service+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(greece+or+%ce%95%ce%bb%ce%bb%ce%ac%ce%b4%ce%b1)+and+(coal+or+lignite+or+%ce%93%ce%b1%ce%b9%ce%ac%ce%bd%ce%b8%cf%81%ce%b1%ce%ba%ce%b1%cf%82)+and+(2028+or+leak)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=13092015&amp;dateTo=03102019&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2cana&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_ana%2cAthens+News+Agency&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(greece+or+%ce%95%ce%bb%ce%bb%ce%ac%ce%b4%ce%b1)+and+(coal+or+lignite+or+%ce%93%ce%b1%ce%b9%ce%ac%ce%bd%ce%b8%cf%81%ce%b1%ce%ba%ce%b1%cf%82+or+%ce%bb%ce%b9%ce%b3%ce%bd%ce%af%cf%84%ce%b7%cf%82)+and+(2025+or+leak)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=16042019&amp;dateTo=06052021&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2cana&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_ana%2cAthens+News+Agency&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(hungary+or+magyarorsz%c3%a1g)+and+(coal+or+lignite+or+sz%c3%a9n+or+K%c5%91sz%c3%a9n+or+lignit)+and+(2030+or+leak)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=10112015&amp;dateTo=30112018&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2cmtie%2cmtidb%2cmtieco&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_mtie%2cMTI+-+EcoNews+(Hungary)%3bsc_u_mtidb%2cMTI+Daily+Bulletin+-+News+in+English%3bsc_u_mtieco%2cMTI-Eco+(Hungary%2c+Hungarian+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(spain+or+Espa%c3%b1a)+and+(coal+or+lignite+or+carb%c3%b3n+or+lignito)+and+(2030+or+leak)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=15112017&amp;dateTo=15112018&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfagefe%2csfeuac&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfagefe%2cAgencia+EFE+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(2025+or+leak)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102016&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>10 May 2017: 2025-2030 possible</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(netherlands+or+nederland)+and+(coal+or+lignite+or+steenkool+or+bruinkool)+and+(2030+or+leak)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=10102015&amp;dateTo=10102017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa%2canpbin%2canpbui%2canpeco&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources%3bsc_u_anpbin%2cANP+Binnenland+(Netherlands%2c+Dutch+Language)%3bsc_u_anpbui%2cANP+Buitenland+(Netherlands%2c+Dutch+Language)%3bsc_u_anpeco%2cANP+Economie+(Netherlands%2c+Dutch+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(portugal+or+xxxx)+and+(coal+or+lignite+or+carv%c3%a3o+or+xxxxxx)+and+(2030+or+leak)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=05112015&amp;dateTo=25112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2clusa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_lusa%2cAg%c3%aancia+Lusa+(Portugal%2c+Portuguese+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>29 Nov 2016: believed that 2030 possible</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(portugal+or+xxxx)+and+(coal+or+lignite+or+carv%c3%a3o+or+xxxxxx)+and+(2023+or+leak)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=01112017&amp;dateTo=30102019&amp;sortBy=y&amp;currentSources=U%7csfreut%2csfeuac%2clusa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_lusa%2cAg%c3%aancia+Lusa+(Portugal%2c+Portuguese+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(romania+or+rom%c3%a2nia)+and+(coal+or+lignite+or+c%c4%83rbune)+and+(2032+or+leak)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=07042019&amp;dateTo=13062021&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2crompes&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_rompes%2cAGERPRES+(Romania)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(slovakia+or+Slovensko)+and+(coal+or+lignite+or+uhlie+or+xxxx)+and+(2023+or+leak)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=01062017&amp;dateTo=10072019&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2ctasr%2cslovag&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_tasr%2cTASR+-+Tlacova+Agentura+Slovenskej+Republiky%3bsc_u_slovag%2cTASR+-+Tlacova+Agentura+Slovenskej+Republiky+(Slovak+Language)&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>22 Dec 2017: 2023 eyed at</t>
+  </si>
+  <si>
+    <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(%22united+kingdom%22+or+uk+or+xxxx)+and+(coal+or+lignite+or+xxxxxx+or+xxxxxxx)+and+(2025+or+leak)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=08112014&amp;dateTo=28112015&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfft%2csfbbc&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfft%2cFinancial+Times+(Available+through+Third+Party+Subscription+Services)+-+All+sources%3bsc_u_sfbbc%2cBBC+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1485,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1450,6 +1522,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1464,7 +1542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1503,6 +1581,7 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3827,13 +3906,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CCC5DF-E81D-45C6-92D8-92AE6A0AD22C}">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3846,12 +3925,12 @@
     <col min="8" max="8" width="22.3984375" customWidth="1"/>
     <col min="9" max="12" width="25.1328125" customWidth="1"/>
     <col min="14" max="14" width="10.73046875" customWidth="1"/>
-    <col min="15" max="15" width="21.1328125" customWidth="1"/>
-    <col min="16" max="16" width="49.73046875" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" customWidth="1"/>
+    <col min="15" max="16" width="21.1328125" customWidth="1"/>
+    <col min="17" max="17" width="49.73046875" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3898,13 +3977,19 @@
         <v>226</v>
       </c>
       <c r="P1" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="S1" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -3944,14 +4029,20 @@
       <c r="O2" t="s">
         <v>153</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="26">
+        <v>44466</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="S2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -3989,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -4026,11 +4117,20 @@
       <c r="N4">
         <v>1</v>
       </c>
+      <c r="P4" t="s">
+        <v>431</v>
+      </c>
       <c r="Q4" t="s">
+        <v>434</v>
+      </c>
+      <c r="R4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="S4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -4055,11 +4155,17 @@
       <c r="N5" t="s">
         <v>298</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="P5" t="s">
+        <v>433</v>
+      </c>
+      <c r="R5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="S5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -4087,14 +4193,14 @@
       <c r="N6" t="s">
         <v>49</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>307</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -4131,14 +4237,14 @@
       <c r="N7" t="s">
         <v>298</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -4163,11 +4269,11 @@
       <c r="N8" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -4189,11 +4295,11 @@
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -4218,14 +4324,14 @@
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -4253,14 +4359,17 @@
       <c r="N11" t="s">
         <v>49</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>283</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="S11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -4285,11 +4394,11 @@
       <c r="N12" t="s">
         <v>49</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4317,11 +4426,11 @@
       <c r="N13" t="s">
         <v>49</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -4349,11 +4458,11 @@
       <c r="N14" t="s">
         <v>287</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -4387,14 +4496,14 @@
       <c r="N15" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -4416,12 +4525,12 @@
       <c r="K16" t="s">
         <v>259</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" t="s">
+      <c r="Q16" s="4"/>
+      <c r="R16" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -4443,12 +4552,12 @@
       <c r="K17" t="s">
         <v>258</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" t="s">
+      <c r="Q17" s="4"/>
+      <c r="R17" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -4473,11 +4582,11 @@
       <c r="N18" t="s">
         <v>285</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -4502,12 +4611,12 @@
       <c r="K19" t="s">
         <v>259</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" t="s">
+      <c r="Q19" s="4"/>
+      <c r="R19" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -4538,12 +4647,15 @@
       <c r="N20">
         <v>1</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" t="s">
+      <c r="Q20" s="4"/>
+      <c r="R20" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="S20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -4566,7 +4678,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -4594,12 +4706,12 @@
       <c r="O22" t="s">
         <v>290</v>
       </c>
-      <c r="P22" s="4"/>
-      <c r="Q22" t="s">
+      <c r="Q22" s="4"/>
+      <c r="R22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -4630,12 +4742,12 @@
       <c r="N23" t="s">
         <v>287</v>
       </c>
-      <c r="P23" s="4"/>
-      <c r="Q23" t="s">
+      <c r="Q23" s="4"/>
+      <c r="R23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -4666,14 +4778,14 @@
       <c r="N24" t="s">
         <v>289</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="Q24" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -4699,7 +4811,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -4727,11 +4839,11 @@
       <c r="N26" t="s">
         <v>291</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -4759,14 +4871,17 @@
       <c r="N27" t="s">
         <v>300</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="Q27" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="S27" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -4794,14 +4909,17 @@
       <c r="N28" t="s">
         <v>298</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>150</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="S28" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -4823,11 +4941,11 @@
       <c r="N29" t="s">
         <v>298</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -4844,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -4869,11 +4987,11 @@
       <c r="N31" t="s">
         <v>52</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -4907,14 +5025,17 @@
       <c r="N32" t="s">
         <v>300</v>
       </c>
-      <c r="P32" s="4" t="s">
+      <c r="Q32" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="S32" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -4942,11 +5063,11 @@
       <c r="N33" t="s">
         <v>52</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -4971,11 +5092,17 @@
       <c r="N34" t="s">
         <v>300</v>
       </c>
-      <c r="Q34" s="13" t="s">
+      <c r="P34" t="s">
+        <v>442</v>
+      </c>
+      <c r="R34" s="13" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="S34" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -5006,11 +5133,11 @@
       <c r="N35" t="s">
         <v>52</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -5030,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -5052,11 +5179,11 @@
       <c r="N37" t="s">
         <v>49</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -5090,8 +5217,11 @@
       <c r="O38" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="S38" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -5116,11 +5246,11 @@
       <c r="N39" t="s">
         <v>305</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -5139,11 +5269,11 @@
       <c r="N40">
         <v>0</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -5153,11 +5283,11 @@
       <c r="N41">
         <v>0</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A42" s="20" t="s">
         <v>82</v>
       </c>
@@ -5188,11 +5318,11 @@
       <c r="N42" t="s">
         <v>49</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -5220,14 +5350,20 @@
       <c r="N43">
         <v>0</v>
       </c>
-      <c r="P43" s="4" t="s">
+      <c r="P43" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q43" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="S43" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -5267,14 +5403,14 @@
       <c r="N44" t="s">
         <v>300</v>
       </c>
-      <c r="P44" s="4" t="s">
+      <c r="Q44" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -5299,11 +5435,14 @@
       <c r="N45" t="s">
         <v>298</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="S45" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -5331,11 +5470,11 @@
       <c r="N46" t="s">
         <v>285</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -5360,12 +5499,15 @@
       <c r="N47" t="s">
         <v>311</v>
       </c>
-      <c r="P47" s="4"/>
-      <c r="Q47" t="s">
+      <c r="Q47" s="4"/>
+      <c r="R47" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="S47" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -5387,11 +5529,11 @@
       <c r="K48" t="s">
         <v>258</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -5407,12 +5549,12 @@
       <c r="N49">
         <v>0</v>
       </c>
-      <c r="P49" s="4"/>
-      <c r="Q49" t="s">
+      <c r="Q49" s="4"/>
+      <c r="R49" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -5431,12 +5573,12 @@
       <c r="N50">
         <v>0</v>
       </c>
-      <c r="P50" s="4"/>
-      <c r="Q50" t="s">
+      <c r="Q50" s="4"/>
+      <c r="R50" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -5461,12 +5603,12 @@
       <c r="K51" t="s">
         <v>259</v>
       </c>
-      <c r="P51" s="4"/>
-      <c r="Q51" t="s">
+      <c r="Q51" s="4"/>
+      <c r="R51" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -5488,11 +5630,11 @@
       <c r="N52">
         <v>0</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -5521,13 +5663,19 @@
         <v>315</v>
       </c>
       <c r="P53" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q53" t="s">
         <v>314</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="R53" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="S53" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -5552,11 +5700,11 @@
       <c r="N54" t="s">
         <v>49</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -5575,14 +5723,14 @@
       <c r="N55">
         <v>0</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>224</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -5613,14 +5761,14 @@
       <c r="N56" t="s">
         <v>51</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>318</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -5630,11 +5778,11 @@
       <c r="N57">
         <v>0</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:19" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -5653,11 +5801,11 @@
       <c r="K58" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="P58" s="4" t="s">
+      <c r="Q58" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -5685,14 +5833,17 @@
       <c r="N59" t="s">
         <v>323</v>
       </c>
-      <c r="P59" s="4" t="s">
+      <c r="Q59" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="S59" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -5717,11 +5868,11 @@
       <c r="K60" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -5740,11 +5891,11 @@
       <c r="N61">
         <v>0</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -5763,11 +5914,11 @@
       <c r="N62">
         <v>0</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="R62" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -5792,11 +5943,11 @@
       <c r="N63" t="s">
         <v>285</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="R63" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -5821,11 +5972,14 @@
       <c r="N64" t="s">
         <v>328</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="S64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -5850,11 +6004,11 @@
       <c r="N65" t="s">
         <v>52</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="R65" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -5882,11 +6036,11 @@
       <c r="N66" t="s">
         <v>331</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -5914,14 +6068,14 @@
       <c r="N67" t="s">
         <v>334</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>335</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="R67" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -5940,18 +6094,18 @@
       <c r="N68">
         <v>0</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68" t="s">
         <v>193</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q68" xr:uid="{3D652218-3B78-4CB0-BA25-8DE344561C19}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q68">
-      <sortCondition ref="A1:A68"/>
+  <autoFilter ref="A1:S1" xr:uid="{D2CCC5DF-E81D-45C6-92D8-92AE6A0AD22C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S68">
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="Q34" r:id="rId1" display="https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16" xr:uid="{505B5FEE-A6F5-47CB-9917-E30704A91A4C}"/>
+    <hyperlink ref="R34" r:id="rId1" display="https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16" xr:uid="{505B5FEE-A6F5-47CB-9917-E30704A91A4C}"/>
     <hyperlink ref="K6" r:id="rId2" display="https://ec.europa.eu/clima/news-your-voice/news/update-preparatory-steps-auctioning-phase-3-allowances-2011-11-25_en" xr:uid="{E0BDB423-56EA-44F0-A54A-0F5B4F2A2147}"/>
     <hyperlink ref="L6" r:id="rId3" display="https://ec.europa.eu/clima/news-your-voice/news/enhancing-eu-rules-monitoring-greenhouse-gas-emissions-2011-11-23_en" xr:uid="{9BD80364-5CA2-43DB-B2CC-0E03E8DA4A0C}"/>
     <hyperlink ref="K7" r:id="rId4" display="https://ec.europa.eu/clima/news-your-voice/news/european-commission-adopts-carbon-leakage-list-period-2015-2019-2014-10-27_en" xr:uid="{A6A17CE0-740F-4D5D-B313-5A7D344A91EA}"/>

--- a/Other data/Coal phase out announcements.xlsx
+++ b/Other data/Coal phase out announcements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive - London School of Economics\Documents\LSE\GY489_Dissertation\LETS GO\Dissertation-Code-Data\Other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED31F893-5F57-4996-9867-0DEAE314B613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6465F57A-C621-4D4D-AB83-47E5867B9B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="453">
   <si>
     <t>Country</t>
   </si>
@@ -1426,6 +1426,12 @@
   </si>
   <si>
     <t>https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(%22united+kingdom%22+or+uk+or+xxxx)+and+(coal+or+lignite+or+xxxxxx+or+xxxxxxx)+and+(2025+or+leak)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=08112014&amp;dateTo=28112015&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfft%2csfbbc&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfft%2cFinancial+Times+(Available+through+Third+Party+Subscription+Services)+-+All+sources%3bsc_u_sfbbc%2cBBC+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16</t>
+  </si>
+  <si>
+    <t>cancellation not mentioned in leaked draft</t>
+  </si>
+  <si>
+    <t>Five beneficiary Member States opt to transfer additional allowances to the Modernisation Fund (europa.eu)</t>
   </si>
 </sst>
 </file>
@@ -3906,19 +3912,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CCC5DF-E81D-45C6-92D8-92AE6A0AD22C}">
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.06640625" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="36.73046875" style="4" customWidth="1"/>
     <col min="5" max="7" width="21.46484375" customWidth="1"/>
@@ -4660,69 +4666,47 @@
         <v>61</v>
       </c>
       <c r="B21" s="21">
-        <v>43808</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
+        <v>43781</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="H21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" t="s">
-        <v>412</v>
-      </c>
-      <c r="K21" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+        <v>451</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="10">
-        <v>43846</v>
+      <c r="B22" s="21">
+        <v>43808</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22">
-        <v>2038</v>
+        <v>343</v>
       </c>
       <c r="H22" t="s">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>231</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="N22" t="s">
-        <v>52</v>
-      </c>
-      <c r="O22" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q22" s="4"/>
-      <c r="R22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+        <v>412</v>
+      </c>
+      <c r="K22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="21">
-        <v>44015</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
+      <c r="B23" s="10">
+        <v>43846</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E23">
         <v>2038</v>
@@ -4730,21 +4714,21 @@
       <c r="H23" t="s">
         <v>258</v>
       </c>
+      <c r="I23" t="s">
+        <v>231</v>
+      </c>
       <c r="K23" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>414</v>
+        <v>268</v>
       </c>
       <c r="N23" t="s">
-        <v>287</v>
+        <v>52</v>
+      </c>
+      <c r="O23" t="s">
+        <v>290</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
@@ -4752,133 +4736,131 @@
         <v>61</v>
       </c>
       <c r="B24" s="21">
-        <v>44484</v>
-      </c>
-      <c r="C24" t="s">
-        <v>295</v>
+        <v>44015</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E24">
-        <v>2030</v>
+        <v>2038</v>
       </c>
       <c r="H24" t="s">
         <v>258</v>
       </c>
-      <c r="J24" t="s">
-        <v>416</v>
-      </c>
-      <c r="K24" t="s">
-        <v>259</v>
+      <c r="K24" s="13" t="s">
+        <v>269</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>414</v>
       </c>
       <c r="N24" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>288</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="Q24" s="4"/>
       <c r="R24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="12">
-        <v>44705</v>
+      <c r="B25" s="21">
+        <v>44484</v>
+      </c>
+      <c r="C25" t="s">
+        <v>295</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="E25">
+        <v>2030</v>
       </c>
       <c r="H25" t="s">
         <v>258</v>
       </c>
-      <c r="I25" t="s">
-        <v>418</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>275</v>
+      <c r="J25" t="s">
+        <v>416</v>
+      </c>
+      <c r="K25" t="s">
+        <v>259</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>276</v>
+        <v>415</v>
       </c>
       <c r="N25" t="s">
-        <v>286</v>
+        <v>289</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="R25" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="21">
-        <v>44732</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
+      <c r="B26" s="12">
+        <v>44705</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H26" t="s">
         <v>258</v>
       </c>
       <c r="I26" t="s">
-        <v>292</v>
-      </c>
-      <c r="J26" t="s">
-        <v>417</v>
-      </c>
-      <c r="K26" t="s">
-        <v>259</v>
+        <v>418</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>276</v>
       </c>
       <c r="N26" t="s">
-        <v>291</v>
-      </c>
-      <c r="R26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="23">
-        <v>43731</v>
+        <v>61</v>
+      </c>
+      <c r="B27" s="21">
+        <v>44732</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27">
-        <v>2028</v>
+        <v>145</v>
       </c>
       <c r="H27" t="s">
         <v>258</v>
       </c>
       <c r="I27" t="s">
-        <v>229</v>
+        <v>292</v>
+      </c>
+      <c r="J27" t="s">
+        <v>417</v>
       </c>
       <c r="K27" t="s">
         <v>259</v>
       </c>
       <c r="N27" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>166</v>
+        <v>291</v>
       </c>
       <c r="R27" t="s">
-        <v>165</v>
-      </c>
-      <c r="S27" t="s">
-        <v>437</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
@@ -4886,54 +4868,60 @@
         <v>53</v>
       </c>
       <c r="B28" s="23">
-        <v>44312</v>
+        <v>43731</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>349</v>
+        <v>147</v>
       </c>
       <c r="E28">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="H28" t="s">
         <v>258</v>
       </c>
       <c r="I28" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="K28" t="s">
         <v>259</v>
       </c>
       <c r="N28" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>150</v>
+        <v>300</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="R28" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="S28" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="23">
-        <v>44462</v>
+        <v>44312</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>299</v>
+        <v>349</v>
+      </c>
+      <c r="E29">
+        <v>2025</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>258</v>
+      </c>
+      <c r="I29" t="s">
+        <v>297</v>
       </c>
       <c r="K29" t="s">
         <v>259</v>
@@ -4941,179 +4929,173 @@
       <c r="N29" t="s">
         <v>298</v>
       </c>
+      <c r="Q29" t="s">
+        <v>150</v>
+      </c>
       <c r="R29" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="S29" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="12">
-        <v>44530</v>
+      <c r="B30" s="23">
+        <v>44462</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="H30" t="s">
         <v>52</v>
       </c>
       <c r="K30" t="s">
-        <v>258</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
+        <v>259</v>
+      </c>
+      <c r="N30" t="s">
+        <v>298</v>
+      </c>
+      <c r="R30" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="12">
+        <v>44530</v>
+      </c>
+      <c r="H31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" t="s">
+        <v>258</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="10">
         <v>44657</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>0</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>2028</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" t="s">
         <v>258</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K32" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N32" t="s">
         <v>52</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q32" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="23">
-        <v>43424</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E32">
-        <v>2030</v>
-      </c>
-      <c r="F32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" t="s">
-        <v>419</v>
-      </c>
-      <c r="K32" t="s">
-        <v>259</v>
-      </c>
-      <c r="N32" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R32" t="s">
-        <v>207</v>
-      </c>
-      <c r="S32" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="10">
-        <v>43731</v>
+      <c r="B33" s="23">
+        <v>43424</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="E33">
         <v>2030</v>
       </c>
+      <c r="F33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
       <c r="H33" t="s">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="I33" t="s">
-        <v>252</v>
+        <v>419</v>
       </c>
       <c r="K33" t="s">
         <v>259</v>
       </c>
       <c r="N33" t="s">
-        <v>52</v>
+        <v>300</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="R33" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+      <c r="S33" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="22">
-        <v>43032</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="10">
+        <v>43731</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="E34">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="H34" t="s">
         <v>258</v>
       </c>
-      <c r="J34" t="s">
-        <v>420</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>260</v>
+      <c r="I34" t="s">
+        <v>252</v>
+      </c>
+      <c r="K34" t="s">
+        <v>259</v>
       </c>
       <c r="N34" t="s">
-        <v>300</v>
-      </c>
-      <c r="P34" t="s">
-        <v>442</v>
-      </c>
-      <c r="R34" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="S34" t="s">
-        <v>441</v>
+        <v>52</v>
+      </c>
+      <c r="R34" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="7">
-        <v>43049</v>
+      <c r="B35" s="22">
+        <v>43032</v>
       </c>
       <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>169</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>2025</v>
@@ -5121,263 +5103,254 @@
       <c r="H35" t="s">
         <v>258</v>
       </c>
-      <c r="I35" t="s">
-        <v>408</v>
+      <c r="J35" t="s">
+        <v>420</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N35" t="s">
-        <v>52</v>
-      </c>
-      <c r="R35" t="s">
-        <v>170</v>
+        <v>300</v>
+      </c>
+      <c r="P35" t="s">
+        <v>442</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="S35" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="12">
-        <v>43731</v>
+      <c r="B36" s="7">
+        <v>43049</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36">
+        <v>2025</v>
       </c>
       <c r="H36" t="s">
         <v>258</v>
       </c>
       <c r="I36" t="s">
-        <v>230</v>
-      </c>
-      <c r="K36" t="s">
-        <v>259</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
+        <v>408</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="N36" t="s">
+        <v>52</v>
+      </c>
+      <c r="R36" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="23">
-        <v>42636</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>303</v>
+        <v>19</v>
+      </c>
+      <c r="B37" s="12">
+        <v>43731</v>
       </c>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>258</v>
+      </c>
+      <c r="I37" t="s">
+        <v>230</v>
       </c>
       <c r="K37" t="s">
         <v>259</v>
       </c>
-      <c r="N37" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="22">
-        <v>43018</v>
+      <c r="B38" s="23">
+        <v>42636</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E38">
-        <v>2030</v>
+        <v>303</v>
       </c>
       <c r="H38" t="s">
-        <v>258</v>
-      </c>
-      <c r="J38" t="s">
-        <v>422</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s">
         <v>259</v>
       </c>
-      <c r="L38" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38" t="s">
-        <v>350</v>
-      </c>
-      <c r="S38" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="N38" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="23">
-        <v>43238</v>
+      <c r="B39" s="22">
+        <v>43018</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
+      </c>
+      <c r="E39">
+        <v>2030</v>
       </c>
       <c r="H39" t="s">
         <v>258</v>
       </c>
-      <c r="K39" s="13" t="s">
-        <v>262</v>
+      <c r="J39" t="s">
+        <v>422</v>
+      </c>
+      <c r="K39" t="s">
+        <v>259</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="N39" t="s">
-        <v>305</v>
-      </c>
-      <c r="R39" t="s">
-        <v>180</v>
+        <v>421</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>350</v>
+      </c>
+      <c r="S39" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="12">
-        <v>43802</v>
+      <c r="B40" s="23">
+        <v>43238</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>171</v>
+        <v>262</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="N40" t="s">
+        <v>305</v>
+      </c>
+      <c r="R40" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>173</v>
+      <c r="B41" s="12">
+        <v>43802</v>
+      </c>
+      <c r="H41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" t="s">
+        <v>250</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>423</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
-      <c r="R41" t="s">
+      <c r="Q41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="R42" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A42" s="20" t="s">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A43" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B43" s="21">
         <v>44099</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>1</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <v>2049</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <v>30.2</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>104</v>
-      </c>
-      <c r="H42" t="s">
-        <v>258</v>
-      </c>
-      <c r="K42" t="s">
-        <v>259</v>
-      </c>
-      <c r="N42" t="s">
-        <v>49</v>
-      </c>
-      <c r="R42" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="12">
-        <v>43055</v>
-      </c>
-      <c r="C43" t="s">
-        <v>211</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43">
-        <v>12</v>
       </c>
       <c r="H43" t="s">
         <v>258</v>
       </c>
-      <c r="I43" t="s">
-        <v>249</v>
-      </c>
       <c r="K43" t="s">
-        <v>258</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>134</v>
+        <v>259</v>
+      </c>
+      <c r="N43" t="s">
+        <v>49</v>
       </c>
       <c r="R43" t="s">
-        <v>212</v>
-      </c>
-      <c r="S43" t="s">
-        <v>444</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="12">
         <v>43055</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>309</v>
-      </c>
-      <c r="E44" s="4">
-        <v>2030</v>
+      <c r="C44" t="s">
+        <v>211</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -5389,25 +5362,25 @@
         <v>258</v>
       </c>
       <c r="I44" t="s">
-        <v>138</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="M44" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="N44" t="s">
-        <v>300</v>
+        <v>249</v>
+      </c>
+      <c r="K44" t="s">
+        <v>258</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="s">
+        <v>445</v>
       </c>
       <c r="Q44" s="4" t="s">
         <v>134</v>
       </c>
       <c r="R44" t="s">
         <v>212</v>
+      </c>
+      <c r="S44" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
@@ -5415,77 +5388,92 @@
         <v>42</v>
       </c>
       <c r="B45" s="23">
-        <v>43764</v>
-      </c>
-      <c r="C45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E45">
-        <v>2023</v>
+        <v>43055</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>309</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2030</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>12</v>
       </c>
       <c r="H45" t="s">
         <v>258</v>
       </c>
+      <c r="I45" t="s">
+        <v>138</v>
+      </c>
       <c r="K45" s="13" t="s">
-        <v>267</v>
+        <v>424</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>261</v>
       </c>
       <c r="N45" t="s">
-        <v>298</v>
+        <v>300</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="R45" t="s">
-        <v>213</v>
-      </c>
-      <c r="S45" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B46" s="23">
-        <v>44342</v>
+        <v>43764</v>
       </c>
       <c r="C46" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>176</v>
+        <v>308</v>
       </c>
       <c r="E46">
-        <v>2032</v>
+        <v>2023</v>
       </c>
       <c r="H46" t="s">
         <v>258</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="N46" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="R46" t="s">
-        <v>175</v>
+        <v>213</v>
+      </c>
+      <c r="S46" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="21">
-        <v>44350</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
+      <c r="B47" s="23">
+        <v>44342</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>310</v>
+        <v>176</v>
       </c>
       <c r="E47">
         <v>2032</v>
@@ -5494,75 +5482,83 @@
         <v>258</v>
       </c>
       <c r="K47" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L47" s="13" t="s">
         <v>273</v>
       </c>
       <c r="N47" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q47" s="4"/>
+        <v>285</v>
+      </c>
       <c r="R47" t="s">
         <v>175</v>
-      </c>
-      <c r="S47" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="23">
-        <v>44469</v>
-      </c>
-      <c r="C48" t="s">
-        <v>52</v>
+      <c r="B48" s="21">
+        <v>44350</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E48">
         <v>2032</v>
       </c>
       <c r="H48" t="s">
-        <v>50</v>
-      </c>
-      <c r="K48" t="s">
         <v>258</v>
       </c>
-      <c r="Q48" t="s">
-        <v>174</v>
+      <c r="K48" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="N48" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q48" s="4"/>
+      <c r="R48" t="s">
+        <v>175</v>
+      </c>
+      <c r="S48" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="12">
-        <v>44712</v>
+      <c r="B49" s="23">
+        <v>44469</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E49">
+        <v>2032</v>
       </c>
       <c r="H49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K49" t="s">
         <v>258</v>
       </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="4"/>
-      <c r="R49" t="s">
-        <v>177</v>
+      <c r="Q49" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B50" s="12">
-        <v>43091</v>
-      </c>
-      <c r="C50" t="s">
-        <v>215</v>
+        <v>44712</v>
       </c>
       <c r="H50" t="s">
         <v>52</v>
@@ -5575,286 +5571,272 @@
       </c>
       <c r="Q50" s="4"/>
       <c r="R50" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="23">
-        <v>43423</v>
-      </c>
-      <c r="C51">
+      <c r="B51" s="12">
+        <v>43091</v>
+      </c>
+      <c r="C51" t="s">
+        <v>215</v>
+      </c>
+      <c r="H51" t="s">
+        <v>52</v>
+      </c>
+      <c r="K51" t="s">
+        <v>258</v>
+      </c>
+      <c r="N51">
         <v>0</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="E51">
-        <v>2023</v>
-      </c>
-      <c r="H51" t="s">
-        <v>258</v>
-      </c>
-      <c r="I51" t="s">
-        <v>340</v>
-      </c>
-      <c r="K51" t="s">
-        <v>259</v>
       </c>
       <c r="Q51" s="4"/>
       <c r="R51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="12">
-        <v>43497</v>
-      </c>
-      <c r="F52">
-        <v>0.7</v>
-      </c>
-      <c r="G52">
-        <v>3</v>
+      <c r="B52" s="23">
+        <v>43423</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E52">
+        <v>2023</v>
       </c>
       <c r="H52" t="s">
-        <v>52</v>
+        <v>258</v>
+      </c>
+      <c r="I52" t="s">
+        <v>340</v>
       </c>
       <c r="K52" t="s">
-        <v>258</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="Q52" s="4"/>
       <c r="R52" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="23">
-        <v>43634</v>
-      </c>
-      <c r="C53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" t="s">
-        <v>220</v>
-      </c>
-      <c r="E53">
-        <v>2023</v>
+      <c r="B53" s="12">
+        <v>43497</v>
+      </c>
+      <c r="F53">
+        <v>0.7</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
       </c>
       <c r="H53" t="s">
+        <v>52</v>
+      </c>
+      <c r="K53" t="s">
         <v>258</v>
       </c>
-      <c r="K53" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="L53" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="N53" t="s">
-        <v>315</v>
-      </c>
-      <c r="P53" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>314</v>
+      <c r="N53">
+        <v>0</v>
       </c>
       <c r="R53" t="s">
-        <v>219</v>
-      </c>
-      <c r="S53" t="s">
-        <v>448</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B54" s="23">
-        <v>44270</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
+        <v>43634</v>
+      </c>
+      <c r="C54" t="s">
+        <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>321</v>
+        <v>220</v>
       </c>
       <c r="E54">
-        <v>2033</v>
+        <v>2023</v>
       </c>
       <c r="H54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K54" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>266</v>
       </c>
       <c r="N54" t="s">
-        <v>49</v>
+        <v>315</v>
+      </c>
+      <c r="P54" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>314</v>
       </c>
       <c r="R54" t="s">
-        <v>320</v>
+        <v>219</v>
+      </c>
+      <c r="S54" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="24">
-        <v>44502</v>
+      <c r="B55" s="23">
+        <v>44270</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>321</v>
+      </c>
+      <c r="E55">
+        <v>2033</v>
       </c>
       <c r="H55" t="s">
         <v>52</v>
       </c>
-      <c r="I55" t="s">
-        <v>251</v>
-      </c>
       <c r="K55" t="s">
         <v>259</v>
       </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>224</v>
+      <c r="N55" t="s">
+        <v>49</v>
       </c>
       <c r="R55" t="s">
-        <v>223</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="23">
-        <v>44574</v>
-      </c>
-      <c r="C56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E56">
-        <v>2033</v>
-      </c>
-      <c r="F56">
-        <v>1.5</v>
-      </c>
-      <c r="G56">
-        <v>5</v>
+      <c r="B56" s="24">
+        <v>44502</v>
       </c>
       <c r="H56" t="s">
-        <v>258</v>
+        <v>52</v>
+      </c>
+      <c r="I56" t="s">
+        <v>251</v>
       </c>
       <c r="K56" t="s">
         <v>259</v>
       </c>
-      <c r="N56" t="s">
-        <v>51</v>
+      <c r="N56">
+        <v>0</v>
       </c>
       <c r="Q56" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="R56" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="23">
+        <v>44574</v>
+      </c>
+      <c r="C57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E57">
+        <v>2033</v>
+      </c>
+      <c r="F57">
+        <v>1.5</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57" t="s">
+        <v>258</v>
+      </c>
+      <c r="K57" t="s">
+        <v>259</v>
+      </c>
+      <c r="N57" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>318</v>
+      </c>
+      <c r="R57" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="N57">
+      <c r="N58">
         <v>0</v>
       </c>
-      <c r="R57" t="s">
+      <c r="R58" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="23">
-        <v>43397</v>
-      </c>
-      <c r="C58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="H58" t="s">
-        <v>258</v>
-      </c>
-      <c r="K58" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q58" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:19" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>69</v>
       </c>
       <c r="B59" s="23">
-        <v>43419</v>
+        <v>43397</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="E59">
-        <v>2030</v>
+        <v>322</v>
       </c>
       <c r="H59" t="s">
         <v>258</v>
       </c>
-      <c r="I59" t="s">
-        <v>339</v>
-      </c>
-      <c r="K59" t="s">
-        <v>259</v>
-      </c>
-      <c r="N59" t="s">
-        <v>323</v>
+      <c r="K59" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="R59" t="s">
-        <v>182</v>
-      </c>
-      <c r="S59" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="42.75" x14ac:dyDescent="0.45">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>69</v>
       </c>
       <c r="B60" s="23">
-        <v>43518</v>
+        <v>43419</v>
       </c>
       <c r="C60" t="s">
         <v>49</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E60">
         <v>2030</v>
@@ -5863,36 +5845,51 @@
         <v>258</v>
       </c>
       <c r="I60" t="s">
-        <v>227</v>
-      </c>
-      <c r="K60" s="13" t="s">
-        <v>264</v>
+        <v>339</v>
+      </c>
+      <c r="K60" t="s">
+        <v>259</v>
+      </c>
+      <c r="N60" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="R60" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+      <c r="S60" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="12">
-        <v>43850</v>
+      <c r="B61" s="23">
+        <v>43518</v>
+      </c>
+      <c r="C61" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E61">
+        <v>2030</v>
       </c>
       <c r="H61" t="s">
-        <v>52</v>
+        <v>258</v>
       </c>
       <c r="I61" t="s">
-        <v>232</v>
-      </c>
-      <c r="K61" t="s">
-        <v>258</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
+        <v>227</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>264</v>
       </c>
       <c r="R61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.45">
@@ -5900,97 +5897,88 @@
         <v>69</v>
       </c>
       <c r="B62" s="12">
-        <v>44377</v>
+        <v>43850</v>
       </c>
       <c r="H62" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" t="s">
+        <v>232</v>
+      </c>
+      <c r="K62" t="s">
         <v>258</v>
-      </c>
-      <c r="I62" t="s">
-        <v>233</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>274</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
       <c r="R62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="23">
-        <v>42283</v>
-      </c>
-      <c r="C63" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E63">
-        <v>2023</v>
+        <v>69</v>
+      </c>
+      <c r="B63" s="12">
+        <v>44377</v>
       </c>
       <c r="H63" t="s">
-        <v>50</v>
-      </c>
-      <c r="K63" t="s">
-        <v>259</v>
-      </c>
-      <c r="N63" t="s">
-        <v>285</v>
+        <v>258</v>
+      </c>
+      <c r="I63" t="s">
+        <v>233</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
       </c>
       <c r="R63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="21">
-        <v>42326</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
+      <c r="B64" s="23">
+        <v>42283</v>
+      </c>
+      <c r="C64" t="s">
+        <v>49</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E64">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="H64" t="s">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="K64" t="s">
         <v>259</v>
       </c>
       <c r="N64" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="R64" t="s">
-        <v>189</v>
-      </c>
-      <c r="S64" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="10">
-        <v>42996</v>
+      <c r="B65" s="21">
+        <v>42326</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E65">
         <v>2025</v>
@@ -6002,24 +5990,27 @@
         <v>259</v>
       </c>
       <c r="N65" t="s">
-        <v>52</v>
+        <v>328</v>
       </c>
       <c r="R65" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+      <c r="S65" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="23">
-        <v>43105</v>
+      <c r="B66" s="10">
+        <v>42996</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E66">
         <v>2025</v>
@@ -6030,123 +6021,153 @@
       <c r="K66" t="s">
         <v>259</v>
       </c>
-      <c r="L66" s="13" t="s">
-        <v>426</v>
-      </c>
       <c r="N66" t="s">
-        <v>331</v>
+        <v>52</v>
       </c>
       <c r="R66" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="21">
-        <v>44179</v>
+      <c r="B67" s="23">
+        <v>43105</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E67">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H67" t="s">
         <v>258</v>
       </c>
-      <c r="K67" s="13" t="s">
-        <v>270</v>
+      <c r="K67" t="s">
+        <v>259</v>
       </c>
       <c r="L67" s="13" t="s">
-        <v>271</v>
+        <v>426</v>
       </c>
       <c r="N67" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="R67" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="12">
-        <v>44377</v>
+      <c r="B68" s="21">
+        <v>44179</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E68">
+        <v>2024</v>
       </c>
       <c r="H68" t="s">
         <v>258</v>
       </c>
-      <c r="I68" t="s">
+      <c r="K68" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="N68" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>335</v>
+      </c>
+      <c r="R68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="12">
+        <v>44377</v>
+      </c>
+      <c r="H69" t="s">
+        <v>258</v>
+      </c>
+      <c r="I69" t="s">
         <v>234</v>
       </c>
-      <c r="K68" s="13" t="s">
+      <c r="K69" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="N68">
+      <c r="N69">
         <v>0</v>
       </c>
-      <c r="R68" t="s">
+      <c r="R69" t="s">
         <v>193</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S1" xr:uid="{D2CCC5DF-E81D-45C6-92D8-92AE6A0AD22C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S68">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S69">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="R34" r:id="rId1" display="https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16" xr:uid="{505B5FEE-A6F5-47CB-9917-E30704A91A4C}"/>
+    <hyperlink ref="R35" r:id="rId1" display="https://global-factiva-com.gate3.library.lse.ac.uk/en/du/headlines.asp?napc=S&amp;searchText=(italy+or+italia)+and+(coal+or+lignite+or+carbone)+and+(202*+or+203*+or+204*)&amp;exclude=Recurring&amp;dateRangeMenu=custom&amp;dateFormat=dmy&amp;dateFrom=14102017&amp;dateTo=04112017&amp;sortBy=o&amp;currentSources=U%7csfreut%2csfeuac%2csfansa&amp;currentSourcesDesc=sc_u_sfreut%2cReuters+-+All+sources%3bsc_u_sfeuac%2cEurActiv+-+All+sources%3bsc_u_sfansa%2cANSA+-+All+sources&amp;searchLanguage=custom&amp;searchLang=&amp;dedupe=1&amp;srchuiver=2&amp;accountid=9LON003400&amp;namespace=16" xr:uid="{505B5FEE-A6F5-47CB-9917-E30704A91A4C}"/>
     <hyperlink ref="K6" r:id="rId2" display="https://ec.europa.eu/clima/news-your-voice/news/update-preparatory-steps-auctioning-phase-3-allowances-2011-11-25_en" xr:uid="{E0BDB423-56EA-44F0-A54A-0F5B4F2A2147}"/>
     <hyperlink ref="L6" r:id="rId3" display="https://ec.europa.eu/clima/news-your-voice/news/enhancing-eu-rules-monitoring-greenhouse-gas-emissions-2011-11-23_en" xr:uid="{9BD80364-5CA2-43DB-B2CC-0E03E8DA4A0C}"/>
     <hyperlink ref="K7" r:id="rId4" display="https://ec.europa.eu/clima/news-your-voice/news/european-commission-adopts-carbon-leakage-list-period-2015-2019-2014-10-27_en" xr:uid="{A6A17CE0-740F-4D5D-B313-5A7D344A91EA}"/>
     <hyperlink ref="L7" r:id="rId5" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2014-11-04_en" xr:uid="{8247D59B-1565-4720-B464-3B76D4306051}"/>
-    <hyperlink ref="K34" r:id="rId6" display="https://ec.europa.eu/clima/news-your-voice/news/commission-proposes-safeguard-measures-eu-emissions-trading-system-2017-10-24_en" xr:uid="{0DD0FCDC-28E2-41DE-B6F4-45CBD31C5107}"/>
-    <hyperlink ref="K35" r:id="rId7" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2017-11-06_en" xr:uid="{13CCF2E4-4BEB-447B-B73C-69BAB51FDDF4}"/>
-    <hyperlink ref="L35" r:id="rId8" display="https://ec.europa.eu/clima/news-your-voice/news/eu-emissions-trading-system-landmark-agreement-between-parliament-and-council-delivers-eus-2017-11-09_en" xr:uid="{454861F8-3E39-4C29-A4AA-465B15683294}"/>
-    <hyperlink ref="K39" r:id="rId9" display="https://ec.europa.eu/clima/news-your-voice/news/ets-market-stability-reserve-will-start-reducing-auction-volume-almost-265-million-allowances-over-2018-05-15_en" xr:uid="{C721078D-42C8-4E8F-A645-8D1BD1241E6C}"/>
-    <hyperlink ref="K58" r:id="rId10" display="https://ec.europa.eu/clima/news-your-voice/news/emissions-trading-commission-adopts-amendment-ets-auctioning-regulation-2018-10-30_en" xr:uid="{1DA6063C-C717-4DBA-BA11-FA42D50774A1}"/>
-    <hyperlink ref="K60" r:id="rId11" display="https://ec.europa.eu/clima/news-your-voice/news/towards-climate-neutral-europe-eu-invests-over-eu10bn-innovative-clean-technologies-2019-02-26_en" xr:uid="{507015DA-B303-49DD-BE42-8DA9AF07D7DC}"/>
+    <hyperlink ref="K35" r:id="rId6" display="https://ec.europa.eu/clima/news-your-voice/news/commission-proposes-safeguard-measures-eu-emissions-trading-system-2017-10-24_en" xr:uid="{0DD0FCDC-28E2-41DE-B6F4-45CBD31C5107}"/>
+    <hyperlink ref="K36" r:id="rId7" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2017-11-06_en" xr:uid="{13CCF2E4-4BEB-447B-B73C-69BAB51FDDF4}"/>
+    <hyperlink ref="L36" r:id="rId8" display="https://ec.europa.eu/clima/news-your-voice/news/eu-emissions-trading-system-landmark-agreement-between-parliament-and-council-delivers-eus-2017-11-09_en" xr:uid="{454861F8-3E39-4C29-A4AA-465B15683294}"/>
+    <hyperlink ref="K40" r:id="rId9" display="https://ec.europa.eu/clima/news-your-voice/news/ets-market-stability-reserve-will-start-reducing-auction-volume-almost-265-million-allowances-over-2018-05-15_en" xr:uid="{C721078D-42C8-4E8F-A645-8D1BD1241E6C}"/>
+    <hyperlink ref="K59" r:id="rId10" display="https://ec.europa.eu/clima/news-your-voice/news/emissions-trading-commission-adopts-amendment-ets-auctioning-regulation-2018-10-30_en" xr:uid="{1DA6063C-C717-4DBA-BA11-FA42D50774A1}"/>
+    <hyperlink ref="K61" r:id="rId11" display="https://ec.europa.eu/clima/news-your-voice/news/towards-climate-neutral-europe-eu-invests-over-eu10bn-innovative-clean-technologies-2019-02-26_en" xr:uid="{507015DA-B303-49DD-BE42-8DA9AF07D7DC}"/>
     <hyperlink ref="K14" r:id="rId12" display="https://ec.europa.eu/clima/news-your-voice/news/towards-climate-neutral-europe-eu-invests-over-eu10bn-innovative-clean-technologies-2019-02-26_en" xr:uid="{F695F6A8-94CC-4324-881A-6C6ADE693EA0}"/>
-    <hyperlink ref="K53" r:id="rId13" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2019-06-19_en" xr:uid="{A71B360B-E82C-443B-A0BC-C4F1B76F9882}"/>
-    <hyperlink ref="L53" r:id="rId14" display="https://ec.europa.eu/clima/news-your-voice/news/polands-2020-auction-volume-include-allowances-not-used-power-sector-modernisation-2019-06-12_en" xr:uid="{415A5C0B-1796-4A12-9A96-39DA2523F414}"/>
-    <hyperlink ref="K45" r:id="rId15" display="https://ec.europa.eu/clima/news-your-voice/news/adoption-regulation-adjustments-free-allocation-emission-allowances-due-activity-level-changes-2019-10-31_en" xr:uid="{F8C2477A-A966-4A33-B989-ABEB3FD073BF}"/>
-    <hyperlink ref="K22" r:id="rId16" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-status-update-new-entrants-reserve-2020-01-15_en" xr:uid="{ABCA4C5C-168F-4911-A05E-3E193BB0607F}"/>
-    <hyperlink ref="K23" r:id="rId17" display="https://ec.europa.eu/clima/news-your-voice/news/2020-revised-auction-calendars-published-2020-07-01_en" xr:uid="{9D566DF6-E071-4458-A5B6-59D0E48FBF3A}"/>
+    <hyperlink ref="K54" r:id="rId13" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credit-use-eu-ets-2019-06-19_en" xr:uid="{A71B360B-E82C-443B-A0BC-C4F1B76F9882}"/>
+    <hyperlink ref="L54" r:id="rId14" display="https://ec.europa.eu/clima/news-your-voice/news/polands-2020-auction-volume-include-allowances-not-used-power-sector-modernisation-2019-06-12_en" xr:uid="{415A5C0B-1796-4A12-9A96-39DA2523F414}"/>
+    <hyperlink ref="K46" r:id="rId15" display="https://ec.europa.eu/clima/news-your-voice/news/adoption-regulation-adjustments-free-allocation-emission-allowances-due-activity-level-changes-2019-10-31_en" xr:uid="{F8C2477A-A966-4A33-B989-ABEB3FD073BF}"/>
+    <hyperlink ref="K23" r:id="rId16" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-status-update-new-entrants-reserve-2020-01-15_en" xr:uid="{ABCA4C5C-168F-4911-A05E-3E193BB0607F}"/>
+    <hyperlink ref="K24" r:id="rId17" display="https://ec.europa.eu/clima/news-your-voice/news/2020-revised-auction-calendars-published-2020-07-01_en" xr:uid="{9D566DF6-E071-4458-A5B6-59D0E48FBF3A}"/>
     <hyperlink ref="K4" r:id="rId18" display="https://ec.europa.eu/clima/news-your-voice/news/draft-implementing-regulation-determining-revised-benchmark-values-period-2021-2025-open-4-week-2020-12-08_en" xr:uid="{19E0304F-6616-473B-A894-D0B7F9DBC892}"/>
-    <hyperlink ref="K67" r:id="rId19" display="https://ec.europa.eu/clima/news-your-voice/news/draft-implementing-regulation-determining-revised-benchmark-values-period-2021-2025-open-4-week-2020-12-08_en" xr:uid="{658F0735-A061-4C52-B67E-F6B04D42BB54}"/>
-    <hyperlink ref="L67" r:id="rId20" display="https://ec.europa.eu/clima/news-your-voice/news/further-information-start-phase-4-eu-ets-2021-emission-allowances-be-issued-aircraft-operators-and-2020-12-11_en" xr:uid="{687C8CA1-0617-4C04-B1E2-3A6EE9FA542A}"/>
-    <hyperlink ref="K46" r:id="rId21" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credits-use-eu-ets-2021-05-25_en" xr:uid="{786141D5-4E60-47E5-868D-0BC2E5D732A1}"/>
-    <hyperlink ref="L46" r:id="rId22" display="https://ec.europa.eu/clima/news-your-voice/news/commission-adopts-uniform-cross-sectoral-correction-factor-be-applied-free-allocation-2021-2025-eu-2021-05-31_en" xr:uid="{727E1C4B-1C90-4B4F-B840-392DA92B4D85}"/>
-    <hyperlink ref="K47" r:id="rId23" display="https://ec.europa.eu/clima/news-your-voice/news/commission-adopts-uniform-cross-sectoral-correction-factor-be-applied-free-allocation-2021-2025-eu-2021-05-31_en" xr:uid="{229EEBB8-9D9F-4092-B53F-78A789BC03EF}"/>
-    <hyperlink ref="K62" r:id="rId24" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-national-allocation-tables-member-states-eu-ets-stationary-installations-2021-06-29_en" xr:uid="{89D453DE-89FB-4B15-9C24-8E5340DED0FD}"/>
-    <hyperlink ref="K68" r:id="rId25" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-national-allocation-tables-member-states-eu-ets-stationary-installations-2021-06-29_en" xr:uid="{E19D2B34-612B-4770-9952-A0724072D571}"/>
-    <hyperlink ref="K25" r:id="rId26" display="https://ec.europa.eu/clima/news-your-voice/news/revised-2022-auction-calendar-general-allowances-published-2022-05-19_en" xr:uid="{D6A0CCD9-573F-4ABD-A090-B97A1BD04FAE}"/>
-    <hyperlink ref="L25" r:id="rId27" display="https://ec.europa.eu/commission/presscorner/detail/en/ip_22_3131" xr:uid="{EBAADABC-FD35-40D8-894F-A1A7B431C0BC}"/>
+    <hyperlink ref="K68" r:id="rId19" display="https://ec.europa.eu/clima/news-your-voice/news/draft-implementing-regulation-determining-revised-benchmark-values-period-2021-2025-open-4-week-2020-12-08_en" xr:uid="{658F0735-A061-4C52-B67E-F6B04D42BB54}"/>
+    <hyperlink ref="L68" r:id="rId20" display="https://ec.europa.eu/clima/news-your-voice/news/further-information-start-phase-4-eu-ets-2021-emission-allowances-be-issued-aircraft-operators-and-2020-12-11_en" xr:uid="{687C8CA1-0617-4C04-B1E2-3A6EE9FA542A}"/>
+    <hyperlink ref="K47" r:id="rId21" display="https://ec.europa.eu/clima/news-your-voice/news/updated-information-exchange-and-international-credits-use-eu-ets-2021-05-25_en" xr:uid="{786141D5-4E60-47E5-868D-0BC2E5D732A1}"/>
+    <hyperlink ref="L47" r:id="rId22" display="https://ec.europa.eu/clima/news-your-voice/news/commission-adopts-uniform-cross-sectoral-correction-factor-be-applied-free-allocation-2021-2025-eu-2021-05-31_en" xr:uid="{727E1C4B-1C90-4B4F-B840-392DA92B4D85}"/>
+    <hyperlink ref="K48" r:id="rId23" display="https://ec.europa.eu/clima/news-your-voice/news/commission-adopts-uniform-cross-sectoral-correction-factor-be-applied-free-allocation-2021-2025-eu-2021-05-31_en" xr:uid="{229EEBB8-9D9F-4092-B53F-78A789BC03EF}"/>
+    <hyperlink ref="K63" r:id="rId24" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-national-allocation-tables-member-states-eu-ets-stationary-installations-2021-06-29_en" xr:uid="{89D453DE-89FB-4B15-9C24-8E5340DED0FD}"/>
+    <hyperlink ref="K69" r:id="rId25" display="https://ec.europa.eu/clima/news-your-voice/news/commission-publishes-national-allocation-tables-member-states-eu-ets-stationary-installations-2021-06-29_en" xr:uid="{E19D2B34-612B-4770-9952-A0724072D571}"/>
+    <hyperlink ref="K26" r:id="rId26" display="https://ec.europa.eu/clima/news-your-voice/news/revised-2022-auction-calendar-general-allowances-published-2022-05-19_en" xr:uid="{D6A0CCD9-573F-4ABD-A090-B97A1BD04FAE}"/>
+    <hyperlink ref="L26" r:id="rId27" display="https://ec.europa.eu/commission/presscorner/detail/en/ip_22_3131" xr:uid="{EBAADABC-FD35-40D8-894F-A1A7B431C0BC}"/>
     <hyperlink ref="L4" r:id="rId28" display="https://ec.europa.eu/clima/news-your-voice/news/further-information-start-phase-4-eu-ets-2021-emission-allowances-be-issued-aircraft-operators-and-2020-12-11_en" xr:uid="{EDEA86E0-E622-447C-A19C-FB5362C65735}"/>
     <hyperlink ref="M7" r:id="rId29" display="https://ec.europa.eu/clima/news-your-voice/news/eu-leaders-agree-2030-climate-and-energy-goals-2014-10-24_en" xr:uid="{091C0239-D1B9-4526-BD63-97C9DEA7A648}"/>
-    <hyperlink ref="L23" r:id="rId30" display="https://ec.europa.eu/clima/news-your-voice/news/financing-energy-transition-commission-puts-eu14-billion-fund-modernise-energy-sectors-10-member-2020-07-09_en" xr:uid="{5B8F9CC5-B7D3-4BC4-A650-352814C687BC}"/>
-    <hyperlink ref="M23" r:id="rId31" display="https://ec.europa.eu/clima/news-your-voice/news/boosting-eus-green-recovery-commission-invests-eu-1-billion-innovative-clean-technology-projects-2020-07-03_en" xr:uid="{C0A7BD83-7044-4ED1-818F-46B46744F552}"/>
-    <hyperlink ref="L24" r:id="rId32" display="https://ec.europa.eu/commission/presscorner/detail/en/ip_21_6042" xr:uid="{8854F8D5-0532-4F0E-91C7-60C67286654D}"/>
-    <hyperlink ref="L38" r:id="rId33" display="https://ec.europa.eu/clima/news-your-voice/news/eu-member-states-agree-negotiating-position-key-2030-climate-policy-proposals-2017-10-13_en" xr:uid="{70D0D58B-B7F9-45A6-A335-5B8700139411}"/>
-    <hyperlink ref="K40" r:id="rId34" display="https://ec.europa.eu/clima/news-your-voice/news/member-states-emission-reduction-targets-2021-2030-adopted-2018-05-14_en" xr:uid="{26A50BE7-AD06-4B9A-9645-E4391F452CFF}"/>
-    <hyperlink ref="L39" r:id="rId35" display="https://ec.europa.eu/clima/news-your-voice/news/ets-market-stability-reserve-will-start-reducing-auction-volume-almost-265-million-allowances-over-2018-05-15_en" xr:uid="{C9572FEA-0976-472B-AAEC-D5F85E2EE313}"/>
-    <hyperlink ref="K44" r:id="rId36" display="https://ec.europa.eu/clima/news-your-voice/news/eu-and-switzerland-sign-agreement-link-emissions-trading-systems-2017-11-23_en" xr:uid="{D1F584D8-A9E6-4830-B87A-59072962FBDE}"/>
-    <hyperlink ref="L44" r:id="rId37" display="https://ec.europa.eu/clima/news-your-voice/news/un-climate-conference-makes-progress-paris-agreement-implementation-2017-11-18_en" xr:uid="{BEFA94A6-DDF4-4E95-A6FA-BCD766336BF9}"/>
-    <hyperlink ref="M44" r:id="rId38" display="https://ec.europa.eu/clima/news-your-voice/news/eu-emissions-trading-system-landmark-agreement-between-parliament-and-council-delivers-eus-2017-11-09_en" xr:uid="{BE6B9B42-B032-4671-BCB8-5AD6B033B4BC}"/>
-    <hyperlink ref="L66" r:id="rId39" display="https://ec.europa.eu/clima/news-your-voice/news/update-safeguard-measures-eu-emissions-trading-system-2018-following-adoption-uk-law-2018-01-08_en" xr:uid="{60C5A314-1D7C-4699-9335-84B9B95C6199}"/>
+    <hyperlink ref="L24" r:id="rId30" display="https://ec.europa.eu/clima/news-your-voice/news/financing-energy-transition-commission-puts-eu14-billion-fund-modernise-energy-sectors-10-member-2020-07-09_en" xr:uid="{5B8F9CC5-B7D3-4BC4-A650-352814C687BC}"/>
+    <hyperlink ref="M24" r:id="rId31" display="https://ec.europa.eu/clima/news-your-voice/news/boosting-eus-green-recovery-commission-invests-eu-1-billion-innovative-clean-technology-projects-2020-07-03_en" xr:uid="{C0A7BD83-7044-4ED1-818F-46B46744F552}"/>
+    <hyperlink ref="L25" r:id="rId32" display="https://ec.europa.eu/commission/presscorner/detail/en/ip_21_6042" xr:uid="{8854F8D5-0532-4F0E-91C7-60C67286654D}"/>
+    <hyperlink ref="L39" r:id="rId33" display="https://ec.europa.eu/clima/news-your-voice/news/eu-member-states-agree-negotiating-position-key-2030-climate-policy-proposals-2017-10-13_en" xr:uid="{70D0D58B-B7F9-45A6-A335-5B8700139411}"/>
+    <hyperlink ref="K41" r:id="rId34" display="https://ec.europa.eu/clima/news-your-voice/news/member-states-emission-reduction-targets-2021-2030-adopted-2018-05-14_en" xr:uid="{26A50BE7-AD06-4B9A-9645-E4391F452CFF}"/>
+    <hyperlink ref="L40" r:id="rId35" display="https://ec.europa.eu/clima/news-your-voice/news/ets-market-stability-reserve-will-start-reducing-auction-volume-almost-265-million-allowances-over-2018-05-15_en" xr:uid="{C9572FEA-0976-472B-AAEC-D5F85E2EE313}"/>
+    <hyperlink ref="K45" r:id="rId36" display="https://ec.europa.eu/clima/news-your-voice/news/eu-and-switzerland-sign-agreement-link-emissions-trading-systems-2017-11-23_en" xr:uid="{D1F584D8-A9E6-4830-B87A-59072962FBDE}"/>
+    <hyperlink ref="L45" r:id="rId37" display="https://ec.europa.eu/clima/news-your-voice/news/un-climate-conference-makes-progress-paris-agreement-implementation-2017-11-18_en" xr:uid="{BEFA94A6-DDF4-4E95-A6FA-BCD766336BF9}"/>
+    <hyperlink ref="M45" r:id="rId38" display="https://ec.europa.eu/clima/news-your-voice/news/eu-emissions-trading-system-landmark-agreement-between-parliament-and-council-delivers-eus-2017-11-09_en" xr:uid="{BE6B9B42-B032-4671-BCB8-5AD6B033B4BC}"/>
+    <hyperlink ref="L67" r:id="rId39" display="https://ec.europa.eu/clima/news-your-voice/news/update-safeguard-measures-eu-emissions-trading-system-2018-following-adoption-uk-law-2018-01-08_en" xr:uid="{60C5A314-1D7C-4699-9335-84B9B95C6199}"/>
+    <hyperlink ref="K21" r:id="rId40" display="https://ec.europa.eu/clima/news-your-voice/news/five-beneficiary-member-states-opt-transfer-additional-allowances-modernisation-fund-2019-11-08_en" xr:uid="{140E77F1-1C6A-42DC-AF8B-5C47B20828C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
 
